--- a/Results/Model_Analysis.xlsx
+++ b/Results/Model_Analysis.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Desktop\01Autonomous_Vehicles_Research\00Thesis\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85218D0C-C875-4DF7-974F-ECE2FF9EED8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9468A9B5-D8F8-42D0-8C22-8FF2DE9A65DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="21">
   <si>
     <t>Model</t>
   </si>
@@ -83,12 +83,18 @@
   <si>
     <t>Total Difference</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Average</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +116,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -119,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -142,14 +156,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,22 +494,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AA24" sqref="AA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="3" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="12" max="12" width="10.109375" customWidth="1"/>
     <col min="13" max="13" width="18.6640625" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" customWidth="1"/>
+    <col min="25" max="25" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,8 +552,41 @@
       <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -526,8 +626,50 @@
       <c r="M2" s="2">
         <v>305.492409710093</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>E5</f>
+        <v>367.18956679377101</v>
+      </c>
+      <c r="R2" s="2">
+        <f t="shared" ref="R2:Y2" si="0">F5</f>
+        <v>0.6556492625164988</v>
+      </c>
+      <c r="S2" s="2">
+        <f t="shared" si="0"/>
+        <v>0.62945579912498928</v>
+      </c>
+      <c r="T2" s="2">
+        <f t="shared" si="0"/>
+        <v>0.55495181256883397</v>
+      </c>
+      <c r="U2" s="2">
+        <f t="shared" si="0"/>
+        <v>25.547793618574236</v>
+      </c>
+      <c r="V2" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11070375128271874</v>
+      </c>
+      <c r="W2" s="2">
+        <f t="shared" si="0"/>
+        <v>384.79837399486041</v>
+      </c>
+      <c r="X2" s="2">
+        <f t="shared" si="0"/>
+        <v>0.77770651090318077</v>
+      </c>
+      <c r="Y2" s="2">
+        <f t="shared" si="0"/>
+        <v>367.18956679377101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -567,8 +709,50 @@
       <c r="M3" s="2">
         <v>118.481892898843</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>E10</f>
+        <v>214.71557153383665</v>
+      </c>
+      <c r="R3" s="2">
+        <f t="shared" ref="R3:Y3" si="1">F10</f>
+        <v>0.28003990870250622</v>
+      </c>
+      <c r="S3" s="2">
+        <f t="shared" si="1"/>
+        <v>0.47263579594587402</v>
+      </c>
+      <c r="T3" s="2">
+        <f t="shared" si="1"/>
+        <v>0.36327940323608904</v>
+      </c>
+      <c r="U3" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4575641553764784</v>
+      </c>
+      <c r="V3" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16783744476480314</v>
+      </c>
+      <c r="W3" s="2">
+        <f t="shared" si="1"/>
+        <v>119.54853129157205</v>
+      </c>
+      <c r="X3" s="2">
+        <f t="shared" si="1"/>
+        <v>0.32006144316351964</v>
+      </c>
+      <c r="Y3" s="2">
+        <f t="shared" si="1"/>
+        <v>214.71557153383665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -608,90 +792,193 @@
       <c r="M4" s="2">
         <v>677.59439777237696</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="O4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>E16</f>
+        <v>107.54472776739135</v>
+      </c>
+      <c r="R4" s="2">
+        <f t="shared" ref="R4:Y4" si="2">F16</f>
+        <v>18.990594140551121</v>
+      </c>
+      <c r="S4" s="2">
+        <f t="shared" si="2"/>
+        <v>2.2569177029583769</v>
+      </c>
+      <c r="T4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.5560004238669457</v>
+      </c>
+      <c r="U4" s="2">
+        <f t="shared" si="2"/>
+        <v>21.771239342500404</v>
+      </c>
+      <c r="V4" s="2">
+        <f t="shared" si="2"/>
+        <v>9.2366635485227333E-2</v>
+      </c>
+      <c r="W4" s="2">
+        <f t="shared" si="2"/>
+        <v>4043.3728961514335</v>
+      </c>
+      <c r="X4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.68212620583395711</v>
+      </c>
+      <c r="Y4" s="2">
+        <f t="shared" si="2"/>
+        <v>107.54472776739135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="3">
+        <f>AVERAGE(E2:E4)</f>
+        <v>367.18956679377101</v>
+      </c>
+      <c r="F5" s="3">
+        <f>AVERAGE(F2:F4)</f>
+        <v>0.6556492625164988</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" ref="G5:M5" si="3">AVERAGE(G2:G4)</f>
+        <v>0.62945579912498928</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="3"/>
+        <v>0.55495181256883397</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="3"/>
+        <v>25.547793618574236</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="3"/>
+        <v>0.11070375128271874</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="3"/>
+        <v>384.79837399486041</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="3"/>
+        <v>0.77770651090318077</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="3"/>
+        <v>367.18956679377101</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>E21</f>
+        <v>294.83922401114938</v>
+      </c>
+      <c r="R5" s="2">
+        <f t="shared" ref="R5:Y5" si="4">F21</f>
+        <v>0.40268563150320075</v>
+      </c>
+      <c r="S5" s="2">
+        <f t="shared" si="4"/>
+        <v>0.5099631232466697</v>
+      </c>
+      <c r="T5" s="2">
+        <f t="shared" si="4"/>
+        <v>0.42850104887735235</v>
+      </c>
+      <c r="U5" s="2">
+        <f t="shared" si="4"/>
+        <v>23.365672473199567</v>
+      </c>
+      <c r="V5" s="2">
+        <f t="shared" si="4"/>
+        <v>8.8298729960432434E-2</v>
+      </c>
+      <c r="W5" s="2">
+        <f t="shared" si="4"/>
+        <v>244.90157111474659</v>
+      </c>
+      <c r="X5" s="2">
+        <f t="shared" si="4"/>
+        <v>0.86444195165420956</v>
+      </c>
+      <c r="Y5" s="2">
+        <f t="shared" si="4"/>
+        <v>294.83922401114938</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="O6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>317.63583418196401</v>
-      </c>
-      <c r="F5" s="2">
-        <v>6.8505681344226702E-2</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.26173589999124403</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.21203994271159099</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.79865011029076505</v>
-      </c>
-      <c r="J5" s="2">
-        <v>5.0625899418035601E-2</v>
-      </c>
-      <c r="K5" s="2">
-        <v>102.621510653651</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0.96475374084322896</v>
-      </c>
-      <c r="M5" s="2">
-        <v>317.63583418196401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2">
-        <v>174.922867401372</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.64849950186363303</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.80529466772333302</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.60318230138404105</v>
-      </c>
-      <c r="I6" s="2">
-        <v>2.2304161302316601</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.378072613954616</v>
-      </c>
-      <c r="K6" s="2">
-        <v>188.06485554045301</v>
-      </c>
-      <c r="L6" s="2">
-        <v>-0.92268830085165099</v>
-      </c>
-      <c r="M6" s="2">
-        <v>174.922867401372</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q6" s="2">
+        <f>E26</f>
+        <v>239.838588937032</v>
+      </c>
+      <c r="R6" s="2">
+        <f t="shared" ref="R6:Y6" si="5">F26</f>
+        <v>0.54725963738798844</v>
+      </c>
+      <c r="S6" s="2">
+        <f t="shared" si="5"/>
+        <v>0.605114766793307</v>
+      </c>
+      <c r="T6" s="2">
+        <f t="shared" si="5"/>
+        <v>0.45106143856569797</v>
+      </c>
+      <c r="U6" s="2">
+        <f t="shared" si="5"/>
+        <v>1.7850433305725264</v>
+      </c>
+      <c r="V6" s="2">
+        <f t="shared" si="5"/>
+        <v>0.23020885798238935</v>
+      </c>
+      <c r="W6" s="2">
+        <f t="shared" si="5"/>
+        <v>196.60128855458296</v>
+      </c>
+      <c r="X6" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.47296155363793796</v>
+      </c>
+      <c r="Y6" s="2">
+        <f t="shared" si="5"/>
+        <v>239.838588937032</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -699,488 +986,736 @@
         <v>4</v>
       </c>
       <c r="C7" s="2">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>317.63583418196401</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6.8505681344226702E-2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.26173589999124403</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.21203994271159099</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.79865011029076505</v>
+      </c>
+      <c r="J7" s="2">
+        <v>5.0625899418035601E-2</v>
+      </c>
+      <c r="K7" s="2">
+        <v>102.621510653651</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.96475374084322896</v>
+      </c>
+      <c r="M7" s="2">
+        <v>317.63583418196401</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="2">
+        <f>E32</f>
+        <v>123.31900595953945</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" ref="R7:Y7" si="6">F32</f>
+        <v>19.255959591887141</v>
+      </c>
+      <c r="S7" s="2">
+        <f t="shared" si="6"/>
+        <v>2.3125784013713306</v>
+      </c>
+      <c r="T7" s="2">
+        <f t="shared" si="6"/>
+        <v>0.65676433051167704</v>
+      </c>
+      <c r="U7" s="2">
+        <f t="shared" si="6"/>
+        <v>42.035678736405572</v>
+      </c>
+      <c r="V7" s="2">
+        <f t="shared" si="6"/>
+        <v>0.16234546040925302</v>
+      </c>
+      <c r="W7" s="2">
+        <f t="shared" si="6"/>
+        <v>4097.9695449810424</v>
+      </c>
+      <c r="X7" s="2">
+        <f t="shared" si="6"/>
+        <v>0.46538329618131491</v>
+      </c>
+      <c r="Y7" s="2">
+        <f t="shared" si="6"/>
+        <v>123.31900595953945</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2">
+        <v>174.922867401372</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.64849950186363303</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.80529466772333302</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.60318230138404105</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2.2304161302316601</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.378072613954616</v>
+      </c>
+      <c r="K8" s="2">
+        <v>188.06485554045301</v>
+      </c>
+      <c r="L8" s="2">
+        <v>-0.92268830085165099</v>
+      </c>
+      <c r="M8" s="2">
+        <v>174.922867401372</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="2">
+        <f>E37</f>
+        <v>468.65575758667728</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" ref="R8:Y8" si="7">F37</f>
+        <v>2.4736787942808065</v>
+      </c>
+      <c r="S8" s="2">
+        <f t="shared" si="7"/>
+        <v>1.1126627568663274</v>
+      </c>
+      <c r="T8" s="2">
+        <f t="shared" si="7"/>
+        <v>0.72174252451938636</v>
+      </c>
+      <c r="U8" s="2">
+        <f t="shared" si="7"/>
+        <v>56.785760173723283</v>
+      </c>
+      <c r="V8" s="2">
+        <f t="shared" si="7"/>
+        <v>0.20102344184724555</v>
+      </c>
+      <c r="W8" s="2">
+        <f t="shared" si="7"/>
+        <v>1381.4714481325927</v>
+      </c>
+      <c r="X8" s="2">
+        <f t="shared" si="7"/>
+        <v>0.15849516802335994</v>
+      </c>
+      <c r="Y8" s="2">
+        <f t="shared" si="7"/>
+        <v>468.65575758667728</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
         <v>40</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D9" s="2">
         <v>9</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E9" s="2">
         <v>151.588013018174</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F9" s="2">
         <v>0.12311454289965899</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G9" s="2">
         <v>0.350876820123045</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H9" s="2">
         <v>0.27461596561263502</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I9" s="2">
         <v>1.3436262256070099</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J9" s="2">
         <v>7.4813820921757895E-2</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K9" s="2">
         <v>67.959227680612102</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L9" s="2">
         <v>0.91811888949898102</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M9" s="2">
         <v>151.588013018174</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="O9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="2">
+        <f>E42</f>
+        <v>214.56234704803299</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" ref="R9:Y9" si="8">F42</f>
+        <v>0.19511963118038433</v>
+      </c>
+      <c r="S9" s="2">
+        <f t="shared" si="8"/>
+        <v>0.42086108406590933</v>
+      </c>
+      <c r="T9" s="2">
+        <f t="shared" si="8"/>
+        <v>0.34053949247954435</v>
+      </c>
+      <c r="U9" s="2">
+        <f t="shared" si="8"/>
+        <v>1.3875085341573137</v>
+      </c>
+      <c r="V9" s="2">
+        <f t="shared" si="8"/>
+        <v>0.13956685494792001</v>
+      </c>
+      <c r="W9" s="2">
+        <f t="shared" si="8"/>
+        <v>102.56221892545916</v>
+      </c>
+      <c r="X9" s="2">
+        <f t="shared" si="8"/>
+        <v>0.59306660050556126</v>
+      </c>
+      <c r="Y9" s="2">
+        <f t="shared" si="8"/>
+        <v>214.56234704803299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="3">
+        <f>AVERAGE(E7:E9)</f>
+        <v>214.71557153383665</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" ref="F10:M10" si="9">AVERAGE(F7:F9)</f>
+        <v>0.28003990870250622</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="9"/>
+        <v>0.47263579594587402</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="9"/>
+        <v>0.36327940323608904</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="9"/>
+        <v>1.4575641553764784</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="9"/>
+        <v>0.16783744476480314</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="9"/>
+        <v>119.54853129157205</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="9"/>
+        <v>0.32006144316351964</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="9"/>
+        <v>214.71557153383665</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2">
+      <c r="Q10" s="2">
+        <f>E48</f>
+        <v>110.55067152523561</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" ref="R10:Y10" si="10">F48</f>
+        <v>19.601298014287153</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" si="10"/>
+        <v>2.4346371370662943</v>
+      </c>
+      <c r="T10" s="2">
+        <f t="shared" si="10"/>
+        <v>0.67346027544119558</v>
+      </c>
+      <c r="U10" s="2">
+        <f t="shared" si="10"/>
+        <v>90.755147422459032</v>
+      </c>
+      <c r="V10" s="2">
+        <f t="shared" si="10"/>
+        <v>0.2969391297790413</v>
+      </c>
+      <c r="W10" s="2">
+        <f t="shared" si="10"/>
+        <v>4159.8814953051915</v>
+      </c>
+      <c r="X10" s="2">
+        <f t="shared" si="10"/>
+        <v>-0.96489455523585466</v>
+      </c>
+      <c r="Y10" s="2">
+        <f t="shared" si="10"/>
+        <v>110.55067152523561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="O11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="2">
+        <f>E53</f>
+        <v>409.36008549481835</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" ref="R11:Y11" si="11">F53</f>
+        <v>1.2360592700689201</v>
+      </c>
+      <c r="S11" s="2">
+        <f t="shared" si="11"/>
+        <v>0.81235632134818925</v>
+      </c>
+      <c r="T11" s="2">
+        <f t="shared" si="11"/>
+        <v>0.62946672376015966</v>
+      </c>
+      <c r="U11" s="2">
+        <f t="shared" si="11"/>
+        <v>40.860767147659523</v>
+      </c>
+      <c r="V11" s="2">
+        <f t="shared" si="11"/>
+        <v>0.14460932422411651</v>
+      </c>
+      <c r="W11" s="2">
+        <f t="shared" si="11"/>
+        <v>701.65944622449842</v>
+      </c>
+      <c r="X11" s="2">
+        <f t="shared" si="11"/>
+        <v>0.58125767165485231</v>
+      </c>
+      <c r="Y11" s="2">
+        <f t="shared" si="11"/>
+        <v>409.36008549481835</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
         <v>2</v>
       </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
         <v>5.0286406612737098</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F12" s="2">
         <v>2.40035570585461E-2</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G12" s="2">
         <v>0.154930813780042</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H12" s="2">
         <v>0.119729539554136</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I12" s="2">
         <v>9.2950126402106097</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J12" s="2">
         <v>3.5291757125294303E-2</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K12" s="2">
         <v>1.0081493964589301</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L12" s="2">
         <v>0.983560920696117</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M12" s="2">
         <v>5.0286406612737098</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="O12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="2">
+        <f>E58</f>
+        <v>191.16977630748298</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" ref="R12:Y12" si="12">F58</f>
+        <v>0.1680766216590838</v>
+      </c>
+      <c r="S12" s="2">
+        <f t="shared" si="12"/>
+        <v>0.38729100354190399</v>
+      </c>
+      <c r="T12" s="2">
+        <f t="shared" si="12"/>
+        <v>0.31463094704877764</v>
+      </c>
+      <c r="U12" s="2">
+        <f t="shared" si="12"/>
+        <v>1.2884826766777995</v>
+      </c>
+      <c r="V12" s="2">
+        <f t="shared" si="12"/>
+        <v>0.12930744277187406</v>
+      </c>
+      <c r="W12" s="2">
+        <f t="shared" si="12"/>
+        <v>83.148670627197063</v>
+      </c>
+      <c r="X12" s="2">
+        <f t="shared" si="12"/>
+        <v>0.64584397361352364</v>
+      </c>
+      <c r="Y12" s="2">
+        <f t="shared" si="12"/>
+        <v>191.16977630748298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C13" s="2">
         <v>3568</v>
       </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
         <v>422.049509984829</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F13" s="2">
         <v>75.925698622714606</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G13" s="2">
         <v>8.7135353687647701</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H13" s="2">
         <v>1.98145309852032</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I13" s="2">
         <v>36.181405982261602</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J13" s="2">
         <v>7.9706690164332003E-2</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K13" s="2">
         <v>16172.1738066382</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L13" s="2">
         <v>2.0219324917574101E-3</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M13" s="2">
         <v>422.049509984829</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="O13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2">
+      <c r="Q13" s="2">
+        <f>E64</f>
+        <v>123.6285751399338</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" ref="R13:Y13" si="13">F64</f>
+        <v>18.76326816571013</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" si="13"/>
+        <v>2.2872552117043981</v>
+      </c>
+      <c r="T13" s="2">
+        <f t="shared" si="13"/>
+        <v>0.66365564267318566</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" si="13"/>
+        <v>39.0803037505598</v>
+      </c>
+      <c r="V13" s="2">
+        <f t="shared" si="13"/>
+        <v>0.10004115057687993</v>
+      </c>
+      <c r="W13" s="2">
+        <f t="shared" si="13"/>
+        <v>3991.3215389198695</v>
+      </c>
+      <c r="X13" s="2">
+        <f t="shared" si="13"/>
+        <v>0.59871293012017013</v>
+      </c>
+      <c r="Y13" s="2">
+        <f t="shared" si="13"/>
+        <v>123.6285751399338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
         <v>4000</v>
       </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
         <v>2.9274677692314799</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F14" s="2">
         <v>6.4667958043174599E-3</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G14" s="2">
         <v>8.0416390147266995E-2</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H14" s="2">
         <v>6.5054839316255095E-2</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I14" s="2">
         <v>36.471883887855697</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J14" s="2">
         <v>0.105811039667456</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K14" s="2">
         <v>0.29100581119428498</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L14" s="2">
         <v>0.86034164152891801</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M14" s="2">
         <v>2.9274677692314799</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C15" s="2">
         <v>4008</v>
       </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
         <v>0.17329265423121401</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F15" s="2">
         <v>6.2075866270069197E-3</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G15" s="2">
         <v>7.8788239141428407E-2</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H15" s="2">
         <v>5.7764218077071598E-2</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I15" s="2">
         <v>5.13665485967371</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J15" s="2">
         <v>0.148657054983827</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K15" s="2">
         <v>1.86227598810207E-2</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L15" s="2">
         <v>0.88258032861903601</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M15" s="2">
         <v>0.17329265423121401</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>5366</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>299.866888253311</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.13446298752154301</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.366691951809067</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.28103738355511798</v>
-      </c>
-      <c r="I12" s="2">
-        <v>26.440676032904602</v>
-      </c>
-      <c r="J12" s="2">
-        <v>4.5551795255784698E-2</v>
-      </c>
-      <c r="K12" s="2">
-        <v>143.47200768548601</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0.96206398858168696</v>
-      </c>
-      <c r="M12" s="2">
-        <v>299.866888253311</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2">
-        <v>195</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>98.4955951154313</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1.8501590182059199E-2</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.13602055058725199</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.112437893967387</v>
-      </c>
-      <c r="I13" s="2">
-        <v>4.7051647211957999</v>
-      </c>
-      <c r="J13" s="2">
-        <v>2.91264562285336E-2</v>
-      </c>
-      <c r="K13" s="2">
-        <v>16.207392999483801</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0.98790418692190796</v>
-      </c>
-      <c r="M13" s="2">
-        <v>98.4955951154313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2">
-        <v>286</v>
-      </c>
-      <c r="D14" s="2">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2">
-        <v>486.15518866470597</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1.055092316806</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1.0271768673436901</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.89202786910955201</v>
-      </c>
-      <c r="I14" s="2">
-        <v>38.951176665498302</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0.19021793839697901</v>
-      </c>
-      <c r="K14" s="2">
-        <v>575.02531265926996</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0.64335767945903399</v>
-      </c>
-      <c r="M14" s="2">
-        <v>486.15518866470597</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
-        <v>315.90170111818202</v>
-      </c>
-      <c r="F15" s="2">
-        <v>6.7362182163658496E-2</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.25954225506390699</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.210882310492778</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.79858433326153899</v>
-      </c>
-      <c r="J15" s="2">
-        <v>5.0201596724159997E-2</v>
-      </c>
-      <c r="K15" s="2">
-        <v>100.90854888116</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0.96534207260890204</v>
-      </c>
-      <c r="M15" s="2">
-        <v>315.90170111818202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2">
-        <v>12</v>
-      </c>
-      <c r="D16" s="2">
-        <v>7</v>
-      </c>
-      <c r="E16" s="2">
-        <v>251.189411992983</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1.4510790770136699</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1.2046074368912301</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.86617038618270104</v>
-      </c>
-      <c r="I16" s="2">
-        <v>3.2048115805955901</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0.56554339760151895</v>
-      </c>
-      <c r="K16" s="2">
-        <v>420.81293233396502</v>
-      </c>
-      <c r="L16" s="2">
-        <v>-3.3021972368013901</v>
-      </c>
-      <c r="M16" s="2">
-        <v>251.189411992983</v>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="3">
+        <f>AVERAGE(E12:E15)</f>
+        <v>107.54472776739135</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" ref="F16:M16" si="14">AVERAGE(F12:F15)</f>
+        <v>18.990594140551121</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="14"/>
+        <v>2.2569177029583769</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="14"/>
+        <v>0.5560004238669457</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="14"/>
+        <v>21.771239342500404</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="14"/>
+        <v>9.2366635485227333E-2</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="14"/>
+        <v>4043.3728961514335</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="14"/>
+        <v>0.68212620583395711</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="14"/>
+        <v>107.54472776739135</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>40</v>
-      </c>
-      <c r="D17" s="2">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2">
-        <v>152.42465369993101</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.123337652986637</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.351194608424784</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0.27613161902161498</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1.3517340778604501</v>
-      </c>
-      <c r="J17" s="2">
-        <v>7.48815796214891E-2</v>
-      </c>
-      <c r="K17" s="2">
-        <v>68.082384448623898</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0.91797050327867402</v>
-      </c>
-      <c r="M17" s="2">
-        <v>152.42465369993101</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2">
-        <v>2</v>
+        <v>5366</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
       </c>
       <c r="E18" s="2">
-        <v>4.68008429920582</v>
+        <v>299.866888253311</v>
       </c>
       <c r="F18" s="2">
-        <v>2.1404922892580398E-2</v>
+        <v>0.13446298752154301</v>
       </c>
       <c r="G18" s="2">
-        <v>0.146304213516154</v>
+        <v>0.366691951809067</v>
       </c>
       <c r="H18" s="2">
-        <v>0.11143057855251901</v>
+        <v>0.28103738355511798</v>
       </c>
       <c r="I18" s="2">
-        <v>8.9154341334331804</v>
+        <v>26.440676032904602</v>
       </c>
       <c r="J18" s="2">
-        <v>3.3326700117574999E-2</v>
+        <v>4.5551795255784698E-2</v>
       </c>
       <c r="K18" s="2">
-        <v>0.89900676148837899</v>
+        <v>143.47200768548601</v>
       </c>
       <c r="L18" s="2">
-        <v>0.98534062163926905</v>
+        <v>0.96206398858168696</v>
       </c>
       <c r="M18" s="2">
-        <v>4.68008429920582</v>
+        <v>299.866888253311</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1188,40 +1723,40 @@
         <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2">
-        <v>3568</v>
+        <v>195</v>
       </c>
       <c r="D19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="2">
-        <v>481.79506490133002</v>
+        <v>98.4955951154313</v>
       </c>
       <c r="F19" s="2">
-        <v>76.947200437540602</v>
+        <v>1.8501590182059199E-2</v>
       </c>
       <c r="G19" s="2">
-        <v>8.7719553371834103</v>
+        <v>0.13602055058725199</v>
       </c>
       <c r="H19" s="2">
-        <v>2.26194866150859</v>
+        <v>0.112437893967387</v>
       </c>
       <c r="I19" s="2">
-        <v>40.912850179288199</v>
+        <v>4.7051647211957999</v>
       </c>
       <c r="J19" s="2">
-        <v>8.0241084313788999E-2</v>
+        <v>2.91264562285336E-2</v>
       </c>
       <c r="K19" s="2">
-        <v>16389.7536931961</v>
+        <v>16.207392999483801</v>
       </c>
       <c r="L19" s="2">
-        <v>-1.14048311154095E-2</v>
+        <v>0.98790418692190796</v>
       </c>
       <c r="M19" s="2">
-        <v>481.79506490133002</v>
+        <v>98.4955951154313</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1229,332 +1764,286 @@
         <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C20" s="2">
-        <v>4000</v>
+        <v>286</v>
       </c>
       <c r="D20" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20" s="2">
-        <v>6.4712575624984003</v>
+        <v>486.15518866470597</v>
       </c>
       <c r="F20" s="2">
-        <v>2.52328796485039E-2</v>
+        <v>1.055092316806</v>
       </c>
       <c r="G20" s="2">
-        <v>0.15884860606408799</v>
+        <v>1.0271768673436901</v>
       </c>
       <c r="H20" s="2">
-        <v>0.14380572361107499</v>
+        <v>0.89202786910955201</v>
       </c>
       <c r="I20" s="2">
-        <v>83.620386974922496</v>
+        <v>38.951176665498302</v>
       </c>
       <c r="J20" s="2">
-        <v>0.20901132376853701</v>
+        <v>0.19021793839697901</v>
       </c>
       <c r="K20" s="2">
-        <v>1.1354795841826799</v>
+        <v>575.02531265926996</v>
       </c>
       <c r="L20" s="2">
-        <v>0.45506512686612</v>
+        <v>0.64335767945903399</v>
       </c>
       <c r="M20" s="2">
-        <v>6.4712575624984003</v>
+        <v>486.15518866470597</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2">
-        <v>4008</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.32961707512357402</v>
-      </c>
-      <c r="F21" s="2">
-        <v>3.0000127466874801E-2</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0.17320544872166899</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0.109872358374524</v>
-      </c>
-      <c r="I21" s="2">
-        <v>34.694043657978398</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0.32680273343711103</v>
-      </c>
-      <c r="K21" s="2">
-        <v>9.0000382400624399E-2</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0.43253226733528</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0.32961707512357402</v>
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="3">
+        <f>AVERAGE(E18:E20)</f>
+        <v>294.83922401114938</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" ref="F21:L21" si="15">AVERAGE(F18:F20)</f>
+        <v>0.40268563150320075</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="15"/>
+        <v>0.5099631232466697</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="15"/>
+        <v>0.42850104887735235</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="15"/>
+        <v>23.365672473199567</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="15"/>
+        <v>8.8298729960432434E-2</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="15"/>
+        <v>244.90157111474659</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="15"/>
+        <v>0.86444195165420956</v>
+      </c>
+      <c r="M21" s="3">
+        <f>AVERAGE(M18:M20)</f>
+        <v>294.83922401114938</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2">
-        <v>5366</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <v>312.65865944830398</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0.143162252680302</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0.37836788008537697</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0.29302592263196198</v>
-      </c>
-      <c r="I22" s="2">
-        <v>27.6140856427069</v>
-      </c>
-      <c r="J22" s="2">
-        <v>4.7002221128618203E-2</v>
-      </c>
-      <c r="K22" s="2">
-        <v>152.75412360988199</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0.95960966692428196</v>
-      </c>
-      <c r="M22" s="2">
-        <v>312.65865944830398</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="2">
-        <v>195</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="2">
-        <v>193.087108990595</v>
+        <v>315.90170111818202</v>
       </c>
       <c r="F23" s="2">
-        <v>7.6189788065087402E-2</v>
+        <v>6.7362182163658496E-2</v>
       </c>
       <c r="G23" s="2">
-        <v>0.27602497724859498</v>
+        <v>0.25954225506390699</v>
       </c>
       <c r="H23" s="2">
-        <v>0.22041907419017701</v>
+        <v>0.210882310492778</v>
       </c>
       <c r="I23" s="2">
-        <v>9.1473730940209705</v>
+        <v>0.79858433326153899</v>
       </c>
       <c r="J23" s="2">
-        <v>5.9105990845523503E-2</v>
+        <v>5.0201596724159997E-2</v>
       </c>
       <c r="K23" s="2">
-        <v>66.742254345016505</v>
+        <v>100.90854888116</v>
       </c>
       <c r="L23" s="2">
-        <v>0.95018928503840805</v>
+        <v>0.96534207260890204</v>
       </c>
       <c r="M23" s="2">
-        <v>193.087108990595</v>
+        <v>315.90170111818202</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2">
         <v>7</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="2">
-        <v>286</v>
-      </c>
-      <c r="D24" s="2">
-        <v>3</v>
-      </c>
       <c r="E24" s="2">
-        <v>900.22150432113301</v>
+        <v>251.189411992983</v>
       </c>
       <c r="F24" s="2">
-        <v>7.20168434209703</v>
+        <v>1.4510790770136699</v>
       </c>
       <c r="G24" s="2">
-        <v>2.6835954132650102</v>
+        <v>1.2046074368912301</v>
       </c>
       <c r="H24" s="2">
-        <v>1.6517825767360199</v>
+        <v>0.86617038618270104</v>
       </c>
       <c r="I24" s="2">
-        <v>133.59582178444199</v>
+        <v>3.2048115805955901</v>
       </c>
       <c r="J24" s="2">
-        <v>0.49696211356759501</v>
+        <v>0.56554339760151895</v>
       </c>
       <c r="K24" s="2">
-        <v>3924.9179664428798</v>
+        <v>420.81293233396502</v>
       </c>
       <c r="L24" s="2">
-        <v>-1.4343134478926101</v>
+        <v>-3.3021972368013901</v>
       </c>
       <c r="M24" s="2">
-        <v>900.22150432113301</v>
+        <v>251.189411992983</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="2">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D25" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E25" s="2">
-        <v>336.72910019355101</v>
+        <v>152.42465369993101</v>
       </c>
       <c r="F25" s="2">
-        <v>8.5371072840877998E-2</v>
+        <v>0.123337652986637</v>
       </c>
       <c r="G25" s="2">
-        <v>0.29218328638181501</v>
+        <v>0.351194608424784</v>
       </c>
       <c r="H25" s="2">
-        <v>0.224785781170595</v>
+        <v>0.27613161902161498</v>
       </c>
       <c r="I25" s="2">
-        <v>0.84781396347035098</v>
+        <v>1.3517340778604501</v>
       </c>
       <c r="J25" s="2">
-        <v>5.6515142433619901E-2</v>
+        <v>7.48815796214891E-2</v>
       </c>
       <c r="K25" s="2">
-        <v>127.88586711563499</v>
+        <v>68.082384448623898</v>
       </c>
       <c r="L25" s="2">
-        <v>0.95607647571999899</v>
+        <v>0.91797050327867402</v>
       </c>
       <c r="M25" s="2">
-        <v>336.72910019355101</v>
+        <v>152.42465369993101</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="2">
-        <v>12</v>
-      </c>
-      <c r="D26" s="2">
-        <v>7</v>
-      </c>
-      <c r="E26" s="2">
-        <v>147.09608833178899</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0.36714689834278402</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0.60592647932136501</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0.507227890799272</v>
-      </c>
-      <c r="I26" s="2">
-        <v>1.89943117073413</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0.28447252550298702</v>
-      </c>
-      <c r="K26" s="2">
-        <v>106.472600519407</v>
-      </c>
-      <c r="L26" s="2">
-        <v>-8.8526736117802998E-2</v>
-      </c>
-      <c r="M26" s="2">
-        <v>147.09608833178899</v>
+      <c r="A26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="3">
+        <f>AVERAGE(E23:E25)</f>
+        <v>239.838588937032</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" ref="F26:M26" si="16">AVERAGE(F23:F25)</f>
+        <v>0.54725963738798844</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="16"/>
+        <v>0.605114766793307</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="16"/>
+        <v>0.45106143856569797</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="16"/>
+        <v>1.7850433305725264</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" si="16"/>
+        <v>0.23020885798238935</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="16"/>
+        <v>196.60128855458296</v>
+      </c>
+      <c r="L26" s="3">
+        <f>AVERAGE(L23:L25)</f>
+        <v>-0.47296155363793796</v>
+      </c>
+      <c r="M26" s="3">
+        <f t="shared" si="16"/>
+        <v>239.838588937032</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="2">
-        <v>40</v>
-      </c>
-      <c r="D27" s="2">
-        <v>9</v>
-      </c>
-      <c r="E27" s="2">
-        <v>159.861852618759</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0.13284092235749101</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0.36447348649454803</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0.28960480546876599</v>
-      </c>
-      <c r="I27" s="2">
-        <v>1.41528046826746</v>
-      </c>
-      <c r="J27" s="2">
-        <v>7.7712896907153106E-2</v>
-      </c>
-      <c r="K27" s="2">
-        <v>73.3281891413355</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0.91165006191448805</v>
-      </c>
-      <c r="M27" s="2">
-        <v>159.861852618759</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>5</v>
@@ -1566,36 +2055,36 @@
         <v>1</v>
       </c>
       <c r="E28" s="2">
-        <v>5.66352511461292</v>
+        <v>4.68008429920582</v>
       </c>
       <c r="F28" s="2">
-        <v>3.16057108612545E-2</v>
+        <v>2.1404922892580398E-2</v>
       </c>
       <c r="G28" s="2">
-        <v>0.17777995067288799</v>
+        <v>0.146304213516154</v>
       </c>
       <c r="H28" s="2">
-        <v>0.13484583606221201</v>
+        <v>0.11143057855251901</v>
       </c>
       <c r="I28" s="2">
-        <v>11.740069309216601</v>
+        <v>8.9154341334331804</v>
       </c>
       <c r="J28" s="2">
-        <v>4.0496571907263697E-2</v>
+        <v>3.3326700117574999E-2</v>
       </c>
       <c r="K28" s="2">
-        <v>1.3274398561726799</v>
+        <v>0.89900676148837899</v>
       </c>
       <c r="L28" s="2">
-        <v>0.97835450862401396</v>
+        <v>0.98534062163926905</v>
       </c>
       <c r="M28" s="2">
-        <v>5.66352511461292</v>
+        <v>4.68008429920582</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>5</v>
@@ -1607,36 +2096,36 @@
         <v>1</v>
       </c>
       <c r="E29" s="2">
-        <v>415.79740022527699</v>
+        <v>481.79506490133002</v>
       </c>
       <c r="F29" s="2">
-        <v>78.053453354149696</v>
+        <v>76.947200437540602</v>
       </c>
       <c r="G29" s="2">
-        <v>8.8347865483071892</v>
+        <v>8.7719553371834103</v>
       </c>
       <c r="H29" s="2">
-        <v>1.9521004705412</v>
+        <v>2.26194866150859</v>
       </c>
       <c r="I29" s="2">
-        <v>33.811328289810803</v>
+        <v>40.912850179288199</v>
       </c>
       <c r="J29" s="2">
-        <v>8.0815830116238496E-2</v>
+        <v>8.0241084313788999E-2</v>
       </c>
       <c r="K29" s="2">
-        <v>16625.385564433898</v>
+        <v>16389.7536931961</v>
       </c>
       <c r="L29" s="2">
-        <v>-2.59455751311998E-2</v>
+        <v>-1.14048311154095E-2</v>
       </c>
       <c r="M29" s="2">
-        <v>415.79740022527699</v>
+        <v>481.79506490133002</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>5</v>
@@ -1648,36 +2137,36 @@
         <v>1</v>
       </c>
       <c r="E30" s="2">
-        <v>20.2725818309662</v>
+        <v>6.4712575624984003</v>
       </c>
       <c r="F30" s="2">
-        <v>0.28220423700668401</v>
+        <v>2.52328796485039E-2</v>
       </c>
       <c r="G30" s="2">
-        <v>0.531228987355438</v>
+        <v>0.15884860606408799</v>
       </c>
       <c r="H30" s="2">
-        <v>0.45050181846591603</v>
+        <v>0.14380572361107499</v>
       </c>
       <c r="I30" s="2">
-        <v>285.17526233754302</v>
+        <v>83.620386974922496</v>
       </c>
       <c r="J30" s="2">
-        <v>0.69898550967820805</v>
+        <v>0.20901132376853701</v>
       </c>
       <c r="K30" s="2">
-        <v>12.6991906653007</v>
+        <v>1.1354795841826799</v>
       </c>
       <c r="L30" s="2">
-        <v>-5.0945453802058704</v>
+        <v>0.45506512686612</v>
       </c>
       <c r="M30" s="2">
-        <v>20.2725818309662</v>
+        <v>6.4712575624984003</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>5</v>
@@ -1689,444 +2178,1266 @@
         <v>1</v>
       </c>
       <c r="E31" s="2">
-        <v>0.46917893008636202</v>
+        <v>0.32961707512357402</v>
       </c>
       <c r="F31" s="2">
-        <v>3.7928755130978403E-2</v>
+        <v>3.0000127466874801E-2</v>
       </c>
       <c r="G31" s="2">
-        <v>0.19475306192966099</v>
+        <v>0.17320544872166899</v>
       </c>
       <c r="H31" s="2">
-        <v>0.15639297669545399</v>
+        <v>0.109872358374524</v>
       </c>
       <c r="I31" s="2">
-        <v>32.293929753265701</v>
+        <v>34.694043657978398</v>
       </c>
       <c r="J31" s="2">
-        <v>0.36745860741445502</v>
+        <v>0.32680273343711103</v>
       </c>
       <c r="K31" s="2">
-        <v>0.113786265392935</v>
+        <v>9.0000382400624399E-2</v>
       </c>
       <c r="L31" s="2">
-        <v>0.28255822576963802</v>
+        <v>0.43253226733528</v>
       </c>
       <c r="M31" s="2">
-        <v>0.46917893008636202</v>
+        <v>0.32961707512357402</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="2">
-        <v>5366</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2">
-        <v>308.78585972785402</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0.13968236817823901</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0.37374104427830701</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0.28939630714887898</v>
-      </c>
-      <c r="I32" s="2">
-        <v>28.882437985695599</v>
-      </c>
-      <c r="J32" s="2">
-        <v>4.6427458916559798E-2</v>
-      </c>
-      <c r="K32" s="2">
-        <v>149.041086846181</v>
-      </c>
-      <c r="L32" s="2">
-        <v>0.96059144593007295</v>
-      </c>
-      <c r="M32" s="2">
-        <v>308.78585972785402</v>
+      <c r="A32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="3">
+        <f>AVERAGE(E28:E31)</f>
+        <v>123.31900595953945</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" ref="F32:M32" si="17">AVERAGE(F28:F31)</f>
+        <v>19.255959591887141</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="17"/>
+        <v>2.3125784013713306</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="17"/>
+        <v>0.65676433051167704</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="17"/>
+        <v>42.035678736405572</v>
+      </c>
+      <c r="J32" s="3">
+        <f t="shared" si="17"/>
+        <v>0.16234546040925302</v>
+      </c>
+      <c r="K32" s="3">
+        <f t="shared" si="17"/>
+        <v>4097.9695449810424</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="17"/>
+        <v>0.46538329618131491</v>
+      </c>
+      <c r="M32" s="3">
+        <f t="shared" si="17"/>
+        <v>123.31900595953945</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="2">
-        <v>195</v>
-      </c>
-      <c r="D33" s="2">
-        <v>2</v>
-      </c>
-      <c r="E33" s="2">
-        <v>126.60261856517801</v>
-      </c>
-      <c r="F33" s="2">
-        <v>3.3556603993281399E-2</v>
-      </c>
-      <c r="G33" s="2">
-        <v>0.183184617239771</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0.14452353717486</v>
-      </c>
-      <c r="I33" s="2">
-        <v>6.63133123822917</v>
-      </c>
-      <c r="J33" s="2">
-        <v>3.92258281027347E-2</v>
-      </c>
-      <c r="K33" s="2">
-        <v>29.395585098114498</v>
-      </c>
-      <c r="L33" s="2">
-        <v>0.97806164738034895</v>
-      </c>
-      <c r="M33" s="2">
-        <v>126.60261856517801</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="2">
-        <v>286</v>
+        <v>5366</v>
       </c>
       <c r="D34" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E34" s="2">
-        <v>792.69177819142305</v>
+        <v>312.65865944830398</v>
       </c>
       <c r="F34" s="2">
-        <v>3.5349388380352398</v>
+        <v>0.143162252680302</v>
       </c>
       <c r="G34" s="2">
-        <v>1.88014330252649</v>
+        <v>0.37836788008537697</v>
       </c>
       <c r="H34" s="2">
-        <v>1.4544803269567399</v>
+        <v>0.29302592263196198</v>
       </c>
       <c r="I34" s="2">
-        <v>87.068532219053793</v>
+        <v>27.6140856427069</v>
       </c>
       <c r="J34" s="2">
-        <v>0.34817468565305498</v>
+        <v>4.7002221128618203E-2</v>
       </c>
       <c r="K34" s="2">
-        <v>1926.5416667292</v>
+        <v>152.75412360988199</v>
       </c>
       <c r="L34" s="2">
-        <v>-0.19488007834586499</v>
+        <v>0.95960966692428196</v>
       </c>
       <c r="M34" s="2">
-        <v>792.69177819142305</v>
+        <v>312.65865944830398</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" s="2">
-        <v>8</v>
+        <v>195</v>
       </c>
       <c r="D35" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="2">
-        <v>281.46652318825602</v>
+        <v>193.087108990595</v>
       </c>
       <c r="F35" s="2">
-        <v>5.8080856837809398E-2</v>
+        <v>7.6189788065087402E-2</v>
       </c>
       <c r="G35" s="2">
-        <v>0.240999702982824</v>
+        <v>0.27602497724859498</v>
       </c>
       <c r="H35" s="2">
-        <v>0.18789487529256099</v>
+        <v>0.22041907419017701</v>
       </c>
       <c r="I35" s="2">
-        <v>0.70883398259232899</v>
+        <v>9.1473730940209705</v>
       </c>
       <c r="J35" s="2">
-        <v>4.6615029590488202E-2</v>
+        <v>5.9105990845523503E-2</v>
       </c>
       <c r="K35" s="2">
-        <v>87.005123543038493</v>
+        <v>66.742254345016505</v>
       </c>
       <c r="L35" s="2">
-        <v>0.97011732615479995</v>
+        <v>0.95018928503840805</v>
       </c>
       <c r="M35" s="2">
-        <v>281.46652318825602</v>
+        <v>193.087108990595</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" s="2">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="D36" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E36" s="2">
-        <v>138.65549889677601</v>
+        <v>900.22150432113301</v>
       </c>
       <c r="F36" s="2">
-        <v>0.31997467234511201</v>
+        <v>7.20168434209703</v>
       </c>
       <c r="G36" s="2">
-        <v>0.56566303781059601</v>
+        <v>2.6835954132650102</v>
       </c>
       <c r="H36" s="2">
-        <v>0.478122409988885</v>
+        <v>1.6517825767360199</v>
       </c>
       <c r="I36" s="2">
-        <v>1.7972385301014999</v>
+        <v>133.59582178444199</v>
       </c>
       <c r="J36" s="2">
-        <v>0.265569501319528</v>
+        <v>0.49696211356759501</v>
       </c>
       <c r="K36" s="2">
-        <v>92.792654980082602</v>
+        <v>3924.9179664428798</v>
       </c>
       <c r="L36" s="2">
-        <v>5.1330714489654899E-2</v>
+        <v>-1.4343134478926101</v>
       </c>
       <c r="M36" s="2">
-        <v>138.65549889677601</v>
+        <v>900.22150432113301</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="2">
-        <v>40</v>
-      </c>
-      <c r="D37" s="2">
-        <v>9</v>
-      </c>
-      <c r="E37" s="2">
-        <v>153.38730683741699</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0.12617433579432999</v>
-      </c>
-      <c r="G37" s="2">
-        <v>0.35521026983229198</v>
-      </c>
-      <c r="H37" s="2">
-        <v>0.27787555586488699</v>
-      </c>
-      <c r="I37" s="2">
-        <v>1.3593755173395701</v>
-      </c>
-      <c r="J37" s="2">
-        <v>7.5737797405606003E-2</v>
-      </c>
-      <c r="K37" s="2">
-        <v>69.648233358470094</v>
-      </c>
-      <c r="L37" s="2">
-        <v>0.91608388019611597</v>
-      </c>
-      <c r="M37" s="2">
-        <v>153.38730683741699</v>
+      <c r="A37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="3">
+        <f>AVERAGE(E34:E36)</f>
+        <v>468.65575758667728</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" ref="F37:M37" si="18">AVERAGE(F34:F36)</f>
+        <v>2.4736787942808065</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="18"/>
+        <v>1.1126627568663274</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" si="18"/>
+        <v>0.72174252451938636</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="18"/>
+        <v>56.785760173723283</v>
+      </c>
+      <c r="J37" s="3">
+        <f t="shared" si="18"/>
+        <v>0.20102344184724555</v>
+      </c>
+      <c r="K37" s="3">
+        <f t="shared" si="18"/>
+        <v>1381.4714481325927</v>
+      </c>
+      <c r="L37" s="3">
+        <f t="shared" si="18"/>
+        <v>0.15849516802335994</v>
+      </c>
+      <c r="M37" s="3">
+        <f t="shared" si="18"/>
+        <v>468.65575758667728</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="2">
-        <v>2</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2">
-        <v>11.4313503237824</v>
-      </c>
-      <c r="F38" s="2">
-        <v>9.7564293113167402E-2</v>
-      </c>
-      <c r="G38" s="2">
-        <v>0.31235283432869199</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0.27217500770910402</v>
-      </c>
-      <c r="I38" s="2">
-        <v>25.119572413032198</v>
-      </c>
-      <c r="J38" s="2">
-        <v>7.1150987318608694E-2</v>
-      </c>
-      <c r="K38" s="2">
-        <v>4.0977003107530301</v>
-      </c>
-      <c r="L38" s="2">
-        <v>0.93318210514372302</v>
-      </c>
-      <c r="M38" s="2">
-        <v>11.4313503237824</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39" s="2">
-        <v>3568</v>
+        <v>8</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
       </c>
       <c r="E39" s="2">
-        <v>477.22981888191202</v>
+        <v>336.72910019355101</v>
       </c>
       <c r="F39" s="2">
-        <v>74.929823255737205</v>
+        <v>8.5371072840877998E-2</v>
       </c>
       <c r="G39" s="2">
-        <v>8.6562014334081407</v>
+        <v>0.29218328638181501</v>
       </c>
       <c r="H39" s="2">
-        <v>2.2405155816052198</v>
+        <v>0.224785781170595</v>
       </c>
       <c r="I39" s="2">
-        <v>40.152091667607699</v>
+        <v>0.84781396347035098</v>
       </c>
       <c r="J39" s="2">
-        <v>7.9182230455617897E-2</v>
+        <v>5.6515142433619901E-2</v>
       </c>
       <c r="K39" s="2">
-        <v>15960.052353472</v>
+        <v>127.88586711563499</v>
       </c>
       <c r="L39" s="2">
-        <v>1.5111858462064301E-2</v>
+        <v>0.95607647571999899</v>
       </c>
       <c r="M39" s="2">
-        <v>477.22981888191202</v>
+        <v>336.72910019355101</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40" s="2">
-        <v>4000</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E40" s="2">
-        <v>5.8150022248987598</v>
+        <v>147.09608833178899</v>
       </c>
       <c r="F40" s="2">
-        <v>2.5215394160843799E-2</v>
+        <v>0.36714689834278402</v>
       </c>
       <c r="G40" s="2">
-        <v>0.15879355831029099</v>
+        <v>0.60592647932136501</v>
       </c>
       <c r="H40" s="2">
-        <v>0.12922227166441599</v>
+        <v>0.507227890799272</v>
       </c>
       <c r="I40" s="2">
-        <v>90.980356395536802</v>
+        <v>1.89943117073413</v>
       </c>
       <c r="J40" s="2">
-        <v>0.208938892513541</v>
+        <v>0.28447252550298702</v>
       </c>
       <c r="K40" s="2">
-        <v>1.13469273723797</v>
+        <v>106.472600519407</v>
       </c>
       <c r="L40" s="2">
-        <v>0.45544274734117002</v>
+        <v>-8.8526736117802998E-2</v>
       </c>
       <c r="M40" s="2">
-        <v>5.8150022248987598</v>
+        <v>147.09608833178899</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="2">
+        <v>40</v>
+      </c>
+      <c r="D41" s="2">
+        <v>9</v>
+      </c>
+      <c r="E41" s="2">
+        <v>159.861852618759</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.13284092235749101</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.36447348649454803</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.28960480546876599</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1.41528046826746</v>
+      </c>
+      <c r="J41" s="2">
+        <v>7.7712896907153106E-2</v>
+      </c>
+      <c r="K41" s="2">
+        <v>73.3281891413355</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0.91165006191448805</v>
+      </c>
+      <c r="M41" s="2">
+        <v>159.861852618759</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="3">
+        <f>AVERAGE(E39:E41)</f>
+        <v>214.56234704803299</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" ref="F42:M42" si="19">AVERAGE(F39:F41)</f>
+        <v>0.19511963118038433</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="19"/>
+        <v>0.42086108406590933</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="19"/>
+        <v>0.34053949247954435</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="19"/>
+        <v>1.3875085341573137</v>
+      </c>
+      <c r="J42" s="3">
+        <f t="shared" si="19"/>
+        <v>0.13956685494792001</v>
+      </c>
+      <c r="K42" s="3">
+        <f t="shared" si="19"/>
+        <v>102.56221892545916</v>
+      </c>
+      <c r="L42" s="3">
+        <f t="shared" si="19"/>
+        <v>0.59306660050556126</v>
+      </c>
+      <c r="M42" s="3">
+        <f t="shared" si="19"/>
+        <v>214.56234704803299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C44" s="2">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>5.66352511461292</v>
+      </c>
+      <c r="F44" s="2">
+        <v>3.16057108612545E-2</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0.17777995067288799</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0.13484583606221201</v>
+      </c>
+      <c r="I44" s="2">
+        <v>11.740069309216601</v>
+      </c>
+      <c r="J44" s="2">
+        <v>4.0496571907263697E-2</v>
+      </c>
+      <c r="K44" s="2">
+        <v>1.3274398561726799</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0.97835450862401396</v>
+      </c>
+      <c r="M44" s="2">
+        <v>5.66352511461292</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="2">
+        <v>3568</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2">
+        <v>415.79740022527699</v>
+      </c>
+      <c r="F45" s="2">
+        <v>78.053453354149696</v>
+      </c>
+      <c r="G45" s="2">
+        <v>8.8347865483071892</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1.9521004705412</v>
+      </c>
+      <c r="I45" s="2">
+        <v>33.811328289810803</v>
+      </c>
+      <c r="J45" s="2">
+        <v>8.0815830116238496E-2</v>
+      </c>
+      <c r="K45" s="2">
+        <v>16625.385564433898</v>
+      </c>
+      <c r="L45" s="2">
+        <v>-2.59455751311998E-2</v>
+      </c>
+      <c r="M45" s="2">
+        <v>415.79740022527699</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="2">
+        <v>4000</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2">
+        <v>20.2725818309662</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0.28220423700668401</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0.531228987355438</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0.45050181846591603</v>
+      </c>
+      <c r="I46" s="2">
+        <v>285.17526233754302</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0.69898550967820805</v>
+      </c>
+      <c r="K46" s="2">
+        <v>12.6991906653007</v>
+      </c>
+      <c r="L46" s="2">
+        <v>-5.0945453802058704</v>
+      </c>
+      <c r="M46" s="2">
+        <v>20.2725818309662</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="2">
         <v>4008</v>
       </c>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2">
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.46917893008636202</v>
+      </c>
+      <c r="F47" s="2">
+        <v>3.7928755130978403E-2</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.19475306192966099</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0.15639297669545399</v>
+      </c>
+      <c r="I47" s="2">
+        <v>32.293929753265701</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0.36745860741445502</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0.113786265392935</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0.28255822576963802</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0.46917893008636202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="3">
+        <f>AVERAGE(E44:E47)</f>
+        <v>110.55067152523561</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" ref="F48:M48" si="20">AVERAGE(F44:F47)</f>
+        <v>19.601298014287153</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="20"/>
+        <v>2.4346371370662943</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" si="20"/>
+        <v>0.67346027544119558</v>
+      </c>
+      <c r="I48" s="3">
+        <f t="shared" si="20"/>
+        <v>90.755147422459032</v>
+      </c>
+      <c r="J48" s="3">
+        <f t="shared" si="20"/>
+        <v>0.2969391297790413</v>
+      </c>
+      <c r="K48" s="3">
+        <f t="shared" si="20"/>
+        <v>4159.8814953051915</v>
+      </c>
+      <c r="L48" s="3">
+        <f t="shared" si="20"/>
+        <v>-0.96489455523585466</v>
+      </c>
+      <c r="M48" s="3">
+        <f t="shared" si="20"/>
+        <v>110.55067152523561</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="2">
+        <v>5366</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2">
+        <v>308.78585972785402</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0.13968236817823901</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0.37374104427830701</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0.28939630714887898</v>
+      </c>
+      <c r="I50" s="2">
+        <v>28.882437985695599</v>
+      </c>
+      <c r="J50" s="2">
+        <v>4.6427458916559798E-2</v>
+      </c>
+      <c r="K50" s="2">
+        <v>149.041086846181</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0.96059144593007295</v>
+      </c>
+      <c r="M50" s="2">
+        <v>308.78585972785402</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="2">
+        <v>195</v>
+      </c>
+      <c r="D51" s="2">
+        <v>2</v>
+      </c>
+      <c r="E51" s="2">
+        <v>126.60261856517801</v>
+      </c>
+      <c r="F51" s="2">
+        <v>3.3556603993281399E-2</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0.183184617239771</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0.14452353717486</v>
+      </c>
+      <c r="I51" s="2">
+        <v>6.63133123822917</v>
+      </c>
+      <c r="J51" s="2">
+        <v>3.92258281027347E-2</v>
+      </c>
+      <c r="K51" s="2">
+        <v>29.395585098114498</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0.97806164738034895</v>
+      </c>
+      <c r="M51" s="2">
+        <v>126.60261856517801</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="2">
+        <v>286</v>
+      </c>
+      <c r="D52" s="2">
+        <v>3</v>
+      </c>
+      <c r="E52" s="2">
+        <v>792.69177819142305</v>
+      </c>
+      <c r="F52" s="2">
+        <v>3.5349388380352398</v>
+      </c>
+      <c r="G52" s="2">
+        <v>1.88014330252649</v>
+      </c>
+      <c r="H52" s="2">
+        <v>1.4544803269567399</v>
+      </c>
+      <c r="I52" s="2">
+        <v>87.068532219053793</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0.34817468565305498</v>
+      </c>
+      <c r="K52" s="2">
+        <v>1926.5416667292</v>
+      </c>
+      <c r="L52" s="2">
+        <v>-0.19488007834586499</v>
+      </c>
+      <c r="M52" s="2">
+        <v>792.69177819142305</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="3">
+        <f>AVERAGE(E50:E52)</f>
+        <v>409.36008549481835</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" ref="F53:M53" si="21">AVERAGE(F50:F52)</f>
+        <v>1.2360592700689201</v>
+      </c>
+      <c r="G53" s="3">
+        <f t="shared" si="21"/>
+        <v>0.81235632134818925</v>
+      </c>
+      <c r="H53" s="3">
+        <f t="shared" si="21"/>
+        <v>0.62946672376015966</v>
+      </c>
+      <c r="I53" s="3">
+        <f t="shared" si="21"/>
+        <v>40.860767147659523</v>
+      </c>
+      <c r="J53" s="3">
+        <f t="shared" si="21"/>
+        <v>0.14460932422411651</v>
+      </c>
+      <c r="K53" s="3">
+        <f t="shared" si="21"/>
+        <v>701.65944622449842</v>
+      </c>
+      <c r="L53" s="3">
+        <f t="shared" si="21"/>
+        <v>0.58125767165485231</v>
+      </c>
+      <c r="M53" s="3">
+        <f t="shared" si="21"/>
+        <v>409.36008549481835</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="2">
+        <v>8</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2">
+        <v>281.46652318825602</v>
+      </c>
+      <c r="F55" s="2">
+        <v>5.8080856837809398E-2</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0.240999702982824</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0.18789487529256099</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0.70883398259232899</v>
+      </c>
+      <c r="J55" s="2">
+        <v>4.6615029590488202E-2</v>
+      </c>
+      <c r="K55" s="2">
+        <v>87.005123543038493</v>
+      </c>
+      <c r="L55" s="2">
+        <v>0.97011732615479995</v>
+      </c>
+      <c r="M55" s="2">
+        <v>281.46652318825602</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="2">
+        <v>12</v>
+      </c>
+      <c r="D56" s="2">
+        <v>7</v>
+      </c>
+      <c r="E56" s="2">
+        <v>138.65549889677601</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0.31997467234511201</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0.56566303781059601</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0.478122409988885</v>
+      </c>
+      <c r="I56" s="2">
+        <v>1.7972385301014999</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0.265569501319528</v>
+      </c>
+      <c r="K56" s="2">
+        <v>92.792654980082602</v>
+      </c>
+      <c r="L56" s="2">
+        <v>5.1330714489654899E-2</v>
+      </c>
+      <c r="M56" s="2">
+        <v>138.65549889677601</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="2">
+        <v>40</v>
+      </c>
+      <c r="D57" s="2">
+        <v>9</v>
+      </c>
+      <c r="E57" s="2">
+        <v>153.38730683741699</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0.12617433579432999</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0.35521026983229198</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0.27787555586488699</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1.3593755173395701</v>
+      </c>
+      <c r="J57" s="2">
+        <v>7.5737797405606003E-2</v>
+      </c>
+      <c r="K57" s="2">
+        <v>69.648233358470094</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0.91608388019611597</v>
+      </c>
+      <c r="M57" s="2">
+        <v>153.38730683741699</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="3">
+        <f>AVERAGE(E55:E57)</f>
+        <v>191.16977630748298</v>
+      </c>
+      <c r="F58" s="3">
+        <f t="shared" ref="F58:M58" si="22">AVERAGE(F55:F57)</f>
+        <v>0.1680766216590838</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="22"/>
+        <v>0.38729100354190399</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="22"/>
+        <v>0.31463094704877764</v>
+      </c>
+      <c r="I58" s="3">
+        <f t="shared" si="22"/>
+        <v>1.2884826766777995</v>
+      </c>
+      <c r="J58" s="3">
+        <f t="shared" si="22"/>
+        <v>0.12930744277187406</v>
+      </c>
+      <c r="K58" s="3">
+        <f t="shared" si="22"/>
+        <v>83.148670627197063</v>
+      </c>
+      <c r="L58" s="3">
+        <f t="shared" si="22"/>
+        <v>0.64584397361352364</v>
+      </c>
+      <c r="M58" s="3">
+        <f t="shared" si="22"/>
+        <v>191.16977630748298</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2">
+        <v>11.4313503237824</v>
+      </c>
+      <c r="F60" s="2">
+        <v>9.7564293113167402E-2</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0.31235283432869199</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0.27217500770910402</v>
+      </c>
+      <c r="I60" s="2">
+        <v>25.119572413032198</v>
+      </c>
+      <c r="J60" s="2">
+        <v>7.1150987318608694E-2</v>
+      </c>
+      <c r="K60" s="2">
+        <v>4.0977003107530301</v>
+      </c>
+      <c r="L60" s="2">
+        <v>0.93318210514372302</v>
+      </c>
+      <c r="M60" s="2">
+        <v>11.4313503237824</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="2">
+        <v>3568</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2">
+        <v>477.22981888191202</v>
+      </c>
+      <c r="F61" s="2">
+        <v>74.929823255737205</v>
+      </c>
+      <c r="G61" s="2">
+        <v>8.6562014334081407</v>
+      </c>
+      <c r="H61" s="2">
+        <v>2.2405155816052198</v>
+      </c>
+      <c r="I61" s="2">
+        <v>40.152091667607699</v>
+      </c>
+      <c r="J61" s="2">
+        <v>7.9182230455617897E-2</v>
+      </c>
+      <c r="K61" s="2">
+        <v>15960.052353472</v>
+      </c>
+      <c r="L61" s="2">
+        <v>1.5111858462064301E-2</v>
+      </c>
+      <c r="M61" s="2">
+        <v>477.22981888191202</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="2">
+        <v>4000</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2">
+        <v>5.8150022248987598</v>
+      </c>
+      <c r="F62" s="2">
+        <v>2.5215394160843799E-2</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0.15879355831029099</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0.12922227166441599</v>
+      </c>
+      <c r="I62" s="2">
+        <v>90.980356395536802</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0.208938892513541</v>
+      </c>
+      <c r="K62" s="2">
+        <v>1.13469273723797</v>
+      </c>
+      <c r="L62" s="2">
+        <v>0.45544274734117002</v>
+      </c>
+      <c r="M62" s="2">
+        <v>5.8150022248987598</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="2">
+        <v>4008</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2">
         <v>3.8129129142010401E-2</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F63" s="2">
         <v>4.69719829317166E-4</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G63" s="2">
         <v>2.16730207704686E-2</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H63" s="2">
         <v>1.2709709714003399E-2</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I63" s="2">
         <v>6.9194526062489201E-2</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J63" s="2">
         <v>4.0892492019752098E-2</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K63" s="2">
         <v>1.4091594879514901E-3</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L63" s="2">
         <v>0.991115009533723</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M63" s="2">
         <v>3.8129129142010401E-2</v>
       </c>
     </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="3">
+        <f>AVERAGE(E60:E63)</f>
+        <v>123.6285751399338</v>
+      </c>
+      <c r="F64" s="3">
+        <f t="shared" ref="F64:M64" si="23">AVERAGE(F60:F63)</f>
+        <v>18.76326816571013</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" si="23"/>
+        <v>2.2872552117043981</v>
+      </c>
+      <c r="H64" s="3">
+        <f t="shared" si="23"/>
+        <v>0.66365564267318566</v>
+      </c>
+      <c r="I64" s="3">
+        <f t="shared" si="23"/>
+        <v>39.0803037505598</v>
+      </c>
+      <c r="J64" s="3">
+        <f t="shared" si="23"/>
+        <v>0.10004115057687993</v>
+      </c>
+      <c r="K64" s="3">
+        <f t="shared" si="23"/>
+        <v>3991.3215389198695</v>
+      </c>
+      <c r="L64" s="3">
+        <f t="shared" si="23"/>
+        <v>0.59871293012017013</v>
+      </c>
+      <c r="M64" s="3">
+        <f t="shared" si="23"/>
+        <v>123.6285751399338</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A53:D53"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results/Model_Analysis.xlsx
+++ b/Results/Model_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Desktop\01Autonomous_Vehicles_Research\00Thesis\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9468A9B5-D8F8-42D0-8C22-8FF2DE9A65DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1C4803-2E2E-4B58-9B77-C144685AA569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="22">
   <si>
     <t>Model</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -496,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AA24" sqref="AA24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,42 +635,17 @@
       <c r="P2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="2">
-        <f>E5</f>
-        <v>367.18956679377101</v>
-      </c>
-      <c r="R2" s="2">
-        <f t="shared" ref="R2:Y2" si="0">F5</f>
-        <v>0.6556492625164988</v>
-      </c>
-      <c r="S2" s="2">
-        <f t="shared" si="0"/>
-        <v>0.62945579912498928</v>
-      </c>
-      <c r="T2" s="2">
-        <f t="shared" si="0"/>
-        <v>0.55495181256883397</v>
-      </c>
-      <c r="U2" s="2">
-        <f t="shared" si="0"/>
-        <v>25.547793618574236</v>
-      </c>
-      <c r="V2" s="2">
-        <f t="shared" si="0"/>
-        <v>0.11070375128271874</v>
-      </c>
-      <c r="W2" s="2">
-        <f t="shared" si="0"/>
-        <v>384.79837399486041</v>
-      </c>
-      <c r="X2" s="2">
-        <f t="shared" si="0"/>
-        <v>0.77770651090318077</v>
-      </c>
-      <c r="Y2" s="2">
-        <f t="shared" si="0"/>
-        <v>367.18956679377101</v>
-      </c>
+      <c r="Q2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -715,42 +693,17 @@
       <c r="P3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="2">
-        <f>E10</f>
-        <v>214.71557153383665</v>
-      </c>
-      <c r="R3" s="2">
-        <f t="shared" ref="R3:Y3" si="1">F10</f>
-        <v>0.28003990870250622</v>
-      </c>
-      <c r="S3" s="2">
-        <f t="shared" si="1"/>
-        <v>0.47263579594587402</v>
-      </c>
-      <c r="T3" s="2">
-        <f t="shared" si="1"/>
-        <v>0.36327940323608904</v>
-      </c>
-      <c r="U3" s="2">
-        <f t="shared" si="1"/>
-        <v>1.4575641553764784</v>
-      </c>
-      <c r="V3" s="2">
-        <f t="shared" si="1"/>
-        <v>0.16783744476480314</v>
-      </c>
-      <c r="W3" s="2">
-        <f t="shared" si="1"/>
-        <v>119.54853129157205</v>
-      </c>
-      <c r="X3" s="2">
-        <f t="shared" si="1"/>
-        <v>0.32006144316351964</v>
-      </c>
-      <c r="Y3" s="2">
-        <f t="shared" si="1"/>
-        <v>214.71557153383665</v>
-      </c>
+      <c r="Q3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -798,42 +751,17 @@
       <c r="P4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="2">
-        <f>E16</f>
-        <v>107.54472776739135</v>
-      </c>
-      <c r="R4" s="2">
-        <f t="shared" ref="R4:Y4" si="2">F16</f>
-        <v>18.990594140551121</v>
-      </c>
-      <c r="S4" s="2">
-        <f t="shared" si="2"/>
-        <v>2.2569177029583769</v>
-      </c>
-      <c r="T4" s="2">
-        <f t="shared" si="2"/>
-        <v>0.5560004238669457</v>
-      </c>
-      <c r="U4" s="2">
-        <f t="shared" si="2"/>
-        <v>21.771239342500404</v>
-      </c>
-      <c r="V4" s="2">
-        <f t="shared" si="2"/>
-        <v>9.2366635485227333E-2</v>
-      </c>
-      <c r="W4" s="2">
-        <f t="shared" si="2"/>
-        <v>4043.3728961514335</v>
-      </c>
-      <c r="X4" s="2">
-        <f t="shared" si="2"/>
-        <v>0.68212620583395711</v>
-      </c>
-      <c r="Y4" s="2">
-        <f t="shared" si="2"/>
-        <v>107.54472776739135</v>
-      </c>
+      <c r="Q4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -851,31 +779,31 @@
         <v>0.6556492625164988</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" ref="G5:M5" si="3">AVERAGE(G2:G4)</f>
+        <f t="shared" ref="G5:M5" si="0">AVERAGE(G2:G4)</f>
         <v>0.62945579912498928</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.55495181256883397</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>25.547793618574236</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.11070375128271874</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>384.79837399486041</v>
       </c>
       <c r="L5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0.77770651090318077</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>367.18956679377101</v>
       </c>
       <c r="O5" s="2" t="s">
@@ -884,42 +812,17 @@
       <c r="P5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="2">
-        <f>E21</f>
-        <v>294.83922401114938</v>
-      </c>
-      <c r="R5" s="2">
-        <f t="shared" ref="R5:Y5" si="4">F21</f>
-        <v>0.40268563150320075</v>
-      </c>
-      <c r="S5" s="2">
-        <f t="shared" si="4"/>
-        <v>0.5099631232466697</v>
-      </c>
-      <c r="T5" s="2">
-        <f t="shared" si="4"/>
-        <v>0.42850104887735235</v>
-      </c>
-      <c r="U5" s="2">
-        <f t="shared" si="4"/>
-        <v>23.365672473199567</v>
-      </c>
-      <c r="V5" s="2">
-        <f t="shared" si="4"/>
-        <v>8.8298729960432434E-2</v>
-      </c>
-      <c r="W5" s="2">
-        <f t="shared" si="4"/>
-        <v>244.90157111474659</v>
-      </c>
-      <c r="X5" s="2">
-        <f t="shared" si="4"/>
-        <v>0.86444195165420956</v>
-      </c>
-      <c r="Y5" s="2">
-        <f t="shared" si="4"/>
-        <v>294.83922401114938</v>
-      </c>
+      <c r="Q5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -941,42 +844,17 @@
       <c r="P6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="2">
-        <f>E26</f>
-        <v>239.838588937032</v>
-      </c>
-      <c r="R6" s="2">
-        <f t="shared" ref="R6:Y6" si="5">F26</f>
-        <v>0.54725963738798844</v>
-      </c>
-      <c r="S6" s="2">
-        <f t="shared" si="5"/>
-        <v>0.605114766793307</v>
-      </c>
-      <c r="T6" s="2">
-        <f t="shared" si="5"/>
-        <v>0.45106143856569797</v>
-      </c>
-      <c r="U6" s="2">
-        <f t="shared" si="5"/>
-        <v>1.7850433305725264</v>
-      </c>
-      <c r="V6" s="2">
-        <f t="shared" si="5"/>
-        <v>0.23020885798238935</v>
-      </c>
-      <c r="W6" s="2">
-        <f t="shared" si="5"/>
-        <v>196.60128855458296</v>
-      </c>
-      <c r="X6" s="2">
-        <f t="shared" si="5"/>
-        <v>-0.47296155363793796</v>
-      </c>
-      <c r="Y6" s="2">
-        <f t="shared" si="5"/>
-        <v>239.838588937032</v>
-      </c>
+      <c r="Q6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -1024,42 +902,17 @@
       <c r="P7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q7" s="2">
-        <f>E32</f>
-        <v>123.31900595953945</v>
-      </c>
-      <c r="R7" s="2">
-        <f t="shared" ref="R7:Y7" si="6">F32</f>
-        <v>19.255959591887141</v>
-      </c>
-      <c r="S7" s="2">
-        <f t="shared" si="6"/>
-        <v>2.3125784013713306</v>
-      </c>
-      <c r="T7" s="2">
-        <f t="shared" si="6"/>
-        <v>0.65676433051167704</v>
-      </c>
-      <c r="U7" s="2">
-        <f t="shared" si="6"/>
-        <v>42.035678736405572</v>
-      </c>
-      <c r="V7" s="2">
-        <f t="shared" si="6"/>
-        <v>0.16234546040925302</v>
-      </c>
-      <c r="W7" s="2">
-        <f t="shared" si="6"/>
-        <v>4097.9695449810424</v>
-      </c>
-      <c r="X7" s="2">
-        <f t="shared" si="6"/>
-        <v>0.46538329618131491</v>
-      </c>
-      <c r="Y7" s="2">
-        <f t="shared" si="6"/>
-        <v>123.31900595953945</v>
-      </c>
+      <c r="Q7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -1107,42 +960,17 @@
       <c r="P8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="2">
-        <f>E37</f>
-        <v>468.65575758667728</v>
-      </c>
-      <c r="R8" s="2">
-        <f t="shared" ref="R8:Y8" si="7">F37</f>
-        <v>2.4736787942808065</v>
-      </c>
-      <c r="S8" s="2">
-        <f t="shared" si="7"/>
-        <v>1.1126627568663274</v>
-      </c>
-      <c r="T8" s="2">
-        <f t="shared" si="7"/>
-        <v>0.72174252451938636</v>
-      </c>
-      <c r="U8" s="2">
-        <f t="shared" si="7"/>
-        <v>56.785760173723283</v>
-      </c>
-      <c r="V8" s="2">
-        <f t="shared" si="7"/>
-        <v>0.20102344184724555</v>
-      </c>
-      <c r="W8" s="2">
-        <f t="shared" si="7"/>
-        <v>1381.4714481325927</v>
-      </c>
-      <c r="X8" s="2">
-        <f t="shared" si="7"/>
-        <v>0.15849516802335994</v>
-      </c>
-      <c r="Y8" s="2">
-        <f t="shared" si="7"/>
-        <v>468.65575758667728</v>
-      </c>
+      <c r="Q8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -1190,42 +1018,17 @@
       <c r="P9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="2">
-        <f>E42</f>
-        <v>214.56234704803299</v>
-      </c>
-      <c r="R9" s="2">
-        <f t="shared" ref="R9:Y9" si="8">F42</f>
-        <v>0.19511963118038433</v>
-      </c>
-      <c r="S9" s="2">
-        <f t="shared" si="8"/>
-        <v>0.42086108406590933</v>
-      </c>
-      <c r="T9" s="2">
-        <f t="shared" si="8"/>
-        <v>0.34053949247954435</v>
-      </c>
-      <c r="U9" s="2">
-        <f t="shared" si="8"/>
-        <v>1.3875085341573137</v>
-      </c>
-      <c r="V9" s="2">
-        <f t="shared" si="8"/>
-        <v>0.13956685494792001</v>
-      </c>
-      <c r="W9" s="2">
-        <f t="shared" si="8"/>
-        <v>102.56221892545916</v>
-      </c>
-      <c r="X9" s="2">
-        <f t="shared" si="8"/>
-        <v>0.59306660050556126</v>
-      </c>
-      <c r="Y9" s="2">
-        <f t="shared" si="8"/>
-        <v>214.56234704803299</v>
-      </c>
+      <c r="Q9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -1239,35 +1042,35 @@
         <v>214.71557153383665</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" ref="F10:M10" si="9">AVERAGE(F7:F9)</f>
+        <f t="shared" ref="F10:M10" si="1">AVERAGE(F7:F9)</f>
         <v>0.28003990870250622</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>0.47263579594587402</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>0.36327940323608904</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>1.4575641553764784</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>0.16783744476480314</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>119.54853129157205</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>0.32006144316351964</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>214.71557153383665</v>
       </c>
       <c r="O10" s="2" t="s">
@@ -1276,42 +1079,17 @@
       <c r="P10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q10" s="2">
-        <f>E48</f>
-        <v>110.55067152523561</v>
-      </c>
-      <c r="R10" s="2">
-        <f t="shared" ref="R10:Y10" si="10">F48</f>
-        <v>19.601298014287153</v>
-      </c>
-      <c r="S10" s="2">
-        <f t="shared" si="10"/>
-        <v>2.4346371370662943</v>
-      </c>
-      <c r="T10" s="2">
-        <f t="shared" si="10"/>
-        <v>0.67346027544119558</v>
-      </c>
-      <c r="U10" s="2">
-        <f t="shared" si="10"/>
-        <v>90.755147422459032</v>
-      </c>
-      <c r="V10" s="2">
-        <f t="shared" si="10"/>
-        <v>0.2969391297790413</v>
-      </c>
-      <c r="W10" s="2">
-        <f t="shared" si="10"/>
-        <v>4159.8814953051915</v>
-      </c>
-      <c r="X10" s="2">
-        <f t="shared" si="10"/>
-        <v>-0.96489455523585466</v>
-      </c>
-      <c r="Y10" s="2">
-        <f t="shared" si="10"/>
-        <v>110.55067152523561</v>
-      </c>
+      <c r="Q10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
@@ -1333,42 +1111,17 @@
       <c r="P11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q11" s="2">
-        <f>E53</f>
-        <v>409.36008549481835</v>
-      </c>
-      <c r="R11" s="2">
-        <f t="shared" ref="R11:Y11" si="11">F53</f>
-        <v>1.2360592700689201</v>
-      </c>
-      <c r="S11" s="2">
-        <f t="shared" si="11"/>
-        <v>0.81235632134818925</v>
-      </c>
-      <c r="T11" s="2">
-        <f t="shared" si="11"/>
-        <v>0.62946672376015966</v>
-      </c>
-      <c r="U11" s="2">
-        <f t="shared" si="11"/>
-        <v>40.860767147659523</v>
-      </c>
-      <c r="V11" s="2">
-        <f t="shared" si="11"/>
-        <v>0.14460932422411651</v>
-      </c>
-      <c r="W11" s="2">
-        <f t="shared" si="11"/>
-        <v>701.65944622449842</v>
-      </c>
-      <c r="X11" s="2">
-        <f t="shared" si="11"/>
-        <v>0.58125767165485231</v>
-      </c>
-      <c r="Y11" s="2">
-        <f t="shared" si="11"/>
-        <v>409.36008549481835</v>
-      </c>
+      <c r="Q11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -1416,42 +1169,17 @@
       <c r="P12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q12" s="2">
-        <f>E58</f>
-        <v>191.16977630748298</v>
-      </c>
-      <c r="R12" s="2">
-        <f t="shared" ref="R12:Y12" si="12">F58</f>
-        <v>0.1680766216590838</v>
-      </c>
-      <c r="S12" s="2">
-        <f t="shared" si="12"/>
-        <v>0.38729100354190399</v>
-      </c>
-      <c r="T12" s="2">
-        <f t="shared" si="12"/>
-        <v>0.31463094704877764</v>
-      </c>
-      <c r="U12" s="2">
-        <f t="shared" si="12"/>
-        <v>1.2884826766777995</v>
-      </c>
-      <c r="V12" s="2">
-        <f t="shared" si="12"/>
-        <v>0.12930744277187406</v>
-      </c>
-      <c r="W12" s="2">
-        <f t="shared" si="12"/>
-        <v>83.148670627197063</v>
-      </c>
-      <c r="X12" s="2">
-        <f t="shared" si="12"/>
-        <v>0.64584397361352364</v>
-      </c>
-      <c r="Y12" s="2">
-        <f t="shared" si="12"/>
-        <v>191.16977630748298</v>
-      </c>
+      <c r="Q12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -1499,42 +1227,17 @@
       <c r="P13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q13" s="2">
-        <f>E64</f>
-        <v>123.6285751399338</v>
-      </c>
-      <c r="R13" s="2">
-        <f t="shared" ref="R13:Y13" si="13">F64</f>
-        <v>18.76326816571013</v>
-      </c>
-      <c r="S13" s="2">
-        <f t="shared" si="13"/>
-        <v>2.2872552117043981</v>
-      </c>
-      <c r="T13" s="2">
-        <f t="shared" si="13"/>
-        <v>0.66365564267318566</v>
-      </c>
-      <c r="U13" s="2">
-        <f t="shared" si="13"/>
-        <v>39.0803037505598</v>
-      </c>
-      <c r="V13" s="2">
-        <f t="shared" si="13"/>
-        <v>0.10004115057687993</v>
-      </c>
-      <c r="W13" s="2">
-        <f t="shared" si="13"/>
-        <v>3991.3215389198695</v>
-      </c>
-      <c r="X13" s="2">
-        <f t="shared" si="13"/>
-        <v>0.59871293012017013</v>
-      </c>
-      <c r="Y13" s="2">
-        <f t="shared" si="13"/>
-        <v>123.6285751399338</v>
-      </c>
+      <c r="Q13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -1630,35 +1333,35 @@
         <v>107.54472776739135</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" ref="F16:M16" si="14">AVERAGE(F12:F15)</f>
+        <f t="shared" ref="F16:M16" si="2">AVERAGE(F12:F15)</f>
         <v>18.990594140551121</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>2.2569177029583769</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>0.5560004238669457</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>21.771239342500404</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>9.2366635485227333E-2</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>4043.3728961514335</v>
       </c>
       <c r="L16" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>0.68212620583395711</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="2"/>
         <v>107.54472776739135</v>
       </c>
     </row>
@@ -1812,31 +1515,31 @@
         <v>294.83922401114938</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" ref="F21:L21" si="15">AVERAGE(F18:F20)</f>
+        <f t="shared" ref="F21:L21" si="3">AVERAGE(F18:F20)</f>
         <v>0.40268563150320075</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="3"/>
         <v>0.5099631232466697</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="3"/>
         <v>0.42850104887735235</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="3"/>
         <v>23.365672473199567</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="3"/>
         <v>8.8298729960432434E-2</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="3"/>
         <v>244.90157111474659</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="3"/>
         <v>0.86444195165420956</v>
       </c>
       <c r="M21" s="3">
@@ -1994,27 +1697,27 @@
         <v>239.838588937032</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" ref="F26:M26" si="16">AVERAGE(F23:F25)</f>
+        <f t="shared" ref="F26:M26" si="4">AVERAGE(F23:F25)</f>
         <v>0.54725963738798844</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="4"/>
         <v>0.605114766793307</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="4"/>
         <v>0.45106143856569797</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="4"/>
         <v>1.7850433305725264</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="4"/>
         <v>0.23020885798238935</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="4"/>
         <v>196.60128855458296</v>
       </c>
       <c r="L26" s="3">
@@ -2022,7 +1725,7 @@
         <v>-0.47296155363793796</v>
       </c>
       <c r="M26" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="4"/>
         <v>239.838588937032</v>
       </c>
     </row>
@@ -2217,35 +1920,35 @@
         <v>123.31900595953945</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" ref="F32:M32" si="17">AVERAGE(F28:F31)</f>
+        <f t="shared" ref="F32:M32" si="5">AVERAGE(F28:F31)</f>
         <v>19.255959591887141</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>2.3125784013713306</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>0.65676433051167704</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>42.035678736405572</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>0.16234546040925302</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>4097.9695449810424</v>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>0.46538329618131491</v>
       </c>
       <c r="M32" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>123.31900595953945</v>
       </c>
     </row>
@@ -2399,35 +2102,35 @@
         <v>468.65575758667728</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" ref="F37:M37" si="18">AVERAGE(F34:F36)</f>
+        <f t="shared" ref="F37:M37" si="6">AVERAGE(F34:F36)</f>
         <v>2.4736787942808065</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>1.1126627568663274</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>0.72174252451938636</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>56.785760173723283</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>0.20102344184724555</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>1381.4714481325927</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>0.15849516802335994</v>
       </c>
       <c r="M37" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>468.65575758667728</v>
       </c>
     </row>
@@ -2581,35 +2284,35 @@
         <v>214.56234704803299</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" ref="F42:M42" si="19">AVERAGE(F39:F41)</f>
+        <f t="shared" ref="F42:M42" si="7">AVERAGE(F39:F41)</f>
         <v>0.19511963118038433</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>0.42086108406590933</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>0.34053949247954435</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>1.3875085341573137</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>0.13956685494792001</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>102.56221892545916</v>
       </c>
       <c r="L42" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>0.59306660050556126</v>
       </c>
       <c r="M42" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>214.56234704803299</v>
       </c>
     </row>
@@ -2804,35 +2507,35 @@
         <v>110.55067152523561</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" ref="F48:M48" si="20">AVERAGE(F44:F47)</f>
+        <f t="shared" ref="F48:M48" si="8">AVERAGE(F44:F47)</f>
         <v>19.601298014287153</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>2.4346371370662943</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>0.67346027544119558</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>90.755147422459032</v>
       </c>
       <c r="J48" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>0.2969391297790413</v>
       </c>
       <c r="K48" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>4159.8814953051915</v>
       </c>
       <c r="L48" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>-0.96489455523585466</v>
       </c>
       <c r="M48" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>110.55067152523561</v>
       </c>
     </row>
@@ -2986,35 +2689,35 @@
         <v>409.36008549481835</v>
       </c>
       <c r="F53" s="3">
-        <f t="shared" ref="F53:M53" si="21">AVERAGE(F50:F52)</f>
+        <f t="shared" ref="F53:M53" si="9">AVERAGE(F50:F52)</f>
         <v>1.2360592700689201</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="9"/>
         <v>0.81235632134818925</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="9"/>
         <v>0.62946672376015966</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="9"/>
         <v>40.860767147659523</v>
       </c>
       <c r="J53" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="9"/>
         <v>0.14460932422411651</v>
       </c>
       <c r="K53" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="9"/>
         <v>701.65944622449842</v>
       </c>
       <c r="L53" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="9"/>
         <v>0.58125767165485231</v>
       </c>
       <c r="M53" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="9"/>
         <v>409.36008549481835</v>
       </c>
     </row>
@@ -3168,35 +2871,35 @@
         <v>191.16977630748298</v>
       </c>
       <c r="F58" s="3">
-        <f t="shared" ref="F58:M58" si="22">AVERAGE(F55:F57)</f>
+        <f t="shared" ref="F58:M58" si="10">AVERAGE(F55:F57)</f>
         <v>0.1680766216590838</v>
       </c>
       <c r="G58" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0.38729100354190399</v>
       </c>
       <c r="H58" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0.31463094704877764</v>
       </c>
       <c r="I58" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>1.2884826766777995</v>
       </c>
       <c r="J58" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0.12930744277187406</v>
       </c>
       <c r="K58" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>83.148670627197063</v>
       </c>
       <c r="L58" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>0.64584397361352364</v>
       </c>
       <c r="M58" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="10"/>
         <v>191.16977630748298</v>
       </c>
     </row>
@@ -3391,45 +3094,40 @@
         <v>123.6285751399338</v>
       </c>
       <c r="F64" s="3">
-        <f t="shared" ref="F64:M64" si="23">AVERAGE(F60:F63)</f>
+        <f t="shared" ref="F64:M64" si="11">AVERAGE(F60:F63)</f>
         <v>18.76326816571013</v>
       </c>
       <c r="G64" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>2.2872552117043981</v>
       </c>
       <c r="H64" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0.66365564267318566</v>
       </c>
       <c r="I64" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>39.0803037505598</v>
       </c>
       <c r="J64" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0.10004115057687993</v>
       </c>
       <c r="K64" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>3991.3215389198695</v>
       </c>
       <c r="L64" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>0.59871293012017013</v>
       </c>
       <c r="M64" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
         <v>123.6285751399338</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A58:D58"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A32:D32"/>
@@ -3437,6 +3135,11 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A58:D58"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results/Model_Analysis.xlsx
+++ b/Results/Model_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Desktop\01Autonomous_Vehicles_Research\00Thesis\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F62668-D0ED-4B3F-933E-98CB71539DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2481195-45E5-4BFD-A777-C3AC46C60565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="24">
   <si>
     <t>Model</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>Average</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Phoenix H1A3 run1</t>
@@ -214,9 +211,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -224,6 +218,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -508,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,32 +608,75 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="E2">
+        <v>318.54461153797399</v>
+      </c>
+      <c r="F2">
+        <v>0.146668408679162</v>
+      </c>
+      <c r="G2">
+        <v>0.38297311743667101</v>
+      </c>
+      <c r="H2">
+        <v>0.29854227885470902</v>
+      </c>
+      <c r="I2">
+        <v>22.618917321587201</v>
+      </c>
+      <c r="J2">
+        <v>4.75743003026921E-2</v>
+      </c>
+      <c r="K2">
+        <v>156.495192060666</v>
+      </c>
+      <c r="L2">
+        <v>0.95862047594720401</v>
+      </c>
+      <c r="M2">
+        <v>318.54461153797399</v>
+      </c>
       <c r="O2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
+      <c r="Q2" s="2">
+        <f>E5</f>
+        <v>371.75046704117267</v>
+      </c>
+      <c r="R2" s="2">
+        <f t="shared" ref="R2:Y2" si="0">F5</f>
+        <v>0.69976064836610397</v>
+      </c>
+      <c r="S2" s="2">
+        <f t="shared" si="0"/>
+        <v>0.64792820985129407</v>
+      </c>
+      <c r="T2" s="2">
+        <f t="shared" si="0"/>
+        <v>0.55903872570236601</v>
+      </c>
+      <c r="U2" s="2">
+        <f t="shared" si="0"/>
+        <v>24.421029934866493</v>
+      </c>
+      <c r="V2" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11388706489718108</v>
+      </c>
+      <c r="W2" s="2">
+        <f t="shared" si="0"/>
+        <v>410.24471147465096</v>
+      </c>
+      <c r="X2" s="2">
+        <f t="shared" si="0"/>
+        <v>0.76299903595749896</v>
+      </c>
+      <c r="Y2" s="2">
+        <f t="shared" si="0"/>
+        <v>371.75046704117267</v>
+      </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -651,94 +691,201 @@
       <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="E3">
+        <v>120.10996124857201</v>
+      </c>
+      <c r="F3">
+        <v>3.04065408303501E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.17437471385023101</v>
+      </c>
+      <c r="H3">
+        <v>0.13711182790932899</v>
+      </c>
+      <c r="I3">
+        <v>5.2014365802153799</v>
+      </c>
+      <c r="J3">
+        <v>3.7339339154225097E-2</v>
+      </c>
+      <c r="K3">
+        <v>26.636129767386699</v>
+      </c>
+      <c r="L3">
+        <v>0.98012106902076301</v>
+      </c>
+      <c r="M3">
+        <v>120.10996124857201</v>
+      </c>
       <c r="O3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
+      <c r="Q3" s="2">
+        <f>E10</f>
+        <v>208.92809963858932</v>
+      </c>
+      <c r="R3" s="2">
+        <f t="shared" ref="R3:Y3" si="1">F10</f>
+        <v>0.23704874384589691</v>
+      </c>
+      <c r="S3" s="2">
+        <f t="shared" si="1"/>
+        <v>0.44390536476502795</v>
+      </c>
+      <c r="T3" s="2">
+        <f t="shared" si="1"/>
+        <v>0.34400263563971539</v>
+      </c>
+      <c r="U3" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3889266267347411</v>
+      </c>
+      <c r="V3" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1545883179269564</v>
+      </c>
+      <c r="W3" s="2">
+        <f t="shared" si="1"/>
+        <v>106.50895125046959</v>
+      </c>
+      <c r="X3" s="2">
+        <f t="shared" si="1"/>
+        <v>0.6278418360763024</v>
+      </c>
+      <c r="Y3" s="2">
+        <f t="shared" si="1"/>
+        <v>208.92809963858932</v>
+      </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>286</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>676.59682833697195</v>
+      </c>
+      <c r="F4">
+        <v>1.9222069955887999</v>
+      </c>
+      <c r="G4">
+        <v>1.3864367982669801</v>
+      </c>
+      <c r="H4">
+        <v>1.2414620703430601</v>
+      </c>
+      <c r="I4">
+        <v>45.442735902796898</v>
+      </c>
+      <c r="J4">
+        <v>0.256747555234626</v>
+      </c>
+      <c r="K4">
+        <v>1047.6028125959001</v>
+      </c>
+      <c r="L4">
+        <v>0.35025556290453003</v>
+      </c>
+      <c r="M4">
+        <v>676.59682833697195</v>
+      </c>
       <c r="O4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="Q4" s="2">
+        <f>E15</f>
+        <v>243.52531552293419</v>
+      </c>
+      <c r="R4" s="2">
+        <f t="shared" ref="R4:Y4" si="2">F15</f>
+        <v>0.12729528461495385</v>
+      </c>
+      <c r="S4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.29395228893457731</v>
+      </c>
+      <c r="T4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.17915904529491197</v>
+      </c>
+      <c r="U4" s="2">
+        <f t="shared" si="2"/>
+        <v>28.73939957080059</v>
+      </c>
+      <c r="V4" s="2">
+        <f t="shared" si="2"/>
+        <v>3.7553926164200335E-2</v>
+      </c>
+      <c r="W4" s="2">
+        <f t="shared" si="2"/>
+        <v>249.23726579341488</v>
+      </c>
+      <c r="X4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.97464473566979104</v>
+      </c>
+      <c r="Y4" s="2">
+        <f t="shared" si="2"/>
+        <v>243.52531552293419</v>
+      </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="3" t="e">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="3">
         <f>AVERAGE(E2:E4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="3" t="e">
+        <v>371.75046704117267</v>
+      </c>
+      <c r="F5" s="3">
         <f>AVERAGE(F2:F4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" s="3" t="e">
-        <f t="shared" ref="G5:M5" si="0">AVERAGE(G2:G4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H5" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.69976064836610397</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" ref="G5:M5" si="3">AVERAGE(G2:G4)</f>
+        <v>0.64792820985129407</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="3"/>
+        <v>0.55903872570236601</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="3"/>
+        <v>24.421029934866493</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="3"/>
+        <v>0.11388706489718108</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="3"/>
+        <v>410.24471147465096</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="3"/>
+        <v>0.76299903595749896</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="3"/>
+        <v>371.75046704117267</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>6</v>
@@ -746,17 +893,42 @@
       <c r="P5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
+      <c r="Q5" s="2">
+        <f>E20</f>
+        <v>329.35751114070166</v>
+      </c>
+      <c r="R5" s="2">
+        <f t="shared" ref="R5:Y5" si="4">F20</f>
+        <v>0.52421590148333108</v>
+      </c>
+      <c r="S5" s="2">
+        <f t="shared" si="4"/>
+        <v>0.56467012862289467</v>
+      </c>
+      <c r="T5" s="2">
+        <f t="shared" si="4"/>
+        <v>0.49210852255586796</v>
+      </c>
+      <c r="U5" s="2">
+        <f t="shared" si="4"/>
+        <v>25.393485782183308</v>
+      </c>
+      <c r="V5" s="2">
+        <f t="shared" si="4"/>
+        <v>9.841639397303463E-2</v>
+      </c>
+      <c r="W5" s="2">
+        <f t="shared" si="4"/>
+        <v>311.16980400462228</v>
+      </c>
+      <c r="X5" s="2">
+        <f t="shared" si="4"/>
+        <v>0.82338318036991509</v>
+      </c>
+      <c r="Y5" s="2">
+        <f t="shared" si="4"/>
+        <v>329.35751114070166</v>
+      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -778,17 +950,42 @@
       <c r="P6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="Q6" s="2">
+        <f>E25</f>
+        <v>234.56620765909466</v>
+      </c>
+      <c r="R6" s="2">
+        <f t="shared" ref="R6:Y6" si="5">F25</f>
+        <v>0.47506944906933563</v>
+      </c>
+      <c r="S6" s="2">
+        <f t="shared" si="5"/>
+        <v>0.57430423723803536</v>
+      </c>
+      <c r="T6" s="2">
+        <f t="shared" si="5"/>
+        <v>0.43344803048398733</v>
+      </c>
+      <c r="U6" s="2">
+        <f t="shared" si="5"/>
+        <v>1.7177828191662883</v>
+      </c>
+      <c r="V6" s="2">
+        <f t="shared" si="5"/>
+        <v>0.21561266565384182</v>
+      </c>
+      <c r="W6" s="2">
+        <f t="shared" si="5"/>
+        <v>175.96525447089462</v>
+      </c>
+      <c r="X6" s="2">
+        <f t="shared" si="5"/>
+        <v>0.62764383918107969</v>
+      </c>
+      <c r="Y6" s="2">
+        <f t="shared" si="5"/>
+        <v>234.56620765909466</v>
+      </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -803,23 +1000,75 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
+      <c r="E7">
+        <v>317.10859747375002</v>
+      </c>
+      <c r="F7">
+        <v>6.7054167871019699E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.25894819534227198</v>
+      </c>
+      <c r="H7">
+        <v>0.21168798229222299</v>
+      </c>
+      <c r="I7">
+        <v>0.80412036903249295</v>
+      </c>
+      <c r="J7">
+        <v>5.0086691555565201E-2</v>
+      </c>
+      <c r="K7">
+        <v>100.447143470787</v>
+      </c>
+      <c r="L7">
+        <v>0.96550054634960902</v>
+      </c>
+      <c r="M7">
+        <v>317.10859747375002</v>
+      </c>
       <c r="O7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="Q7" s="2">
+        <f>E30</f>
+        <v>251.71261835017785</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" ref="R7:Y7" si="6">F30</f>
+        <v>0.13583391571069656</v>
+      </c>
+      <c r="S7" s="2">
+        <f t="shared" si="6"/>
+        <v>0.30979674347022829</v>
+      </c>
+      <c r="T7" s="2">
+        <f t="shared" si="6"/>
+        <v>0.1944846222518338</v>
+      </c>
+      <c r="U7" s="2">
+        <f t="shared" si="6"/>
+        <v>24.237519464398634</v>
+      </c>
+      <c r="V7" s="2">
+        <f t="shared" si="6"/>
+        <v>3.7895436797354666E-2</v>
+      </c>
+      <c r="W7" s="2">
+        <f t="shared" si="6"/>
+        <v>250.39582769200513</v>
+      </c>
+      <c r="X7" s="2">
+        <f t="shared" si="6"/>
+        <v>0.97498178464798402</v>
+      </c>
+      <c r="Y7" s="2">
+        <f t="shared" si="6"/>
+        <v>251.71261835017785</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -834,23 +1083,75 @@
       <c r="D8" s="2">
         <v>7</v>
       </c>
+      <c r="E8">
+        <v>158.43839738966599</v>
+      </c>
+      <c r="F8">
+        <v>0.52083629337168103</v>
+      </c>
+      <c r="G8">
+        <v>0.72168988725884298</v>
+      </c>
+      <c r="H8">
+        <v>0.54633930134367603</v>
+      </c>
+      <c r="I8">
+        <v>2.0223548172494401</v>
+      </c>
+      <c r="J8">
+        <v>0.33882154331400999</v>
+      </c>
+      <c r="K8">
+        <v>151.04252507778699</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>158.43839738966599</v>
+      </c>
       <c r="O8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="Q8" s="2">
+        <f>E35</f>
+        <v>417.87748142270999</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" ref="R8:Y8" si="7">F35</f>
+        <v>0.99989299059977765</v>
+      </c>
+      <c r="S8" s="2">
+        <f t="shared" si="7"/>
+        <v>0.7743856166387787</v>
+      </c>
+      <c r="T8" s="2">
+        <f t="shared" si="7"/>
+        <v>0.62830325160590228</v>
+      </c>
+      <c r="U8" s="2">
+        <f t="shared" si="7"/>
+        <v>29.251558197036655</v>
+      </c>
+      <c r="V8" s="2">
+        <f t="shared" si="7"/>
+        <v>0.13830930496225682</v>
+      </c>
+      <c r="W8" s="2">
+        <f t="shared" si="7"/>
+        <v>578.57761110206923</v>
+      </c>
+      <c r="X8" s="2">
+        <f t="shared" si="7"/>
+        <v>0.65677016799710153</v>
+      </c>
+      <c r="Y8" s="2">
+        <f t="shared" si="7"/>
+        <v>417.87748142270999</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -865,66 +1166,118 @@
       <c r="D9" s="2">
         <v>9</v>
       </c>
+      <c r="E9">
+        <v>151.23730405235199</v>
+      </c>
+      <c r="F9">
+        <v>0.12325577029499001</v>
+      </c>
+      <c r="G9">
+        <v>0.35107801169396902</v>
+      </c>
+      <c r="H9">
+        <v>0.27398062328324702</v>
+      </c>
+      <c r="I9">
+        <v>1.34030469392229</v>
+      </c>
+      <c r="J9">
+        <v>7.4856718911294001E-2</v>
+      </c>
+      <c r="K9">
+        <v>68.037185202834806</v>
+      </c>
+      <c r="L9">
+        <v>0.91802496187929805</v>
+      </c>
+      <c r="M9">
+        <v>151.23730405235199</v>
+      </c>
       <c r="O9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="Q9" s="2">
+        <f>E40</f>
+        <v>198.58679835706462</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" ref="R9:Y9" si="8">F40</f>
+        <v>0.16169920233202328</v>
+      </c>
+      <c r="S9" s="2">
+        <f t="shared" si="8"/>
+        <v>0.3878272229310003</v>
+      </c>
+      <c r="T9" s="2">
+        <f t="shared" si="8"/>
+        <v>0.30994938165110669</v>
+      </c>
+      <c r="U9" s="2">
+        <f t="shared" si="8"/>
+        <v>1.2729866824537552</v>
+      </c>
+      <c r="V9" s="2">
+        <f t="shared" si="8"/>
+        <v>0.12617975848414587</v>
+      </c>
+      <c r="W9" s="2">
+        <f t="shared" si="8"/>
+        <v>88.604365971476696</v>
+      </c>
+      <c r="X9" s="2">
+        <f t="shared" si="8"/>
+        <v>0.68063348397570034</v>
+      </c>
+      <c r="Y9" s="2">
+        <f t="shared" si="8"/>
+        <v>198.58679835706462</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="3" t="e">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="3">
         <f>AVERAGE(E7:E9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="3" t="e">
-        <f t="shared" ref="F10:M10" si="1">AVERAGE(F7:F9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>208.92809963858932</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" ref="F10:M10" si="9">AVERAGE(F7:F9)</f>
+        <v>0.23704874384589691</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="9"/>
+        <v>0.44390536476502795</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="9"/>
+        <v>0.34400263563971539</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="9"/>
+        <v>1.3889266267347411</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="9"/>
+        <v>0.1545883179269564</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="9"/>
+        <v>106.50895125046959</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="9"/>
+        <v>0.6278418360763024</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="9"/>
+        <v>208.92809963858932</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>7</v>
@@ -932,17 +1285,42 @@
       <c r="P10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="Q10" s="2">
+        <f>E45</f>
+        <v>252.67326494628151</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" ref="R10:Y10" si="10">F45</f>
+        <v>0.17178713626042877</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" si="10"/>
+        <v>0.36222412384291397</v>
+      </c>
+      <c r="T10" s="2">
+        <f t="shared" si="10"/>
+        <v>0.22911649546070886</v>
+      </c>
+      <c r="U10" s="2">
+        <f t="shared" si="10"/>
+        <v>31.767731748166369</v>
+      </c>
+      <c r="V10" s="2">
+        <f t="shared" si="10"/>
+        <v>4.1625816452160735E-2</v>
+      </c>
+      <c r="W10" s="2">
+        <f t="shared" si="10"/>
+        <v>262.39958769914324</v>
+      </c>
+      <c r="X10" s="2">
+        <f t="shared" si="10"/>
+        <v>0.97332356999666647</v>
+      </c>
+      <c r="Y10" s="2">
+        <f t="shared" si="10"/>
+        <v>252.67326494628151</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
@@ -964,24 +1342,49 @@
       <c r="P11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
+      <c r="Q11" s="2">
+        <f>E50</f>
+        <v>406.18327179119768</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" ref="R11:Y11" si="11">F50</f>
+        <v>1.2148324428450441</v>
+      </c>
+      <c r="S11" s="2">
+        <f t="shared" si="11"/>
+        <v>0.80746718584679211</v>
+      </c>
+      <c r="T11" s="2">
+        <f t="shared" si="11"/>
+        <v>0.62216373445450168</v>
+      </c>
+      <c r="U11" s="2">
+        <f t="shared" si="11"/>
+        <v>40.150014947279274</v>
+      </c>
+      <c r="V11" s="2">
+        <f t="shared" si="11"/>
+        <v>0.14364344159188214</v>
+      </c>
+      <c r="W11" s="2">
+        <f t="shared" si="11"/>
+        <v>690.47691014635484</v>
+      </c>
+      <c r="X11" s="2">
+        <f t="shared" si="11"/>
+        <v>0.64601049921659204</v>
+      </c>
+      <c r="Y11" s="2">
+        <f t="shared" si="11"/>
+        <v>406.18327179119768</v>
+      </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -989,30 +1392,82 @@
       <c r="D12">
         <v>1</v>
       </c>
+      <c r="E12">
+        <v>36.717207716380997</v>
+      </c>
+      <c r="F12">
+        <v>4.0821984010247198E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.20204450997304299</v>
+      </c>
+      <c r="H12">
+        <v>0.148053256920891</v>
+      </c>
+      <c r="I12">
+        <v>33.526257562831198</v>
+      </c>
+      <c r="J12">
+        <v>1.34696339982028E-2</v>
+      </c>
+      <c r="K12">
+        <v>10.123852034541301</v>
+      </c>
+      <c r="L12">
+        <v>0.99854159892229799</v>
+      </c>
+      <c r="M12">
+        <v>36.717207716380997</v>
+      </c>
       <c r="O12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
+      <c r="Q12" s="2">
+        <f>E55</f>
+        <v>201.59761292833568</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" ref="R12:Y12" si="12">F55</f>
+        <v>0.1683645651857637</v>
+      </c>
+      <c r="S12" s="2">
+        <f t="shared" si="12"/>
+        <v>0.39095251575304402</v>
+      </c>
+      <c r="T12" s="2">
+        <f t="shared" si="12"/>
+        <v>0.3202913026157837</v>
+      </c>
+      <c r="U12" s="2">
+        <f t="shared" si="12"/>
+        <v>1.3116698830869902</v>
+      </c>
+      <c r="V12" s="2">
+        <f t="shared" si="12"/>
+        <v>0.12932706459843318</v>
+      </c>
+      <c r="W12" s="2">
+        <f t="shared" si="12"/>
+        <v>86.92616207211087</v>
+      </c>
+      <c r="X12" s="2">
+        <f t="shared" si="12"/>
+        <v>0.652571058622336</v>
+      </c>
+      <c r="Y12" s="2">
+        <f t="shared" si="12"/>
+        <v>201.59761292833568</v>
+      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1020,30 +1475,82 @@
       <c r="D13">
         <v>1</v>
       </c>
+      <c r="E13">
+        <v>3.3744510417965299</v>
+      </c>
+      <c r="F13">
+        <v>1.1108001763150299E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.10539450537457</v>
+      </c>
+      <c r="H13">
+        <v>8.0344072423726903E-2</v>
+      </c>
+      <c r="I13">
+        <v>5.8555815973873804</v>
+      </c>
+      <c r="J13">
+        <v>2.0504767582601099E-2</v>
+      </c>
+      <c r="K13">
+        <v>0.46653607405231201</v>
+      </c>
+      <c r="L13">
+        <v>0.99379334723795298</v>
+      </c>
+      <c r="M13">
+        <v>3.3744510417965299</v>
+      </c>
       <c r="O13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
+      <c r="Q13" s="2">
+        <f>E60</f>
+        <v>274.47430752180014</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" ref="R13:Y13" si="13">F60</f>
+        <v>0.15016911549429543</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" si="13"/>
+        <v>0.3433010028518913</v>
+      </c>
+      <c r="T13" s="2">
+        <f t="shared" si="13"/>
+        <v>0.23379544161384999</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" si="13"/>
+        <v>45.869867215592841</v>
+      </c>
+      <c r="V13" s="2">
+        <f t="shared" si="13"/>
+        <v>4.4124714034134233E-2</v>
+      </c>
+      <c r="W13" s="2">
+        <f t="shared" si="13"/>
+        <v>267.07863480824233</v>
+      </c>
+      <c r="X13" s="2">
+        <f t="shared" si="13"/>
+        <v>0.96939728912635392</v>
+      </c>
+      <c r="Y13" s="2">
+        <f t="shared" si="13"/>
+        <v>274.47430752180014</v>
+      </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -1051,49 +1558,76 @@
       <c r="D14">
         <v>1</v>
       </c>
+      <c r="E14">
+        <v>690.48428781062501</v>
+      </c>
+      <c r="F14">
+        <v>0.32995586807146399</v>
+      </c>
+      <c r="G14">
+        <v>0.57441785145611901</v>
+      </c>
+      <c r="H14">
+        <v>0.30907980654011802</v>
+      </c>
+      <c r="I14">
+        <v>46.836359552183197</v>
+      </c>
+      <c r="J14">
+        <v>7.8687376911797099E-2</v>
+      </c>
+      <c r="K14">
+        <v>737.12140927165103</v>
+      </c>
+      <c r="L14">
+        <v>0.93159926084912204</v>
+      </c>
+      <c r="M14">
+        <v>690.48428781062501</v>
+      </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="3" t="e">
-        <f>AVERAGE(E12:E14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="3" t="e">
-        <f>AVERAGE(F12:F14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="3" t="e">
-        <f>AVERAGE(G12:G14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" s="3" t="e">
-        <f>AVERAGE(H12:H14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="3" t="e">
-        <f>AVERAGE(I12:I14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" s="3" t="e">
-        <f>AVERAGE(J12:J14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K15" s="3" t="e">
-        <f>AVERAGE(K12:K14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L15" s="3" t="e">
-        <f>AVERAGE(L12:L14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M15" s="3" t="e">
-        <f>AVERAGE(M12:M14)</f>
-        <v>#DIV/0!</v>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="3">
+        <f t="shared" ref="E15:M15" si="14">AVERAGE(E12:E14)</f>
+        <v>243.52531552293419</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="14"/>
+        <v>0.12729528461495385</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="14"/>
+        <v>0.29395228893457731</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="14"/>
+        <v>0.17915904529491197</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="14"/>
+        <v>28.73939957080059</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="14"/>
+        <v>3.7553926164200335E-2</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="14"/>
+        <v>249.23726579341488</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="14"/>
+        <v>0.97464473566979104</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="14"/>
+        <v>243.52531552293419</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
@@ -1124,6 +1658,33 @@
       <c r="D17" s="2">
         <v>1</v>
       </c>
+      <c r="E17">
+        <v>300.04074446852297</v>
+      </c>
+      <c r="F17">
+        <v>0.13475305694668999</v>
+      </c>
+      <c r="G17">
+        <v>0.367087260670661</v>
+      </c>
+      <c r="H17">
+        <v>0.281200322838354</v>
+      </c>
+      <c r="I17">
+        <v>26.477097420700002</v>
+      </c>
+      <c r="J17">
+        <v>4.5600901946666002E-2</v>
+      </c>
+      <c r="K17">
+        <v>143.78151176211799</v>
+      </c>
+      <c r="L17">
+        <v>0.96198215136218701</v>
+      </c>
+      <c r="M17">
+        <v>300.04074446852297</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -1138,6 +1699,33 @@
       <c r="D18" s="2">
         <v>2</v>
       </c>
+      <c r="E18">
+        <v>97.097138178109105</v>
+      </c>
+      <c r="F18">
+        <v>1.83544331191734E-2</v>
+      </c>
+      <c r="G18">
+        <v>0.13547853379474301</v>
+      </c>
+      <c r="H18">
+        <v>0.11084148193847999</v>
+      </c>
+      <c r="I18">
+        <v>4.5862839287812296</v>
+      </c>
+      <c r="J18">
+        <v>2.9010392675533899E-2</v>
+      </c>
+      <c r="K18">
+        <v>16.078483412395901</v>
+      </c>
+      <c r="L18">
+        <v>0.98800039402131201</v>
+      </c>
+      <c r="M18">
+        <v>97.097138178109105</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
@@ -1152,49 +1740,76 @@
       <c r="D19" s="2">
         <v>3</v>
       </c>
+      <c r="E19">
+        <v>590.93465077547296</v>
+      </c>
+      <c r="F19">
+        <v>1.41954021438413</v>
+      </c>
+      <c r="G19">
+        <v>1.1914445914032801</v>
+      </c>
+      <c r="H19">
+        <v>1.08428376289077</v>
+      </c>
+      <c r="I19">
+        <v>45.117075997068703</v>
+      </c>
+      <c r="J19">
+        <v>0.22063788729690401</v>
+      </c>
+      <c r="K19">
+        <v>773.64941683935297</v>
+      </c>
+      <c r="L19">
+        <v>0.52016699572624603</v>
+      </c>
+      <c r="M19">
+        <v>590.93465077547296</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="3" t="e">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="3">
         <f>AVERAGE(E17:E19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="3" t="e">
-        <f t="shared" ref="F20:L20" si="2">AVERAGE(F17:F19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20" s="3" t="e">
+        <v>329.35751114070166</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" ref="F20:L20" si="15">AVERAGE(F17:F19)</f>
+        <v>0.52421590148333108</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="15"/>
+        <v>0.56467012862289467</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="15"/>
+        <v>0.49210852255586796</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="15"/>
+        <v>25.393485782183308</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="15"/>
+        <v>9.841639397303463E-2</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="15"/>
+        <v>311.16980400462228</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="15"/>
+        <v>0.82338318036991509</v>
+      </c>
+      <c r="M20" s="3">
         <f>AVERAGE(M17:M19)</f>
-        <v>#DIV/0!</v>
+        <v>329.35751114070166</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -1225,6 +1840,33 @@
       <c r="D22" s="2">
         <v>1</v>
       </c>
+      <c r="E22">
+        <v>315.282128066236</v>
+      </c>
+      <c r="F22">
+        <v>6.8105477243170898E-2</v>
+      </c>
+      <c r="G22">
+        <v>0.26097026122370898</v>
+      </c>
+      <c r="H22">
+        <v>0.21046871032459</v>
+      </c>
+      <c r="I22">
+        <v>0.79751493643523497</v>
+      </c>
+      <c r="J22">
+        <v>5.04778068130965E-2</v>
+      </c>
+      <c r="K22">
+        <v>102.02200491027</v>
+      </c>
+      <c r="L22">
+        <v>0.96495964635624099</v>
+      </c>
+      <c r="M22">
+        <v>315.282128066236</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
@@ -1239,6 +1881,33 @@
       <c r="D23" s="2">
         <v>7</v>
       </c>
+      <c r="E23">
+        <v>235.978883536891</v>
+      </c>
+      <c r="F23">
+        <v>1.2337672737334999</v>
+      </c>
+      <c r="G23">
+        <v>1.11075077030515</v>
+      </c>
+      <c r="H23">
+        <v>0.81372028805824603</v>
+      </c>
+      <c r="I23">
+        <v>3.0039801710578899</v>
+      </c>
+      <c r="J23">
+        <v>0.52147923488504999</v>
+      </c>
+      <c r="K23">
+        <v>357.79250938271599</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>235.978883536891</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
@@ -1253,49 +1922,76 @@
       <c r="D24" s="2">
         <v>9</v>
       </c>
+      <c r="E24">
+        <v>152.437611374157</v>
+      </c>
+      <c r="F24">
+        <v>0.123335596231336</v>
+      </c>
+      <c r="G24">
+        <v>0.35119168018524699</v>
+      </c>
+      <c r="H24">
+        <v>0.276155093069126</v>
+      </c>
+      <c r="I24">
+        <v>1.3518533500057399</v>
+      </c>
+      <c r="J24">
+        <v>7.4880955263378901E-2</v>
+      </c>
+      <c r="K24">
+        <v>68.081249119697901</v>
+      </c>
+      <c r="L24">
+        <v>0.91797187118699797</v>
+      </c>
+      <c r="M24">
+        <v>152.437611374157</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="3" t="e">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="3">
         <f>AVERAGE(E22:E24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="3" t="e">
-        <f t="shared" ref="F25:M25" si="3">AVERAGE(F22:F24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J25" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K25" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L25" s="3" t="e">
+        <v>234.56620765909466</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" ref="F25:M25" si="16">AVERAGE(F22:F24)</f>
+        <v>0.47506944906933563</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="16"/>
+        <v>0.57430423723803536</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="16"/>
+        <v>0.43344803048398733</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="16"/>
+        <v>1.7177828191662883</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="16"/>
+        <v>0.21561266565384182</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="16"/>
+        <v>175.96525447089462</v>
+      </c>
+      <c r="L25" s="3">
         <f>AVERAGE(L22:L24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M25" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.62764383918107969</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" si="16"/>
+        <v>234.56620765909466</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -1318,13 +2014,40 @@
         <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27">
         <v>5</v>
       </c>
       <c r="D27">
         <v>1</v>
+      </c>
+      <c r="E27">
+        <v>49.899262508924501</v>
+      </c>
+      <c r="F27">
+        <v>7.1310500570986896E-2</v>
+      </c>
+      <c r="G27">
+        <v>0.26704026020618399</v>
+      </c>
+      <c r="H27">
+        <v>0.201206703665018</v>
+      </c>
+      <c r="I27">
+        <v>20.253344526950901</v>
+      </c>
+      <c r="J27">
+        <v>1.7802684013745601E-2</v>
+      </c>
+      <c r="K27">
+        <v>17.685004141604701</v>
+      </c>
+      <c r="L27">
+        <v>0.99745237000587605</v>
+      </c>
+      <c r="M27">
+        <v>49.899262508924501</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -1332,13 +2055,40 @@
         <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="2">
         <v>2</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
+      </c>
+      <c r="E28">
+        <v>2.8492089104499398</v>
+      </c>
+      <c r="F28">
+        <v>8.0058238517767503E-3</v>
+      </c>
+      <c r="G28">
+        <v>8.9475269498206902E-2</v>
+      </c>
+      <c r="H28">
+        <v>6.7838307391665298E-2</v>
+      </c>
+      <c r="I28">
+        <v>5.1535388117399998</v>
+      </c>
+      <c r="J28">
+        <v>1.7407639980195899E-2</v>
+      </c>
+      <c r="K28">
+        <v>0.33624460177462301</v>
+      </c>
+      <c r="L28">
+        <v>0.99552670500225005</v>
+      </c>
+      <c r="M28">
+        <v>2.8492089104499398</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -1346,7 +2096,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="2">
         <v>10</v>
@@ -1354,49 +2104,76 @@
       <c r="D29" s="2">
         <v>1</v>
       </c>
+      <c r="E29">
+        <v>702.38938363115903</v>
+      </c>
+      <c r="F29">
+        <v>0.32818542270932599</v>
+      </c>
+      <c r="G29">
+        <v>0.57287470070629398</v>
+      </c>
+      <c r="H29">
+        <v>0.31440885569881799</v>
+      </c>
+      <c r="I29">
+        <v>47.305675054505002</v>
+      </c>
+      <c r="J29">
+        <v>7.8475986398122505E-2</v>
+      </c>
+      <c r="K29">
+        <v>733.16623433263601</v>
+      </c>
+      <c r="L29">
+        <v>0.93196627893582595</v>
+      </c>
+      <c r="M29">
+        <v>702.38938363115903</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="3" t="e">
-        <f>AVERAGE(E27:E29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F30" s="3" t="e">
-        <f>AVERAGE(F27:F29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G30" s="3" t="e">
-        <f>AVERAGE(G27:G29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="3" t="e">
-        <f>AVERAGE(H27:H29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="3" t="e">
-        <f>AVERAGE(I27:I29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J30" s="3" t="e">
-        <f>AVERAGE(J27:J29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K30" s="3" t="e">
-        <f>AVERAGE(K27:K29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L30" s="3" t="e">
-        <f>AVERAGE(L27:L29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M30" s="3" t="e">
-        <f>AVERAGE(M27:M29)</f>
-        <v>#DIV/0!</v>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="3">
+        <f t="shared" ref="E30:M30" si="17">AVERAGE(E27:E29)</f>
+        <v>251.71261835017785</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="17"/>
+        <v>0.13583391571069656</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="17"/>
+        <v>0.30979674347022829</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="17"/>
+        <v>0.1944846222518338</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="17"/>
+        <v>24.237519464398634</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" si="17"/>
+        <v>3.7895436797354666E-2</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="17"/>
+        <v>250.39582769200513</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="17"/>
+        <v>0.97498178464798402</v>
+      </c>
+      <c r="M30" s="3">
+        <f t="shared" si="17"/>
+        <v>251.71261835017785</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -1427,6 +2204,33 @@
       <c r="D32" s="2">
         <v>1</v>
       </c>
+      <c r="E32">
+        <v>313.96728362172001</v>
+      </c>
+      <c r="F32">
+        <v>0.14538641173356601</v>
+      </c>
+      <c r="G32">
+        <v>0.38129570117372902</v>
+      </c>
+      <c r="H32">
+        <v>0.29425237452832298</v>
+      </c>
+      <c r="I32">
+        <v>27.570912613805199</v>
+      </c>
+      <c r="J32">
+        <v>4.7365925611643399E-2</v>
+      </c>
+      <c r="K32">
+        <v>155.127301319715</v>
+      </c>
+      <c r="L32">
+        <v>0.95898216544751103</v>
+      </c>
+      <c r="M32">
+        <v>313.96728362172001</v>
+      </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
@@ -1441,6 +2245,33 @@
       <c r="D33" s="2">
         <v>2</v>
       </c>
+      <c r="E33">
+        <v>192.55297349998401</v>
+      </c>
+      <c r="F33">
+        <v>7.5577301361487104E-2</v>
+      </c>
+      <c r="G33">
+        <v>0.27491326152349699</v>
+      </c>
+      <c r="H33">
+        <v>0.21980933047943399</v>
+      </c>
+      <c r="I33">
+        <v>9.1059472749078694</v>
+      </c>
+      <c r="J33">
+        <v>5.8867936086402103E-2</v>
+      </c>
+      <c r="K33">
+        <v>66.205715992662704</v>
+      </c>
+      <c r="L33">
+        <v>0.95058971141293402</v>
+      </c>
+      <c r="M33">
+        <v>192.55297349998401</v>
+      </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
@@ -1455,49 +2286,76 @@
       <c r="D34" s="2">
         <v>3</v>
       </c>
+      <c r="E34">
+        <v>747.11218714642598</v>
+      </c>
+      <c r="F34">
+        <v>2.7787152587042798</v>
+      </c>
+      <c r="G34">
+        <v>1.6669478872191099</v>
+      </c>
+      <c r="H34">
+        <v>1.37084804980995</v>
+      </c>
+      <c r="I34">
+        <v>51.0778147023969</v>
+      </c>
+      <c r="J34">
+        <v>0.308694053188725</v>
+      </c>
+      <c r="K34">
+        <v>1514.3998159938301</v>
+      </c>
+      <c r="L34">
+        <v>6.0738627130859403E-2</v>
+      </c>
+      <c r="M34">
+        <v>747.11218714642598</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="3" t="e">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="3">
         <f>AVERAGE(E32:E34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F35" s="3" t="e">
-        <f t="shared" ref="F35:M35" si="4">AVERAGE(F32:F34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G35" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J35" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K35" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L35" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M35" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>417.87748142270999</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" ref="F35:M35" si="18">AVERAGE(F32:F34)</f>
+        <v>0.99989299059977765</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="18"/>
+        <v>0.7743856166387787</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="18"/>
+        <v>0.62830325160590228</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="18"/>
+        <v>29.251558197036655</v>
+      </c>
+      <c r="J35" s="3">
+        <f t="shared" si="18"/>
+        <v>0.13830930496225682</v>
+      </c>
+      <c r="K35" s="3">
+        <f t="shared" si="18"/>
+        <v>578.57761110206923</v>
+      </c>
+      <c r="L35" s="3">
+        <f t="shared" si="18"/>
+        <v>0.65677016799710153</v>
+      </c>
+      <c r="M35" s="3">
+        <f t="shared" si="18"/>
+        <v>417.87748142270999</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -1528,6 +2386,33 @@
       <c r="D37" s="2">
         <v>1</v>
       </c>
+      <c r="E37">
+        <v>312.28697844499197</v>
+      </c>
+      <c r="F37">
+        <v>7.5831378820785902E-2</v>
+      </c>
+      <c r="G37">
+        <v>0.27537497856701798</v>
+      </c>
+      <c r="H37">
+        <v>0.20846927800066201</v>
+      </c>
+      <c r="I37">
+        <v>0.78196680839503596</v>
+      </c>
+      <c r="J37">
+        <v>5.3264019065187303E-2</v>
+      </c>
+      <c r="K37">
+        <v>113.595405473537</v>
+      </c>
+      <c r="L37">
+        <v>0.96098466028383001</v>
+      </c>
+      <c r="M37">
+        <v>312.28697844499197</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
@@ -1542,6 +2427,33 @@
       <c r="D38" s="2">
         <v>7</v>
       </c>
+      <c r="E38">
+        <v>126.988695420544</v>
+      </c>
+      <c r="F38">
+        <v>0.281287272946046</v>
+      </c>
+      <c r="G38">
+        <v>0.53036522599624303</v>
+      </c>
+      <c r="H38">
+        <v>0.43789205317429197</v>
+      </c>
+      <c r="I38">
+        <v>1.65053307585983</v>
+      </c>
+      <c r="J38">
+        <v>0.24899775868368099</v>
+      </c>
+      <c r="K38">
+        <v>81.573309154353396</v>
+      </c>
+      <c r="L38">
+        <v>0.16603212906468301</v>
+      </c>
+      <c r="M38">
+        <v>126.988695420544</v>
+      </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
@@ -1556,49 +2468,76 @@
       <c r="D39" s="2">
         <v>9</v>
       </c>
+      <c r="E39">
+        <v>156.48472120565799</v>
+      </c>
+      <c r="F39">
+        <v>0.127978955229238</v>
+      </c>
+      <c r="G39">
+        <v>0.35774146422974001</v>
+      </c>
+      <c r="H39">
+        <v>0.28348681377836599</v>
+      </c>
+      <c r="I39">
+        <v>1.3864601631064</v>
+      </c>
+      <c r="J39">
+        <v>7.62774977035693E-2</v>
+      </c>
+      <c r="K39">
+        <v>70.644383286539707</v>
+      </c>
+      <c r="L39">
+        <v>0.914883662578588</v>
+      </c>
+      <c r="M39">
+        <v>156.48472120565799</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="3" t="e">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="3">
         <f>AVERAGE(E37:E39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F40" s="3" t="e">
-        <f t="shared" ref="F40:M40" si="5">AVERAGE(F37:F39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G40" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H40" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I40" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J40" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K40" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L40" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M40" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>198.58679835706462</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" ref="F40:M40" si="19">AVERAGE(F37:F39)</f>
+        <v>0.16169920233202328</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="19"/>
+        <v>0.3878272229310003</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="19"/>
+        <v>0.30994938165110669</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" si="19"/>
+        <v>1.2729866824537552</v>
+      </c>
+      <c r="J40" s="3">
+        <f t="shared" si="19"/>
+        <v>0.12617975848414587</v>
+      </c>
+      <c r="K40" s="3">
+        <f t="shared" si="19"/>
+        <v>88.604365971476696</v>
+      </c>
+      <c r="L40" s="3">
+        <f t="shared" si="19"/>
+        <v>0.68063348397570034</v>
+      </c>
+      <c r="M40" s="3">
+        <f t="shared" si="19"/>
+        <v>198.58679835706462</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -1621,13 +2560,40 @@
         <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C42" s="2">
         <v>5</v>
       </c>
       <c r="D42" s="2">
         <v>1</v>
+      </c>
+      <c r="E42">
+        <v>75.639082810617694</v>
+      </c>
+      <c r="F42">
+        <v>0.17385120453578401</v>
+      </c>
+      <c r="G42">
+        <v>0.41695467923478702</v>
+      </c>
+      <c r="H42">
+        <v>0.30499630165571601</v>
+      </c>
+      <c r="I42">
+        <v>35.373944264966497</v>
+      </c>
+      <c r="J42">
+        <v>2.7796978615652501E-2</v>
+      </c>
+      <c r="K42">
+        <v>43.115098724874599</v>
+      </c>
+      <c r="L42">
+        <v>0.99378901368461103</v>
+      </c>
+      <c r="M42">
+        <v>75.639082810617694</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -1635,13 +2601,40 @@
         <v>7</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>3.29171747779385</v>
+      </c>
+      <c r="F43">
+        <v>8.5995127335293502E-3</v>
+      </c>
+      <c r="G43">
+        <v>9.2733557753001905E-2</v>
+      </c>
+      <c r="H43">
+        <v>7.8374225661758501E-2</v>
+      </c>
+      <c r="I43">
+        <v>5.8352659496258097</v>
+      </c>
+      <c r="J43">
+        <v>1.80415482009731E-2</v>
+      </c>
+      <c r="K43">
+        <v>0.36117953480823201</v>
+      </c>
+      <c r="L43">
+        <v>0.99519497830501902</v>
+      </c>
+      <c r="M43">
+        <v>3.29171747779385</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -1649,57 +2642,84 @@
         <v>7</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="C44" s="2">
+        <v>10</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>679.08899455043297</v>
+      </c>
+      <c r="F44">
+        <v>0.332910691511973</v>
+      </c>
+      <c r="G44">
+        <v>0.57698413454095299</v>
+      </c>
+      <c r="H44">
+        <v>0.303978959064652</v>
+      </c>
+      <c r="I44">
+        <v>54.093985029906797</v>
+      </c>
+      <c r="J44">
+        <v>7.9038922539856601E-2</v>
+      </c>
+      <c r="K44">
+        <v>743.72248483774695</v>
+      </c>
+      <c r="L44">
+        <v>0.93098671800036903</v>
+      </c>
+      <c r="M44">
+        <v>679.08899455043297</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="3" t="e">
-        <f>AVERAGE(E42:E44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F45" s="3" t="e">
-        <f>AVERAGE(F42:F44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G45" s="3" t="e">
-        <f>AVERAGE(G42:G44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H45" s="3" t="e">
-        <f>AVERAGE(H42:H44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I45" s="3" t="e">
-        <f>AVERAGE(I42:I44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J45" s="3" t="e">
-        <f>AVERAGE(J42:J44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K45" s="3" t="e">
-        <f>AVERAGE(K42:K44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L45" s="3" t="e">
-        <f>AVERAGE(L42:L44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M45" s="3" t="e">
-        <f>AVERAGE(M42:M44)</f>
-        <v>#DIV/0!</v>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="3">
+        <f t="shared" ref="E45:M45" si="20">AVERAGE(E42:E44)</f>
+        <v>252.67326494628151</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="20"/>
+        <v>0.17178713626042877</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="20"/>
+        <v>0.36222412384291397</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="20"/>
+        <v>0.22911649546070886</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="20"/>
+        <v>31.767731748166369</v>
+      </c>
+      <c r="J45" s="3">
+        <f t="shared" si="20"/>
+        <v>4.1625816452160735E-2</v>
+      </c>
+      <c r="K45" s="3">
+        <f t="shared" si="20"/>
+        <v>262.39958769914324</v>
+      </c>
+      <c r="L45" s="3">
+        <f t="shared" si="20"/>
+        <v>0.97332356999666647</v>
+      </c>
+      <c r="M45" s="3">
+        <f t="shared" si="20"/>
+        <v>252.67326494628151</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
@@ -1730,6 +2750,33 @@
       <c r="D47" s="2">
         <v>1</v>
       </c>
+      <c r="E47">
+        <v>313.16101511126902</v>
+      </c>
+      <c r="F47">
+        <v>0.141907142604426</v>
+      </c>
+      <c r="G47">
+        <v>0.37670564450831701</v>
+      </c>
+      <c r="H47">
+        <v>0.29349673393746001</v>
+      </c>
+      <c r="I47">
+        <v>28.9497518237614</v>
+      </c>
+      <c r="J47">
+        <v>4.6795732237057998E-2</v>
+      </c>
+      <c r="K47">
+        <v>151.41492115892299</v>
+      </c>
+      <c r="L47">
+        <v>0.95996377083828299</v>
+      </c>
+      <c r="M47">
+        <v>313.16101511126902</v>
+      </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
@@ -1744,6 +2791,33 @@
       <c r="D48" s="2">
         <v>2</v>
       </c>
+      <c r="E48">
+        <v>127.31591974746399</v>
+      </c>
+      <c r="F48">
+        <v>3.3547304978586399E-2</v>
+      </c>
+      <c r="G48">
+        <v>0.18315923394299899</v>
+      </c>
+      <c r="H48">
+        <v>0.14533780793089501</v>
+      </c>
+      <c r="I48">
+        <v>6.6385192419654304</v>
+      </c>
+      <c r="J48">
+        <v>3.9220392707280401E-2</v>
+      </c>
+      <c r="K48">
+        <v>29.387439161241598</v>
+      </c>
+      <c r="L48">
+        <v>0.97806772681149301</v>
+      </c>
+      <c r="M48">
+        <v>127.31591974746399</v>
+      </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
@@ -1758,49 +2832,76 @@
       <c r="D49" s="2">
         <v>3</v>
       </c>
+      <c r="E49">
+        <v>778.07288051486</v>
+      </c>
+      <c r="F49">
+        <v>3.4690428809521201</v>
+      </c>
+      <c r="G49">
+        <v>1.8625366790890601</v>
+      </c>
+      <c r="H49">
+        <v>1.42765666149515</v>
+      </c>
+      <c r="I49">
+        <v>84.861773776110994</v>
+      </c>
+      <c r="J49">
+        <v>0.344914199831308</v>
+      </c>
+      <c r="K49">
+        <v>1890.6283701189</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>778.07288051486</v>
+      </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="3" t="e">
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="3">
         <f>AVERAGE(E47:E49)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F50" s="3" t="e">
-        <f t="shared" ref="F50:M50" si="6">AVERAGE(F47:F49)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G50" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H50" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I50" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J50" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K50" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L50" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M50" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>406.18327179119768</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" ref="F50:M50" si="21">AVERAGE(F47:F49)</f>
+        <v>1.2148324428450441</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="21"/>
+        <v>0.80746718584679211</v>
+      </c>
+      <c r="H50" s="3">
+        <f t="shared" si="21"/>
+        <v>0.62216373445450168</v>
+      </c>
+      <c r="I50" s="3">
+        <f t="shared" si="21"/>
+        <v>40.150014947279274</v>
+      </c>
+      <c r="J50" s="3">
+        <f t="shared" si="21"/>
+        <v>0.14364344159188214</v>
+      </c>
+      <c r="K50" s="3">
+        <f t="shared" si="21"/>
+        <v>690.47691014635484</v>
+      </c>
+      <c r="L50" s="3">
+        <f t="shared" si="21"/>
+        <v>0.64601049921659204</v>
+      </c>
+      <c r="M50" s="3">
+        <f t="shared" si="21"/>
+        <v>406.18327179119768</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
@@ -1831,6 +2932,33 @@
       <c r="D52" s="2">
         <v>1</v>
       </c>
+      <c r="E52">
+        <v>314.04865247055801</v>
+      </c>
+      <c r="F52">
+        <v>6.7222343034728099E-2</v>
+      </c>
+      <c r="G52">
+        <v>0.25927271941862301</v>
+      </c>
+      <c r="H52">
+        <v>0.20964529537420401</v>
+      </c>
+      <c r="I52">
+        <v>0.79363388102063004</v>
+      </c>
+      <c r="J52">
+        <v>5.0149462169946403E-2</v>
+      </c>
+      <c r="K52">
+        <v>100.699069866022</v>
+      </c>
+      <c r="L52">
+        <v>0.96541402001650101</v>
+      </c>
+      <c r="M52">
+        <v>314.04865247055801</v>
+      </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
@@ -1845,6 +2973,33 @@
       <c r="D53" s="2">
         <v>7</v>
       </c>
+      <c r="E53">
+        <v>137.17886356302</v>
+      </c>
+      <c r="F53">
+        <v>0.31154797802345202</v>
+      </c>
+      <c r="G53">
+        <v>0.55816483051465404</v>
+      </c>
+      <c r="H53">
+        <v>0.47303056401041399</v>
+      </c>
+      <c r="I53">
+        <v>1.7781427965327801</v>
+      </c>
+      <c r="J53">
+        <v>0.26204921620406202</v>
+      </c>
+      <c r="K53">
+        <v>90.348913626801206</v>
+      </c>
+      <c r="L53">
+        <v>7.6314398425491994E-2</v>
+      </c>
+      <c r="M53">
+        <v>137.17886356302</v>
+      </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
@@ -1859,49 +3014,76 @@
       <c r="D54" s="2">
         <v>9</v>
       </c>
+      <c r="E54">
+        <v>153.56532275142899</v>
+      </c>
+      <c r="F54">
+        <v>0.12632337449911099</v>
+      </c>
+      <c r="G54">
+        <v>0.355419997325855</v>
+      </c>
+      <c r="H54">
+        <v>0.27819804846273299</v>
+      </c>
+      <c r="I54">
+        <v>1.36323297170756</v>
+      </c>
+      <c r="J54">
+        <v>7.5782515421291094E-2</v>
+      </c>
+      <c r="K54">
+        <v>69.730502723509403</v>
+      </c>
+      <c r="L54">
+        <v>0.91598475742501495</v>
+      </c>
+      <c r="M54">
+        <v>153.56532275142899</v>
+      </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="3" t="e">
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="3">
         <f>AVERAGE(E52:E54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F55" s="3" t="e">
-        <f t="shared" ref="F55:M55" si="7">AVERAGE(F52:F54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G55" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H55" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I55" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J55" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K55" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L55" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M55" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>201.59761292833568</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" ref="F55:M55" si="22">AVERAGE(F52:F54)</f>
+        <v>0.1683645651857637</v>
+      </c>
+      <c r="G55" s="3">
+        <f t="shared" si="22"/>
+        <v>0.39095251575304402</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" si="22"/>
+        <v>0.3202913026157837</v>
+      </c>
+      <c r="I55" s="3">
+        <f t="shared" si="22"/>
+        <v>1.3116698830869902</v>
+      </c>
+      <c r="J55" s="3">
+        <f t="shared" si="22"/>
+        <v>0.12932706459843318</v>
+      </c>
+      <c r="K55" s="3">
+        <f t="shared" si="22"/>
+        <v>86.92616207211087</v>
+      </c>
+      <c r="L55" s="3">
+        <f t="shared" si="22"/>
+        <v>0.652571058622336</v>
+      </c>
+      <c r="M55" s="3">
+        <f t="shared" si="22"/>
+        <v>201.59761292833568</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
@@ -1924,13 +3106,40 @@
         <v>1</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>21</v>
+      <c r="C57" s="2">
+        <v>5</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>53.360773363355896</v>
+      </c>
+      <c r="F57">
+        <v>7.0374262085136002E-2</v>
+      </c>
+      <c r="G57">
+        <v>0.265281477086388</v>
+      </c>
+      <c r="H57">
+        <v>0.21516440872320899</v>
+      </c>
+      <c r="I57">
+        <v>63.969667880824403</v>
+      </c>
+      <c r="J57">
+        <v>1.76854318057592E-2</v>
+      </c>
+      <c r="K57">
+        <v>17.4528169971137</v>
+      </c>
+      <c r="L57">
+        <v>0.99748581794452595</v>
+      </c>
+      <c r="M57">
+        <v>53.360773363355896</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
@@ -1938,13 +3147,40 @@
         <v>1</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>6.0577644521285601</v>
+      </c>
+      <c r="F58">
+        <v>2.9851379159197299E-2</v>
+      </c>
+      <c r="G58">
+        <v>0.17277551666598201</v>
+      </c>
+      <c r="H58">
+        <v>0.144232486955442</v>
+      </c>
+      <c r="I58">
+        <v>11.662078926549301</v>
+      </c>
+      <c r="J58">
+        <v>3.3613913748245697E-2</v>
+      </c>
+      <c r="K58">
+        <v>1.25375792468628</v>
+      </c>
+      <c r="L58">
+        <v>0.98332038931394605</v>
+      </c>
+      <c r="M58">
+        <v>6.0577644521285601</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
@@ -1952,66 +3188,88 @@
         <v>1</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="C59" s="2">
+        <v>10</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>764.00438474991597</v>
+      </c>
+      <c r="F59">
+        <v>0.35028170523855301</v>
+      </c>
+      <c r="G59">
+        <v>0.59184601480330401</v>
+      </c>
+      <c r="H59">
+        <v>0.34198942916289898</v>
+      </c>
+      <c r="I59">
+        <v>61.977854839404799</v>
+      </c>
+      <c r="J59">
+        <v>8.1074796548397804E-2</v>
+      </c>
+      <c r="K59">
+        <v>782.529329502927</v>
+      </c>
+      <c r="L59">
+        <v>0.92738566012058998</v>
+      </c>
+      <c r="M59">
+        <v>764.00438474991597</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="3" t="e">
-        <f>AVERAGE(E57:E59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F60" s="3" t="e">
-        <f>AVERAGE(F57:F59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G60" s="3" t="e">
-        <f>AVERAGE(G57:G59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H60" s="3" t="e">
-        <f>AVERAGE(H57:H59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I60" s="3" t="e">
-        <f>AVERAGE(I57:I59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J60" s="3" t="e">
-        <f>AVERAGE(J57:J59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K60" s="3" t="e">
-        <f>AVERAGE(K57:K59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L60" s="3" t="e">
-        <f>AVERAGE(L57:L59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M60" s="3" t="e">
-        <f>AVERAGE(M57:M59)</f>
-        <v>#DIV/0!</v>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="3">
+        <f t="shared" ref="E60:M60" si="23">AVERAGE(E57:E59)</f>
+        <v>274.47430752180014</v>
+      </c>
+      <c r="F60" s="3">
+        <f t="shared" si="23"/>
+        <v>0.15016911549429543</v>
+      </c>
+      <c r="G60" s="3">
+        <f t="shared" si="23"/>
+        <v>0.3433010028518913</v>
+      </c>
+      <c r="H60" s="3">
+        <f t="shared" si="23"/>
+        <v>0.23379544161384999</v>
+      </c>
+      <c r="I60" s="3">
+        <f t="shared" si="23"/>
+        <v>45.869867215592841</v>
+      </c>
+      <c r="J60" s="3">
+        <f t="shared" si="23"/>
+        <v>4.4124714034134233E-2</v>
+      </c>
+      <c r="K60" s="3">
+        <f t="shared" si="23"/>
+        <v>267.07863480824233</v>
+      </c>
+      <c r="L60" s="3">
+        <f t="shared" si="23"/>
+        <v>0.96939728912635392</v>
+      </c>
+      <c r="M60" s="3">
+        <f t="shared" si="23"/>
+        <v>274.47430752180014</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A55:D55"/>
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A30:D30"/>
@@ -2019,6 +3277,11 @@
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A55:D55"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results/Model_Analysis.xlsx
+++ b/Results/Model_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Desktop\01Autonomous_Vehicles_Research\00Thesis\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3BE6E5-FC25-474C-8DCB-C46E79655840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B15FA1-345B-4BE5-9B78-0EA1B191DB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,14 +213,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -230,7 +227,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="N64" sqref="N64"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,12 +852,12 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="3">
         <f>AVERAGE(E2:E4)</f>
         <v>133.0615670104317</v>
@@ -1245,12 +1244,12 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="3">
         <f>AVERAGE(E7:E9)</f>
         <v>126.52787840002247</v>
@@ -1345,46 +1344,46 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="O11" s="2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q11" s="2" t="e">
+      <c r="Q11" s="2">
         <f>E53</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R11" s="2" t="e">
+        <v>119.60261541850188</v>
+      </c>
+      <c r="R11" s="2">
         <f t="shared" ref="R11:Y11" si="11">F53</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S11" s="2" t="e">
+        <v>6.9454005474585037E-2</v>
+      </c>
+      <c r="S11" s="2">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T11" s="2" t="e">
+        <v>0.24524450624196001</v>
+      </c>
+      <c r="T11" s="2">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U11" s="2" t="e">
+        <v>0.19261632374065699</v>
+      </c>
+      <c r="U11" s="2">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V11" s="2" t="e">
+        <v>0.81608822985088436</v>
+      </c>
+      <c r="V11" s="2">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W11" s="2" t="e">
+        <v>7.6086618873705228E-2</v>
+      </c>
+      <c r="W11" s="2">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X11" s="2" t="e">
+        <v>42.474315251482381</v>
+      </c>
+      <c r="X11" s="2">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y11" s="2" t="e">
+        <v>0.93883071901605331</v>
+      </c>
+      <c r="Y11" s="2">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>119.60261541850188</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
@@ -1428,46 +1427,46 @@
         <v>135.91162429497899</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q12" s="2" t="e">
+      <c r="Q12" s="2">
         <f>E58</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R12" s="2" t="e">
+        <v>137.39203345513218</v>
+      </c>
+      <c r="R12" s="2">
         <f t="shared" ref="R12:Y12" si="12">F58</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S12" s="2" t="e">
+        <v>7.4050902117407932E-2</v>
+      </c>
+      <c r="S12" s="2">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T12" s="2" t="e">
+        <v>0.26552807576194604</v>
+      </c>
+      <c r="T12" s="2">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U12" s="2" t="e">
+        <v>0.20814863542757933</v>
+      </c>
+      <c r="U12" s="2">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V12" s="2" t="e">
+        <v>15.025078982618643</v>
+      </c>
+      <c r="V12" s="2">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W12" s="2" t="e">
+        <v>5.919587749775914E-2</v>
+      </c>
+      <c r="W12" s="2">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X12" s="2" t="e">
+        <v>50.214415916284302</v>
+      </c>
+      <c r="X12" s="2">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y12" s="2" t="e">
+        <v>0.95166279261063302</v>
+      </c>
+      <c r="Y12" s="2">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>137.39203345513218</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
@@ -1511,46 +1510,46 @@
         <v>278.87929166587298</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q13" s="2" t="e">
+      <c r="Q13" s="2">
         <f>E64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R13" s="2" t="e">
+        <v>182.7620022411071</v>
+      </c>
+      <c r="R13" s="2">
         <f t="shared" ref="R13:Y13" si="13">F64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S13" s="2" t="e">
+        <v>0.26950849788913689</v>
+      </c>
+      <c r="S13" s="2">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T13" s="2" t="e">
+        <v>0.47296035177628626</v>
+      </c>
+      <c r="T13" s="2">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U13" s="2" t="e">
+        <v>0.36255064179614027</v>
+      </c>
+      <c r="U13" s="2">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V13" s="2" t="e">
+        <v>14.353435813034412</v>
+      </c>
+      <c r="V13" s="2">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W13" s="2" t="e">
+        <v>5.1108220784293848E-2</v>
+      </c>
+      <c r="W13" s="2">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X13" s="2" t="e">
+        <v>143.94573616581917</v>
+      </c>
+      <c r="X13" s="2">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y13" s="2" t="e">
+        <v>0.96444045809715773</v>
+      </c>
+      <c r="Y13" s="2">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>182.7620022411071</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
@@ -1593,17 +1592,6 @@
       <c r="M14" s="2">
         <v>289.725306181186</v>
       </c>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -1647,12 +1635,12 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="3">
         <f t="shared" ref="E16:M16" si="14">AVERAGE(E12:E15)</f>
         <v>176.84515313455117</v>
@@ -1829,12 +1817,12 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="3">
         <f>AVERAGE(E18:E20)</f>
         <v>131.63325115647197</v>
@@ -2011,12 +1999,12 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="3">
         <f>AVERAGE(E23:E25)</f>
         <v>129.92572820153646</v>
@@ -2234,12 +2222,12 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="3">
         <f t="shared" ref="E32:M32" si="17">AVERAGE(E28:E31)</f>
         <v>166.75533039671973</v>
@@ -2416,12 +2404,12 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
       <c r="E37" s="3">
         <f>AVERAGE(E34:E36)</f>
         <v>138.90008037432546</v>
@@ -2598,12 +2586,12 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="7"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
       <c r="E42" s="3">
         <f>AVERAGE(E39:E41)</f>
         <v>162.37343850247021</v>
@@ -2821,12 +2809,12 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="7"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
       <c r="E48" s="3">
         <f t="shared" ref="E48:M48" si="20">AVERAGE(E44:E47)</f>
         <v>175.71964800163991</v>
@@ -2892,15 +2880,33 @@
       <c r="D50" s="2">
         <v>1</v>
       </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
+      <c r="E50">
+        <v>250.61591917055699</v>
+      </c>
+      <c r="F50">
+        <v>6.1541580438117999E-2</v>
+      </c>
+      <c r="G50">
+        <v>0.248075755441998</v>
+      </c>
+      <c r="H50">
+        <v>0.19307852016221599</v>
+      </c>
+      <c r="I50">
+        <v>0.73193243089735005</v>
+      </c>
+      <c r="J50">
+        <v>4.7983705114506302E-2</v>
+      </c>
+      <c r="K50">
+        <v>79.880971408677198</v>
+      </c>
+      <c r="L50">
+        <v>0.96581305240166304</v>
+      </c>
+      <c r="M50">
+        <v>250.61591917055699</v>
+      </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
@@ -2915,15 +2921,33 @@
       <c r="D51" s="2">
         <v>7</v>
       </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
+      <c r="E51">
+        <v>9.3597498165179296</v>
+      </c>
+      <c r="F51">
+        <v>1.57970195464671E-2</v>
+      </c>
+      <c r="G51">
+        <v>0.12568619473302201</v>
+      </c>
+      <c r="H51">
+        <v>0.103997220183532</v>
+      </c>
+      <c r="I51">
+        <v>0.39451902947122303</v>
+      </c>
+      <c r="J51">
+        <v>9.4500898295505106E-2</v>
+      </c>
+      <c r="K51">
+        <v>1.42173175918204</v>
+      </c>
+      <c r="L51">
+        <v>0.93267272754871899</v>
+      </c>
+      <c r="M51">
+        <v>9.3597498165179296</v>
+      </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
@@ -2938,58 +2962,76 @@
       <c r="D52" s="2">
         <v>9</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
+      <c r="E52">
+        <v>98.832177268430698</v>
+      </c>
+      <c r="F52">
+        <v>0.13102341643917001</v>
+      </c>
+      <c r="G52">
+        <v>0.36197156855085999</v>
+      </c>
+      <c r="H52">
+        <v>0.28077323087622302</v>
+      </c>
+      <c r="I52">
+        <v>1.3218132291840801</v>
+      </c>
+      <c r="J52">
+        <v>8.5775253211104296E-2</v>
+      </c>
+      <c r="K52">
+        <v>46.120242586587899</v>
+      </c>
+      <c r="L52">
+        <v>0.91800637709777799</v>
+      </c>
+      <c r="M52">
+        <v>98.832177268430698</v>
+      </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="3" t="e">
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="3">
         <f>AVERAGE(E50:E52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F53" s="3" t="e">
+        <v>119.60261541850188</v>
+      </c>
+      <c r="F53" s="3">
         <f t="shared" ref="F53:M53" si="21">AVERAGE(F50:F52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G53" s="3" t="e">
+        <v>6.9454005474585037E-2</v>
+      </c>
+      <c r="G53" s="3">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H53" s="3" t="e">
+        <v>0.24524450624196001</v>
+      </c>
+      <c r="H53" s="3">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I53" s="3" t="e">
+        <v>0.19261632374065699</v>
+      </c>
+      <c r="I53" s="3">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J53" s="3" t="e">
+        <v>0.81608822985088436</v>
+      </c>
+      <c r="J53" s="3">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K53" s="3" t="e">
+        <v>7.6086618873705228E-2</v>
+      </c>
+      <c r="K53" s="3">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L53" s="3" t="e">
+        <v>42.474315251482381</v>
+      </c>
+      <c r="L53" s="3">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M53" s="3" t="e">
+        <v>0.93883071901605331</v>
+      </c>
+      <c r="M53" s="3">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
+        <v>119.60261541850188</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -3020,6 +3062,33 @@
       <c r="D55" s="2">
         <v>1</v>
       </c>
+      <c r="E55">
+        <v>239.797259205335</v>
+      </c>
+      <c r="F55">
+        <v>0.11713127915992599</v>
+      </c>
+      <c r="G55">
+        <v>0.34224447279675002</v>
+      </c>
+      <c r="H55">
+        <v>0.27658276724952102</v>
+      </c>
+      <c r="I55">
+        <v>33.178884082830699</v>
+      </c>
+      <c r="J55">
+        <v>4.2514841341211203E-2</v>
+      </c>
+      <c r="K55">
+        <v>101.55281903165501</v>
+      </c>
+      <c r="L55">
+        <v>0.97023670380142002</v>
+      </c>
+      <c r="M55">
+        <v>239.797259205335</v>
+      </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
@@ -3034,6 +3103,33 @@
       <c r="D56" s="2">
         <v>2</v>
       </c>
+      <c r="E56">
+        <v>106.946994981495</v>
+      </c>
+      <c r="F56">
+        <v>3.8846031226148298E-2</v>
+      </c>
+      <c r="G56">
+        <v>0.19709396547370001</v>
+      </c>
+      <c r="H56">
+        <v>0.15820561387795201</v>
+      </c>
+      <c r="I56">
+        <v>7.3786142765536002</v>
+      </c>
+      <c r="J56">
+        <v>4.2204275262034401E-2</v>
+      </c>
+      <c r="K56">
+        <v>26.259917108876301</v>
+      </c>
+      <c r="L56">
+        <v>0.97833258573290605</v>
+      </c>
+      <c r="M56">
+        <v>106.946994981495</v>
+      </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
@@ -3048,49 +3144,76 @@
       <c r="D57">
         <v>3</v>
       </c>
+      <c r="E57">
+        <v>65.431846178566502</v>
+      </c>
+      <c r="F57">
+        <v>6.6175395966149506E-2</v>
+      </c>
+      <c r="G57">
+        <v>0.25724578901538803</v>
+      </c>
+      <c r="H57">
+        <v>0.18965752515526499</v>
+      </c>
+      <c r="I57">
+        <v>4.5177385884716301</v>
+      </c>
+      <c r="J57">
+        <v>9.2868515890031797E-2</v>
+      </c>
+      <c r="K57">
+        <v>22.830511608321601</v>
+      </c>
+      <c r="L57">
+        <v>0.90641908829757301</v>
+      </c>
+      <c r="M57">
+        <v>65.431846178566502</v>
+      </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="3" t="e">
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="3">
         <f>AVERAGE(E55:E57)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F58" s="3" t="e">
+        <v>137.39203345513218</v>
+      </c>
+      <c r="F58" s="3">
         <f t="shared" ref="F58:M58" si="22">AVERAGE(F55:F57)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G58" s="3" t="e">
+        <v>7.4050902117407932E-2</v>
+      </c>
+      <c r="G58" s="3">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H58" s="3" t="e">
+        <v>0.26552807576194604</v>
+      </c>
+      <c r="H58" s="3">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I58" s="3" t="e">
+        <v>0.20814863542757933</v>
+      </c>
+      <c r="I58" s="3">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J58" s="3" t="e">
+        <v>15.025078982618643</v>
+      </c>
+      <c r="J58" s="3">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K58" s="3" t="e">
+        <v>5.919587749775914E-2</v>
+      </c>
+      <c r="K58" s="3">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L58" s="3" t="e">
+        <v>50.214415916284302</v>
+      </c>
+      <c r="L58" s="3">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M58" s="3" t="e">
+        <v>0.95166279261063302</v>
+      </c>
+      <c r="M58" s="3">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>137.39203345513218</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
@@ -3121,6 +3244,33 @@
       <c r="D60" s="2">
         <v>1</v>
       </c>
+      <c r="E60">
+        <v>164.569796431257</v>
+      </c>
+      <c r="F60">
+        <v>0.15645148675078899</v>
+      </c>
+      <c r="G60">
+        <v>0.39553948823194601</v>
+      </c>
+      <c r="H60">
+        <v>0.27798952099874502</v>
+      </c>
+      <c r="I60">
+        <v>32.311947271623303</v>
+      </c>
+      <c r="J60">
+        <v>2.3253350278186102E-2</v>
+      </c>
+      <c r="K60">
+        <v>92.619280156467596</v>
+      </c>
+      <c r="L60">
+        <v>0.994521485819582</v>
+      </c>
+      <c r="M60">
+        <v>164.569796431257</v>
+      </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
@@ -3135,6 +3285,33 @@
       <c r="D61" s="2">
         <v>1</v>
       </c>
+      <c r="E61">
+        <v>290.16495296106098</v>
+      </c>
+      <c r="F61">
+        <v>0.55789500794443403</v>
+      </c>
+      <c r="G61">
+        <v>0.74692369619957399</v>
+      </c>
+      <c r="H61">
+        <v>0.58737844728959798</v>
+      </c>
+      <c r="I61">
+        <v>8.7304987058764301</v>
+      </c>
+      <c r="J61">
+        <v>7.4692369619957399E-2</v>
+      </c>
+      <c r="K61">
+        <v>275.60013392454999</v>
+      </c>
+      <c r="L61">
+        <v>0.94267655382700799</v>
+      </c>
+      <c r="M61">
+        <v>290.16495296106098</v>
+      </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
@@ -3149,6 +3326,33 @@
       <c r="D62" s="2">
         <v>1</v>
       </c>
+      <c r="E62">
+        <v>270.138917148166</v>
+      </c>
+      <c r="F62">
+        <v>0.33441505341579802</v>
+      </c>
+      <c r="G62">
+        <v>0.57828630747735899</v>
+      </c>
+      <c r="H62">
+        <v>0.43782644594516301</v>
+      </c>
+      <c r="I62">
+        <v>4.6636121152471199</v>
+      </c>
+      <c r="J62">
+        <v>7.3200798414855495E-2</v>
+      </c>
+      <c r="K62">
+        <v>206.33408795754701</v>
+      </c>
+      <c r="L62">
+        <v>0.93691992013893799</v>
+      </c>
+      <c r="M62">
+        <v>270.138917148166</v>
+      </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
@@ -3163,58 +3367,80 @@
       <c r="D63" s="2">
         <v>1</v>
       </c>
+      <c r="E63">
+        <v>6.1743424239443296</v>
+      </c>
+      <c r="F63">
+        <v>2.92724434455265E-2</v>
+      </c>
+      <c r="G63">
+        <v>0.17109191519626599</v>
+      </c>
+      <c r="H63">
+        <v>0.14700815295105499</v>
+      </c>
+      <c r="I63">
+        <v>11.707685159390801</v>
+      </c>
+      <c r="J63">
+        <v>3.32863648241764E-2</v>
+      </c>
+      <c r="K63">
+        <v>1.22944262471211</v>
+      </c>
+      <c r="L63">
+        <v>0.98364387260310304</v>
+      </c>
+      <c r="M63">
+        <v>6.1743424239443296</v>
+      </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="3" t="e">
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="3">
         <f t="shared" ref="E64:M64" si="23">AVERAGE(E60:E63)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F64" s="3" t="e">
+        <v>182.7620022411071</v>
+      </c>
+      <c r="F64" s="3">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G64" s="3" t="e">
+        <v>0.26950849788913689</v>
+      </c>
+      <c r="G64" s="3">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H64" s="3" t="e">
+        <v>0.47296035177628626</v>
+      </c>
+      <c r="H64" s="3">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I64" s="3" t="e">
+        <v>0.36255064179614027</v>
+      </c>
+      <c r="I64" s="3">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J64" s="3" t="e">
+        <v>14.353435813034412</v>
+      </c>
+      <c r="J64" s="3">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K64" s="3" t="e">
+        <v>5.1108220784293848E-2</v>
+      </c>
+      <c r="K64" s="3">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L64" s="3" t="e">
+        <v>143.94573616581917</v>
+      </c>
+      <c r="L64" s="3">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M64" s="3" t="e">
+        <v>0.96444045809715773</v>
+      </c>
+      <c r="M64" s="3">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>182.7620022411071</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A58:D58"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A32:D32"/>
@@ -3222,6 +3448,11 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A58:D58"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results/Model_Analysis.xlsx
+++ b/Results/Model_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Desktop\01Autonomous_Vehicles_Research\00Thesis\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F127EC9-59E9-47AB-AB4F-004502E7DA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DB9637-6D83-41DB-B8F5-CA03C1E5E41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="28">
   <si>
     <t>Model</t>
   </si>
@@ -105,11 +105,20 @@
   <si>
     <t>CSF</t>
   </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,12 +150,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -213,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -230,6 +245,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -239,7 +256,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y90"/>
+  <dimension ref="A1:Y168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,6 +553,9 @@
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="12" max="12" width="10.109375" customWidth="1"/>
     <col min="13" max="13" width="18.6640625" customWidth="1"/>
+    <col min="17" max="17" width="8.44140625" customWidth="1"/>
+    <col min="18" max="22" width="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.33203125" customWidth="1"/>
     <col min="25" max="25" width="16" customWidth="1"/>
   </cols>
@@ -658,41 +680,41 @@
       <c r="P2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="2">
-        <f>E32</f>
-        <v>504.166948326186</v>
-      </c>
-      <c r="R2" s="2">
-        <f>F32</f>
-        <v>0.74780307731337048</v>
-      </c>
-      <c r="S2" s="2">
-        <f>G32</f>
-        <v>0.72407523653529149</v>
-      </c>
-      <c r="T2" s="2">
-        <f>H32</f>
-        <v>0.54441311541657211</v>
-      </c>
-      <c r="U2" s="2">
-        <f>I32</f>
-        <v>3.5590392933222947</v>
-      </c>
-      <c r="V2" s="2">
-        <f>J32</f>
-        <v>0.10425214185588502</v>
-      </c>
-      <c r="W2" s="2">
-        <f>K32</f>
-        <v>594.10305242948016</v>
-      </c>
-      <c r="X2" s="2">
-        <f>L32</f>
-        <v>0.1733625762771247</v>
-      </c>
-      <c r="Y2" s="2">
-        <f>M32</f>
-        <v>504.166948326186</v>
+      <c r="Q2" s="9">
+        <f t="shared" ref="Q2:Y2" si="0">E32</f>
+        <v>494.34432019015674</v>
+      </c>
+      <c r="R2" s="9">
+        <f t="shared" si="0"/>
+        <v>0.47326895190455087</v>
+      </c>
+      <c r="S2" s="9">
+        <f t="shared" si="0"/>
+        <v>0.60406795948961711</v>
+      </c>
+      <c r="T2" s="9">
+        <f t="shared" si="0"/>
+        <v>0.43517195616976018</v>
+      </c>
+      <c r="U2" s="9">
+        <f t="shared" si="0"/>
+        <v>3.3593166766383096</v>
+      </c>
+      <c r="V2" s="9">
+        <f t="shared" si="0"/>
+        <v>6.6162276176786647E-2</v>
+      </c>
+      <c r="W2" s="9">
+        <f t="shared" si="0"/>
+        <v>514.71236550265189</v>
+      </c>
+      <c r="X2" s="9">
+        <f t="shared" si="0"/>
+        <v>0.90181250324133755</v>
+      </c>
+      <c r="Y2" s="9">
+        <f t="shared" si="0"/>
+        <v>494.34432019015674</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -742,40 +764,40 @@
       <c r="P3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="2">
-        <f>E36</f>
+      <c r="Q3" s="9">
+        <f t="shared" ref="Q3:Y3" si="1">E36</f>
         <v>125.98636395186337</v>
       </c>
-      <c r="R3" s="2">
-        <f>F36</f>
+      <c r="R3" s="9">
+        <f t="shared" si="1"/>
         <v>6.2931011576996737E-2</v>
       </c>
-      <c r="S3" s="2">
-        <f>G36</f>
+      <c r="S3" s="9">
+        <f t="shared" si="1"/>
         <v>0.2427302106133713</v>
       </c>
-      <c r="T3" s="2">
-        <f>H36</f>
+      <c r="T3" s="9">
+        <f t="shared" si="1"/>
         <v>0.1882194683984543</v>
       </c>
-      <c r="U3" s="2">
-        <f>I36</f>
+      <c r="U3" s="9">
+        <f t="shared" si="1"/>
         <v>11.44268824691372</v>
       </c>
-      <c r="V3" s="2">
-        <f>J36</f>
+      <c r="V3" s="9">
+        <f t="shared" si="1"/>
         <v>5.2178896762678305E-2</v>
       </c>
-      <c r="W3" s="2">
-        <f>K36</f>
+      <c r="W3" s="9">
+        <f t="shared" si="1"/>
         <v>44.810701372213366</v>
       </c>
-      <c r="X3" s="2">
-        <f>L36</f>
+      <c r="X3" s="9">
+        <f t="shared" si="1"/>
         <v>0.9637831493425123</v>
       </c>
-      <c r="Y3" s="2">
-        <f>M36</f>
+      <c r="Y3" s="9">
+        <f t="shared" si="1"/>
         <v>125.98636395186337</v>
       </c>
     </row>
@@ -784,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f t="shared" ref="B4:B31" si="0">B3</f>
+        <f t="shared" ref="B4:B31" si="2">B3</f>
         <v>I294</v>
       </c>
       <c r="C4" s="2">
@@ -826,40 +848,40 @@
       <c r="P4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="2">
-        <f>E42</f>
+      <c r="Q4" s="9">
+        <f t="shared" ref="Q4:Y4" si="3">E41</f>
         <v>177.8352568311085</v>
       </c>
-      <c r="R4" s="2">
-        <f>F42</f>
+      <c r="R4" s="9">
+        <f t="shared" si="3"/>
         <v>0.25150717501850789</v>
       </c>
-      <c r="S4" s="2">
-        <f>G42</f>
+      <c r="S4" s="9">
+        <f t="shared" si="3"/>
         <v>0.44345611120923284</v>
       </c>
-      <c r="T4" s="2">
-        <f>H42</f>
+      <c r="T4" s="9">
+        <f t="shared" si="3"/>
         <v>0.33670262808296064</v>
       </c>
-      <c r="U4" s="2">
-        <f>I42</f>
+      <c r="U4" s="9">
+        <f t="shared" si="3"/>
         <v>8.9487102951776176</v>
       </c>
-      <c r="V4" s="2">
-        <f>J42</f>
+      <c r="V4" s="9">
+        <f t="shared" si="3"/>
         <v>4.6728781966459444E-2</v>
       </c>
-      <c r="W4" s="2">
-        <f>K42</f>
+      <c r="W4" s="9">
+        <f t="shared" si="3"/>
         <v>137.36501426655872</v>
       </c>
-      <c r="X4" s="2">
-        <f>L42</f>
+      <c r="X4" s="9">
+        <f t="shared" si="3"/>
         <v>0.96791714475828872</v>
       </c>
-      <c r="Y4" s="2">
-        <f>M42</f>
+      <c r="Y4" s="9">
+        <f t="shared" si="3"/>
         <v>177.8352568311085</v>
       </c>
     </row>
@@ -868,7 +890,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>I294</v>
       </c>
       <c r="C5" s="2">
@@ -877,74 +899,56 @@
       <c r="D5" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="2">
-        <v>410.09345682643999</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.64800164501580104</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.80498549366793004</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.62229659609475096</v>
-      </c>
-      <c r="I5" s="2">
-        <v>2.37511313397667</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.119257110173026</v>
-      </c>
-      <c r="K5" s="2">
-        <v>427.03308406541299</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0.67813708811477902</v>
-      </c>
-      <c r="M5" s="2">
-        <v>410.09345682643999</v>
-      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
       <c r="O5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="2">
-        <f>E47</f>
-        <v>131.63325115647197</v>
-      </c>
-      <c r="R5" s="2">
-        <f>F47</f>
-        <v>7.7236708331482953E-2</v>
-      </c>
-      <c r="S5" s="2">
-        <f>G47</f>
-        <v>0.25893556292536068</v>
-      </c>
-      <c r="T5" s="2">
-        <f>H47</f>
-        <v>0.20058390586285402</v>
-      </c>
-      <c r="U5" s="2">
-        <f>I47</f>
-        <v>0.84383074112493794</v>
-      </c>
-      <c r="V5" s="2">
-        <f>J47</f>
-        <v>7.9857109558156406E-2</v>
-      </c>
-      <c r="W5" s="2">
-        <f>K47</f>
-        <v>48.537520410873519</v>
-      </c>
-      <c r="X5" s="2">
-        <f>L47</f>
-        <v>0.93271065522332941</v>
-      </c>
-      <c r="Y5" s="2">
-        <f>M47</f>
-        <v>131.63325115647197</v>
+      <c r="Q5" s="9">
+        <f t="shared" ref="Q5:Y5" si="4">E72</f>
+        <v>514.58964240130524</v>
+      </c>
+      <c r="R5" s="9">
+        <f t="shared" si="4"/>
+        <v>0.52679260869959632</v>
+      </c>
+      <c r="S5" s="9">
+        <f t="shared" si="4"/>
+        <v>0.6393762629040024</v>
+      </c>
+      <c r="T5" s="9">
+        <f t="shared" si="4"/>
+        <v>0.45745364848452708</v>
+      </c>
+      <c r="U5" s="9">
+        <f t="shared" si="4"/>
+        <v>3.8053203200425596</v>
+      </c>
+      <c r="V5" s="9">
+        <f t="shared" si="4"/>
+        <v>6.9257130052807259E-2</v>
+      </c>
+      <c r="W5" s="9">
+        <f t="shared" si="4"/>
+        <v>552.71034212621907</v>
+      </c>
+      <c r="X5" s="9">
+        <f t="shared" si="4"/>
+        <v>0.89379390738263487</v>
+      </c>
+      <c r="Y5" s="9">
+        <f t="shared" si="4"/>
+        <v>514.58964240130524</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -952,7 +956,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>I294</v>
       </c>
       <c r="C6" s="2">
@@ -961,73 +965,55 @@
       <c r="D6" s="2">
         <v>3</v>
       </c>
-      <c r="E6" s="2">
-        <v>698.64079676560505</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1.7269014129203399</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1.3141162098232899</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1.0814873014947399</v>
-      </c>
-      <c r="I6" s="2">
-        <v>4.0437729818856001</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.29731135968852801</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1115.57831274654</v>
-      </c>
-      <c r="L6" s="2">
-        <v>-1.8039251824707601</v>
-      </c>
-      <c r="M6" s="2">
-        <v>698.64079676560505</v>
-      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
       <c r="O6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="2">
-        <f>E52</f>
+      <c r="Q6" s="9">
+        <f t="shared" ref="Q6:Y6" si="5">E77</f>
         <v>129.92572820153646</v>
       </c>
-      <c r="R6" s="2">
-        <f>F52</f>
+      <c r="R6" s="9">
+        <f t="shared" si="5"/>
         <v>6.7178984002328065E-2</v>
       </c>
-      <c r="S6" s="2">
-        <f>G52</f>
+      <c r="S6" s="9">
+        <f t="shared" si="5"/>
         <v>0.24465013291518034</v>
       </c>
-      <c r="T6" s="2">
-        <f>H52</f>
+      <c r="T6" s="9">
+        <f t="shared" si="5"/>
         <v>0.19760479210251267</v>
       </c>
-      <c r="U6" s="2">
-        <f>I52</f>
+      <c r="U6" s="9">
+        <f t="shared" si="5"/>
         <v>13.556127892827176</v>
       </c>
-      <c r="V6" s="2">
-        <f>J52</f>
+      <c r="V6" s="9">
+        <f t="shared" si="5"/>
         <v>5.4471945531039463E-2</v>
       </c>
-      <c r="W6" s="2">
-        <f>K52</f>
+      <c r="W6" s="9">
+        <f t="shared" si="5"/>
         <v>45.883427739525594</v>
       </c>
-      <c r="X6" s="2">
-        <f>L52</f>
+      <c r="X6" s="9">
+        <f t="shared" si="5"/>
         <v>0.95620134688237723</v>
       </c>
-      <c r="Y6" s="2">
-        <f>M52</f>
+      <c r="Y6" s="9">
+        <f t="shared" si="5"/>
         <v>129.92572820153646</v>
       </c>
     </row>
@@ -1036,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>I294</v>
       </c>
       <c r="C7" s="2">
@@ -1078,40 +1064,40 @@
       <c r="P7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q7" s="2">
-        <f>E58</f>
+      <c r="Q7" s="9">
+        <f t="shared" ref="Q7:Y7" si="6">E83</f>
         <v>166.75533039671973</v>
       </c>
-      <c r="R7" s="2">
-        <f>F58</f>
+      <c r="R7" s="9">
+        <f t="shared" si="6"/>
         <v>0.22688531944293955</v>
       </c>
-      <c r="S7" s="2">
-        <f>G58</f>
+      <c r="S7" s="9">
+        <f t="shared" si="6"/>
         <v>0.42113819013252174</v>
       </c>
-      <c r="T7" s="2">
-        <f>H58</f>
+      <c r="T7" s="9">
+        <f t="shared" si="6"/>
         <v>0.31130961079008562</v>
       </c>
-      <c r="U7" s="2">
-        <f>I58</f>
+      <c r="U7" s="9">
+        <f t="shared" si="6"/>
         <v>8.5014314615852395</v>
       </c>
-      <c r="V7" s="2">
-        <f>J58</f>
+      <c r="V7" s="9">
+        <f t="shared" si="6"/>
         <v>4.4097909231379573E-2</v>
       </c>
-      <c r="W7" s="2">
-        <f>K58</f>
+      <c r="W7" s="9">
+        <f t="shared" si="6"/>
         <v>125.14353074411848</v>
       </c>
-      <c r="X7" s="2">
-        <f>L58</f>
+      <c r="X7" s="9">
+        <f t="shared" si="6"/>
         <v>0.97094235805124041</v>
       </c>
-      <c r="Y7" s="2">
-        <f>M58</f>
+      <c r="Y7" s="9">
+        <f t="shared" si="6"/>
         <v>166.75533039671973</v>
       </c>
     </row>
@@ -1120,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>I294</v>
       </c>
       <c r="C8" s="2">
@@ -1129,74 +1115,56 @@
       <c r="D8" s="2">
         <v>7</v>
       </c>
-      <c r="E8" s="2">
-        <v>282.39462745730702</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2.7768945487828902</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1.66640167690232</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1.4556424095737499</v>
-      </c>
-      <c r="I8" s="2">
-        <v>5.7899110467365196</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.44795744002750698</v>
-      </c>
-      <c r="K8" s="2">
-        <v>538.71754246388002</v>
-      </c>
-      <c r="L8" s="2">
-        <v>-0.684292682082555</v>
-      </c>
-      <c r="M8" s="2">
-        <v>282.39462745730702</v>
-      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
       <c r="O8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="2">
-        <f>E63</f>
-        <v>138.90008037432546</v>
-      </c>
-      <c r="R8" s="2">
-        <f>F63</f>
-        <v>9.978090444335963E-2</v>
-      </c>
-      <c r="S8" s="2">
-        <f>G63</f>
-        <v>0.31235461600873465</v>
-      </c>
-      <c r="T8" s="2">
-        <f>H63</f>
-        <v>0.25244020433900732</v>
-      </c>
-      <c r="U8" s="2">
-        <f>I63</f>
-        <v>1.046158223009626</v>
-      </c>
-      <c r="V8" s="2">
-        <f>J63</f>
-        <v>0.11567046631422752</v>
-      </c>
-      <c r="W8" s="2">
-        <f>K63</f>
-        <v>55.823677023922919</v>
-      </c>
-      <c r="X8" s="2">
-        <f>L63</f>
-        <v>0.85289390929471043</v>
-      </c>
-      <c r="Y8" s="2">
-        <f>M63</f>
-        <v>138.90008037432546</v>
+      <c r="Q8" s="9">
+        <f t="shared" ref="Q8:Y8" si="7">E115</f>
+        <v>526.59745576763021</v>
+      </c>
+      <c r="R8" s="9">
+        <f t="shared" si="7"/>
+        <v>0.49329529858924948</v>
+      </c>
+      <c r="S8" s="9">
+        <f t="shared" si="7"/>
+        <v>0.61902373579138181</v>
+      </c>
+      <c r="T8" s="9">
+        <f t="shared" si="7"/>
+        <v>0.4282065199687406</v>
+      </c>
+      <c r="U8" s="9">
+        <f t="shared" si="7"/>
+        <v>3.8453162117462232</v>
+      </c>
+      <c r="V8" s="9">
+        <f t="shared" si="7"/>
+        <v>6.3405107977592703E-2</v>
+      </c>
+      <c r="W8" s="9">
+        <f t="shared" si="7"/>
+        <v>578.14155868683315</v>
+      </c>
+      <c r="X8" s="9">
+        <f t="shared" si="7"/>
+        <v>0.91081276991623406</v>
+      </c>
+      <c r="Y8" s="9">
+        <f t="shared" si="7"/>
+        <v>526.59745576763021</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
@@ -1204,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>I294</v>
       </c>
       <c r="C9" s="2">
@@ -1246,40 +1214,40 @@
       <c r="P9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="2">
-        <f>E68</f>
+      <c r="Q9" s="9">
+        <f t="shared" ref="Q9:Y9" si="8">E120</f>
         <v>162.37343850247021</v>
       </c>
-      <c r="R9" s="2">
-        <f>F68</f>
+      <c r="R9" s="9">
+        <f t="shared" si="8"/>
         <v>9.4464018191625865E-2</v>
       </c>
-      <c r="S9" s="2">
-        <f>G68</f>
+      <c r="S9" s="9">
+        <f t="shared" si="8"/>
         <v>0.30519905612998133</v>
       </c>
-      <c r="T9" s="2">
-        <f>H68</f>
+      <c r="T9" s="9">
+        <f t="shared" si="8"/>
         <v>0.245920460491314</v>
       </c>
-      <c r="U9" s="2">
-        <f>I68</f>
+      <c r="U9" s="9">
+        <f t="shared" si="8"/>
         <v>15.660651965374408</v>
       </c>
-      <c r="V9" s="2">
-        <f>J68</f>
+      <c r="V9" s="9">
+        <f t="shared" si="8"/>
         <v>6.7875580268721994E-2</v>
       </c>
-      <c r="W9" s="2">
-        <f>K68</f>
+      <c r="W9" s="9">
+        <f t="shared" si="8"/>
         <v>63.904760833021157</v>
       </c>
-      <c r="X9" s="2">
-        <f>L68</f>
+      <c r="X9" s="9">
+        <f t="shared" si="8"/>
         <v>0.93944455280336336</v>
       </c>
-      <c r="Y9" s="2">
-        <f>M68</f>
+      <c r="Y9" s="9">
+        <f t="shared" si="8"/>
         <v>162.37343850247021</v>
       </c>
     </row>
@@ -1288,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>I294</v>
       </c>
       <c r="C10" s="2">
@@ -1330,40 +1298,40 @@
       <c r="P10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q10" s="2">
-        <f>E74</f>
+      <c r="Q10" s="9">
+        <f t="shared" ref="Q10:Y10" si="9">E126</f>
         <v>175.71964800163991</v>
       </c>
-      <c r="R10" s="2">
-        <f>F74</f>
+      <c r="R10" s="9">
+        <f t="shared" si="9"/>
         <v>0.2899969681312905</v>
       </c>
-      <c r="S10" s="2">
-        <f>G74</f>
+      <c r="S10" s="9">
+        <f t="shared" si="9"/>
         <v>0.45823155860340548</v>
       </c>
-      <c r="T10" s="2">
-        <f>H74</f>
+      <c r="T10" s="9">
+        <f t="shared" si="9"/>
         <v>0.33634102514249625</v>
       </c>
-      <c r="U10" s="2">
-        <f>I74</f>
+      <c r="U10" s="9">
+        <f t="shared" si="9"/>
         <v>11.781380310074988</v>
       </c>
-      <c r="V10" s="2">
-        <f>J74</f>
+      <c r="V10" s="9">
+        <f t="shared" si="9"/>
         <v>4.7696251534927223E-2</v>
       </c>
-      <c r="W10" s="2">
-        <f>K74</f>
+      <c r="W10" s="9">
+        <f t="shared" si="9"/>
         <v>153.4919600380116</v>
       </c>
-      <c r="X10" s="2">
-        <f>L74</f>
+      <c r="X10" s="9">
+        <f t="shared" si="9"/>
         <v>0.96579875705840024</v>
       </c>
-      <c r="Y10" s="2">
-        <f>M74</f>
+      <c r="Y10" s="9">
+        <f t="shared" si="9"/>
         <v>175.71964800163991</v>
       </c>
     </row>
@@ -1372,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>I294</v>
       </c>
       <c r="C11" s="2">
@@ -1414,41 +1382,41 @@
       <c r="P11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q11" s="2">
-        <f>E79</f>
-        <v>119.60261541850188</v>
-      </c>
-      <c r="R11" s="2">
-        <f>F79</f>
-        <v>6.9454005474585037E-2</v>
-      </c>
-      <c r="S11" s="2">
-        <f>G79</f>
-        <v>0.24524450624196001</v>
-      </c>
-      <c r="T11" s="2">
-        <f>H79</f>
-        <v>0.19261632374065699</v>
-      </c>
-      <c r="U11" s="2">
-        <f>I79</f>
-        <v>0.81608822985088436</v>
-      </c>
-      <c r="V11" s="2">
-        <f>J79</f>
-        <v>7.6086618873705228E-2</v>
-      </c>
-      <c r="W11" s="2">
-        <f>K79</f>
-        <v>42.474315251482381</v>
-      </c>
-      <c r="X11" s="2">
-        <f>L79</f>
-        <v>0.93883071901605331</v>
-      </c>
-      <c r="Y11" s="2">
-        <f>M79</f>
-        <v>119.60261541850188</v>
+      <c r="Q11" s="9">
+        <f t="shared" ref="Q11:Y11" si="10">E158</f>
+        <v>495.44599923256959</v>
+      </c>
+      <c r="R11" s="9">
+        <f t="shared" si="10"/>
+        <v>0.41726638049989495</v>
+      </c>
+      <c r="S11" s="9">
+        <f t="shared" si="10"/>
+        <v>0.5657791562819976</v>
+      </c>
+      <c r="T11" s="9">
+        <f t="shared" si="10"/>
+        <v>0.3998369050668632</v>
+      </c>
+      <c r="U11" s="9">
+        <f t="shared" si="10"/>
+        <v>3.8973185315163628</v>
+      </c>
+      <c r="V11" s="9">
+        <f t="shared" si="10"/>
+        <v>5.8040934974703848E-2</v>
+      </c>
+      <c r="W11" s="9">
+        <f t="shared" si="10"/>
+        <v>494.62867243463768</v>
+      </c>
+      <c r="X11" s="9">
+        <f t="shared" si="10"/>
+        <v>0.92903001556211551</v>
+      </c>
+      <c r="Y11" s="9">
+        <f t="shared" si="10"/>
+        <v>495.44599923256959</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
@@ -1456,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>I294</v>
       </c>
       <c r="C12" s="2">
@@ -1498,40 +1466,40 @@
       <c r="P12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q12" s="2">
-        <f>E84</f>
+      <c r="Q12" s="9">
+        <f t="shared" ref="Q12:Y12" si="11">E162</f>
         <v>137.39203345513218</v>
       </c>
-      <c r="R12" s="2">
-        <f>F84</f>
+      <c r="R12" s="9">
+        <f t="shared" si="11"/>
         <v>7.4050902117407932E-2</v>
       </c>
-      <c r="S12" s="2">
-        <f>G84</f>
+      <c r="S12" s="9">
+        <f t="shared" si="11"/>
         <v>0.26552807576194604</v>
       </c>
-      <c r="T12" s="2">
-        <f>H84</f>
+      <c r="T12" s="9">
+        <f t="shared" si="11"/>
         <v>0.20814863542757933</v>
       </c>
-      <c r="U12" s="2">
-        <f>I84</f>
+      <c r="U12" s="9">
+        <f t="shared" si="11"/>
         <v>15.025078982618643</v>
       </c>
-      <c r="V12" s="2">
-        <f>J84</f>
+      <c r="V12" s="9">
+        <f t="shared" si="11"/>
         <v>5.919587749775914E-2</v>
       </c>
-      <c r="W12" s="2">
-        <f>K84</f>
+      <c r="W12" s="9">
+        <f t="shared" si="11"/>
         <v>50.214415916284302</v>
       </c>
-      <c r="X12" s="2">
-        <f>L84</f>
+      <c r="X12" s="9">
+        <f t="shared" si="11"/>
         <v>0.95166279261063302</v>
       </c>
-      <c r="Y12" s="2">
-        <f>M84</f>
+      <c r="Y12" s="9">
+        <f t="shared" si="11"/>
         <v>137.39203345513218</v>
       </c>
     </row>
@@ -1540,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>I294</v>
       </c>
       <c r="C13" s="2">
@@ -1582,40 +1550,40 @@
       <c r="P13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q13" s="2">
-        <f>E90</f>
+      <c r="Q13" s="9">
+        <f t="shared" ref="Q13:Y13" si="12">E168</f>
         <v>182.7620022411071</v>
       </c>
-      <c r="R13" s="2">
-        <f>F90</f>
+      <c r="R13" s="9">
+        <f t="shared" si="12"/>
         <v>0.26950849788913689</v>
       </c>
-      <c r="S13" s="2">
-        <f>G90</f>
+      <c r="S13" s="9">
+        <f t="shared" si="12"/>
         <v>0.47296035177628626</v>
       </c>
-      <c r="T13" s="2">
-        <f>H90</f>
+      <c r="T13" s="9">
+        <f t="shared" si="12"/>
         <v>0.36255064179614027</v>
       </c>
-      <c r="U13" s="2">
-        <f>I90</f>
+      <c r="U13" s="9">
+        <f t="shared" si="12"/>
         <v>14.353435813034412</v>
       </c>
-      <c r="V13" s="2">
-        <f>J90</f>
+      <c r="V13" s="9">
+        <f t="shared" si="12"/>
         <v>5.1108220784293848E-2</v>
       </c>
-      <c r="W13" s="2">
-        <f>K90</f>
+      <c r="W13" s="9">
+        <f t="shared" si="12"/>
         <v>143.94573616581917</v>
       </c>
-      <c r="X13" s="2">
-        <f>L90</f>
+      <c r="X13" s="9">
+        <f t="shared" si="12"/>
         <v>0.96444045809715773</v>
       </c>
-      <c r="Y13" s="2">
-        <f>M90</f>
+      <c r="Y13" s="9">
+        <f t="shared" si="12"/>
         <v>182.7620022411071</v>
       </c>
     </row>
@@ -1624,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>I294</v>
       </c>
       <c r="C14" s="2">
@@ -1660,24 +1628,13 @@
       <c r="M14" s="2">
         <v>241.00309594394301</v>
       </c>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>I294</v>
       </c>
       <c r="C15" s="2">
@@ -1713,24 +1670,13 @@
       <c r="M15" s="2">
         <v>129.57832441108999</v>
       </c>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>I294</v>
       </c>
       <c r="C16" s="2">
@@ -1766,24 +1712,13 @@
       <c r="M16" s="2">
         <v>972.95448761071498</v>
       </c>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>I294</v>
       </c>
       <c r="C17" s="2">
@@ -1819,24 +1754,56 @@
       <c r="M17" s="2">
         <v>50.515912778426902</v>
       </c>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
+      <c r="O17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="1" t="str">
+        <f>P1</f>
+        <v>Dataset</v>
+      </c>
+      <c r="Q17" s="1" t="str">
+        <f t="shared" ref="Q17:Y17" si="13">Q1</f>
+        <v>Error</v>
+      </c>
+      <c r="R17" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>MSE</v>
+      </c>
+      <c r="S17" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>RMSE</v>
+      </c>
+      <c r="T17" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>MAE</v>
+      </c>
+      <c r="U17" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>MAPE</v>
+      </c>
+      <c r="V17" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>NRMSE</v>
+      </c>
+      <c r="W17" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>SSE</v>
+      </c>
+      <c r="X17" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>R-squared</v>
+      </c>
+      <c r="Y17" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Total Difference</v>
+      </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>I294</v>
       </c>
       <c r="C18" s="2">
@@ -1872,24 +1839,55 @@
       <c r="M18" s="2">
         <v>465.60072126379202</v>
       </c>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
+      <c r="O18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" s="9">
+        <f>AVERAGE(Q2:Q4)</f>
+        <v>266.05531365770952</v>
+      </c>
+      <c r="R18" s="9">
+        <f t="shared" ref="R18:Y18" si="14">AVERAGE(R2:R4)</f>
+        <v>0.26256904616668519</v>
+      </c>
+      <c r="S18" s="9">
+        <f t="shared" si="14"/>
+        <v>0.43008476043740712</v>
+      </c>
+      <c r="T18" s="9">
+        <f t="shared" si="14"/>
+        <v>0.32003135088372509</v>
+      </c>
+      <c r="U18" s="9">
+        <f t="shared" si="14"/>
+        <v>7.9169050729098815</v>
+      </c>
+      <c r="V18" s="9">
+        <f t="shared" si="14"/>
+        <v>5.5023318301974794E-2</v>
+      </c>
+      <c r="W18" s="9">
+        <f t="shared" si="14"/>
+        <v>232.29602704714134</v>
+      </c>
+      <c r="X18" s="9">
+        <f t="shared" si="14"/>
+        <v>0.94450426578071289</v>
+      </c>
+      <c r="Y18" s="9">
+        <f t="shared" si="14"/>
+        <v>266.05531365770952</v>
+      </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>I294</v>
       </c>
       <c r="C19" s="2">
@@ -1925,24 +1923,55 @@
       <c r="M19" s="2">
         <v>550.40404471238696</v>
       </c>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
+      <c r="O19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="9">
+        <f>AVERAGE(Q5:Q7)</f>
+        <v>270.42356699985379</v>
+      </c>
+      <c r="R19" s="9">
+        <f t="shared" ref="R19:Y19" si="15">AVERAGE(R5:R7)</f>
+        <v>0.27361897071495461</v>
+      </c>
+      <c r="S19" s="9">
+        <f t="shared" si="15"/>
+        <v>0.43505486198390148</v>
+      </c>
+      <c r="T19" s="9">
+        <f t="shared" si="15"/>
+        <v>0.32212268379237513</v>
+      </c>
+      <c r="U19" s="9">
+        <f t="shared" si="15"/>
+        <v>8.6209598914849916</v>
+      </c>
+      <c r="V19" s="9">
+        <f t="shared" si="15"/>
+        <v>5.5942328271742094E-2</v>
+      </c>
+      <c r="W19" s="9">
+        <f t="shared" si="15"/>
+        <v>241.24576686995439</v>
+      </c>
+      <c r="X19" s="9">
+        <f t="shared" si="15"/>
+        <v>0.94031253743875087</v>
+      </c>
+      <c r="Y19" s="9">
+        <f t="shared" si="15"/>
+        <v>270.42356699985379</v>
+      </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>I294</v>
       </c>
       <c r="C20" s="2">
@@ -1977,6 +2006,48 @@
       </c>
       <c r="M20" s="2">
         <v>929.90734471071198</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" s="9">
+        <f>AVERAGE(Q8:Q10)</f>
+        <v>288.23018075724679</v>
+      </c>
+      <c r="R20" s="9">
+        <f t="shared" ref="R20:Y20" si="16">AVERAGE(R8:R10)</f>
+        <v>0.29258542830405526</v>
+      </c>
+      <c r="S20" s="9">
+        <f t="shared" si="16"/>
+        <v>0.46081811684158952</v>
+      </c>
+      <c r="T20" s="9">
+        <f t="shared" si="16"/>
+        <v>0.33682266853418358</v>
+      </c>
+      <c r="U20" s="9">
+        <f t="shared" si="16"/>
+        <v>10.429116162398541</v>
+      </c>
+      <c r="V20" s="9">
+        <f t="shared" si="16"/>
+        <v>5.9658979927080635E-2</v>
+      </c>
+      <c r="W20" s="9">
+        <f t="shared" si="16"/>
+        <v>265.1794265192886</v>
+      </c>
+      <c r="X20" s="9">
+        <f t="shared" si="16"/>
+        <v>0.93868535992599922</v>
+      </c>
+      <c r="Y20" s="9">
+        <f t="shared" si="16"/>
+        <v>288.23018075724679</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
@@ -1984,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>I294</v>
       </c>
       <c r="C21" s="2">
@@ -2019,6 +2090,48 @@
       </c>
       <c r="M21" s="2">
         <v>873.65335687633706</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q21" s="9">
+        <f>AVERAGE(Q11:Q13)</f>
+        <v>271.86667830960295</v>
+      </c>
+      <c r="R21" s="9">
+        <f t="shared" ref="R21:Y21" si="17">AVERAGE(R11:R13)</f>
+        <v>0.2536085935021466</v>
+      </c>
+      <c r="S21" s="9">
+        <f t="shared" si="17"/>
+        <v>0.43475586127340993</v>
+      </c>
+      <c r="T21" s="9">
+        <f t="shared" si="17"/>
+        <v>0.32351206076352762</v>
+      </c>
+      <c r="U21" s="9">
+        <f t="shared" si="17"/>
+        <v>11.091944442389808</v>
+      </c>
+      <c r="V21" s="9">
+        <f t="shared" si="17"/>
+        <v>5.6115011085585607E-2</v>
+      </c>
+      <c r="W21" s="9">
+        <f t="shared" si="17"/>
+        <v>229.59627483891373</v>
+      </c>
+      <c r="X21" s="9">
+        <f t="shared" si="17"/>
+        <v>0.94837775542330205</v>
+      </c>
+      <c r="Y21" s="9">
+        <f t="shared" si="17"/>
+        <v>271.86667830960295</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
@@ -2026,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>I294</v>
       </c>
       <c r="C22" s="2">
@@ -2068,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>I294</v>
       </c>
       <c r="C23" s="2">
@@ -2110,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>I294</v>
       </c>
       <c r="C24" s="2">
@@ -2152,7 +2265,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>I294</v>
       </c>
       <c r="C25" s="2">
@@ -2194,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>I294</v>
       </c>
       <c r="C26" s="2">
@@ -2203,40 +2316,22 @@
       <c r="D26" s="2">
         <v>20</v>
       </c>
-      <c r="E26" s="2">
-        <v>880.92724379215599</v>
-      </c>
-      <c r="F26" s="2">
-        <v>4.9773019631637601</v>
-      </c>
-      <c r="G26" s="2">
-        <v>2.2309867689351601</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1.85849629492016</v>
-      </c>
-      <c r="I26" s="2">
-        <v>7.2201480444739996</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0.54281916519103701</v>
-      </c>
-      <c r="K26" s="2">
-        <v>2359.2411305396199</v>
-      </c>
-      <c r="L26" s="2">
-        <v>-16.4361670195225</v>
-      </c>
-      <c r="M26" s="2">
-        <v>880.92724379215599</v>
-      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>I294</v>
       </c>
       <c r="C27" s="2">
@@ -2278,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>I294</v>
       </c>
       <c r="C28" s="2">
@@ -2320,7 +2415,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>I294</v>
       </c>
       <c r="C29" s="2">
@@ -2362,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>I294</v>
       </c>
       <c r="C30" s="2">
@@ -2404,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>I294</v>
       </c>
       <c r="C31" s="2">
@@ -2442,47 +2537,47 @@
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
       <c r="E32" s="3">
-        <f>AVERAGE(E2:E31)</f>
-        <v>504.166948326186</v>
+        <f t="shared" ref="E32:L32" si="18">AVERAGE(E2:E31)</f>
+        <v>494.34432019015674</v>
       </c>
       <c r="F32" s="3">
-        <f>AVERAGE(F2:F31)</f>
-        <v>0.74780307731337048</v>
+        <f t="shared" si="18"/>
+        <v>0.47326895190455087</v>
       </c>
       <c r="G32" s="3">
-        <f>AVERAGE(G2:G31)</f>
-        <v>0.72407523653529149</v>
+        <f t="shared" si="18"/>
+        <v>0.60406795948961711</v>
       </c>
       <c r="H32" s="3">
-        <f>AVERAGE(H2:H31)</f>
-        <v>0.54441311541657211</v>
+        <f t="shared" si="18"/>
+        <v>0.43517195616976018</v>
       </c>
       <c r="I32" s="3">
-        <f>AVERAGE(I2:I31)</f>
-        <v>3.5590392933222947</v>
+        <f t="shared" si="18"/>
+        <v>3.3593166766383096</v>
       </c>
       <c r="J32" s="3">
-        <f>AVERAGE(J2:J31)</f>
-        <v>0.10425214185588502</v>
+        <f t="shared" si="18"/>
+        <v>6.6162276176786647E-2</v>
       </c>
       <c r="K32" s="3">
-        <f>AVERAGE(K2:K31)</f>
-        <v>594.10305242948016</v>
+        <f t="shared" si="18"/>
+        <v>514.71236550265189</v>
       </c>
       <c r="L32" s="3">
-        <f>AVERAGE(L2:L31)</f>
-        <v>0.1733625762771247</v>
+        <f t="shared" si="18"/>
+        <v>0.90181250324133755</v>
       </c>
       <c r="M32" s="3">
         <f>AVERAGE(M2:M31)</f>
-        <v>504.166948326186</v>
+        <v>494.34432019015674</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -2498,31 +2593,31 @@
       <c r="D33" s="2">
         <v>1</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>223.38070755802099</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <v>0.110038092185836</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="2">
         <v>0.33171990019568698</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="2">
         <v>0.25764787492274599</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="2">
         <v>24.908588562593302</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="2">
         <v>4.1207441018097798E-2</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="2">
         <v>95.403025925120502</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="2">
         <v>0.97203909703417402</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="2">
         <v>223.38070755802099</v>
       </c>
     </row>
@@ -2539,31 +2634,31 @@
       <c r="D34" s="2">
         <v>2</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>99.377619078479697</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <v>3.5826655629732501E-2</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="2">
         <v>0.189279305867631</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="2">
         <v>0.14700831224627101</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="2">
         <v>5.75524198822324</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="2">
         <v>4.05309006140539E-2</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="2">
         <v>24.218819205699099</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="2">
         <v>0.98001672333488199</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="2">
         <v>99.377619078479697</v>
       </c>
     </row>
@@ -2580,132 +2675,158 @@
       <c r="D35" s="2">
         <v>3</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>55.200765219089398</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <v>4.29282869154217E-2</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="2">
         <v>0.207191425776796</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="2">
         <v>0.16000221802634601</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="2">
         <v>3.66423418992462</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="2">
         <v>7.4798348655883196E-2</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="2">
         <v>14.8102589858205</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="2">
         <v>0.93929362765848101</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="2">
         <v>55.200765219089398</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
       <c r="E36" s="3">
         <f>AVERAGE(E33:E35)</f>
         <v>125.98636395186337</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" ref="F36:M36" si="1">AVERAGE(F33:F35)</f>
+        <f t="shared" ref="F36:M36" si="19">AVERAGE(F33:F35)</f>
         <v>6.2931011576996737E-2</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>0.2427302106133713</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>0.1882194683984543</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>11.44268824691372</v>
       </c>
       <c r="J36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>5.2178896762678305E-2</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>44.810701372213366</v>
       </c>
       <c r="L36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>0.9637831493425123</v>
       </c>
       <c r="M36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="19"/>
         <v>125.98636395186337</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
+      <c r="A37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="2">
+        <v>13</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>135.27620651830401</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.13895493629016401</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.37276659760520903</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.22850710560524301</v>
+      </c>
+      <c r="I37" s="2">
+        <v>18.1499182407562</v>
+      </c>
+      <c r="J37" s="2">
+        <v>2.1914556002657799E-2</v>
+      </c>
+      <c r="K37" s="2">
+        <v>82.261322283777304</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0.99513416839485003</v>
+      </c>
+      <c r="M37" s="2">
+        <v>135.27620651830401</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C38" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
       </c>
-      <c r="E38">
-        <v>135.27620651830401</v>
-      </c>
-      <c r="F38">
-        <v>0.13895493629016401</v>
-      </c>
-      <c r="G38">
-        <v>0.37276659760520903</v>
-      </c>
-      <c r="H38">
-        <v>0.22850710560524301</v>
-      </c>
-      <c r="I38">
-        <v>18.1499182407562</v>
-      </c>
-      <c r="J38">
-        <v>2.1914556002657799E-2</v>
-      </c>
-      <c r="K38">
-        <v>82.261322283777304</v>
-      </c>
-      <c r="L38">
-        <v>0.99513416839485003</v>
-      </c>
-      <c r="M38">
-        <v>135.27620651830401</v>
+      <c r="E38" s="2">
+        <v>278.775415226875</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.50724463254327101</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.71221108706848302</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.56432270288841202</v>
+      </c>
+      <c r="I38" s="2">
+        <v>7.2875897238145404</v>
+      </c>
+      <c r="J38" s="2">
+        <v>7.1221108706848293E-2</v>
+      </c>
+      <c r="K38" s="2">
+        <v>250.57884847637499</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0.94788085575946002</v>
+      </c>
+      <c r="M38" s="2">
+        <v>278.775415226875</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -2713,40 +2834,40 @@
         <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C39" s="2">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
       </c>
-      <c r="E39">
-        <v>278.775415226875</v>
-      </c>
-      <c r="F39">
-        <v>0.50724463254327101</v>
-      </c>
-      <c r="G39">
-        <v>0.71221108706848302</v>
-      </c>
-      <c r="H39">
-        <v>0.56432270288841202</v>
-      </c>
-      <c r="I39">
-        <v>7.2875897238145404</v>
-      </c>
-      <c r="J39">
-        <v>7.1221108706848293E-2</v>
-      </c>
-      <c r="K39">
-        <v>250.57884847637499</v>
-      </c>
-      <c r="L39">
-        <v>0.94788085575946002</v>
-      </c>
-      <c r="M39">
-        <v>278.775415226875</v>
+      <c r="E39" s="2">
+        <v>294.03775179676097</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.35044706572865603</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.59198569723318195</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.47656037568356702</v>
+      </c>
+      <c r="I39" s="2">
+        <v>4.9193901209822597</v>
+      </c>
+      <c r="J39" s="2">
+        <v>7.4934898383946999E-2</v>
+      </c>
+      <c r="K39" s="2">
+        <v>216.225839554581</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0.93389583193866399</v>
+      </c>
+      <c r="M39" s="2">
+        <v>294.03775179676097</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -2754,7 +2875,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C40" s="2">
         <v>2</v>
@@ -2762,1884 +2883,4977 @@
       <c r="D40" s="2">
         <v>1</v>
       </c>
-      <c r="E40">
-        <v>294.03775179676097</v>
-      </c>
-      <c r="F40">
-        <v>0.35044706572865603</v>
-      </c>
-      <c r="G40">
-        <v>0.59198569723318195</v>
-      </c>
-      <c r="H40">
-        <v>0.47656037568356702</v>
-      </c>
-      <c r="I40">
-        <v>4.9193901209822597</v>
-      </c>
-      <c r="J40">
-        <v>7.4934898383946999E-2</v>
-      </c>
-      <c r="K40">
-        <v>216.225839554581</v>
-      </c>
-      <c r="L40">
-        <v>0.93389583193866399</v>
-      </c>
-      <c r="M40">
-        <v>294.03775179676097</v>
+      <c r="E40" s="2">
+        <v>3.2516537824940599</v>
+      </c>
+      <c r="F40" s="2">
+        <v>9.3820655119405492E-3</v>
+      </c>
+      <c r="G40" s="2">
+        <v>9.6861062930057404E-2</v>
+      </c>
+      <c r="H40" s="2">
+        <v>7.7420328154620605E-2</v>
+      </c>
+      <c r="I40" s="2">
+        <v>5.4379430951574701</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1.8844564772384699E-2</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0.39404675150150298</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0.99475772294018106</v>
+      </c>
+      <c r="M40" s="2">
+        <v>3.2516537824940599</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="3">
+        <f t="shared" ref="E41:M41" si="20">AVERAGE(E37:E40)</f>
+        <v>177.8352568311085</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="20"/>
+        <v>0.25150717501850789</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="20"/>
+        <v>0.44345611120923284</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="20"/>
+        <v>0.33670262808296064</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" si="20"/>
+        <v>8.9487102951776176</v>
+      </c>
+      <c r="J41" s="3">
+        <f t="shared" si="20"/>
+        <v>4.6728781966459444E-2</v>
+      </c>
+      <c r="K41" s="3">
+        <f t="shared" si="20"/>
+        <v>137.36501426655872</v>
+      </c>
+      <c r="L41" s="3">
+        <f t="shared" si="20"/>
+        <v>0.96791714475828872</v>
+      </c>
+      <c r="M41" s="3">
+        <f t="shared" si="20"/>
+        <v>177.8352568311085</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="2">
+        <v>8</v>
+      </c>
+      <c r="D42" s="2">
         <v>1</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="2">
-        <v>2</v>
-      </c>
-      <c r="D41" s="2">
+      <c r="E42" s="2">
+        <v>287.95699282044001</v>
+      </c>
+      <c r="F42" s="2">
+        <v>7.2358454591018195E-2</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.26899526871493101</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.221846681679846</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0.84419475433344404</v>
+      </c>
+      <c r="J42" s="2">
+        <v>5.2030032633448998E-2</v>
+      </c>
+      <c r="K42" s="2">
+        <v>93.921274059141595</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0.95980417340943702</v>
+      </c>
+      <c r="M42" s="2">
+        <v>287.95699282044001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="2" t="str">
+        <f>B42</f>
+        <v>I294</v>
+      </c>
+      <c r="C43" s="2">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2">
         <v>1</v>
       </c>
-      <c r="E41">
-        <v>3.2516537824940599</v>
-      </c>
-      <c r="F41">
-        <v>9.3820655119405492E-3</v>
-      </c>
-      <c r="G41">
-        <v>9.6861062930057404E-2</v>
-      </c>
-      <c r="H41">
-        <v>7.7420328154620605E-2</v>
-      </c>
-      <c r="I41">
-        <v>5.4379430951574701</v>
-      </c>
-      <c r="J41">
-        <v>1.8844564772384699E-2</v>
-      </c>
-      <c r="K41">
-        <v>0.39404675150150298</v>
-      </c>
-      <c r="L41">
-        <v>0.99475772294018106</v>
-      </c>
-      <c r="M41">
-        <v>3.2516537824940599</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="3">
-        <f t="shared" ref="E42:M42" si="2">AVERAGE(E38:E41)</f>
-        <v>177.8352568311085</v>
-      </c>
-      <c r="F42" s="3">
-        <f t="shared" si="2"/>
-        <v>0.25150717501850789</v>
-      </c>
-      <c r="G42" s="3">
-        <f t="shared" si="2"/>
-        <v>0.44345611120923284</v>
-      </c>
-      <c r="H42" s="3">
-        <f t="shared" si="2"/>
-        <v>0.33670262808296064</v>
-      </c>
-      <c r="I42" s="3">
-        <f t="shared" si="2"/>
-        <v>8.9487102951776176</v>
-      </c>
-      <c r="J42" s="3">
-        <f t="shared" si="2"/>
-        <v>4.6728781966459444E-2</v>
-      </c>
-      <c r="K42" s="3">
-        <f t="shared" si="2"/>
-        <v>137.36501426655872</v>
-      </c>
-      <c r="L42" s="3">
-        <f t="shared" si="2"/>
-        <v>0.96791714475828872</v>
-      </c>
-      <c r="M42" s="3">
-        <f t="shared" si="2"/>
-        <v>177.8352568311085</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
+      <c r="E43" s="2">
+        <v>211.13903613627599</v>
+      </c>
+      <c r="F43" s="2">
+        <v>4.2897149691694801E-2</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.207116270948698</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0.16266489686924199</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0.61978322881504999</v>
+      </c>
+      <c r="J43" s="2">
+        <v>4.09320693574503E-2</v>
+      </c>
+      <c r="K43" s="2">
+        <v>55.680500299819897</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0.97343077978814396</v>
+      </c>
+      <c r="M43" s="2">
+        <v>211.13903613627599</v>
+      </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>4</v>
+      <c r="B44" s="2" t="str">
+        <f t="shared" ref="B44:B71" si="21">B43</f>
+        <v>I294</v>
       </c>
       <c r="C44" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
       </c>
       <c r="E44" s="2">
-        <v>288.07601515919703</v>
+        <v>236.72001828178</v>
       </c>
       <c r="F44" s="2">
-        <v>7.2425652135577598E-2</v>
+        <v>4.5128877020191797E-2</v>
       </c>
       <c r="G44" s="2">
-        <v>0.26912014442545401</v>
+        <v>0.212435583225108</v>
       </c>
       <c r="H44" s="2">
-        <v>0.22193837839691599</v>
+        <v>0.16824450482002801</v>
       </c>
       <c r="I44" s="2">
-        <v>0.845287839773321</v>
+        <v>0.64308654300453605</v>
       </c>
       <c r="J44" s="2">
-        <v>5.2054186542641101E-2</v>
+        <v>3.8070893051094602E-2</v>
       </c>
       <c r="K44" s="2">
-        <v>94.008496471979797</v>
+        <v>63.496329967409899</v>
       </c>
       <c r="L44" s="2">
-        <v>0.95976684451865801</v>
+        <v>0.97834763453206697</v>
       </c>
       <c r="M44" s="2">
-        <v>288.07601515919703</v>
+        <v>236.72001828178</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>4</v>
+      <c r="B45" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>I294</v>
       </c>
       <c r="C45" s="2">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2">
-        <v>7</v>
-      </c>
-      <c r="E45" s="2">
-        <v>9.2303440369148504</v>
-      </c>
-      <c r="F45" s="2">
-        <v>1.70384339148173E-2</v>
-      </c>
-      <c r="G45" s="2">
-        <v>0.13053135222932899</v>
-      </c>
-      <c r="H45" s="2">
-        <v>0.102559378187942</v>
-      </c>
-      <c r="I45" s="2">
-        <v>0.38951629892734302</v>
-      </c>
-      <c r="J45" s="2">
-        <v>9.8143873856638697E-2</v>
-      </c>
-      <c r="K45" s="2">
-        <v>1.5334590523335501</v>
-      </c>
-      <c r="L45" s="2">
-        <v>0.92738179002996801</v>
-      </c>
-      <c r="M45" s="2">
-        <v>9.2303440369148504</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>4</v>
+      <c r="B46" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>I294</v>
       </c>
       <c r="C46" s="2">
         <v>40</v>
       </c>
       <c r="D46" s="2">
-        <v>9</v>
-      </c>
-      <c r="E46" s="2">
-        <v>97.593394273304</v>
-      </c>
-      <c r="F46" s="2">
-        <v>0.14224603894405399</v>
-      </c>
-      <c r="G46" s="2">
-        <v>0.377155192121299</v>
-      </c>
-      <c r="H46" s="2">
-        <v>0.27725396100370397</v>
-      </c>
-      <c r="I46" s="2">
-        <v>1.29668808467415</v>
-      </c>
-      <c r="J46" s="2">
-        <v>8.9373268275189405E-2</v>
-      </c>
-      <c r="K46" s="2">
-        <v>50.070605708307198</v>
-      </c>
-      <c r="L46" s="2">
-        <v>0.91098333112136198</v>
-      </c>
-      <c r="M46" s="2">
-        <v>97.593394273304</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="3">
-        <f>AVERAGE(E44:E46)</f>
-        <v>131.63325115647197</v>
-      </c>
-      <c r="F47" s="3">
-        <f t="shared" ref="F47:L47" si="3">AVERAGE(F44:F46)</f>
-        <v>7.7236708331482953E-2</v>
-      </c>
-      <c r="G47" s="3">
-        <f t="shared" si="3"/>
-        <v>0.25893556292536068</v>
-      </c>
-      <c r="H47" s="3">
-        <f t="shared" si="3"/>
-        <v>0.20058390586285402</v>
-      </c>
-      <c r="I47" s="3">
-        <f t="shared" si="3"/>
-        <v>0.84383074112493794</v>
-      </c>
-      <c r="J47" s="3">
-        <f t="shared" si="3"/>
-        <v>7.9857109558156406E-2</v>
-      </c>
-      <c r="K47" s="3">
-        <f t="shared" si="3"/>
-        <v>48.537520410873519</v>
-      </c>
-      <c r="L47" s="3">
-        <f t="shared" si="3"/>
-        <v>0.93271065522332941</v>
-      </c>
-      <c r="M47" s="3">
-        <f>AVERAGE(M44:M46)</f>
-        <v>131.63325115647197</v>
+      <c r="A47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>I294</v>
+      </c>
+      <c r="C47" s="2">
+        <v>41</v>
+      </c>
+      <c r="D47" s="2">
+        <v>3</v>
+      </c>
+      <c r="E47" s="2">
+        <v>176.620777619232</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0.22275041044680599</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.47196441650489501</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0.39690062386344299</v>
+      </c>
+      <c r="I47" s="2">
+        <v>1.4674659930924301</v>
+      </c>
+      <c r="J47" s="2">
+        <v>7.1618272610757996E-2</v>
+      </c>
+      <c r="K47" s="2">
+        <v>99.123932648828699</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0.93381127025347799</v>
+      </c>
+      <c r="M47" s="2">
+        <v>176.620777619232</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
+      <c r="A48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>I294</v>
+      </c>
+      <c r="C48" s="2">
+        <v>3</v>
+      </c>
+      <c r="D48" s="2">
+        <v>7</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>3</v>
+      <c r="B49" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>I294</v>
       </c>
       <c r="C49" s="2">
-        <v>5366</v>
+        <v>11</v>
       </c>
       <c r="D49" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E49" s="2">
-        <v>244.557969819573</v>
+        <v>428.477513310956</v>
       </c>
       <c r="F49" s="2">
-        <v>0.11883110757453499</v>
+        <v>0.31703532417864899</v>
       </c>
       <c r="G49" s="2">
-        <v>0.344718881952433</v>
+        <v>0.563058899386777</v>
       </c>
       <c r="H49" s="2">
-        <v>0.28207378295221902</v>
+        <v>0.40846283442417203</v>
       </c>
       <c r="I49" s="2">
-        <v>31.129182114644099</v>
+        <v>1.66140539743729</v>
       </c>
       <c r="J49" s="2">
-        <v>4.2822221360550701E-2</v>
+        <v>5.2720870729098902E-2</v>
       </c>
       <c r="K49" s="2">
-        <v>103.026570267122</v>
+        <v>332.57005506340198</v>
       </c>
       <c r="L49" s="2">
-        <v>0.96980477394499198</v>
+        <v>0.87969622789161805</v>
       </c>
       <c r="M49" s="2">
-        <v>244.557969819573</v>
+        <v>428.477513310956</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>3</v>
+      <c r="B50" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>I294</v>
       </c>
       <c r="C50" s="2">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E50" s="2">
-        <v>77.635250792618905</v>
+        <v>130.084265391082</v>
       </c>
       <c r="F50" s="2">
-        <v>1.8399385565739799E-2</v>
+        <v>0.14301643386479401</v>
       </c>
       <c r="G50" s="2">
-        <v>0.13564433480886601</v>
+        <v>0.37817513649735601</v>
       </c>
       <c r="H50" s="2">
-        <v>0.114845045551211</v>
+        <v>0.28779704732540301</v>
       </c>
       <c r="I50" s="2">
-        <v>5.0311976694003198</v>
+        <v>1.1387356903561301</v>
       </c>
       <c r="J50" s="2">
-        <v>2.9045896104682299E-2</v>
+        <v>0.10805003899924399</v>
       </c>
       <c r="K50" s="2">
-        <v>12.437984642440099</v>
+        <v>64.643428106886901</v>
       </c>
       <c r="L50" s="2">
-        <v>0.989737249939589</v>
+        <v>0.88073706955290598</v>
       </c>
       <c r="M50" s="2">
-        <v>77.635250792618905</v>
+        <v>130.084265391082</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>3</v>
+      <c r="B51" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>I294</v>
       </c>
       <c r="C51" s="2">
-        <v>286</v>
+        <v>51</v>
       </c>
       <c r="D51" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E51" s="2">
-        <v>67.583963992417495</v>
+        <v>1030.0194749795301</v>
       </c>
       <c r="F51" s="2">
-        <v>6.4306458866709396E-2</v>
+        <v>0.28153004991314501</v>
       </c>
       <c r="G51" s="2">
-        <v>0.25358718198424202</v>
+        <v>0.53059405378607905</v>
       </c>
       <c r="H51" s="2">
-        <v>0.19589554780410801</v>
+        <v>0.42144823035169099</v>
       </c>
       <c r="I51" s="2">
-        <v>4.5080038944371097</v>
+        <v>27.701600644302999</v>
       </c>
       <c r="J51" s="2">
-        <v>9.1547719127885396E-2</v>
+        <v>3.1340463897582903E-2</v>
       </c>
       <c r="K51" s="2">
-        <v>22.185728309014699</v>
+        <v>688.05944198772602</v>
       </c>
       <c r="L51" s="2">
-        <v>0.90906201676255105</v>
+        <v>0.98578374121563095</v>
       </c>
       <c r="M51" s="2">
-        <v>67.583963992417495</v>
+        <v>1030.0194749795301</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="3">
-        <f>AVERAGE(E49:E51)</f>
-        <v>129.92572820153646</v>
-      </c>
-      <c r="F52" s="3">
-        <f t="shared" ref="F52:M52" si="4">AVERAGE(F49:F51)</f>
-        <v>6.7178984002328065E-2</v>
-      </c>
-      <c r="G52" s="3">
-        <f t="shared" si="4"/>
-        <v>0.24465013291518034</v>
-      </c>
-      <c r="H52" s="3">
-        <f t="shared" si="4"/>
-        <v>0.19760479210251267</v>
-      </c>
-      <c r="I52" s="3">
-        <f t="shared" si="4"/>
-        <v>13.556127892827176</v>
-      </c>
-      <c r="J52" s="3">
-        <f t="shared" si="4"/>
-        <v>5.4471945531039463E-2</v>
-      </c>
-      <c r="K52" s="3">
-        <f t="shared" si="4"/>
-        <v>45.883427739525594</v>
-      </c>
-      <c r="L52" s="3">
-        <f>AVERAGE(L49:L51)</f>
-        <v>0.95620134688237723</v>
-      </c>
-      <c r="M52" s="3">
-        <f t="shared" si="4"/>
-        <v>129.92572820153646</v>
+      <c r="A52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>I294</v>
+      </c>
+      <c r="C52" s="2">
+        <v>62</v>
+      </c>
+      <c r="D52" s="2">
+        <v>8</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1325.80392766465</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0.234734981406722</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0.48449456282472603</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0.36383203283881799</v>
+      </c>
+      <c r="I52" s="2">
+        <v>12.2144509172923</v>
+      </c>
+      <c r="J52" s="2">
+        <v>2.23681700288423E-2</v>
+      </c>
+      <c r="K52" s="2">
+        <v>855.37427224609701</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0.99208721088221996</v>
+      </c>
+      <c r="M52" s="2">
+        <v>1325.80392766465</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
+      <c r="A53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>I294</v>
+      </c>
+      <c r="C53" s="2">
+        <v>65</v>
+      </c>
+      <c r="D53" s="2">
+        <v>8</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1014.82970914256</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0.126306828038108</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0.355396719228116</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0.27849333401277698</v>
+      </c>
+      <c r="I53" s="2">
+        <v>10.101864698104</v>
+      </c>
+      <c r="J53" s="2">
+        <v>1.7602611155429201E-2</v>
+      </c>
+      <c r="K53" s="2">
+        <v>460.26208137086701</v>
+      </c>
+      <c r="L53" s="2">
+        <v>0.99568663643598598</v>
+      </c>
+      <c r="M53" s="2">
+        <v>1014.82970914256</v>
+      </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>21</v>
+      <c r="B54" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>I294</v>
       </c>
       <c r="C54" s="2">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D54" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E54" s="2">
-        <v>137.04847942453699</v>
+        <v>170.04493788380699</v>
       </c>
       <c r="F54" s="2">
-        <v>0.13603335070210301</v>
+        <v>0.21226809864002399</v>
       </c>
       <c r="G54" s="2">
-        <v>0.36882699291416199</v>
+        <v>0.46072562186188898</v>
       </c>
       <c r="H54" s="2">
-        <v>0.23150080983874599</v>
+        <v>0.34491873810102902</v>
       </c>
       <c r="I54" s="2">
-        <v>16.706072856250199</v>
+        <v>1.19492882067688</v>
       </c>
       <c r="J54" s="2">
-        <v>2.16829507886044E-2</v>
+        <v>8.8601081127286402E-2</v>
       </c>
       <c r="K54" s="2">
-        <v>80.531743615645198</v>
+        <v>104.648172629532</v>
       </c>
       <c r="L54" s="2">
-        <v>0.99523647453719399</v>
+        <v>0.84149312816116295</v>
       </c>
       <c r="M54" s="2">
-        <v>137.04847942453699</v>
+        <v>170.04493788380699</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>22</v>
+      <c r="B55" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>I294</v>
       </c>
       <c r="C55" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E55" s="2">
-        <v>231.824153936388</v>
+        <v>184.04161036060299</v>
       </c>
       <c r="F55" s="2">
-        <v>0.42467444670994797</v>
+        <v>0.95122081052807494</v>
       </c>
       <c r="G55" s="2">
-        <v>0.65167050471073795</v>
+        <v>0.97530549600013705</v>
       </c>
       <c r="H55" s="2">
-        <v>0.46927966383884201</v>
+        <v>0.76684004316917997</v>
       </c>
       <c r="I55" s="2">
-        <v>6.8303302155754597</v>
+        <v>3.0334569991528699</v>
       </c>
       <c r="J55" s="2">
-        <v>6.5167050471073795E-2</v>
+        <v>0.16643438498295801</v>
       </c>
       <c r="K55" s="2">
-        <v>209.78917667471401</v>
+        <v>228.292994526738</v>
       </c>
       <c r="L55" s="2">
-        <v>0.95636490300080301</v>
+        <v>0.68693604122743901</v>
       </c>
       <c r="M55" s="2">
-        <v>231.824153936388</v>
+        <v>184.04161036060299</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>23</v>
+      <c r="B56" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>I294</v>
       </c>
       <c r="C56" s="2">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D56" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E56" s="2">
-        <v>295.38896837258699</v>
+        <v>986.53222667423199</v>
       </c>
       <c r="F56" s="2">
-        <v>0.34032382001914302</v>
+        <v>1.1482998647228599</v>
       </c>
       <c r="G56" s="2">
-        <v>0.58337279677676401</v>
+        <v>1.0715875441245399</v>
       </c>
       <c r="H56" s="2">
-        <v>0.47875035392639798</v>
+        <v>0.84826502723493802</v>
       </c>
       <c r="I56" s="2">
-        <v>5.0268575495899901</v>
+        <v>3.0685414148990602</v>
       </c>
       <c r="J56" s="2">
-        <v>7.3844657819843507E-2</v>
+        <v>9.0505704740248299E-2</v>
       </c>
       <c r="K56" s="2">
-        <v>209.97979695181101</v>
+        <v>1335.4727426726899</v>
       </c>
       <c r="L56" s="2">
-        <v>0.93580536065540898</v>
+        <v>0.90183297692338205</v>
       </c>
       <c r="M56" s="2">
-        <v>295.38896837258699</v>
+        <v>986.53222667423199</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>24</v>
+      <c r="B57" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>I294</v>
       </c>
       <c r="C57" s="2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D57" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E57" s="2">
-        <v>2.7597198533669798</v>
+        <v>89.057562337545903</v>
       </c>
       <c r="F57" s="2">
-        <v>6.5096603405640904E-3</v>
+        <v>0.12786865924743501</v>
       </c>
       <c r="G57" s="2">
-        <v>8.0682466128422795E-2</v>
+        <v>0.35758727500770399</v>
       </c>
       <c r="H57" s="2">
-        <v>6.5707615556356597E-2</v>
+        <v>0.28635872134259099</v>
       </c>
       <c r="I57" s="2">
-        <v>5.4424652249253098</v>
+        <v>1.6985670289910599</v>
       </c>
       <c r="J57" s="2">
-        <v>1.56969778459966E-2</v>
+        <v>3.0853086713348101E-2</v>
       </c>
       <c r="K57" s="2">
-        <v>0.27340573430369203</v>
+        <v>39.767153025952503</v>
       </c>
       <c r="L57" s="2">
-        <v>0.99636269401155597</v>
+        <v>0.98781841019558103</v>
       </c>
       <c r="M57" s="2">
-        <v>2.7597198533669798</v>
+        <v>89.057562337545903</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="3">
-        <f t="shared" ref="E58:M58" si="5">AVERAGE(E54:E57)</f>
-        <v>166.75533039671973</v>
-      </c>
-      <c r="F58" s="3">
-        <f t="shared" si="5"/>
-        <v>0.22688531944293955</v>
-      </c>
-      <c r="G58" s="3">
-        <f t="shared" si="5"/>
-        <v>0.42113819013252174</v>
-      </c>
-      <c r="H58" s="3">
-        <f t="shared" si="5"/>
-        <v>0.31130961079008562</v>
-      </c>
-      <c r="I58" s="3">
-        <f t="shared" si="5"/>
-        <v>8.5014314615852395</v>
-      </c>
-      <c r="J58" s="3">
-        <f t="shared" si="5"/>
-        <v>4.4097909231379573E-2</v>
-      </c>
-      <c r="K58" s="3">
-        <f t="shared" si="5"/>
-        <v>125.14353074411848</v>
-      </c>
-      <c r="L58" s="3">
-        <f t="shared" si="5"/>
-        <v>0.97094235805124041</v>
-      </c>
-      <c r="M58" s="3">
-        <f t="shared" si="5"/>
-        <v>166.75533039671973</v>
+      <c r="A58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>I294</v>
+      </c>
+      <c r="C58" s="2">
+        <v>22</v>
+      </c>
+      <c r="D58" s="2">
+        <v>11</v>
+      </c>
+      <c r="E58" s="2">
+        <v>449.36165482411798</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0.34732390271397601</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0.58934192343153102</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0.429600052413115</v>
+      </c>
+      <c r="I58" s="2">
+        <v>2.14578794277545</v>
+      </c>
+      <c r="J58" s="2">
+        <v>3.5652868931127103E-2</v>
+      </c>
+      <c r="K58" s="2">
+        <v>363.30080223881902</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0.95736115172152503</v>
+      </c>
+      <c r="M58" s="2">
+        <v>449.36165482411798</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
+      <c r="A59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>I294</v>
+      </c>
+      <c r="C59" s="2">
+        <v>35</v>
+      </c>
+      <c r="D59" s="2">
+        <v>11</v>
+      </c>
+      <c r="E59" s="2">
+        <v>579.20940714982703</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0.93099328946781001</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0.96487993526024296</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0.65373522251673399</v>
+      </c>
+      <c r="I59" s="2">
+        <v>4.1089610534986898</v>
+      </c>
+      <c r="J59" s="2">
+        <v>4.3113491298491603E-2</v>
+      </c>
+      <c r="K59" s="2">
+        <v>824.86005446848003</v>
+      </c>
+      <c r="L59" s="2">
+        <v>0.956294478245588</v>
+      </c>
+      <c r="M59" s="2">
+        <v>579.20940714982703</v>
+      </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B60" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>I294</v>
       </c>
       <c r="C60" s="2">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D60" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E60" s="2">
-        <v>289.47353887323698</v>
+        <v>865.30542753238103</v>
       </c>
       <c r="F60" s="2">
-        <v>8.5450198355043597E-2</v>
+        <v>1.7029549585927899</v>
       </c>
       <c r="G60" s="2">
-        <v>0.292318658923859</v>
+        <v>1.3049731639358699</v>
       </c>
       <c r="H60" s="2">
-        <v>0.22301505306104499</v>
+        <v>0.73768578647261795</v>
       </c>
       <c r="I60" s="2">
-        <v>0.838363728129635</v>
+        <v>3.2821333936162298</v>
       </c>
       <c r="J60" s="2">
-        <v>5.6541326677729001E-2</v>
+        <v>5.7085440242163998E-2</v>
       </c>
       <c r="K60" s="2">
-        <v>110.91435746484601</v>
+        <v>1997.56616642935</v>
       </c>
       <c r="L60" s="2">
-        <v>0.95253158218176104</v>
+        <v>0.92731780456924695</v>
       </c>
       <c r="M60" s="2">
-        <v>289.47353887323698</v>
+        <v>865.30542753238103</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B61" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>I294</v>
       </c>
       <c r="C61" s="2">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D61" s="2">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E61" s="2">
-        <v>20.902278385224399</v>
+        <v>772.43939497794895</v>
       </c>
       <c r="F61" s="2">
-        <v>7.1501876581258297E-2</v>
+        <v>1.7739276762856599</v>
       </c>
       <c r="G61" s="2">
-        <v>0.26739834812739199</v>
+        <v>1.3318887627297</v>
       </c>
       <c r="H61" s="2">
-        <v>0.232247537613605</v>
+        <v>0.66820016866604603</v>
       </c>
       <c r="I61" s="2">
-        <v>0.87091539882208302</v>
+        <v>3.5284173586359602</v>
       </c>
       <c r="J61" s="2">
-        <v>0.201051389569467</v>
+        <v>6.3033069698518907E-2</v>
       </c>
       <c r="K61" s="2">
-        <v>6.43516889231325</v>
+        <v>2050.6603937862201</v>
       </c>
       <c r="L61" s="2">
-        <v>0.69525730399942398</v>
+        <v>0.91225892328765801</v>
       </c>
       <c r="M61" s="2">
-        <v>20.902278385224399</v>
+        <v>772.43939497794895</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B62" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>I294</v>
       </c>
       <c r="C62" s="2">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D62" s="2">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E62" s="2">
-        <v>106.324423864515</v>
+        <v>557.987992623217</v>
       </c>
       <c r="F62" s="2">
-        <v>0.142390638393777</v>
+        <v>0.62784420386418205</v>
       </c>
       <c r="G62" s="2">
-        <v>0.37734684097495302</v>
+        <v>0.792366205655051</v>
       </c>
       <c r="H62" s="2">
-        <v>0.302058022342372</v>
+        <v>0.55137153421266505</v>
       </c>
       <c r="I62" s="2">
-        <v>1.42919554207716</v>
+        <v>2.16888480741467</v>
       </c>
       <c r="J62" s="2">
-        <v>8.9418682695486598E-2</v>
+        <v>7.6409470169243099E-2</v>
       </c>
       <c r="K62" s="2">
-        <v>50.1215047146095</v>
+        <v>635.37833431055299</v>
       </c>
       <c r="L62" s="2">
-        <v>0.91089284170294604</v>
+        <v>0.89116279575498902</v>
       </c>
       <c r="M62" s="2">
-        <v>106.324423864515</v>
+        <v>557.987992623217</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="3">
-        <f>AVERAGE(E60:E62)</f>
-        <v>138.90008037432546</v>
-      </c>
-      <c r="F63" s="3">
-        <f t="shared" ref="F63:M63" si="6">AVERAGE(F60:F62)</f>
-        <v>9.978090444335963E-2</v>
-      </c>
-      <c r="G63" s="3">
-        <f t="shared" si="6"/>
-        <v>0.31235461600873465</v>
-      </c>
-      <c r="H63" s="3">
-        <f t="shared" si="6"/>
-        <v>0.25244020433900732</v>
-      </c>
-      <c r="I63" s="3">
-        <f t="shared" si="6"/>
-        <v>1.046158223009626</v>
-      </c>
-      <c r="J63" s="3">
-        <f t="shared" si="6"/>
-        <v>0.11567046631422752</v>
-      </c>
-      <c r="K63" s="3">
-        <f t="shared" si="6"/>
-        <v>55.823677023922919</v>
-      </c>
-      <c r="L63" s="3">
-        <f t="shared" si="6"/>
-        <v>0.85289390929471043</v>
-      </c>
-      <c r="M63" s="3">
-        <f t="shared" si="6"/>
-        <v>138.90008037432546</v>
+      <c r="A63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>I294</v>
+      </c>
+      <c r="C63" s="2">
+        <v>18</v>
+      </c>
+      <c r="D63" s="2">
+        <v>19</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1004.1052057140899</v>
+      </c>
+      <c r="F63" s="2">
+        <v>1.73098995723529</v>
+      </c>
+      <c r="G63" s="2">
+        <v>1.31567091525019</v>
+      </c>
+      <c r="H63" s="2">
+        <v>1.0309088354354099</v>
+      </c>
+      <c r="I63" s="2">
+        <v>4.0115832009610797</v>
+      </c>
+      <c r="J63" s="2">
+        <v>0.16932701611971601</v>
+      </c>
+      <c r="K63" s="2">
+        <v>1685.9842183471701</v>
+      </c>
+      <c r="L63" s="2">
+        <v>0.40673453901940199</v>
+      </c>
+      <c r="M63" s="2">
+        <v>1004.1052057140899</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
+      <c r="A64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>I294</v>
+      </c>
+      <c r="C64" s="2">
+        <v>19</v>
+      </c>
+      <c r="D64" s="2">
+        <v>19</v>
+      </c>
+      <c r="E64" s="2">
+        <v>225.02805507201401</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0.22895096804854401</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0.47848821098178002</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0.35662132341048303</v>
+      </c>
+      <c r="I64" s="2">
+        <v>1.4669462716283099</v>
+      </c>
+      <c r="J64" s="2">
+        <v>7.5115888694157001E-2</v>
+      </c>
+      <c r="K64" s="2">
+        <v>144.468060838631</v>
+      </c>
+      <c r="L64" s="2">
+        <v>0.90477107432653203</v>
+      </c>
+      <c r="M64" s="2">
+        <v>225.02805507201401</v>
+      </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B65" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>I294</v>
       </c>
       <c r="C65" s="2">
-        <v>5366</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E65" s="2">
-        <v>255.66569827541201</v>
+        <v>338.41578557957598</v>
       </c>
       <c r="F65" s="2">
-        <v>0.125801250724874</v>
+        <v>0.102131691036039</v>
       </c>
       <c r="G65" s="2">
-        <v>0.35468472017395197</v>
+        <v>0.31958049226453</v>
       </c>
       <c r="H65" s="2">
-        <v>0.29488546513888397</v>
+        <v>0.26480108417807202</v>
       </c>
       <c r="I65" s="2">
-        <v>32.434550235871903</v>
+        <v>1.05963770753899</v>
       </c>
       <c r="J65" s="2">
-        <v>4.4060213686205198E-2</v>
+        <v>4.9470664437233802E-2</v>
       </c>
       <c r="K65" s="2">
-        <v>109.06968437846599</v>
+        <v>130.524301144058</v>
       </c>
       <c r="L65" s="2">
-        <v>0.96803364639803802</v>
+        <v>0.95710086718475595</v>
       </c>
       <c r="M65" s="2">
-        <v>255.66569827541201</v>
+        <v>338.41578557957598</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B66" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>I294</v>
       </c>
       <c r="C66" s="2">
-        <v>195</v>
+        <v>48</v>
       </c>
       <c r="D66" s="2">
-        <v>2</v>
-      </c>
-      <c r="E66" s="2">
-        <v>160.65196387060001</v>
-      </c>
-      <c r="F66" s="2">
-        <v>8.5425289402859095E-2</v>
-      </c>
-      <c r="G66" s="2">
-        <v>0.29227604999872803</v>
-      </c>
-      <c r="H66" s="2">
-        <v>0.237650834128106</v>
-      </c>
-      <c r="I66" s="2">
-        <v>10.0131696714189</v>
-      </c>
-      <c r="J66" s="2">
-        <v>6.2585877944053098E-2</v>
-      </c>
-      <c r="K66" s="2">
-        <v>57.747495636332701</v>
-      </c>
-      <c r="L66" s="2">
-        <v>0.95235175702757002</v>
-      </c>
-      <c r="M66" s="2">
-        <v>160.65196387060001</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B67" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>I294</v>
       </c>
       <c r="C67" s="2">
-        <v>286</v>
+        <v>50</v>
       </c>
       <c r="D67" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E67" s="2">
-        <v>70.802653361398598</v>
+        <v>291.43050713558102</v>
       </c>
       <c r="F67" s="2">
-        <v>7.2165514447144502E-2</v>
+        <v>0.116955064091205</v>
       </c>
       <c r="G67" s="2">
-        <v>0.26863639821726398</v>
+        <v>0.34198693555632298</v>
       </c>
       <c r="H67" s="2">
-        <v>0.20522508220695199</v>
+        <v>0.21256783890268499</v>
       </c>
       <c r="I67" s="2">
-        <v>4.5342359888324202</v>
+        <v>0.83076969473518703</v>
       </c>
       <c r="J67" s="2">
-        <v>9.6980649175907693E-2</v>
+        <v>5.9787925796560101E-2</v>
       </c>
       <c r="K67" s="2">
-        <v>24.897102484264799</v>
+        <v>160.345392869042</v>
       </c>
       <c r="L67" s="2">
-        <v>0.89794825498448205</v>
+        <v>0.86729016753643795</v>
       </c>
       <c r="M67" s="2">
-        <v>70.802653361398598</v>
+        <v>291.43050713558102</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>I294</v>
+      </c>
+      <c r="C68" s="2">
+        <v>54</v>
+      </c>
+      <c r="D68" s="2">
         <v>20</v>
       </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="3">
-        <f>AVERAGE(E65:E67)</f>
-        <v>162.37343850247021</v>
-      </c>
-      <c r="F68" s="3">
-        <f t="shared" ref="F68:M68" si="7">AVERAGE(F65:F67)</f>
-        <v>9.4464018191625865E-2</v>
-      </c>
-      <c r="G68" s="3">
-        <f t="shared" si="7"/>
-        <v>0.30519905612998133</v>
-      </c>
-      <c r="H68" s="3">
-        <f t="shared" si="7"/>
-        <v>0.245920460491314</v>
-      </c>
-      <c r="I68" s="3">
-        <f t="shared" si="7"/>
-        <v>15.660651965374408</v>
-      </c>
-      <c r="J68" s="3">
-        <f t="shared" si="7"/>
-        <v>6.7875580268721994E-2</v>
-      </c>
-      <c r="K68" s="3">
-        <f t="shared" si="7"/>
-        <v>63.904760833021157</v>
-      </c>
-      <c r="L68" s="3">
-        <f t="shared" si="7"/>
-        <v>0.93944455280336336</v>
-      </c>
-      <c r="M68" s="3">
-        <f t="shared" si="7"/>
-        <v>162.37343850247021</v>
+      <c r="E68" s="2">
+        <v>470.65974122517002</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0.21047051488510299</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0.45877065608548101</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0.339336511337541</v>
+      </c>
+      <c r="I68" s="2">
+        <v>1.3492942050944301</v>
+      </c>
+      <c r="J68" s="2">
+        <v>7.24756170751156E-2</v>
+      </c>
+      <c r="K68" s="2">
+        <v>291.92260414563799</v>
+      </c>
+      <c r="L68" s="2">
+        <v>0.88894881801719805</v>
+      </c>
+      <c r="M68" s="2">
+        <v>470.65974122517002</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
+      <c r="A69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>I294</v>
+      </c>
+      <c r="C69" s="2">
+        <v>11</v>
+      </c>
+      <c r="D69" s="2">
+        <v>21</v>
+      </c>
+      <c r="E69" s="2">
+        <v>372.21091985280901</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0.151043312109331</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0.38864291079258201</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0.28112607239638199</v>
+      </c>
+      <c r="I69" s="2">
+        <v>1.2565203286584401</v>
+      </c>
+      <c r="J69" s="2">
+        <v>4.09097800834297E-2</v>
+      </c>
+      <c r="K69" s="2">
+        <v>199.98134523275399</v>
+      </c>
+      <c r="L69" s="2">
+        <v>0.980807227977044</v>
+      </c>
+      <c r="M69" s="2">
+        <v>372.21091985280901</v>
+      </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="B70" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>I294</v>
       </c>
       <c r="C70" s="2">
         <v>13</v>
       </c>
       <c r="D70" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E70" s="2">
-        <v>135.59949194331699</v>
+        <v>338.294091579292</v>
       </c>
       <c r="F70" s="2">
-        <v>0.12752278115732499</v>
+        <v>0.99199526582650899</v>
       </c>
       <c r="G70" s="2">
-        <v>0.35710332000322498</v>
+        <v>0.99598959122397901</v>
       </c>
       <c r="H70" s="2">
-        <v>0.22905319585019901</v>
+        <v>0.71370061514618599</v>
       </c>
       <c r="I70" s="2">
-        <v>27.774140352410001</v>
+        <v>3.3528991920139699</v>
       </c>
       <c r="J70" s="2">
-        <v>2.09937283952513E-2</v>
+        <v>0.168811795122708</v>
       </c>
       <c r="K70" s="2">
-        <v>75.493486445136895</v>
+        <v>470.205756001765</v>
       </c>
       <c r="L70" s="2">
-        <v>0.99553449200511801</v>
+        <v>0.70102167259746495</v>
       </c>
       <c r="M70" s="2">
-        <v>135.59949194331699</v>
+        <v>338.294091579292</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="B71" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>I294</v>
       </c>
       <c r="C71" s="2">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2">
+        <v>21</v>
+      </c>
+      <c r="E71" s="2">
+        <v>616.92181698435297</v>
+      </c>
+      <c r="F71" s="2">
+        <v>0.40117692563496599</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0.63338529003677202</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0.46246013267192798</v>
+      </c>
+      <c r="I71" s="2">
+        <v>2.02728546836796</v>
+      </c>
+      <c r="J71" s="2">
+        <v>6.1137576258375702E-2</v>
+      </c>
+      <c r="K71" s="2">
+        <v>535.17001879704503</v>
+      </c>
+      <c r="L71" s="2">
+        <v>0.95611703726840802</v>
+      </c>
+      <c r="M71" s="2">
+        <v>616.92181698435297</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="3">
+        <f t="shared" ref="E72:M72" si="22">AVERAGE(E43:E71)</f>
+        <v>514.58964240130524</v>
+      </c>
+      <c r="F72" s="3">
+        <f t="shared" si="22"/>
+        <v>0.52679260869959632</v>
+      </c>
+      <c r="G72" s="3">
+        <f t="shared" si="22"/>
+        <v>0.6393762629040024</v>
+      </c>
+      <c r="H72" s="3">
+        <f t="shared" si="22"/>
+        <v>0.45745364848452708</v>
+      </c>
+      <c r="I72" s="3">
+        <f t="shared" si="22"/>
+        <v>3.8053203200425596</v>
+      </c>
+      <c r="J72" s="3">
+        <f t="shared" si="22"/>
+        <v>6.9257130052807259E-2</v>
+      </c>
+      <c r="K72" s="3">
+        <f t="shared" si="22"/>
+        <v>552.71034212621907</v>
+      </c>
+      <c r="L72" s="3">
+        <f t="shared" si="22"/>
+        <v>0.89379390738263487</v>
+      </c>
+      <c r="M72" s="3">
+        <f t="shared" si="22"/>
+        <v>514.58964240130524</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="2">
+        <v>5366</v>
+      </c>
+      <c r="D74" s="2">
         <v>1</v>
       </c>
-      <c r="E71" s="2">
-        <v>310.984941567889</v>
-      </c>
-      <c r="F71" s="2">
-        <v>0.76249953674112803</v>
-      </c>
-      <c r="G71" s="2">
-        <v>0.87321219456735</v>
-      </c>
-      <c r="H71" s="2">
-        <v>0.62952417321435095</v>
-      </c>
-      <c r="I71" s="2">
-        <v>9.5375280191700398</v>
-      </c>
-      <c r="J71" s="2">
-        <v>8.7321219456735003E-2</v>
-      </c>
-      <c r="K71" s="2">
-        <v>376.67477115011701</v>
-      </c>
-      <c r="L71" s="2">
-        <v>0.92165353600786404</v>
-      </c>
-      <c r="M71" s="2">
-        <v>310.984941567889</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C72" s="2">
+      <c r="E74" s="2">
+        <v>244.557969819573</v>
+      </c>
+      <c r="F74" s="2">
+        <v>0.11883110757453499</v>
+      </c>
+      <c r="G74" s="2">
+        <v>0.344718881952433</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0.28207378295221902</v>
+      </c>
+      <c r="I74" s="2">
+        <v>31.129182114644099</v>
+      </c>
+      <c r="J74" s="2">
+        <v>4.2822221360550701E-2</v>
+      </c>
+      <c r="K74" s="2">
+        <v>103.026570267122</v>
+      </c>
+      <c r="L74" s="2">
+        <v>0.96980477394499198</v>
+      </c>
+      <c r="M74" s="2">
+        <v>244.557969819573</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="2">
+        <v>195</v>
+      </c>
+      <c r="D75" s="2">
         <v>2</v>
       </c>
-      <c r="D72" s="2">
-        <v>1</v>
-      </c>
-      <c r="E72" s="2">
-        <v>253.07635553287199</v>
-      </c>
-      <c r="F72" s="2">
-        <v>0.26167135523907897</v>
-      </c>
-      <c r="G72" s="2">
-        <v>0.51153822461188503</v>
-      </c>
-      <c r="H72" s="2">
-        <v>0.41017237525587102</v>
-      </c>
-      <c r="I72" s="2">
-        <v>4.1438872388509003</v>
-      </c>
-      <c r="J72" s="2">
-        <v>6.4751674001504403E-2</v>
-      </c>
-      <c r="K72" s="2">
-        <v>161.45122618251199</v>
-      </c>
-      <c r="L72" s="2">
-        <v>0.95064142652301498</v>
-      </c>
-      <c r="M72" s="2">
-        <v>253.07635553287199</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C73" s="2">
-        <v>2</v>
-      </c>
-      <c r="D73" s="2">
-        <v>1</v>
-      </c>
-      <c r="E73" s="2">
-        <v>3.21780296248168</v>
-      </c>
-      <c r="F73" s="2">
-        <v>8.2941993876300101E-3</v>
-      </c>
-      <c r="G73" s="2">
-        <v>9.1072495231161898E-2</v>
-      </c>
-      <c r="H73" s="2">
-        <v>7.6614356249564003E-2</v>
-      </c>
-      <c r="I73" s="2">
-        <v>5.6699656298690098</v>
-      </c>
-      <c r="J73" s="2">
-        <v>1.7718384286218199E-2</v>
-      </c>
-      <c r="K73" s="2">
-        <v>0.34835637428046001</v>
-      </c>
-      <c r="L73" s="2">
-        <v>0.99536557369760403</v>
-      </c>
-      <c r="M73" s="2">
-        <v>3.21780296248168</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="3">
-        <f t="shared" ref="E74:M74" si="8">AVERAGE(E70:E73)</f>
-        <v>175.71964800163991</v>
-      </c>
-      <c r="F74" s="3">
-        <f t="shared" si="8"/>
-        <v>0.2899969681312905</v>
-      </c>
-      <c r="G74" s="3">
-        <f t="shared" si="8"/>
-        <v>0.45823155860340548</v>
-      </c>
-      <c r="H74" s="3">
-        <f t="shared" si="8"/>
-        <v>0.33634102514249625</v>
-      </c>
-      <c r="I74" s="3">
-        <f t="shared" si="8"/>
-        <v>11.781380310074988</v>
-      </c>
-      <c r="J74" s="3">
-        <f t="shared" si="8"/>
-        <v>4.7696251534927223E-2</v>
-      </c>
-      <c r="K74" s="3">
-        <f t="shared" si="8"/>
-        <v>153.4919600380116</v>
-      </c>
-      <c r="L74" s="3">
-        <f t="shared" si="8"/>
-        <v>0.96579875705840024</v>
-      </c>
-      <c r="M74" s="3">
-        <f t="shared" si="8"/>
-        <v>175.71964800163991</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
+      <c r="E75" s="2">
+        <v>77.635250792618905</v>
+      </c>
+      <c r="F75" s="2">
+        <v>1.8399385565739799E-2</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0.13564433480886601</v>
+      </c>
+      <c r="H75" s="2">
+        <v>0.114845045551211</v>
+      </c>
+      <c r="I75" s="2">
+        <v>5.0311976694003198</v>
+      </c>
+      <c r="J75" s="2">
+        <v>2.9045896104682299E-2</v>
+      </c>
+      <c r="K75" s="2">
+        <v>12.437984642440099</v>
+      </c>
+      <c r="L75" s="2">
+        <v>0.989737249939589</v>
+      </c>
+      <c r="M75" s="2">
+        <v>77.635250792618905</v>
+      </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C76" s="2">
-        <v>8</v>
+        <v>286</v>
       </c>
       <c r="D76" s="2">
+        <v>3</v>
+      </c>
+      <c r="E76" s="2">
+        <v>67.583963992417495</v>
+      </c>
+      <c r="F76" s="2">
+        <v>6.4306458866709396E-2</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0.25358718198424202</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0.19589554780410801</v>
+      </c>
+      <c r="I76" s="2">
+        <v>4.5080038944371097</v>
+      </c>
+      <c r="J76" s="2">
+        <v>9.1547719127885396E-2</v>
+      </c>
+      <c r="K76" s="2">
+        <v>22.185728309014699</v>
+      </c>
+      <c r="L76" s="2">
+        <v>0.90906201676255105</v>
+      </c>
+      <c r="M76" s="2">
+        <v>67.583963992417495</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="3">
+        <f>AVERAGE(E74:E76)</f>
+        <v>129.92572820153646</v>
+      </c>
+      <c r="F77" s="3">
+        <f t="shared" ref="F77:M77" si="23">AVERAGE(F74:F76)</f>
+        <v>6.7178984002328065E-2</v>
+      </c>
+      <c r="G77" s="3">
+        <f t="shared" si="23"/>
+        <v>0.24465013291518034</v>
+      </c>
+      <c r="H77" s="3">
+        <f t="shared" si="23"/>
+        <v>0.19760479210251267</v>
+      </c>
+      <c r="I77" s="3">
+        <f t="shared" si="23"/>
+        <v>13.556127892827176</v>
+      </c>
+      <c r="J77" s="3">
+        <f t="shared" si="23"/>
+        <v>5.4471945531039463E-2</v>
+      </c>
+      <c r="K77" s="3">
+        <f t="shared" si="23"/>
+        <v>45.883427739525594</v>
+      </c>
+      <c r="L77" s="3">
+        <f>AVERAGE(L74:L76)</f>
+        <v>0.95620134688237723</v>
+      </c>
+      <c r="M77" s="3">
+        <f t="shared" si="23"/>
+        <v>129.92572820153646</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="2">
+        <v>13</v>
+      </c>
+      <c r="D79" s="2">
         <v>1</v>
       </c>
-      <c r="E76">
-        <v>250.61591917055699</v>
-      </c>
-      <c r="F76">
-        <v>6.1541580438117999E-2</v>
-      </c>
-      <c r="G76">
-        <v>0.248075755441998</v>
-      </c>
-      <c r="H76">
-        <v>0.19307852016221599</v>
-      </c>
-      <c r="I76">
-        <v>0.73193243089735005</v>
-      </c>
-      <c r="J76">
-        <v>4.7983705114506302E-2</v>
-      </c>
-      <c r="K76">
-        <v>79.880971408677198</v>
-      </c>
-      <c r="L76">
-        <v>0.96581305240166304</v>
-      </c>
-      <c r="M76">
-        <v>250.61591917055699</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" s="2">
-        <v>12</v>
-      </c>
-      <c r="D77" s="2">
-        <v>7</v>
-      </c>
-      <c r="E77">
-        <v>9.3597498165179296</v>
-      </c>
-      <c r="F77">
-        <v>1.57970195464671E-2</v>
-      </c>
-      <c r="G77">
-        <v>0.12568619473302201</v>
-      </c>
-      <c r="H77">
-        <v>0.103997220183532</v>
-      </c>
-      <c r="I77">
-        <v>0.39451902947122303</v>
-      </c>
-      <c r="J77">
-        <v>9.4500898295505106E-2</v>
-      </c>
-      <c r="K77">
-        <v>1.42173175918204</v>
-      </c>
-      <c r="L77">
-        <v>0.93267272754871899</v>
-      </c>
-      <c r="M77">
-        <v>9.3597498165179296</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" s="2">
-        <v>40</v>
-      </c>
-      <c r="D78" s="2">
-        <v>9</v>
-      </c>
-      <c r="E78">
-        <v>98.832177268430698</v>
-      </c>
-      <c r="F78">
-        <v>0.13102341643917001</v>
-      </c>
-      <c r="G78">
-        <v>0.36197156855085999</v>
-      </c>
-      <c r="H78">
-        <v>0.28077323087622302</v>
-      </c>
-      <c r="I78">
-        <v>1.3218132291840801</v>
-      </c>
-      <c r="J78">
-        <v>8.5775253211104296E-2</v>
-      </c>
-      <c r="K78">
-        <v>46.120242586587899</v>
-      </c>
-      <c r="L78">
-        <v>0.91800637709777799</v>
-      </c>
-      <c r="M78">
-        <v>98.832177268430698</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="3">
-        <f>AVERAGE(E76:E78)</f>
-        <v>119.60261541850188</v>
-      </c>
-      <c r="F79" s="3">
-        <f t="shared" ref="F79:M79" si="9">AVERAGE(F76:F78)</f>
-        <v>6.9454005474585037E-2</v>
-      </c>
-      <c r="G79" s="3">
-        <f t="shared" si="9"/>
-        <v>0.24524450624196001</v>
-      </c>
-      <c r="H79" s="3">
-        <f t="shared" si="9"/>
-        <v>0.19261632374065699</v>
-      </c>
-      <c r="I79" s="3">
-        <f t="shared" si="9"/>
-        <v>0.81608822985088436</v>
-      </c>
-      <c r="J79" s="3">
-        <f t="shared" si="9"/>
-        <v>7.6086618873705228E-2</v>
-      </c>
-      <c r="K79" s="3">
-        <f t="shared" si="9"/>
-        <v>42.474315251482381</v>
-      </c>
-      <c r="L79" s="3">
-        <f t="shared" si="9"/>
-        <v>0.93883071901605331</v>
-      </c>
-      <c r="M79" s="3">
-        <f t="shared" si="9"/>
-        <v>119.60261541850188</v>
+      <c r="E79" s="2">
+        <v>137.04847942453699</v>
+      </c>
+      <c r="F79" s="2">
+        <v>0.13603335070210301</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0.36882699291416199</v>
+      </c>
+      <c r="H79" s="2">
+        <v>0.23150080983874599</v>
+      </c>
+      <c r="I79" s="2">
+        <v>16.706072856250199</v>
+      </c>
+      <c r="J79" s="2">
+        <v>2.16829507886044E-2</v>
+      </c>
+      <c r="K79" s="2">
+        <v>80.531743615645198</v>
+      </c>
+      <c r="L79" s="2">
+        <v>0.99523647453719399</v>
+      </c>
+      <c r="M79" s="2">
+        <v>137.04847942453699</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
+      <c r="A80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="2">
+        <v>31</v>
+      </c>
+      <c r="D80" s="2">
+        <v>1</v>
+      </c>
+      <c r="E80" s="2">
+        <v>231.824153936388</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0.42467444670994797</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0.65167050471073795</v>
+      </c>
+      <c r="H80" s="2">
+        <v>0.46927966383884201</v>
+      </c>
+      <c r="I80" s="2">
+        <v>6.8303302155754597</v>
+      </c>
+      <c r="J80" s="2">
+        <v>6.5167050471073795E-2</v>
+      </c>
+      <c r="K80" s="2">
+        <v>209.78917667471401</v>
+      </c>
+      <c r="L80" s="2">
+        <v>0.95636490300080301</v>
+      </c>
+      <c r="M80" s="2">
+        <v>231.824153936388</v>
+      </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C81" s="2">
-        <v>5366</v>
+        <v>2</v>
       </c>
       <c r="D81" s="2">
         <v>1</v>
       </c>
-      <c r="E81">
-        <v>239.797259205335</v>
-      </c>
-      <c r="F81">
-        <v>0.11713127915992599</v>
-      </c>
-      <c r="G81">
-        <v>0.34224447279675002</v>
-      </c>
-      <c r="H81">
-        <v>0.27658276724952102</v>
-      </c>
-      <c r="I81">
-        <v>33.178884082830699</v>
-      </c>
-      <c r="J81">
-        <v>4.2514841341211203E-2</v>
-      </c>
-      <c r="K81">
-        <v>101.55281903165501</v>
-      </c>
-      <c r="L81">
-        <v>0.97023670380142002</v>
-      </c>
-      <c r="M81">
-        <v>239.797259205335</v>
+      <c r="E81" s="2">
+        <v>295.38896837258699</v>
+      </c>
+      <c r="F81" s="2">
+        <v>0.34032382001914302</v>
+      </c>
+      <c r="G81" s="2">
+        <v>0.58337279677676401</v>
+      </c>
+      <c r="H81" s="2">
+        <v>0.47875035392639798</v>
+      </c>
+      <c r="I81" s="2">
+        <v>5.0268575495899901</v>
+      </c>
+      <c r="J81" s="2">
+        <v>7.3844657819843507E-2</v>
+      </c>
+      <c r="K81" s="2">
+        <v>209.97979695181101</v>
+      </c>
+      <c r="L81" s="2">
+        <v>0.93580536065540898</v>
+      </c>
+      <c r="M81" s="2">
+        <v>295.38896837258699</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C82" s="2">
-        <v>195</v>
+        <v>2</v>
       </c>
       <c r="D82" s="2">
-        <v>2</v>
-      </c>
-      <c r="E82">
-        <v>106.946994981495</v>
-      </c>
-      <c r="F82">
-        <v>3.8846031226148298E-2</v>
-      </c>
-      <c r="G82">
-        <v>0.19709396547370001</v>
-      </c>
-      <c r="H82">
-        <v>0.15820561387795201</v>
-      </c>
-      <c r="I82">
-        <v>7.3786142765536002</v>
-      </c>
-      <c r="J82">
-        <v>4.2204275262034401E-2</v>
-      </c>
-      <c r="K82">
-        <v>26.259917108876301</v>
-      </c>
-      <c r="L82">
-        <v>0.97833258573290605</v>
-      </c>
-      <c r="M82">
-        <v>106.946994981495</v>
+        <v>1</v>
+      </c>
+      <c r="E82" s="2">
+        <v>2.7597198533669798</v>
+      </c>
+      <c r="F82" s="2">
+        <v>6.5096603405640904E-3</v>
+      </c>
+      <c r="G82" s="2">
+        <v>8.0682466128422795E-2</v>
+      </c>
+      <c r="H82" s="2">
+        <v>6.5707615556356597E-2</v>
+      </c>
+      <c r="I82" s="2">
+        <v>5.4424652249253098</v>
+      </c>
+      <c r="J82" s="2">
+        <v>1.56969778459966E-2</v>
+      </c>
+      <c r="K82" s="2">
+        <v>0.27340573430369203</v>
+      </c>
+      <c r="L82" s="2">
+        <v>0.99636269401155597</v>
+      </c>
+      <c r="M82" s="2">
+        <v>2.7597198533669798</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B83" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83">
-        <v>286</v>
-      </c>
-      <c r="D83">
-        <v>3</v>
-      </c>
-      <c r="E83">
-        <v>65.431846178566502</v>
-      </c>
-      <c r="F83">
-        <v>6.6175395966149506E-2</v>
-      </c>
-      <c r="G83">
-        <v>0.25724578901538803</v>
-      </c>
-      <c r="H83">
-        <v>0.18965752515526499</v>
-      </c>
-      <c r="I83">
-        <v>4.5177385884716301</v>
-      </c>
-      <c r="J83">
-        <v>9.2868515890031797E-2</v>
-      </c>
-      <c r="K83">
-        <v>22.830511608321601</v>
-      </c>
-      <c r="L83">
-        <v>0.90641908829757301</v>
-      </c>
-      <c r="M83">
-        <v>65.431846178566502</v>
+      <c r="A83" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="3">
+        <f t="shared" ref="E83:M83" si="24">AVERAGE(E79:E82)</f>
+        <v>166.75533039671973</v>
+      </c>
+      <c r="F83" s="3">
+        <f t="shared" si="24"/>
+        <v>0.22688531944293955</v>
+      </c>
+      <c r="G83" s="3">
+        <f t="shared" si="24"/>
+        <v>0.42113819013252174</v>
+      </c>
+      <c r="H83" s="3">
+        <f t="shared" si="24"/>
+        <v>0.31130961079008562</v>
+      </c>
+      <c r="I83" s="3">
+        <f t="shared" si="24"/>
+        <v>8.5014314615852395</v>
+      </c>
+      <c r="J83" s="3">
+        <f t="shared" si="24"/>
+        <v>4.4097909231379573E-2</v>
+      </c>
+      <c r="K83" s="3">
+        <f t="shared" si="24"/>
+        <v>125.14353074411848</v>
+      </c>
+      <c r="L83" s="3">
+        <f t="shared" si="24"/>
+        <v>0.97094235805124041</v>
+      </c>
+      <c r="M83" s="3">
+        <f t="shared" si="24"/>
+        <v>166.75533039671973</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="3">
-        <f>AVERAGE(E81:E83)</f>
-        <v>137.39203345513218</v>
-      </c>
-      <c r="F84" s="3">
-        <f t="shared" ref="F84:M84" si="10">AVERAGE(F81:F83)</f>
-        <v>7.4050902117407932E-2</v>
-      </c>
-      <c r="G84" s="3">
-        <f t="shared" si="10"/>
-        <v>0.26552807576194604</v>
-      </c>
-      <c r="H84" s="3">
-        <f t="shared" si="10"/>
-        <v>0.20814863542757933</v>
-      </c>
-      <c r="I84" s="3">
-        <f t="shared" si="10"/>
-        <v>15.025078982618643</v>
-      </c>
-      <c r="J84" s="3">
-        <f t="shared" si="10"/>
-        <v>5.919587749775914E-2</v>
-      </c>
-      <c r="K84" s="3">
-        <f t="shared" si="10"/>
-        <v>50.214415916284302</v>
-      </c>
-      <c r="L84" s="3">
-        <f t="shared" si="10"/>
-        <v>0.95166279261063302</v>
-      </c>
-      <c r="M84" s="3">
-        <f t="shared" si="10"/>
-        <v>137.39203345513218</v>
-      </c>
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
+      <c r="A85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="2">
+        <v>8</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1</v>
+      </c>
+      <c r="E85" s="2">
+        <v>309.00510479437798</v>
+      </c>
+      <c r="F85" s="2">
+        <v>9.0434937820580999E-2</v>
+      </c>
+      <c r="G85" s="2">
+        <v>0.30072402268621801</v>
+      </c>
+      <c r="H85" s="2">
+        <v>0.238062484433265</v>
+      </c>
+      <c r="I85" s="2">
+        <v>0.89936046174022899</v>
+      </c>
+      <c r="J85" s="2">
+        <v>5.8167122376444502E-2</v>
+      </c>
+      <c r="K85" s="2">
+        <v>117.384549291114</v>
+      </c>
+      <c r="L85" s="2">
+        <v>0.94976251083704599</v>
+      </c>
+      <c r="M85" s="2">
+        <v>309.00510479437798</v>
+      </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="B86" s="2" t="str">
+        <f>B85</f>
+        <v>I294</v>
       </c>
       <c r="C86" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2">
         <v>1</v>
       </c>
-      <c r="E86">
-        <v>164.569796431257</v>
-      </c>
-      <c r="F86">
-        <v>0.15645148675078899</v>
-      </c>
-      <c r="G86">
-        <v>0.39553948823194601</v>
-      </c>
-      <c r="H86">
-        <v>0.27798952099874502</v>
-      </c>
-      <c r="I86">
-        <v>32.311947271623303</v>
-      </c>
-      <c r="J86">
-        <v>2.3253350278186102E-2</v>
-      </c>
-      <c r="K86">
-        <v>92.619280156467596</v>
-      </c>
-      <c r="L86">
-        <v>0.994521485819582</v>
-      </c>
-      <c r="M86">
-        <v>164.569796431257</v>
+      <c r="E86" s="2">
+        <v>221.093375410124</v>
+      </c>
+      <c r="F86" s="2">
+        <v>5.0671042053850202E-2</v>
+      </c>
+      <c r="G86" s="2">
+        <v>0.22510229242246699</v>
+      </c>
+      <c r="H86" s="2">
+        <v>0.17033387936065</v>
+      </c>
+      <c r="I86" s="2">
+        <v>0.643701197456925</v>
+      </c>
+      <c r="J86" s="2">
+        <v>4.4486619055823601E-2</v>
+      </c>
+      <c r="K86" s="2">
+        <v>65.771012585897594</v>
+      </c>
+      <c r="L86" s="2">
+        <v>0.96861586179107895</v>
+      </c>
+      <c r="M86" s="2">
+        <v>221.093375410124</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="B87" s="2" t="str">
+        <f t="shared" ref="B87:B114" si="25">B86</f>
+        <v>I294</v>
       </c>
       <c r="C87" s="2">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2">
         <v>1</v>
       </c>
-      <c r="E87">
-        <v>290.16495296106098</v>
-      </c>
-      <c r="F87">
-        <v>0.55789500794443403</v>
-      </c>
-      <c r="G87">
-        <v>0.74692369619957399</v>
-      </c>
-      <c r="H87">
-        <v>0.58737844728959798</v>
-      </c>
-      <c r="I87">
-        <v>8.7304987058764301</v>
-      </c>
-      <c r="J87">
-        <v>7.4692369619957399E-2</v>
-      </c>
-      <c r="K87">
-        <v>275.60013392454999</v>
-      </c>
-      <c r="L87">
-        <v>0.94267655382700799</v>
-      </c>
-      <c r="M87">
-        <v>290.16495296106098</v>
+      <c r="E87" s="2">
+        <v>301.39772683528702</v>
+      </c>
+      <c r="F87" s="2">
+        <v>7.9023673397427496E-2</v>
+      </c>
+      <c r="G87" s="2">
+        <v>0.281111496380755</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0.214213025469287</v>
+      </c>
+      <c r="I87" s="2">
+        <v>0.80749671926482103</v>
+      </c>
+      <c r="J87" s="2">
+        <v>5.0378404369311E-2</v>
+      </c>
+      <c r="K87" s="2">
+        <v>111.18630847017999</v>
+      </c>
+      <c r="L87" s="2">
+        <v>0.96208526402608896</v>
+      </c>
+      <c r="M87" s="2">
+        <v>301.39772683528702</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="B88" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>I294</v>
       </c>
       <c r="C88" s="2">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D88" s="2">
-        <v>1</v>
-      </c>
-      <c r="E88">
-        <v>270.138917148166</v>
-      </c>
-      <c r="F88">
-        <v>0.33441505341579802</v>
-      </c>
-      <c r="G88">
-        <v>0.57828630747735899</v>
-      </c>
-      <c r="H88">
-        <v>0.43782644594516301</v>
-      </c>
-      <c r="I88">
-        <v>4.6636121152471199</v>
-      </c>
-      <c r="J88">
-        <v>7.3200798414855495E-2</v>
-      </c>
-      <c r="K88">
-        <v>206.33408795754701</v>
-      </c>
-      <c r="L88">
-        <v>0.93691992013893799</v>
-      </c>
-      <c r="M88">
-        <v>270.138917148166</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>I294</v>
+      </c>
+      <c r="C89" s="2">
+        <v>40</v>
+      </c>
+      <c r="D89" s="2">
+        <v>3</v>
+      </c>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>I294</v>
+      </c>
+      <c r="C90" s="2">
+        <v>41</v>
+      </c>
+      <c r="D90" s="2">
+        <v>3</v>
+      </c>
+      <c r="E90" s="2">
+        <v>172.091272952227</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0.24803919549196199</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0.49803533558570101</v>
+      </c>
+      <c r="H90" s="2">
+        <v>0.38672196169039902</v>
+      </c>
+      <c r="I90" s="2">
+        <v>1.44813469378544</v>
+      </c>
+      <c r="J90" s="2">
+        <v>7.5574406006934894E-2</v>
+      </c>
+      <c r="K90" s="2">
+        <v>110.377441993923</v>
+      </c>
+      <c r="L90" s="2">
+        <v>0.92629688428393397</v>
+      </c>
+      <c r="M90" s="2">
+        <v>172.091272952227</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>I294</v>
+      </c>
+      <c r="C91" s="2">
+        <v>3</v>
+      </c>
+      <c r="D91" s="2">
+        <v>7</v>
+      </c>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="8"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>I294</v>
+      </c>
+      <c r="C92" s="2">
+        <v>11</v>
+      </c>
+      <c r="D92" s="2">
+        <v>7</v>
+      </c>
+      <c r="E92" s="2">
+        <v>522.74090398092301</v>
+      </c>
+      <c r="F92" s="2">
+        <v>0.78697305896592695</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0.88711502014447197</v>
+      </c>
+      <c r="H92" s="2">
+        <v>0.49832307338505499</v>
+      </c>
+      <c r="I92" s="2">
+        <v>1.96722915015063</v>
+      </c>
+      <c r="J92" s="2">
+        <v>8.3063204133377505E-2</v>
+      </c>
+      <c r="K92" s="2">
+        <v>825.53473885525705</v>
+      </c>
+      <c r="L92" s="2">
+        <v>0.70137136047362503</v>
+      </c>
+      <c r="M92" s="2">
+        <v>522.74090398092301</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>I294</v>
+      </c>
+      <c r="C93" s="2">
+        <v>17</v>
+      </c>
+      <c r="D93" s="2">
+        <v>7</v>
+      </c>
+      <c r="E93" s="2">
+        <v>123.178515067142</v>
+      </c>
+      <c r="F93" s="2">
+        <v>0.118146465121775</v>
+      </c>
+      <c r="G93" s="2">
+        <v>0.34372440286045303</v>
+      </c>
+      <c r="H93" s="2">
+        <v>0.27251883864411902</v>
+      </c>
+      <c r="I93" s="2">
+        <v>1.08216973988895</v>
+      </c>
+      <c r="J93" s="2">
+        <v>9.8206972245843696E-2</v>
+      </c>
+      <c r="K93" s="2">
+        <v>53.402202235042303</v>
+      </c>
+      <c r="L93" s="2">
+        <v>0.90147640189581801</v>
+      </c>
+      <c r="M93" s="2">
+        <v>123.178515067142</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>I294</v>
+      </c>
+      <c r="C94" s="2">
+        <v>51</v>
+      </c>
+      <c r="D94" s="2">
+        <v>8</v>
+      </c>
+      <c r="E94" s="2">
+        <v>1224.41933384702</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0.412566707977368</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0.64231355892380804</v>
+      </c>
+      <c r="H94" s="2">
+        <v>0.50098990746604999</v>
+      </c>
+      <c r="I94" s="2">
+        <v>30.882964289631499</v>
+      </c>
+      <c r="J94" s="2">
+        <v>3.7939371466261501E-2</v>
+      </c>
+      <c r="K94" s="2">
+        <v>1008.31303429668</v>
+      </c>
+      <c r="L94" s="2">
+        <v>0.97916685949428595</v>
+      </c>
+      <c r="M94" s="2">
+        <v>1224.41933384702</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>I294</v>
+      </c>
+      <c r="C95" s="2">
+        <v>62</v>
+      </c>
+      <c r="D95" s="2">
+        <v>8</v>
+      </c>
+      <c r="E95" s="2">
+        <v>1615.0011504485001</v>
+      </c>
+      <c r="F95" s="2">
+        <v>0.34099737151839099</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0.58394980222480697</v>
+      </c>
+      <c r="H95" s="2">
+        <v>0.443194607697175</v>
+      </c>
+      <c r="I95" s="2">
+        <v>14.383188735296301</v>
+      </c>
+      <c r="J95" s="2">
+        <v>2.69598246641185E-2</v>
+      </c>
+      <c r="K95" s="2">
+        <v>1242.5944218130101</v>
+      </c>
+      <c r="L95" s="2">
+        <v>0.98850516325103199</v>
+      </c>
+      <c r="M95" s="2">
+        <v>1615.0011504485001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>I294</v>
+      </c>
+      <c r="C96" s="2">
+        <v>65</v>
+      </c>
+      <c r="D96" s="2">
+        <v>8</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1162.00674303301</v>
+      </c>
+      <c r="F96" s="2">
+        <v>0.16399073574397399</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0.40495769623995798</v>
+      </c>
+      <c r="H96" s="2">
+        <v>0.31888220171048698</v>
+      </c>
+      <c r="I96" s="2">
+        <v>10.9888176765333</v>
+      </c>
+      <c r="J96" s="2">
+        <v>2.0057340081226199E-2</v>
+      </c>
+      <c r="K96" s="2">
+        <v>597.58224105104102</v>
+      </c>
+      <c r="L96" s="2">
+        <v>0.99439973534779602</v>
+      </c>
+      <c r="M96" s="2">
+        <v>1162.00674303301</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>I294</v>
+      </c>
+      <c r="C97" s="2">
+        <v>24</v>
+      </c>
+      <c r="D97" s="2">
+        <v>9</v>
+      </c>
+      <c r="E97" s="2">
+        <v>174.94610736885701</v>
+      </c>
+      <c r="F97" s="2">
+        <v>0.23775552048526799</v>
+      </c>
+      <c r="G97" s="2">
+        <v>0.48760180525226499</v>
+      </c>
+      <c r="H97" s="2">
+        <v>0.35486025835467999</v>
+      </c>
+      <c r="I97" s="2">
+        <v>1.26076573099365</v>
+      </c>
+      <c r="J97" s="2">
+        <v>9.3769577933127998E-2</v>
+      </c>
+      <c r="K97" s="2">
+        <v>117.213471599237</v>
+      </c>
+      <c r="L97" s="2">
+        <v>0.82246091590783899</v>
+      </c>
+      <c r="M97" s="2">
+        <v>174.94610736885701</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>I294</v>
+      </c>
+      <c r="C98" s="2">
+        <v>28</v>
+      </c>
+      <c r="D98" s="2">
+        <v>9</v>
+      </c>
+      <c r="E98" s="2">
+        <v>32.034907338819401</v>
+      </c>
+      <c r="F98" s="2">
+        <v>2.31719794671955E-2</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0.15222345242174501</v>
+      </c>
+      <c r="H98" s="2">
+        <v>0.133478780578414</v>
+      </c>
+      <c r="I98" s="2">
+        <v>0.54896904507812905</v>
+      </c>
+      <c r="J98" s="2">
+        <v>2.59766983654856E-2</v>
+      </c>
+      <c r="K98" s="2">
+        <v>5.5612750721269304</v>
+      </c>
+      <c r="L98" s="2">
+        <v>0.99237368280392202</v>
+      </c>
+      <c r="M98" s="2">
+        <v>32.034907338819401</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>I294</v>
+      </c>
+      <c r="C99" s="2">
+        <v>30</v>
+      </c>
+      <c r="D99" s="2">
+        <v>9</v>
+      </c>
+      <c r="E99" s="2">
+        <v>714.41942436888803</v>
+      </c>
+      <c r="F99" s="2">
+        <v>0.65330084431066004</v>
+      </c>
+      <c r="G99" s="2">
+        <v>0.80827027924491901</v>
+      </c>
+      <c r="H99" s="2">
+        <v>0.61429013273335198</v>
+      </c>
+      <c r="I99" s="2">
+        <v>2.34940784581587</v>
+      </c>
+      <c r="J99" s="2">
+        <v>6.8266070882172195E-2</v>
+      </c>
+      <c r="K99" s="2">
+        <v>759.78888193329794</v>
+      </c>
+      <c r="L99" s="2">
+        <v>0.94414995505124699</v>
+      </c>
+      <c r="M99" s="2">
+        <v>714.41942436888803</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>I294</v>
+      </c>
+      <c r="C100" s="2">
+        <v>19</v>
+      </c>
+      <c r="D100" s="2">
+        <v>11</v>
+      </c>
+      <c r="E100" s="2">
+        <v>112.723392769428</v>
+      </c>
+      <c r="F100" s="2">
+        <v>0.24179883250740999</v>
+      </c>
+      <c r="G100" s="2">
+        <v>0.49173044700059998</v>
+      </c>
+      <c r="H100" s="2">
+        <v>0.36245463912999598</v>
+      </c>
+      <c r="I100" s="2">
+        <v>2.3385935747990798</v>
+      </c>
+      <c r="J100" s="2">
+        <v>4.2427130888748901E-2</v>
+      </c>
+      <c r="K100" s="2">
+        <v>75.199436909804504</v>
+      </c>
+      <c r="L100" s="2">
+        <v>0.97696469009585196</v>
+      </c>
+      <c r="M100" s="2">
+        <v>112.723392769428</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>I294</v>
+      </c>
+      <c r="C101" s="2">
+        <v>22</v>
+      </c>
+      <c r="D101" s="2">
+        <v>11</v>
+      </c>
+      <c r="E101" s="2">
+        <v>477.61614043886601</v>
+      </c>
+      <c r="F101" s="2">
+        <v>0.42844866833612599</v>
+      </c>
+      <c r="G101" s="2">
+        <v>0.654559904314438</v>
+      </c>
+      <c r="H101" s="2">
+        <v>0.45661198894728999</v>
+      </c>
+      <c r="I101" s="2">
+        <v>2.3585425170874599</v>
+      </c>
+      <c r="J101" s="2">
+        <v>3.9598300321502598E-2</v>
+      </c>
+      <c r="K101" s="2">
+        <v>448.15730707958801</v>
+      </c>
+      <c r="L101" s="2">
+        <v>0.94740195644023095</v>
+      </c>
+      <c r="M101" s="2">
+        <v>477.61614043886601</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>I294</v>
+      </c>
+      <c r="C102" s="2">
+        <v>35</v>
+      </c>
+      <c r="D102" s="2">
+        <v>11</v>
+      </c>
+      <c r="E102" s="2">
+        <v>740.61222215652799</v>
+      </c>
+      <c r="F102" s="2">
+        <v>1.78955701135959</v>
+      </c>
+      <c r="G102" s="2">
+        <v>1.3377432531542</v>
+      </c>
+      <c r="H102" s="2">
+        <v>0.83590544261459199</v>
+      </c>
+      <c r="I102" s="2">
+        <v>5.1569395972939702</v>
+      </c>
+      <c r="J102" s="2">
+        <v>5.97740506324487E-2</v>
+      </c>
+      <c r="K102" s="2">
+        <v>1585.5475120645899</v>
+      </c>
+      <c r="L102" s="2">
+        <v>0.91598916579146705</v>
+      </c>
+      <c r="M102" s="2">
+        <v>740.61222215652799</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>I294</v>
+      </c>
+      <c r="C103" s="2">
+        <v>56</v>
+      </c>
+      <c r="D103" s="2">
+        <v>18</v>
+      </c>
+      <c r="E103" s="2">
+        <v>807.68907378076301</v>
+      </c>
+      <c r="F103" s="2">
+        <v>1.68352260187896</v>
+      </c>
+      <c r="G103" s="2">
+        <v>1.2975063012868</v>
+      </c>
+      <c r="H103" s="2">
+        <v>0.68856698532034399</v>
+      </c>
+      <c r="I103" s="2">
+        <v>2.8643798977111099</v>
+      </c>
+      <c r="J103" s="2">
+        <v>5.6758805830568901E-2</v>
+      </c>
+      <c r="K103" s="2">
+        <v>1974.7720120040201</v>
+      </c>
+      <c r="L103" s="2">
+        <v>0.92814717844154304</v>
+      </c>
+      <c r="M103" s="2">
+        <v>807.68907378076301</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>I294</v>
+      </c>
+      <c r="C104" s="2">
+        <v>59</v>
+      </c>
+      <c r="D104" s="2">
+        <v>18</v>
+      </c>
+      <c r="E104" s="2">
+        <v>824.34380828113399</v>
+      </c>
+      <c r="F104" s="2">
+        <v>2.02379567915031</v>
+      </c>
+      <c r="G104" s="2">
+        <v>1.42260172892848</v>
+      </c>
+      <c r="H104" s="2">
+        <v>0.71310018017399102</v>
+      </c>
+      <c r="I104" s="2">
+        <v>3.6591360769863401</v>
+      </c>
+      <c r="J104" s="2">
+        <v>6.7326158491646207E-2</v>
+      </c>
+      <c r="K104" s="2">
+        <v>2339.50780509776</v>
+      </c>
+      <c r="L104" s="2">
+        <v>0.89990008369098895</v>
+      </c>
+      <c r="M104" s="2">
+        <v>824.34380828113399</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>I294</v>
+      </c>
+      <c r="C105" s="2">
+        <v>64</v>
+      </c>
+      <c r="D105" s="2">
+        <v>18</v>
+      </c>
+      <c r="E105" s="2">
+        <v>619.52180203337298</v>
+      </c>
+      <c r="F105" s="2">
+        <v>0.75466444485328099</v>
+      </c>
+      <c r="G105" s="2">
+        <v>0.86871424810076703</v>
+      </c>
+      <c r="H105" s="2">
+        <v>0.61217569370886704</v>
+      </c>
+      <c r="I105" s="2">
+        <v>2.4192703641939199</v>
+      </c>
+      <c r="J105" s="2">
+        <v>8.3771865776351706E-2</v>
+      </c>
+      <c r="K105" s="2">
+        <v>763.72041819152105</v>
+      </c>
+      <c r="L105" s="2">
+        <v>0.86917842385829802</v>
+      </c>
+      <c r="M105" s="2">
+        <v>619.52180203337298</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>I294</v>
+      </c>
+      <c r="C106" s="2">
+        <v>18</v>
+      </c>
+      <c r="D106" s="2">
+        <v>19</v>
+      </c>
+      <c r="E106" s="2">
+        <v>713.02560949506403</v>
+      </c>
+      <c r="F106" s="2">
+        <v>0.947776692532177</v>
+      </c>
+      <c r="G106" s="2">
+        <v>0.97353823372899795</v>
+      </c>
+      <c r="H106" s="2">
+        <v>0.73205914732552801</v>
+      </c>
+      <c r="I106" s="2">
+        <v>2.9291020975808402</v>
+      </c>
+      <c r="J106" s="2">
+        <v>0.125294495975418</v>
+      </c>
+      <c r="K106" s="2">
+        <v>923.13449852634096</v>
+      </c>
+      <c r="L106" s="2">
+        <v>0.67516670212238705</v>
+      </c>
+      <c r="M106" s="2">
+        <v>713.02560949506403</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>I294</v>
+      </c>
+      <c r="C107" s="2">
+        <v>19</v>
+      </c>
+      <c r="D107" s="2">
+        <v>19</v>
+      </c>
+      <c r="E107" s="2">
+        <v>232.905435568831</v>
+      </c>
+      <c r="F107" s="2">
+        <v>0.23189452927725601</v>
+      </c>
+      <c r="G107" s="2">
+        <v>0.48155428487062202</v>
+      </c>
+      <c r="H107" s="2">
+        <v>0.36910528616296601</v>
+      </c>
+      <c r="I107" s="2">
+        <v>1.5039095210910001</v>
+      </c>
+      <c r="J107" s="2">
+        <v>7.5597218974979993E-2</v>
+      </c>
+      <c r="K107" s="2">
+        <v>146.325447973949</v>
+      </c>
+      <c r="L107" s="2">
+        <v>0.90354674155408898</v>
+      </c>
+      <c r="M107" s="2">
+        <v>232.905435568831</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>I294</v>
+      </c>
+      <c r="C108" s="2">
         <v>25</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="D108" s="2">
+        <v>19</v>
+      </c>
+      <c r="E108" s="2">
+        <v>375.21995835875498</v>
+      </c>
+      <c r="F108" s="2">
+        <v>0.12798891253157799</v>
+      </c>
+      <c r="G108" s="2">
+        <v>0.357755380856219</v>
+      </c>
+      <c r="H108" s="2">
+        <v>0.29359934143877597</v>
+      </c>
+      <c r="I108" s="2">
+        <v>1.1703345573601001</v>
+      </c>
+      <c r="J108" s="2">
+        <v>5.5380089915823397E-2</v>
+      </c>
+      <c r="K108" s="2">
+        <v>163.569830215357</v>
+      </c>
+      <c r="L108" s="2">
+        <v>0.946239866373765</v>
+      </c>
+      <c r="M108" s="2">
+        <v>375.21995835875498</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>I294</v>
+      </c>
+      <c r="C109" s="2">
+        <v>48</v>
+      </c>
+      <c r="D109" s="2">
+        <v>20</v>
+      </c>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="8"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>I294</v>
+      </c>
+      <c r="C110" s="2">
+        <v>50</v>
+      </c>
+      <c r="D110" s="2">
+        <v>20</v>
+      </c>
+      <c r="E110" s="2">
+        <v>392.77461892677599</v>
+      </c>
+      <c r="F110" s="2">
+        <v>0.18807857412274301</v>
+      </c>
+      <c r="G110" s="2">
+        <v>0.43368026715858699</v>
+      </c>
+      <c r="H110" s="2">
+        <v>0.286487687036306</v>
+      </c>
+      <c r="I110" s="2">
+        <v>1.1168897766526</v>
+      </c>
+      <c r="J110" s="2">
+        <v>7.5818228524228606E-2</v>
+      </c>
+      <c r="K110" s="2">
+        <v>257.855725122281</v>
+      </c>
+      <c r="L110" s="2">
+        <v>0.78658576047335205</v>
+      </c>
+      <c r="M110" s="2">
+        <v>392.77461892677599</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>I294</v>
+      </c>
+      <c r="C111" s="2">
+        <v>54</v>
+      </c>
+      <c r="D111" s="2">
+        <v>20</v>
+      </c>
+      <c r="E111" s="2">
+        <v>553.36427446086805</v>
+      </c>
+      <c r="F111" s="2">
+        <v>0.24414981338393901</v>
+      </c>
+      <c r="G111" s="2">
+        <v>0.49411518230463197</v>
+      </c>
+      <c r="H111" s="2">
+        <v>0.39896486983480001</v>
+      </c>
+      <c r="I111" s="2">
+        <v>1.5728589595397899</v>
+      </c>
+      <c r="J111" s="2">
+        <v>7.8059270506261005E-2</v>
+      </c>
+      <c r="K111" s="2">
+        <v>338.635791163524</v>
+      </c>
+      <c r="L111" s="2">
+        <v>0.87117850986411005</v>
+      </c>
+      <c r="M111" s="2">
+        <v>553.36427446086805</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>I294</v>
+      </c>
+      <c r="C112" s="2">
+        <v>11</v>
+      </c>
+      <c r="D112" s="2">
+        <v>21</v>
+      </c>
+      <c r="E112" s="2">
+        <v>383.12965727326798</v>
+      </c>
+      <c r="F112" s="2">
+        <v>0.17621656734673299</v>
+      </c>
+      <c r="G112" s="2">
+        <v>0.41978157099464602</v>
+      </c>
+      <c r="H112" s="2">
+        <v>0.28937285292542902</v>
+      </c>
+      <c r="I112" s="2">
+        <v>1.2845715123130099</v>
+      </c>
+      <c r="J112" s="2">
+        <v>4.4187533788910098E-2</v>
+      </c>
+      <c r="K112" s="2">
+        <v>233.310735167074</v>
+      </c>
+      <c r="L112" s="2">
+        <v>0.97760851270723204</v>
+      </c>
+      <c r="M112" s="2">
+        <v>383.12965727326798</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>I294</v>
+      </c>
+      <c r="C113" s="2">
+        <v>13</v>
+      </c>
+      <c r="D113" s="2">
+        <v>21</v>
+      </c>
+      <c r="E113" s="2">
+        <v>209.34326328035999</v>
+      </c>
+      <c r="F113" s="2">
+        <v>0.32198362833963301</v>
+      </c>
+      <c r="G113" s="2">
+        <v>0.56743601255087195</v>
+      </c>
+      <c r="H113" s="2">
+        <v>0.441652454177975</v>
+      </c>
+      <c r="I113" s="2">
+        <v>2.14804717578374</v>
+      </c>
+      <c r="J113" s="2">
+        <v>9.6175595347605405E-2</v>
+      </c>
+      <c r="K113" s="2">
+        <v>152.62023983298599</v>
+      </c>
+      <c r="L113" s="2">
+        <v>0.90295707049390395</v>
+      </c>
+      <c r="M113" s="2">
+        <v>209.34326328035999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>I294</v>
+      </c>
+      <c r="C114" s="2">
+        <v>17</v>
+      </c>
+      <c r="D114" s="2">
+        <v>21</v>
+      </c>
+      <c r="E114" s="2">
+        <v>676.930027689197</v>
+      </c>
+      <c r="F114" s="2">
+        <v>0.46073027534637301</v>
+      </c>
+      <c r="G114" s="2">
+        <v>0.67877115093849705</v>
+      </c>
+      <c r="H114" s="2">
+        <v>0.50744379886746405</v>
+      </c>
+      <c r="I114" s="2">
+        <v>2.1934405913731099</v>
+      </c>
+      <c r="J114" s="2">
+        <v>6.5518450862789304E-2</v>
+      </c>
+      <c r="K114" s="2">
+        <v>614.61418731206095</v>
+      </c>
+      <c r="L114" s="2">
+        <v>0.94960276075115702</v>
+      </c>
+      <c r="M114" s="2">
+        <v>676.930027689197</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="3">
+        <f t="shared" ref="E115:L115" si="26">AVERAGE(E85:E114)</f>
+        <v>526.59745576763021</v>
+      </c>
+      <c r="F115" s="3">
+        <f t="shared" si="26"/>
+        <v>0.49329529858924948</v>
+      </c>
+      <c r="G115" s="3">
+        <f t="shared" si="26"/>
+        <v>0.61902373579138181</v>
+      </c>
+      <c r="H115" s="3">
+        <f t="shared" si="26"/>
+        <v>0.4282065199687406</v>
+      </c>
+      <c r="I115" s="3">
+        <f t="shared" si="26"/>
+        <v>3.8453162117462232</v>
+      </c>
+      <c r="J115" s="3">
+        <f t="shared" si="26"/>
+        <v>6.3405107977592703E-2</v>
+      </c>
+      <c r="K115" s="3">
+        <f t="shared" si="26"/>
+        <v>578.14155868683315</v>
+      </c>
+      <c r="L115" s="3">
+        <f t="shared" si="26"/>
+        <v>0.91081276991623406</v>
+      </c>
+      <c r="M115" s="3">
+        <f>AVERAGE(M85:M114)</f>
+        <v>526.59745576763021</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" s="2">
+        <v>5366</v>
+      </c>
+      <c r="D117" s="2">
+        <v>1</v>
+      </c>
+      <c r="E117" s="2">
+        <v>255.66569827541201</v>
+      </c>
+      <c r="F117" s="2">
+        <v>0.125801250724874</v>
+      </c>
+      <c r="G117" s="2">
+        <v>0.35468472017395197</v>
+      </c>
+      <c r="H117" s="2">
+        <v>0.29488546513888397</v>
+      </c>
+      <c r="I117" s="2">
+        <v>32.434550235871903</v>
+      </c>
+      <c r="J117" s="2">
+        <v>4.4060213686205198E-2</v>
+      </c>
+      <c r="K117" s="2">
+        <v>109.06968437846599</v>
+      </c>
+      <c r="L117" s="2">
+        <v>0.96803364639803802</v>
+      </c>
+      <c r="M117" s="2">
+        <v>255.66569827541201</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="2">
+        <v>195</v>
+      </c>
+      <c r="D118" s="2">
+        <v>2</v>
+      </c>
+      <c r="E118" s="2">
+        <v>160.65196387060001</v>
+      </c>
+      <c r="F118" s="2">
+        <v>8.5425289402859095E-2</v>
+      </c>
+      <c r="G118" s="2">
+        <v>0.29227604999872803</v>
+      </c>
+      <c r="H118" s="2">
+        <v>0.237650834128106</v>
+      </c>
+      <c r="I118" s="2">
+        <v>10.0131696714189</v>
+      </c>
+      <c r="J118" s="2">
+        <v>6.2585877944053098E-2</v>
+      </c>
+      <c r="K118" s="2">
+        <v>57.747495636332701</v>
+      </c>
+      <c r="L118" s="2">
+        <v>0.95235175702757002</v>
+      </c>
+      <c r="M118" s="2">
+        <v>160.65196387060001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="2">
+        <v>286</v>
+      </c>
+      <c r="D119" s="2">
+        <v>3</v>
+      </c>
+      <c r="E119" s="2">
+        <v>70.802653361398598</v>
+      </c>
+      <c r="F119" s="2">
+        <v>7.2165514447144502E-2</v>
+      </c>
+      <c r="G119" s="2">
+        <v>0.26863639821726398</v>
+      </c>
+      <c r="H119" s="2">
+        <v>0.20522508220695199</v>
+      </c>
+      <c r="I119" s="2">
+        <v>4.5342359888324202</v>
+      </c>
+      <c r="J119" s="2">
+        <v>9.6980649175907693E-2</v>
+      </c>
+      <c r="K119" s="2">
+        <v>24.897102484264799</v>
+      </c>
+      <c r="L119" s="2">
+        <v>0.89794825498448205</v>
+      </c>
+      <c r="M119" s="2">
+        <v>70.802653361398598</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A120" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="3">
+        <f>AVERAGE(E117:E119)</f>
+        <v>162.37343850247021</v>
+      </c>
+      <c r="F120" s="3">
+        <f t="shared" ref="F120:M120" si="27">AVERAGE(F117:F119)</f>
+        <v>9.4464018191625865E-2</v>
+      </c>
+      <c r="G120" s="3">
+        <f t="shared" si="27"/>
+        <v>0.30519905612998133</v>
+      </c>
+      <c r="H120" s="3">
+        <f t="shared" si="27"/>
+        <v>0.245920460491314</v>
+      </c>
+      <c r="I120" s="3">
+        <f t="shared" si="27"/>
+        <v>15.660651965374408</v>
+      </c>
+      <c r="J120" s="3">
+        <f t="shared" si="27"/>
+        <v>6.7875580268721994E-2</v>
+      </c>
+      <c r="K120" s="3">
+        <f t="shared" si="27"/>
+        <v>63.904760833021157</v>
+      </c>
+      <c r="L120" s="3">
+        <f t="shared" si="27"/>
+        <v>0.93944455280336336</v>
+      </c>
+      <c r="M120" s="3">
+        <f t="shared" si="27"/>
+        <v>162.37343850247021</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122" s="2">
+        <v>13</v>
+      </c>
+      <c r="D122" s="2">
+        <v>1</v>
+      </c>
+      <c r="E122" s="2">
+        <v>135.59949194331699</v>
+      </c>
+      <c r="F122" s="2">
+        <v>0.12752278115732499</v>
+      </c>
+      <c r="G122" s="2">
+        <v>0.35710332000322498</v>
+      </c>
+      <c r="H122" s="2">
+        <v>0.22905319585019901</v>
+      </c>
+      <c r="I122" s="2">
+        <v>27.774140352410001</v>
+      </c>
+      <c r="J122" s="2">
+        <v>2.09937283952513E-2</v>
+      </c>
+      <c r="K122" s="2">
+        <v>75.493486445136895</v>
+      </c>
+      <c r="L122" s="2">
+        <v>0.99553449200511801</v>
+      </c>
+      <c r="M122" s="2">
+        <v>135.59949194331699</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123" s="2">
+        <v>31</v>
+      </c>
+      <c r="D123" s="2">
+        <v>1</v>
+      </c>
+      <c r="E123" s="2">
+        <v>310.984941567889</v>
+      </c>
+      <c r="F123" s="2">
+        <v>0.76249953674112803</v>
+      </c>
+      <c r="G123" s="2">
+        <v>0.87321219456735</v>
+      </c>
+      <c r="H123" s="2">
+        <v>0.62952417321435095</v>
+      </c>
+      <c r="I123" s="2">
+        <v>9.5375280191700398</v>
+      </c>
+      <c r="J123" s="2">
+        <v>8.7321219456735003E-2</v>
+      </c>
+      <c r="K123" s="2">
+        <v>376.67477115011701</v>
+      </c>
+      <c r="L123" s="2">
+        <v>0.92165353600786404</v>
+      </c>
+      <c r="M123" s="2">
+        <v>310.984941567889</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" s="2">
+        <v>2</v>
+      </c>
+      <c r="D124" s="2">
+        <v>1</v>
+      </c>
+      <c r="E124" s="2">
+        <v>253.07635553287199</v>
+      </c>
+      <c r="F124" s="2">
+        <v>0.26167135523907897</v>
+      </c>
+      <c r="G124" s="2">
+        <v>0.51153822461188503</v>
+      </c>
+      <c r="H124" s="2">
+        <v>0.41017237525587102</v>
+      </c>
+      <c r="I124" s="2">
+        <v>4.1438872388509003</v>
+      </c>
+      <c r="J124" s="2">
+        <v>6.4751674001504403E-2</v>
+      </c>
+      <c r="K124" s="2">
+        <v>161.45122618251199</v>
+      </c>
+      <c r="L124" s="2">
+        <v>0.95064142652301498</v>
+      </c>
+      <c r="M124" s="2">
+        <v>253.07635553287199</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C125" s="2">
         <v>2</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D125" s="2">
         <v>1</v>
       </c>
-      <c r="E89">
+      <c r="E125" s="2">
+        <v>3.21780296248168</v>
+      </c>
+      <c r="F125" s="2">
+        <v>8.2941993876300101E-3</v>
+      </c>
+      <c r="G125" s="2">
+        <v>9.1072495231161898E-2</v>
+      </c>
+      <c r="H125" s="2">
+        <v>7.6614356249564003E-2</v>
+      </c>
+      <c r="I125" s="2">
+        <v>5.6699656298690098</v>
+      </c>
+      <c r="J125" s="2">
+        <v>1.7718384286218199E-2</v>
+      </c>
+      <c r="K125" s="2">
+        <v>0.34835637428046001</v>
+      </c>
+      <c r="L125" s="2">
+        <v>0.99536557369760403</v>
+      </c>
+      <c r="M125" s="2">
+        <v>3.21780296248168</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A126" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="3">
+        <f t="shared" ref="E126:M126" si="28">AVERAGE(E122:E125)</f>
+        <v>175.71964800163991</v>
+      </c>
+      <c r="F126" s="3">
+        <f t="shared" si="28"/>
+        <v>0.2899969681312905</v>
+      </c>
+      <c r="G126" s="3">
+        <f t="shared" si="28"/>
+        <v>0.45823155860340548</v>
+      </c>
+      <c r="H126" s="3">
+        <f t="shared" si="28"/>
+        <v>0.33634102514249625</v>
+      </c>
+      <c r="I126" s="3">
+        <f t="shared" si="28"/>
+        <v>11.781380310074988</v>
+      </c>
+      <c r="J126" s="3">
+        <f t="shared" si="28"/>
+        <v>4.7696251534927223E-2</v>
+      </c>
+      <c r="K126" s="3">
+        <f t="shared" si="28"/>
+        <v>153.4919600380116</v>
+      </c>
+      <c r="L126" s="3">
+        <f t="shared" si="28"/>
+        <v>0.96579875705840024</v>
+      </c>
+      <c r="M126" s="3">
+        <f t="shared" si="28"/>
+        <v>175.71964800163991</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128">
+        <v>8</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>249.31312134727099</v>
+      </c>
+      <c r="F128">
+        <v>6.11600137837865E-2</v>
+      </c>
+      <c r="G128">
+        <v>0.247305506982328</v>
+      </c>
+      <c r="H128">
+        <v>0.19207482384227301</v>
+      </c>
+      <c r="I128">
+        <v>0.72869849886918103</v>
+      </c>
+      <c r="J128">
+        <v>4.7834720886330402E-2</v>
+      </c>
+      <c r="K128">
+        <v>79.385697891354795</v>
+      </c>
+      <c r="L128">
+        <v>0.96602501639615401</v>
+      </c>
+      <c r="M128">
+        <v>249.31312134727099</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B129" s="2" t="str">
+        <f>B128</f>
+        <v>I294</v>
+      </c>
+      <c r="C129">
+        <v>9</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>186.645690306901</v>
+      </c>
+      <c r="F129">
+        <v>3.37444915141435E-2</v>
+      </c>
+      <c r="G129">
+        <v>0.18369673789739299</v>
+      </c>
+      <c r="H129">
+        <v>0.143794830744916</v>
+      </c>
+      <c r="I129">
+        <v>0.54761868038818096</v>
+      </c>
+      <c r="J129">
+        <v>3.6303703141777201E-2</v>
+      </c>
+      <c r="K129">
+        <v>43.800349985358302</v>
+      </c>
+      <c r="L129">
+        <v>0.97909966437350604</v>
+      </c>
+      <c r="M129">
+        <v>186.645690306901</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B130" s="2" t="str">
+        <f t="shared" ref="B130:B157" si="29">B129</f>
+        <v>I294</v>
+      </c>
+      <c r="C130">
+        <v>12</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>230.667637374675</v>
+      </c>
+      <c r="F130">
+        <v>4.4906745439868001E-2</v>
+      </c>
+      <c r="G130">
+        <v>0.211912117255875</v>
+      </c>
+      <c r="H130">
+        <v>0.163942883706236</v>
+      </c>
+      <c r="I130">
+        <v>0.62437755339074297</v>
+      </c>
+      <c r="J130">
+        <v>3.7977081945497398E-2</v>
+      </c>
+      <c r="K130">
+        <v>63.183790833894399</v>
+      </c>
+      <c r="L130">
+        <v>0.97845421095223795</v>
+      </c>
+      <c r="M130">
+        <v>230.667637374675</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B131" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>I294</v>
+      </c>
+      <c r="C131">
+        <v>33</v>
+      </c>
+      <c r="D131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B132" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>I294</v>
+      </c>
+      <c r="C132">
+        <v>40</v>
+      </c>
+      <c r="D132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B133" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>I294</v>
+      </c>
+      <c r="C133">
+        <v>41</v>
+      </c>
+      <c r="D133">
+        <v>3</v>
+      </c>
+      <c r="E133">
+        <v>162.98939360319301</v>
+      </c>
+      <c r="F133">
+        <v>0.20424183087091999</v>
+      </c>
+      <c r="G133">
+        <v>0.451931223607</v>
+      </c>
+      <c r="H133">
+        <v>0.36626830023189599</v>
+      </c>
+      <c r="I133">
+        <v>1.3447896785762701</v>
+      </c>
+      <c r="J133">
+        <v>6.8578334386494702E-2</v>
+      </c>
+      <c r="K133">
+        <v>90.887614737559502</v>
+      </c>
+      <c r="L133">
+        <v>0.93931096549122395</v>
+      </c>
+      <c r="M133">
+        <v>162.98939360319301</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B134" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>I294</v>
+      </c>
+      <c r="C134">
+        <v>3</v>
+      </c>
+      <c r="D134">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B135" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>I294</v>
+      </c>
+      <c r="C135">
+        <v>11</v>
+      </c>
+      <c r="D135">
+        <v>7</v>
+      </c>
+      <c r="E135">
+        <v>415.09767847114102</v>
+      </c>
+      <c r="F135">
+        <v>0.33135380805578601</v>
+      </c>
+      <c r="G135">
+        <v>0.57563339727276597</v>
+      </c>
+      <c r="H135">
+        <v>0.39570798710309002</v>
+      </c>
+      <c r="I135">
+        <v>1.6344426679189501</v>
+      </c>
+      <c r="J135">
+        <v>5.3898258171607198E-2</v>
+      </c>
+      <c r="K135">
+        <v>347.59014465051899</v>
+      </c>
+      <c r="L135">
+        <v>0.87426286608641401</v>
+      </c>
+      <c r="M135">
+        <v>415.09767847114102</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B136" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>I294</v>
+      </c>
+      <c r="C136">
+        <v>17</v>
+      </c>
+      <c r="D136">
+        <v>7</v>
+      </c>
+      <c r="E136">
+        <v>117.735537169278</v>
+      </c>
+      <c r="F136">
+        <v>0.104840497942807</v>
+      </c>
+      <c r="G136">
+        <v>0.32379082436475398</v>
+      </c>
+      <c r="H136">
+        <v>0.26047685214442201</v>
+      </c>
+      <c r="I136">
+        <v>1.0375665088330801</v>
+      </c>
+      <c r="J136">
+        <v>9.2511664104215505E-2</v>
+      </c>
+      <c r="K136">
+        <v>47.387905070148797</v>
+      </c>
+      <c r="L136">
+        <v>0.91257238992539502</v>
+      </c>
+      <c r="M136">
+        <v>117.735537169278</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B137" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>I294</v>
+      </c>
+      <c r="C137">
+        <v>51</v>
+      </c>
+      <c r="D137">
+        <v>8</v>
+      </c>
+      <c r="E137">
+        <v>1195.0741615438001</v>
+      </c>
+      <c r="F137">
+        <v>0.35769646420963702</v>
+      </c>
+      <c r="G137">
+        <v>0.59807730621520605</v>
+      </c>
+      <c r="H137">
+        <v>0.488982881155403</v>
+      </c>
+      <c r="I137">
+        <v>32.693511362885303</v>
+      </c>
+      <c r="J137">
+        <v>3.5326479989084801E-2</v>
+      </c>
+      <c r="K137">
+        <v>874.21015852835296</v>
+      </c>
+      <c r="L137">
+        <v>0.98193761020172898</v>
+      </c>
+      <c r="M137">
+        <v>1195.0741615438001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B138" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>I294</v>
+      </c>
+      <c r="C138">
+        <v>62</v>
+      </c>
+      <c r="D138">
+        <v>8</v>
+      </c>
+      <c r="E138">
+        <v>1459.6571659685501</v>
+      </c>
+      <c r="F138">
+        <v>0.259750251607205</v>
+      </c>
+      <c r="G138">
+        <v>0.50965699407268505</v>
+      </c>
+      <c r="H138">
+        <v>0.40056453511760598</v>
+      </c>
+      <c r="I138">
+        <v>15.8487468367462</v>
+      </c>
+      <c r="J138">
+        <v>2.3529870455802598E-2</v>
+      </c>
+      <c r="K138">
+        <v>946.52991685665495</v>
+      </c>
+      <c r="L138">
+        <v>0.99124395966915202</v>
+      </c>
+      <c r="M138">
+        <v>1459.6571659685501</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B139" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>I294</v>
+      </c>
+      <c r="C139">
+        <v>65</v>
+      </c>
+      <c r="D139">
+        <v>8</v>
+      </c>
+      <c r="E139">
+        <v>1350.0826568458201</v>
+      </c>
+      <c r="F139">
+        <v>0.22983329293403801</v>
+      </c>
+      <c r="G139">
+        <v>0.47940931669507397</v>
+      </c>
+      <c r="H139">
+        <v>0.37049469177986299</v>
+      </c>
+      <c r="I139">
+        <v>12.467172293858299</v>
+      </c>
+      <c r="J139">
+        <v>2.3744889385590599E-2</v>
+      </c>
+      <c r="K139">
+        <v>837.51251945163597</v>
+      </c>
+      <c r="L139">
+        <v>0.99215121963762898</v>
+      </c>
+      <c r="M139">
+        <v>1350.0826568458201</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B140" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>I294</v>
+      </c>
+      <c r="C140">
+        <v>24</v>
+      </c>
+      <c r="D140">
+        <v>9</v>
+      </c>
+      <c r="E140">
+        <v>156.75535697915399</v>
+      </c>
+      <c r="F140">
+        <v>0.16666450593351301</v>
+      </c>
+      <c r="G140">
+        <v>0.408245644108438</v>
+      </c>
+      <c r="H140">
+        <v>0.31796218454189601</v>
+      </c>
+      <c r="I140">
+        <v>1.11611549821787</v>
+      </c>
+      <c r="J140">
+        <v>7.8508777713161296E-2</v>
+      </c>
+      <c r="K140">
+        <v>82.165601425222306</v>
+      </c>
+      <c r="L140">
+        <v>0.875546680582998</v>
+      </c>
+      <c r="M140">
+        <v>156.75535697915399</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B141" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>I294</v>
+      </c>
+      <c r="C141">
+        <v>28</v>
+      </c>
+      <c r="D141">
+        <v>9</v>
+      </c>
+      <c r="E141">
+        <v>58.523566145165802</v>
+      </c>
+      <c r="F141">
+        <v>9.7074060354864405E-2</v>
+      </c>
+      <c r="G141">
+        <v>0.31156710409615501</v>
+      </c>
+      <c r="H141">
+        <v>0.24384819227152399</v>
+      </c>
+      <c r="I141">
+        <v>0.97852245212202205</v>
+      </c>
+      <c r="J141">
+        <v>5.31684477979786E-2</v>
+      </c>
+      <c r="K141">
+        <v>23.297774485167398</v>
+      </c>
+      <c r="L141">
+        <v>0.96805117245915895</v>
+      </c>
+      <c r="M141">
+        <v>58.523566145165802</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B142" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>I294</v>
+      </c>
+      <c r="C142">
+        <v>30</v>
+      </c>
+      <c r="D142">
+        <v>9</v>
+      </c>
+      <c r="E142">
+        <v>888.989600431437</v>
+      </c>
+      <c r="F142">
+        <v>0.905963970059385</v>
+      </c>
+      <c r="G142">
+        <v>0.95182139609245198</v>
+      </c>
+      <c r="H142">
+        <v>0.76439346554723697</v>
+      </c>
+      <c r="I142">
+        <v>2.8164375569340301</v>
+      </c>
+      <c r="J142">
+        <v>8.0390320615916597E-2</v>
+      </c>
+      <c r="K142">
+        <v>1053.63609717906</v>
+      </c>
+      <c r="L142">
+        <v>0.922550033586507</v>
+      </c>
+      <c r="M142">
+        <v>888.989600431437</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B143" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>I294</v>
+      </c>
+      <c r="C143">
+        <v>19</v>
+      </c>
+      <c r="D143">
+        <v>11</v>
+      </c>
+      <c r="E143">
+        <v>72.493915203142393</v>
+      </c>
+      <c r="F143">
+        <v>8.3343582641457997E-2</v>
+      </c>
+      <c r="G143">
+        <v>0.28869288637141299</v>
+      </c>
+      <c r="H143">
+        <v>0.23309940579788499</v>
+      </c>
+      <c r="I143">
+        <v>1.40624255990433</v>
+      </c>
+      <c r="J143">
+        <v>2.49087908862307E-2</v>
+      </c>
+      <c r="K143">
+        <v>25.919854201493401</v>
+      </c>
+      <c r="L143">
+        <v>0.99206015498602895</v>
+      </c>
+      <c r="M143">
+        <v>72.493915203142393</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B144" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>I294</v>
+      </c>
+      <c r="C144">
+        <v>22</v>
+      </c>
+      <c r="D144">
+        <v>11</v>
+      </c>
+      <c r="E144">
+        <v>467.75346471281398</v>
+      </c>
+      <c r="F144">
+        <v>0.40724965548803399</v>
+      </c>
+      <c r="G144">
+        <v>0.63816115166001297</v>
+      </c>
+      <c r="H144">
+        <v>0.44718304465852199</v>
+      </c>
+      <c r="I144">
+        <v>2.2974909367900498</v>
+      </c>
+      <c r="J144">
+        <v>3.86062402698132E-2</v>
+      </c>
+      <c r="K144">
+        <v>425.98313964048299</v>
+      </c>
+      <c r="L144">
+        <v>0.95000443063051898</v>
+      </c>
+      <c r="M144">
+        <v>467.75346471281398</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B145" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>I294</v>
+      </c>
+      <c r="C145">
+        <v>35</v>
+      </c>
+      <c r="D145">
+        <v>11</v>
+      </c>
+      <c r="E145">
+        <v>601.27921680142799</v>
+      </c>
+      <c r="F145">
+        <v>1.34678511565243</v>
+      </c>
+      <c r="G145">
+        <v>1.1605107132863599</v>
+      </c>
+      <c r="H145">
+        <v>0.67864471422283101</v>
+      </c>
+      <c r="I145">
+        <v>3.99412810199353</v>
+      </c>
+      <c r="J145">
+        <v>5.1854812926111202E-2</v>
+      </c>
+      <c r="K145">
+        <v>1193.2516124680501</v>
+      </c>
+      <c r="L145">
+        <v>0.93677511230579003</v>
+      </c>
+      <c r="M145">
+        <v>601.27921680142799</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B146" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>I294</v>
+      </c>
+      <c r="C146">
+        <v>56</v>
+      </c>
+      <c r="D146">
+        <v>18</v>
+      </c>
+      <c r="E146">
+        <v>864.471568255222</v>
+      </c>
+      <c r="F146">
+        <v>1.6821888440125601</v>
+      </c>
+      <c r="G146">
+        <v>1.29699222974255</v>
+      </c>
+      <c r="H146">
+        <v>0.73697490899848395</v>
+      </c>
+      <c r="I146">
+        <v>3.2920782703524001</v>
+      </c>
+      <c r="J146">
+        <v>5.67363180114853E-2</v>
+      </c>
+      <c r="K146">
+        <v>1973.20751402673</v>
+      </c>
+      <c r="L146">
+        <v>0.92820410328821301</v>
+      </c>
+      <c r="M146">
+        <v>864.471568255222</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B147" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>I294</v>
+      </c>
+      <c r="C147">
+        <v>59</v>
+      </c>
+      <c r="D147">
+        <v>18</v>
+      </c>
+      <c r="E147">
+        <v>679.97923461051698</v>
+      </c>
+      <c r="F147">
+        <v>1.41786625272762</v>
+      </c>
+      <c r="G147">
+        <v>1.19074189173289</v>
+      </c>
+      <c r="H147">
+        <v>0.58821733097795603</v>
+      </c>
+      <c r="I147">
+        <v>3.26036621775427</v>
+      </c>
+      <c r="J147">
+        <v>5.6353142060241002E-2</v>
+      </c>
+      <c r="K147">
+        <v>1639.0533881531301</v>
+      </c>
+      <c r="L147">
+        <v>0.92987024594548195</v>
+      </c>
+      <c r="M147">
+        <v>679.97923461051698</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B148" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>I294</v>
+      </c>
+      <c r="C148">
+        <v>64</v>
+      </c>
+      <c r="D148">
+        <v>18</v>
+      </c>
+      <c r="E148">
+        <v>516.27880213479602</v>
+      </c>
+      <c r="F148">
+        <v>0.503721073783861</v>
+      </c>
+      <c r="G148">
+        <v>0.70973310038623705</v>
+      </c>
+      <c r="H148">
+        <v>0.51015691910552996</v>
+      </c>
+      <c r="I148">
+        <v>2.1103294943929201</v>
+      </c>
+      <c r="J148">
+        <v>6.8440993287004495E-2</v>
+      </c>
+      <c r="K148">
+        <v>509.765726669267</v>
+      </c>
+      <c r="L148">
+        <v>0.91267962170788797</v>
+      </c>
+      <c r="M148">
+        <v>516.27880213479602</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B149" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>I294</v>
+      </c>
+      <c r="C149">
+        <v>18</v>
+      </c>
+      <c r="D149">
+        <v>19</v>
+      </c>
+      <c r="E149">
+        <v>742.10958067148795</v>
+      </c>
+      <c r="F149">
+        <v>1.0650570394549701</v>
+      </c>
+      <c r="G149">
+        <v>1.0320160073637299</v>
+      </c>
+      <c r="H149">
+        <v>0.76191948734239001</v>
+      </c>
+      <c r="I149">
+        <v>3.0623270319160998</v>
+      </c>
+      <c r="J149">
+        <v>0.13282059296830501</v>
+      </c>
+      <c r="K149">
+        <v>1037.36555642914</v>
+      </c>
+      <c r="L149">
+        <v>0.63497098706910604</v>
+      </c>
+      <c r="M149">
+        <v>742.10958067148795</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B150" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>I294</v>
+      </c>
+      <c r="C150">
+        <v>19</v>
+      </c>
+      <c r="D150">
+        <v>19</v>
+      </c>
+      <c r="E150">
+        <v>188.80915958572001</v>
+      </c>
+      <c r="F150">
+        <v>0.15690825535606301</v>
+      </c>
+      <c r="G150">
+        <v>0.39611646690848801</v>
+      </c>
+      <c r="H150">
+        <v>0.29922212295676798</v>
+      </c>
+      <c r="I150">
+        <v>1.2071708104776699</v>
+      </c>
+      <c r="J150">
+        <v>6.2184688682651298E-2</v>
+      </c>
+      <c r="K150">
+        <v>99.009109129676304</v>
+      </c>
+      <c r="L150">
+        <v>0.93473622446668103</v>
+      </c>
+      <c r="M150">
+        <v>188.80915958572001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B151" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>I294</v>
+      </c>
+      <c r="C151">
+        <v>25</v>
+      </c>
+      <c r="D151">
+        <v>19</v>
+      </c>
+      <c r="E151">
+        <v>296.12064834286798</v>
+      </c>
+      <c r="F151">
+        <v>8.6112347854478494E-2</v>
+      </c>
+      <c r="G151">
+        <v>0.293449054955845</v>
+      </c>
+      <c r="H151">
+        <v>0.231706297607878</v>
+      </c>
+      <c r="I151">
+        <v>0.92350805550728399</v>
+      </c>
+      <c r="J151">
+        <v>4.5425550302762401E-2</v>
+      </c>
+      <c r="K151">
+        <v>110.05158055802301</v>
+      </c>
+      <c r="L151">
+        <v>0.96382959089223197</v>
+      </c>
+      <c r="M151">
+        <v>296.12064834286798</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B152" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>I294</v>
+      </c>
+      <c r="C152">
+        <v>48</v>
+      </c>
+      <c r="D152">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B153" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>I294</v>
+      </c>
+      <c r="C153">
+        <v>50</v>
+      </c>
+      <c r="D153">
+        <v>20</v>
+      </c>
+      <c r="E153">
+        <v>282.60798903896801</v>
+      </c>
+      <c r="F153">
+        <v>9.9570672417968895E-2</v>
+      </c>
+      <c r="G153">
+        <v>0.31554820934045702</v>
+      </c>
+      <c r="H153">
+        <v>0.206132741822734</v>
+      </c>
+      <c r="I153">
+        <v>0.806572630403945</v>
+      </c>
+      <c r="J153">
+        <v>5.5165770863716199E-2</v>
+      </c>
+      <c r="K153">
+        <v>136.51139188503501</v>
+      </c>
+      <c r="L153">
+        <v>0.88701637370256903</v>
+      </c>
+      <c r="M153">
+        <v>282.60798903896801</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B154" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>I294</v>
+      </c>
+      <c r="C154">
+        <v>54</v>
+      </c>
+      <c r="D154">
+        <v>20</v>
+      </c>
+      <c r="E154">
+        <v>434.15866781392799</v>
+      </c>
+      <c r="F154">
+        <v>0.178658711420703</v>
+      </c>
+      <c r="G154">
+        <v>0.42268038920761802</v>
+      </c>
+      <c r="H154">
+        <v>0.31301994795524701</v>
+      </c>
+      <c r="I154">
+        <v>1.2566783761207301</v>
+      </c>
+      <c r="J154">
+        <v>6.6774153113367804E-2</v>
+      </c>
+      <c r="K154">
+        <v>247.79963274051499</v>
+      </c>
+      <c r="L154">
+        <v>0.90573377422664503</v>
+      </c>
+      <c r="M154">
+        <v>434.15866781392799</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B155" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>I294</v>
+      </c>
+      <c r="C155">
+        <v>11</v>
+      </c>
+      <c r="D155">
+        <v>21</v>
+      </c>
+      <c r="E155">
+        <v>378.50880476250802</v>
+      </c>
+      <c r="F155">
+        <v>0.15652876329822099</v>
+      </c>
+      <c r="G155">
+        <v>0.39563716116945002</v>
+      </c>
+      <c r="H155">
+        <v>0.28588278305325299</v>
+      </c>
+      <c r="I155">
+        <v>1.2672280854626901</v>
+      </c>
+      <c r="J155">
+        <v>4.1646016965205299E-2</v>
+      </c>
+      <c r="K155">
+        <v>207.24408260684501</v>
+      </c>
+      <c r="L155">
+        <v>0.98011020264939996</v>
+      </c>
+      <c r="M155">
+        <v>378.50880476250802</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B156" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>I294</v>
+      </c>
+      <c r="C156">
+        <v>13</v>
+      </c>
+      <c r="D156">
+        <v>21</v>
+      </c>
+      <c r="E156">
+        <v>243.588762928764</v>
+      </c>
+      <c r="F156">
+        <v>0.45572559105905802</v>
+      </c>
+      <c r="G156">
+        <v>0.67507450778344302</v>
+      </c>
+      <c r="H156">
+        <v>0.51390034373156901</v>
+      </c>
+      <c r="I156">
+        <v>2.4983776263035402</v>
+      </c>
+      <c r="J156">
+        <v>0.114419408098888</v>
+      </c>
+      <c r="K156">
+        <v>216.01393016199299</v>
+      </c>
+      <c r="L156">
+        <v>0.862648462484499</v>
+      </c>
+      <c r="M156">
+        <v>243.588762928764</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B157" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>I294</v>
+      </c>
+      <c r="C157">
+        <v>17</v>
+      </c>
+      <c r="D157">
+        <v>21</v>
+      </c>
+      <c r="E157">
+        <v>641.90459899825896</v>
+      </c>
+      <c r="F157">
+        <v>0.41198005512389102</v>
+      </c>
+      <c r="G157">
+        <v>0.64185672476331601</v>
+      </c>
+      <c r="H157">
+        <v>0.48118785532103298</v>
+      </c>
+      <c r="I157">
+        <v>2.1097840333058602</v>
+      </c>
+      <c r="J157">
+        <v>6.1955282313061397E-2</v>
+      </c>
+      <c r="K157">
+        <v>549.58139353527099</v>
+      </c>
+      <c r="L157">
+        <v>0.95493533089784199</v>
+      </c>
+      <c r="M157">
+        <v>641.90459899825896</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A158" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B158" s="11"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="3">
+        <f t="shared" ref="E158:L158" si="30">AVERAGE(E128:E157)</f>
+        <v>495.44599923256959</v>
+      </c>
+      <c r="F158" s="3">
+        <f t="shared" si="30"/>
+        <v>0.41726638049989495</v>
+      </c>
+      <c r="G158" s="3">
+        <f t="shared" si="30"/>
+        <v>0.5657791562819976</v>
+      </c>
+      <c r="H158" s="3">
+        <f t="shared" si="30"/>
+        <v>0.3998369050668632</v>
+      </c>
+      <c r="I158" s="3">
+        <f t="shared" si="30"/>
+        <v>3.8973185315163628</v>
+      </c>
+      <c r="J158" s="3">
+        <f t="shared" si="30"/>
+        <v>5.8040934974703848E-2</v>
+      </c>
+      <c r="K158" s="3">
+        <f t="shared" si="30"/>
+        <v>494.62867243463768</v>
+      </c>
+      <c r="L158" s="3">
+        <f t="shared" si="30"/>
+        <v>0.92903001556211551</v>
+      </c>
+      <c r="M158" s="3">
+        <f>AVERAGE(M128:M157)</f>
+        <v>495.44599923256959</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" s="2">
+        <v>5366</v>
+      </c>
+      <c r="D159" s="2">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>239.797259205335</v>
+      </c>
+      <c r="F159">
+        <v>0.11713127915992599</v>
+      </c>
+      <c r="G159">
+        <v>0.34224447279675002</v>
+      </c>
+      <c r="H159">
+        <v>0.27658276724952102</v>
+      </c>
+      <c r="I159">
+        <v>33.178884082830699</v>
+      </c>
+      <c r="J159">
+        <v>4.2514841341211203E-2</v>
+      </c>
+      <c r="K159">
+        <v>101.55281903165501</v>
+      </c>
+      <c r="L159">
+        <v>0.97023670380142002</v>
+      </c>
+      <c r="M159">
+        <v>239.797259205335</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" s="2">
+        <v>195</v>
+      </c>
+      <c r="D160" s="2">
+        <v>2</v>
+      </c>
+      <c r="E160">
+        <v>106.946994981495</v>
+      </c>
+      <c r="F160">
+        <v>3.8846031226148298E-2</v>
+      </c>
+      <c r="G160">
+        <v>0.19709396547370001</v>
+      </c>
+      <c r="H160">
+        <v>0.15820561387795201</v>
+      </c>
+      <c r="I160">
+        <v>7.3786142765536002</v>
+      </c>
+      <c r="J160">
+        <v>4.2204275262034401E-2</v>
+      </c>
+      <c r="K160">
+        <v>26.259917108876301</v>
+      </c>
+      <c r="L160">
+        <v>0.97833258573290605</v>
+      </c>
+      <c r="M160">
+        <v>106.946994981495</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161">
+        <v>286</v>
+      </c>
+      <c r="D161">
+        <v>3</v>
+      </c>
+      <c r="E161">
+        <v>65.431846178566502</v>
+      </c>
+      <c r="F161">
+        <v>6.6175395966149506E-2</v>
+      </c>
+      <c r="G161">
+        <v>0.25724578901538803</v>
+      </c>
+      <c r="H161">
+        <v>0.18965752515526499</v>
+      </c>
+      <c r="I161">
+        <v>4.5177385884716301</v>
+      </c>
+      <c r="J161">
+        <v>9.2868515890031797E-2</v>
+      </c>
+      <c r="K161">
+        <v>22.830511608321601</v>
+      </c>
+      <c r="L161">
+        <v>0.90641908829757301</v>
+      </c>
+      <c r="M161">
+        <v>65.431846178566502</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A162" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="3">
+        <f>AVERAGE(E159:E161)</f>
+        <v>137.39203345513218</v>
+      </c>
+      <c r="F162" s="3">
+        <f t="shared" ref="F162:L162" si="31">AVERAGE(F159:F161)</f>
+        <v>7.4050902117407932E-2</v>
+      </c>
+      <c r="G162" s="3">
+        <f t="shared" si="31"/>
+        <v>0.26552807576194604</v>
+      </c>
+      <c r="H162" s="3">
+        <f t="shared" si="31"/>
+        <v>0.20814863542757933</v>
+      </c>
+      <c r="I162" s="3">
+        <f t="shared" si="31"/>
+        <v>15.025078982618643</v>
+      </c>
+      <c r="J162" s="3">
+        <f t="shared" si="31"/>
+        <v>5.919587749775914E-2</v>
+      </c>
+      <c r="K162" s="3">
+        <f t="shared" si="31"/>
+        <v>50.214415916284302</v>
+      </c>
+      <c r="L162" s="3">
+        <f t="shared" si="31"/>
+        <v>0.95166279261063302</v>
+      </c>
+      <c r="M162" s="3">
+        <f>AVERAGE(M159:M161)</f>
+        <v>137.39203345513218</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
+      <c r="L163" s="2"/>
+      <c r="M163" s="2"/>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C164" s="2">
+        <v>13</v>
+      </c>
+      <c r="D164" s="2">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>164.569796431257</v>
+      </c>
+      <c r="F164">
+        <v>0.15645148675078899</v>
+      </c>
+      <c r="G164">
+        <v>0.39553948823194601</v>
+      </c>
+      <c r="H164">
+        <v>0.27798952099874502</v>
+      </c>
+      <c r="I164">
+        <v>32.311947271623303</v>
+      </c>
+      <c r="J164">
+        <v>2.3253350278186102E-2</v>
+      </c>
+      <c r="K164">
+        <v>92.619280156467596</v>
+      </c>
+      <c r="L164">
+        <v>0.994521485819582</v>
+      </c>
+      <c r="M164">
+        <v>164.569796431257</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C165" s="2">
+        <v>31</v>
+      </c>
+      <c r="D165" s="2">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>290.16495296106098</v>
+      </c>
+      <c r="F165">
+        <v>0.55789500794443403</v>
+      </c>
+      <c r="G165">
+        <v>0.74692369619957399</v>
+      </c>
+      <c r="H165">
+        <v>0.58737844728959798</v>
+      </c>
+      <c r="I165">
+        <v>8.7304987058764301</v>
+      </c>
+      <c r="J165">
+        <v>7.4692369619957399E-2</v>
+      </c>
+      <c r="K165">
+        <v>275.60013392454999</v>
+      </c>
+      <c r="L165">
+        <v>0.94267655382700799</v>
+      </c>
+      <c r="M165">
+        <v>290.16495296106098</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C166" s="2">
+        <v>2</v>
+      </c>
+      <c r="D166" s="2">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>270.138917148166</v>
+      </c>
+      <c r="F166">
+        <v>0.33441505341579802</v>
+      </c>
+      <c r="G166">
+        <v>0.57828630747735899</v>
+      </c>
+      <c r="H166">
+        <v>0.43782644594516301</v>
+      </c>
+      <c r="I166">
+        <v>4.6636121152471199</v>
+      </c>
+      <c r="J166">
+        <v>7.3200798414855495E-2</v>
+      </c>
+      <c r="K166">
+        <v>206.33408795754701</v>
+      </c>
+      <c r="L166">
+        <v>0.93691992013893799</v>
+      </c>
+      <c r="M166">
+        <v>270.138917148166</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C167" s="2">
+        <v>2</v>
+      </c>
+      <c r="D167" s="2">
+        <v>1</v>
+      </c>
+      <c r="E167">
         <v>6.1743424239443296</v>
       </c>
-      <c r="F89">
+      <c r="F167">
         <v>2.92724434455265E-2</v>
       </c>
-      <c r="G89">
+      <c r="G167">
         <v>0.17109191519626599</v>
       </c>
-      <c r="H89">
+      <c r="H167">
         <v>0.14700815295105499</v>
       </c>
-      <c r="I89">
+      <c r="I167">
         <v>11.707685159390801</v>
       </c>
-      <c r="J89">
+      <c r="J167">
         <v>3.32863648241764E-2</v>
       </c>
-      <c r="K89">
+      <c r="K167">
         <v>1.22944262471211</v>
       </c>
-      <c r="L89">
+      <c r="L167">
         <v>0.98364387260310304</v>
       </c>
-      <c r="M89">
+      <c r="M167">
         <v>6.1743424239443296</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A90" s="7" t="s">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A168" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="3">
-        <f t="shared" ref="E90:M90" si="11">AVERAGE(E86:E89)</f>
+      <c r="B168" s="7"/>
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="3">
+        <f t="shared" ref="E168:M168" si="32">AVERAGE(E164:E167)</f>
         <v>182.7620022411071</v>
       </c>
-      <c r="F90" s="3">
-        <f t="shared" si="11"/>
+      <c r="F168" s="3">
+        <f t="shared" si="32"/>
         <v>0.26950849788913689</v>
       </c>
-      <c r="G90" s="3">
-        <f t="shared" si="11"/>
+      <c r="G168" s="3">
+        <f t="shared" si="32"/>
         <v>0.47296035177628626</v>
       </c>
-      <c r="H90" s="3">
-        <f t="shared" si="11"/>
+      <c r="H168" s="3">
+        <f t="shared" si="32"/>
         <v>0.36255064179614027</v>
       </c>
-      <c r="I90" s="3">
-        <f t="shared" si="11"/>
+      <c r="I168" s="3">
+        <f t="shared" si="32"/>
         <v>14.353435813034412</v>
       </c>
-      <c r="J90" s="3">
-        <f t="shared" si="11"/>
+      <c r="J168" s="3">
+        <f t="shared" si="32"/>
         <v>5.1108220784293848E-2</v>
       </c>
-      <c r="K90" s="3">
-        <f t="shared" si="11"/>
+      <c r="K168" s="3">
+        <f t="shared" si="32"/>
         <v>143.94573616581917</v>
       </c>
-      <c r="L90" s="3">
-        <f t="shared" si="11"/>
+      <c r="L168" s="3">
+        <f t="shared" si="32"/>
         <v>0.96444045809715773</v>
       </c>
-      <c r="M90" s="3">
-        <f t="shared" si="11"/>
+      <c r="M168" s="3">
+        <f t="shared" si="32"/>
         <v>182.7620022411071</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="10">
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A158:D158"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results/Model_Analysis.xlsx
+++ b/Results/Model_Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Desktop\01Autonomous_Vehicles_Research\00Thesis\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DB9637-6D83-41DB-B8F5-CA03C1E5E41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394535BF-6DD0-4057-863A-C7816370FEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12528" yWindow="1236" windowWidth="10056" windowHeight="10584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_Performance" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,8 +149,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +166,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -247,6 +265,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -256,9 +277,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -809,10 +830,10 @@
         <f t="shared" ref="B4:B31" si="2">B3</f>
         <v>I294</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="14">
         <v>12</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="14">
         <v>1</v>
       </c>
       <c r="E4" s="2">
@@ -893,10 +914,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="16">
         <v>33</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="16">
         <v>3</v>
       </c>
       <c r="E5" s="8"/>
@@ -959,10 +980,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="16">
         <v>40</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="16">
         <v>3</v>
       </c>
       <c r="E6" s="8"/>
@@ -1025,10 +1046,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="14">
         <v>41</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="14">
         <v>3</v>
       </c>
       <c r="E7" s="2">
@@ -1109,10 +1130,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="16">
         <v>3</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="16">
         <v>7</v>
       </c>
       <c r="E8" s="8"/>
@@ -1175,13 +1196,13 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="14">
         <v>11</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="14">
         <v>7</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="14">
         <v>424.66544808059001</v>
       </c>
       <c r="F9" s="2">
@@ -1259,10 +1280,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="14">
         <v>17</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="14">
         <v>7</v>
       </c>
       <c r="E10" s="2">
@@ -1343,10 +1364,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="14">
         <v>51</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="14">
         <v>8</v>
       </c>
       <c r="E11" s="2">
@@ -1427,10 +1448,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="14">
         <v>62</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="14">
         <v>8</v>
       </c>
       <c r="E12" s="2">
@@ -1511,10 +1532,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="14">
         <v>65</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="14">
         <v>8</v>
       </c>
       <c r="E13" s="2">
@@ -1595,10 +1616,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="14">
         <v>24</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="14">
         <v>9</v>
       </c>
       <c r="E14" s="2">
@@ -1637,10 +1658,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="14">
         <v>28</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="14">
         <v>9</v>
       </c>
       <c r="E15" s="2">
@@ -1679,10 +1700,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="14">
         <v>30</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="14">
         <v>9</v>
       </c>
       <c r="E16" s="2">
@@ -1721,10 +1742,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="14">
         <v>19</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="14">
         <v>11</v>
       </c>
       <c r="E17" s="2">
@@ -1806,10 +1827,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="14">
         <v>22</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="14">
         <v>11</v>
       </c>
       <c r="E18" s="2">
@@ -1890,10 +1911,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="14">
         <v>35</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="14">
         <v>11</v>
       </c>
       <c r="E19" s="2">
@@ -1974,10 +1995,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="14">
         <v>56</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="14">
         <v>18</v>
       </c>
       <c r="E20" s="2">
@@ -2058,10 +2079,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="14">
         <v>59</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="14">
         <v>18</v>
       </c>
       <c r="E21" s="2">
@@ -2142,10 +2163,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="14">
         <v>64</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="14">
         <v>18</v>
       </c>
       <c r="E22" s="2">
@@ -2184,10 +2205,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="14">
         <v>18</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="14">
         <v>19</v>
       </c>
       <c r="E23" s="2">
@@ -2226,10 +2247,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="14">
         <v>19</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="14">
         <v>19</v>
       </c>
       <c r="E24" s="2">
@@ -2268,10 +2289,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="14">
         <v>25</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="14">
         <v>19</v>
       </c>
       <c r="E25" s="2">
@@ -2310,10 +2331,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="15">
         <v>48</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="15">
         <v>20</v>
       </c>
       <c r="E26" s="8"/>
@@ -2334,10 +2355,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="14">
         <v>50</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="14">
         <v>20</v>
       </c>
       <c r="E27" s="2">
@@ -2376,10 +2397,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="14">
         <v>54</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="14">
         <v>20</v>
       </c>
       <c r="E28" s="2">
@@ -2418,16 +2439,16 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="14">
         <v>11</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="14">
         <v>21</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="14">
         <v>369.41218804508998</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="14">
         <v>0.15119389292449001</v>
       </c>
       <c r="G29" s="2">
@@ -2460,10 +2481,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="14">
         <v>13</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="14">
         <v>21</v>
       </c>
       <c r="E30" s="2">
@@ -2502,10 +2523,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="14">
         <v>17</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="14">
         <v>21</v>
       </c>
       <c r="E31" s="2">
@@ -2537,12 +2558,12 @@
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="3">
         <f t="shared" ref="E32:L32" si="18">AVERAGE(E2:E31)</f>
         <v>494.34432019015674</v>
@@ -2704,12 +2725,12 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="3">
         <f>AVERAGE(E33:E35)</f>
         <v>125.98636395186337</v>
@@ -2912,12 +2933,12 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
       <c r="E41" s="3">
         <f t="shared" ref="E41:M41" si="20">AVERAGE(E37:E40)</f>
         <v>177.8352568311085</v>
@@ -4143,12 +4164,12 @@
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="12"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="13"/>
       <c r="E72" s="3">
         <f t="shared" ref="E72:M72" si="22">AVERAGE(E43:E71)</f>
         <v>514.58964240130524</v>
@@ -4325,12 +4346,12 @@
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="12"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="13"/>
       <c r="E77" s="3">
         <f>AVERAGE(E74:E76)</f>
         <v>129.92572820153646</v>
@@ -4548,12 +4569,12 @@
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="12"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="13"/>
       <c r="E83" s="3">
         <f t="shared" ref="E83:M83" si="24">AVERAGE(E79:E82)</f>
         <v>166.75533039671973</v>
@@ -5794,12 +5815,12 @@
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A115" s="10" t="s">
+      <c r="A115" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="12"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="13"/>
       <c r="E115" s="3">
         <f t="shared" ref="E115:L115" si="26">AVERAGE(E85:E114)</f>
         <v>526.59745576763021</v>
@@ -5976,12 +5997,12 @@
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A120" s="10" t="s">
+      <c r="A120" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="12"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="13"/>
       <c r="E120" s="3">
         <f>AVERAGE(E117:E119)</f>
         <v>162.37343850247021</v>
@@ -6199,12 +6220,12 @@
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A126" s="10" t="s">
+      <c r="A126" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B126" s="11"/>
-      <c r="C126" s="11"/>
-      <c r="D126" s="12"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="13"/>
       <c r="E126" s="3">
         <f t="shared" ref="E126:M126" si="28">AVERAGE(E122:E125)</f>
         <v>175.71964800163991</v>
@@ -7409,12 +7430,12 @@
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A158" s="10" t="s">
+      <c r="A158" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B158" s="11"/>
-      <c r="C158" s="11"/>
-      <c r="D158" s="12"/>
+      <c r="B158" s="12"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="13"/>
       <c r="E158" s="3">
         <f t="shared" ref="E158:L158" si="30">AVERAGE(E128:E157)</f>
         <v>495.44599923256959</v>
@@ -7844,16 +7865,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A158:D158"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A72:D72"/>
     <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A158:D158"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results/Model_Analysis.xlsx
+++ b/Results/Model_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Desktop\01Autonomous_Vehicles_Research\00Thesis\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394535BF-6DD0-4057-863A-C7816370FEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09036F3D-8E6E-4EB4-B565-C24E0D1C40E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12528" yWindow="1236" windowWidth="10056" windowHeight="10584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -265,9 +265,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -277,9 +277,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:Y168"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -830,10 +830,10 @@
         <f t="shared" ref="B4:B31" si="2">B3</f>
         <v>I294</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="10">
         <v>12</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="10">
         <v>1</v>
       </c>
       <c r="E4" s="2">
@@ -914,10 +914,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="12">
         <v>33</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="12">
         <v>3</v>
       </c>
       <c r="E5" s="8"/>
@@ -980,10 +980,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="12">
         <v>40</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="12">
         <v>3</v>
       </c>
       <c r="E6" s="8"/>
@@ -1046,10 +1046,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="10">
         <v>41</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="10">
         <v>3</v>
       </c>
       <c r="E7" s="2">
@@ -1130,10 +1130,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="12">
         <v>3</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="12">
         <v>7</v>
       </c>
       <c r="E8" s="8"/>
@@ -1196,13 +1196,13 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="10">
         <v>11</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="10">
         <v>7</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="10">
         <v>424.66544808059001</v>
       </c>
       <c r="F9" s="2">
@@ -1280,10 +1280,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="10">
         <v>17</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="10">
         <v>7</v>
       </c>
       <c r="E10" s="2">
@@ -1364,10 +1364,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="10">
         <v>51</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="10">
         <v>8</v>
       </c>
       <c r="E11" s="2">
@@ -1448,10 +1448,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="10">
         <v>62</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="10">
         <v>8</v>
       </c>
       <c r="E12" s="2">
@@ -1532,10 +1532,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="10">
         <v>65</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="10">
         <v>8</v>
       </c>
       <c r="E13" s="2">
@@ -1616,10 +1616,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="10">
         <v>24</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="10">
         <v>9</v>
       </c>
       <c r="E14" s="2">
@@ -1658,10 +1658,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="10">
         <v>28</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="10">
         <v>9</v>
       </c>
       <c r="E15" s="2">
@@ -1700,10 +1700,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="10">
         <v>30</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="10">
         <v>9</v>
       </c>
       <c r="E16" s="2">
@@ -1742,10 +1742,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="10">
         <v>19</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="10">
         <v>11</v>
       </c>
       <c r="E17" s="2">
@@ -1827,10 +1827,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="10">
         <v>22</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="10">
         <v>11</v>
       </c>
       <c r="E18" s="2">
@@ -1911,10 +1911,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="10">
         <v>35</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="10">
         <v>11</v>
       </c>
       <c r="E19" s="2">
@@ -1995,10 +1995,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="10">
         <v>56</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="10">
         <v>18</v>
       </c>
       <c r="E20" s="2">
@@ -2079,10 +2079,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="10">
         <v>59</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="10">
         <v>18</v>
       </c>
       <c r="E21" s="2">
@@ -2163,10 +2163,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="10">
         <v>64</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="10">
         <v>18</v>
       </c>
       <c r="E22" s="2">
@@ -2205,10 +2205,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="10">
         <v>18</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="10">
         <v>19</v>
       </c>
       <c r="E23" s="2">
@@ -2247,10 +2247,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="10">
         <v>19</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="10">
         <v>19</v>
       </c>
       <c r="E24" s="2">
@@ -2289,10 +2289,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="10">
         <v>25</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="10">
         <v>19</v>
       </c>
       <c r="E25" s="2">
@@ -2331,10 +2331,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="11">
         <v>48</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="11">
         <v>20</v>
       </c>
       <c r="E26" s="8"/>
@@ -2355,10 +2355,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="10">
         <v>50</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="10">
         <v>20</v>
       </c>
       <c r="E27" s="2">
@@ -2397,10 +2397,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="10">
         <v>54</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="10">
         <v>20</v>
       </c>
       <c r="E28" s="2">
@@ -2439,16 +2439,16 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="10">
         <v>11</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="10">
         <v>21</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="10">
         <v>369.41218804508998</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="10">
         <v>0.15119389292449001</v>
       </c>
       <c r="G29" s="2">
@@ -2481,10 +2481,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="10">
         <v>13</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="10">
         <v>21</v>
       </c>
       <c r="E30" s="2">
@@ -2523,10 +2523,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="10">
         <v>17</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="10">
         <v>21</v>
       </c>
       <c r="E31" s="2">
@@ -2558,12 +2558,12 @@
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="3">
         <f t="shared" ref="E32:L32" si="18">AVERAGE(E2:E31)</f>
         <v>494.34432019015674</v>
@@ -2725,12 +2725,12 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
       <c r="E36" s="3">
         <f>AVERAGE(E33:E35)</f>
         <v>125.98636395186337</v>
@@ -2933,12 +2933,12 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
       <c r="E41" s="3">
         <f t="shared" ref="E41:M41" si="20">AVERAGE(E37:E40)</f>
         <v>177.8352568311085</v>
@@ -4164,12 +4164,12 @@
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="13"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="15"/>
       <c r="E72" s="3">
         <f t="shared" ref="E72:M72" si="22">AVERAGE(E43:E71)</f>
         <v>514.58964240130524</v>
@@ -4346,12 +4346,12 @@
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="13"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="15"/>
       <c r="E77" s="3">
         <f>AVERAGE(E74:E76)</f>
         <v>129.92572820153646</v>
@@ -4569,12 +4569,12 @@
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="13"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="15"/>
       <c r="E83" s="3">
         <f t="shared" ref="E83:M83" si="24">AVERAGE(E79:E82)</f>
         <v>166.75533039671973</v>
@@ -5815,12 +5815,12 @@
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A115" s="11" t="s">
+      <c r="A115" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B115" s="12"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="13"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="15"/>
       <c r="E115" s="3">
         <f t="shared" ref="E115:L115" si="26">AVERAGE(E85:E114)</f>
         <v>526.59745576763021</v>
@@ -5997,12 +5997,12 @@
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A120" s="11" t="s">
+      <c r="A120" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B120" s="12"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="13"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="15"/>
       <c r="E120" s="3">
         <f>AVERAGE(E117:E119)</f>
         <v>162.37343850247021</v>
@@ -6220,12 +6220,12 @@
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A126" s="11" t="s">
+      <c r="A126" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B126" s="12"/>
-      <c r="C126" s="12"/>
-      <c r="D126" s="13"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="15"/>
       <c r="E126" s="3">
         <f t="shared" ref="E126:M126" si="28">AVERAGE(E122:E125)</f>
         <v>175.71964800163991</v>
@@ -7430,12 +7430,12 @@
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A158" s="11" t="s">
+      <c r="A158" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B158" s="12"/>
-      <c r="C158" s="12"/>
-      <c r="D158" s="13"/>
+      <c r="B158" s="14"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="15"/>
       <c r="E158" s="3">
         <f t="shared" ref="E158:L158" si="30">AVERAGE(E128:E157)</f>
         <v>495.44599923256959</v>
@@ -7865,16 +7865,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A77:D77"/>
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A115:D115"/>
     <mergeCell ref="A120:D120"/>
     <mergeCell ref="A126:D126"/>
     <mergeCell ref="A158:D158"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A77:D77"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results/Model_Analysis.xlsx
+++ b/Results/Model_Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Desktop\01Autonomous_Vehicles_Research\00Thesis\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09036F3D-8E6E-4EB4-B565-C24E0D1C40E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9646D2-8AEB-4732-A8C8-CD1376C4C9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12528" yWindow="1236" windowWidth="10056" windowHeight="10584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_Performance" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="28">
   <si>
     <t>Model</t>
   </si>
@@ -82,9 +82,6 @@
     <t>R-squared</t>
   </si>
   <si>
-    <t>Total Difference</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Average</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>ALL</t>
+  </si>
+  <si>
+    <t>IDM</t>
   </si>
 </sst>
 </file>
@@ -182,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -242,15 +242,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -260,21 +306,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -560,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y168"/>
+  <dimension ref="A1:W208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView tabSelected="1" topLeftCell="F6" zoomScale="92" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,15 +614,13 @@
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="12" max="12" width="10.109375" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" customWidth="1"/>
-    <col min="17" max="17" width="8.44140625" customWidth="1"/>
-    <col min="18" max="22" width="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.33203125" customWidth="1"/>
-    <col min="25" max="25" width="16" customWidth="1"/>
+    <col min="16" max="16" width="8.44140625" customWidth="1"/>
+    <col min="17" max="21" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,44 +657,38 @@
       <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
+      <c r="N1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -692,53 +725,46 @@
       <c r="L2" s="2">
         <v>0.95976144280637299</v>
       </c>
-      <c r="M2" s="2">
-        <v>289.233892669677</v>
+      <c r="N2" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="9">
-        <f t="shared" ref="Q2:Y2" si="0">E32</f>
+      <c r="P2" s="5">
+        <f t="shared" ref="P2:W2" si="0">E32</f>
         <v>494.34432019015674</v>
       </c>
-      <c r="R2" s="9">
+      <c r="Q2" s="5">
         <f t="shared" si="0"/>
         <v>0.47326895190455087</v>
       </c>
-      <c r="S2" s="9">
+      <c r="R2" s="5">
         <f t="shared" si="0"/>
         <v>0.60406795948961711</v>
       </c>
-      <c r="T2" s="9">
+      <c r="S2" s="5">
         <f t="shared" si="0"/>
         <v>0.43517195616976018</v>
       </c>
-      <c r="U2" s="9">
+      <c r="T2" s="5">
         <f t="shared" si="0"/>
         <v>3.3593166766383096</v>
       </c>
-      <c r="V2" s="9">
+      <c r="U2" s="5">
         <f t="shared" si="0"/>
         <v>6.6162276176786647E-2</v>
       </c>
-      <c r="W2" s="9">
+      <c r="V2" s="5">
         <f t="shared" si="0"/>
         <v>514.71236550265189</v>
       </c>
-      <c r="X2" s="9">
+      <c r="W2" s="5">
         <f t="shared" si="0"/>
         <v>0.90181250324133755</v>
       </c>
-      <c r="Y2" s="9">
-        <f t="shared" si="0"/>
-        <v>494.34432019015674</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -776,53 +802,46 @@
       <c r="L3" s="2">
         <v>0.973914915302729</v>
       </c>
-      <c r="M3" s="2">
-        <v>209.91741616236499</v>
+      <c r="N3" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="9">
-        <f t="shared" ref="Q3:Y3" si="1">E36</f>
+      <c r="P3" s="5">
+        <f t="shared" ref="P3:W3" si="1">E36</f>
         <v>125.98636395186337</v>
       </c>
-      <c r="R3" s="9">
+      <c r="Q3" s="5">
         <f t="shared" si="1"/>
         <v>6.2931011576996737E-2</v>
       </c>
-      <c r="S3" s="9">
+      <c r="R3" s="5">
         <f t="shared" si="1"/>
         <v>0.2427302106133713</v>
       </c>
-      <c r="T3" s="9">
+      <c r="S3" s="5">
         <f t="shared" si="1"/>
         <v>0.1882194683984543</v>
       </c>
-      <c r="U3" s="9">
+      <c r="T3" s="5">
         <f t="shared" si="1"/>
         <v>11.44268824691372</v>
       </c>
-      <c r="V3" s="9">
+      <c r="U3" s="5">
         <f t="shared" si="1"/>
         <v>5.2178896762678305E-2</v>
       </c>
-      <c r="W3" s="9">
+      <c r="V3" s="5">
         <f t="shared" si="1"/>
         <v>44.810701372213366</v>
       </c>
-      <c r="X3" s="9">
+      <c r="W3" s="5">
         <f t="shared" si="1"/>
         <v>0.9637831493425123</v>
       </c>
-      <c r="Y3" s="9">
-        <f t="shared" si="1"/>
-        <v>125.98636395186337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -830,10 +849,10 @@
         <f t="shared" ref="B4:B31" si="2">B3</f>
         <v>I294</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="6">
         <v>12</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="6">
         <v>1</v>
       </c>
       <c r="E4" s="2">
@@ -860,53 +879,46 @@
       <c r="L4" s="2">
         <v>0.97856190338358695</v>
       </c>
-      <c r="M4" s="2">
-        <v>236.94890974686101</v>
+      <c r="N4" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="9">
-        <f t="shared" ref="Q4:Y4" si="3">E41</f>
+      <c r="P4" s="5">
+        <f t="shared" ref="P4:W4" si="3">E41</f>
         <v>177.8352568311085</v>
       </c>
-      <c r="R4" s="9">
+      <c r="Q4" s="5">
         <f t="shared" si="3"/>
         <v>0.25150717501850789</v>
       </c>
-      <c r="S4" s="9">
+      <c r="R4" s="5">
         <f t="shared" si="3"/>
         <v>0.44345611120923284</v>
       </c>
-      <c r="T4" s="9">
+      <c r="S4" s="5">
         <f t="shared" si="3"/>
         <v>0.33670262808296064</v>
       </c>
-      <c r="U4" s="9">
+      <c r="T4" s="5">
         <f t="shared" si="3"/>
         <v>8.9487102951776176</v>
       </c>
-      <c r="V4" s="9">
+      <c r="U4" s="5">
         <f t="shared" si="3"/>
         <v>4.6728781966459444E-2</v>
       </c>
-      <c r="W4" s="9">
+      <c r="V4" s="5">
         <f t="shared" si="3"/>
         <v>137.36501426655872</v>
       </c>
-      <c r="X4" s="9">
+      <c r="W4" s="5">
         <f t="shared" si="3"/>
         <v>0.96791714475828872</v>
       </c>
-      <c r="Y4" s="9">
-        <f t="shared" si="3"/>
-        <v>177.8352568311085</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -914,65 +926,60 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>33</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="8">
         <v>3</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="N5" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="O5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="9">
-        <f t="shared" ref="Q5:Y5" si="4">E72</f>
+      <c r="P5" s="5">
+        <f t="shared" ref="P5:W5" si="4">E72</f>
         <v>514.58964240130524</v>
       </c>
-      <c r="R5" s="9">
+      <c r="Q5" s="5">
         <f t="shared" si="4"/>
         <v>0.52679260869959632</v>
       </c>
-      <c r="S5" s="9">
+      <c r="R5" s="5">
         <f t="shared" si="4"/>
         <v>0.6393762629040024</v>
       </c>
-      <c r="T5" s="9">
+      <c r="S5" s="5">
         <f t="shared" si="4"/>
         <v>0.45745364848452708</v>
       </c>
-      <c r="U5" s="9">
+      <c r="T5" s="5">
         <f t="shared" si="4"/>
         <v>3.8053203200425596</v>
       </c>
-      <c r="V5" s="9">
+      <c r="U5" s="5">
         <f t="shared" si="4"/>
         <v>6.9257130052807259E-2</v>
       </c>
-      <c r="W5" s="9">
+      <c r="V5" s="5">
         <f t="shared" si="4"/>
         <v>552.71034212621907</v>
       </c>
-      <c r="X5" s="9">
+      <c r="W5" s="5">
         <f t="shared" si="4"/>
         <v>0.89379390738263487</v>
       </c>
-      <c r="Y5" s="9">
-        <f t="shared" si="4"/>
-        <v>514.58964240130524</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -980,65 +987,60 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="8">
         <v>40</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="8">
         <v>3</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="N6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="O6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="9">
-        <f t="shared" ref="Q6:Y6" si="5">E77</f>
+      <c r="P6" s="5">
+        <f t="shared" ref="P6:W6" si="5">E77</f>
         <v>129.92572820153646</v>
       </c>
-      <c r="R6" s="9">
+      <c r="Q6" s="5">
         <f t="shared" si="5"/>
         <v>6.7178984002328065E-2</v>
       </c>
-      <c r="S6" s="9">
+      <c r="R6" s="5">
         <f t="shared" si="5"/>
         <v>0.24465013291518034</v>
       </c>
-      <c r="T6" s="9">
+      <c r="S6" s="5">
         <f t="shared" si="5"/>
         <v>0.19760479210251267</v>
       </c>
-      <c r="U6" s="9">
+      <c r="T6" s="5">
         <f t="shared" si="5"/>
         <v>13.556127892827176</v>
       </c>
-      <c r="V6" s="9">
+      <c r="U6" s="5">
         <f t="shared" si="5"/>
         <v>5.4471945531039463E-2</v>
       </c>
-      <c r="W6" s="9">
+      <c r="V6" s="5">
         <f t="shared" si="5"/>
         <v>45.883427739525594</v>
       </c>
-      <c r="X6" s="9">
+      <c r="W6" s="5">
         <f t="shared" si="5"/>
         <v>0.95620134688237723</v>
       </c>
-      <c r="Y6" s="9">
-        <f t="shared" si="5"/>
-        <v>129.92572820153646</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1046,10 +1048,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="6">
         <v>41</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="6">
         <v>3</v>
       </c>
       <c r="E7" s="2">
@@ -1076,53 +1078,46 @@
       <c r="L7" s="2">
         <v>0.95597903777747195</v>
       </c>
-      <c r="M7" s="2">
-        <v>136.866757615951</v>
+      <c r="N7" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q7" s="9">
-        <f t="shared" ref="Q7:Y7" si="6">E83</f>
+      <c r="P7" s="5">
+        <f t="shared" ref="P7:W7" si="6">E83</f>
         <v>166.75533039671973</v>
       </c>
-      <c r="R7" s="9">
+      <c r="Q7" s="5">
         <f t="shared" si="6"/>
         <v>0.22688531944293955</v>
       </c>
-      <c r="S7" s="9">
+      <c r="R7" s="5">
         <f t="shared" si="6"/>
         <v>0.42113819013252174</v>
       </c>
-      <c r="T7" s="9">
+      <c r="S7" s="5">
         <f t="shared" si="6"/>
         <v>0.31130961079008562</v>
       </c>
-      <c r="U7" s="9">
+      <c r="T7" s="5">
         <f t="shared" si="6"/>
         <v>8.5014314615852395</v>
       </c>
-      <c r="V7" s="9">
+      <c r="U7" s="5">
         <f t="shared" si="6"/>
         <v>4.4097909231379573E-2</v>
       </c>
-      <c r="W7" s="9">
+      <c r="V7" s="5">
         <f t="shared" si="6"/>
         <v>125.14353074411848</v>
       </c>
-      <c r="X7" s="9">
+      <c r="W7" s="5">
         <f t="shared" si="6"/>
         <v>0.97094235805124041</v>
       </c>
-      <c r="Y7" s="9">
-        <f t="shared" si="6"/>
-        <v>166.75533039671973</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1130,65 +1125,60 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="8">
         <v>3</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="8">
         <v>7</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="N8" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="O8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="9">
-        <f t="shared" ref="Q8:Y8" si="7">E115</f>
+      <c r="P8" s="5">
+        <f t="shared" ref="P8:W8" si="7">E115</f>
         <v>526.59745576763021</v>
       </c>
-      <c r="R8" s="9">
+      <c r="Q8" s="5">
         <f t="shared" si="7"/>
         <v>0.49329529858924948</v>
       </c>
-      <c r="S8" s="9">
+      <c r="R8" s="5">
         <f t="shared" si="7"/>
         <v>0.61902373579138181</v>
       </c>
-      <c r="T8" s="9">
+      <c r="S8" s="5">
         <f t="shared" si="7"/>
         <v>0.4282065199687406</v>
       </c>
-      <c r="U8" s="9">
+      <c r="T8" s="5">
         <f t="shared" si="7"/>
         <v>3.8453162117462232</v>
       </c>
-      <c r="V8" s="9">
+      <c r="U8" s="5">
         <f t="shared" si="7"/>
         <v>6.3405107977592703E-2</v>
       </c>
-      <c r="W8" s="9">
+      <c r="V8" s="5">
         <f t="shared" si="7"/>
         <v>578.14155868683315</v>
       </c>
-      <c r="X8" s="9">
+      <c r="W8" s="5">
         <f t="shared" si="7"/>
         <v>0.91081276991623406</v>
       </c>
-      <c r="Y8" s="9">
-        <f t="shared" si="7"/>
-        <v>526.59745576763021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1196,13 +1186,13 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="6">
         <v>11</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="6">
         <v>7</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="6">
         <v>424.66544808059001</v>
       </c>
       <c r="F9" s="2">
@@ -1226,53 +1216,46 @@
       <c r="L9" s="2">
         <v>0.87188253958762096</v>
       </c>
-      <c r="M9" s="2">
-        <v>424.66544808059001</v>
+      <c r="N9" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="9">
-        <f t="shared" ref="Q9:Y9" si="8">E120</f>
+      <c r="P9" s="5">
+        <f t="shared" ref="P9:W9" si="8">E120</f>
         <v>162.37343850247021</v>
       </c>
-      <c r="R9" s="9">
+      <c r="Q9" s="5">
         <f t="shared" si="8"/>
         <v>9.4464018191625865E-2</v>
       </c>
-      <c r="S9" s="9">
+      <c r="R9" s="5">
         <f t="shared" si="8"/>
         <v>0.30519905612998133</v>
       </c>
-      <c r="T9" s="9">
+      <c r="S9" s="5">
         <f t="shared" si="8"/>
         <v>0.245920460491314</v>
       </c>
-      <c r="U9" s="9">
+      <c r="T9" s="5">
         <f t="shared" si="8"/>
         <v>15.660651965374408</v>
       </c>
-      <c r="V9" s="9">
+      <c r="U9" s="5">
         <f t="shared" si="8"/>
         <v>6.7875580268721994E-2</v>
       </c>
-      <c r="W9" s="9">
+      <c r="V9" s="5">
         <f t="shared" si="8"/>
         <v>63.904760833021157</v>
       </c>
-      <c r="X9" s="9">
+      <c r="W9" s="5">
         <f t="shared" si="8"/>
         <v>0.93944455280336336</v>
       </c>
-      <c r="Y9" s="9">
-        <f t="shared" si="8"/>
-        <v>162.37343850247021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1280,10 +1263,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="6">
         <v>17</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="6">
         <v>7</v>
       </c>
       <c r="E10" s="2">
@@ -1310,53 +1293,46 @@
       <c r="L10" s="2">
         <v>0.88499325386313199</v>
       </c>
-      <c r="M10" s="2">
-        <v>125.28083866972899</v>
+      <c r="N10" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q10" s="9">
-        <f t="shared" ref="Q10:Y10" si="9">E126</f>
+      <c r="P10" s="5">
+        <f t="shared" ref="P10:W10" si="9">E126</f>
         <v>175.71964800163991</v>
       </c>
-      <c r="R10" s="9">
+      <c r="Q10" s="5">
         <f t="shared" si="9"/>
         <v>0.2899969681312905</v>
       </c>
-      <c r="S10" s="9">
+      <c r="R10" s="5">
         <f t="shared" si="9"/>
         <v>0.45823155860340548</v>
       </c>
-      <c r="T10" s="9">
+      <c r="S10" s="5">
         <f t="shared" si="9"/>
         <v>0.33634102514249625</v>
       </c>
-      <c r="U10" s="9">
+      <c r="T10" s="5">
         <f t="shared" si="9"/>
         <v>11.781380310074988</v>
       </c>
-      <c r="V10" s="9">
+      <c r="U10" s="5">
         <f t="shared" si="9"/>
         <v>4.7696251534927223E-2</v>
       </c>
-      <c r="W10" s="9">
+      <c r="V10" s="5">
         <f t="shared" si="9"/>
         <v>153.4919600380116</v>
       </c>
-      <c r="X10" s="9">
+      <c r="W10" s="5">
         <f t="shared" si="9"/>
         <v>0.96579875705840024</v>
       </c>
-      <c r="Y10" s="9">
-        <f t="shared" si="9"/>
-        <v>175.71964800163991</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1364,10 +1340,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="6">
         <v>51</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="6">
         <v>8</v>
       </c>
       <c r="E11" s="2">
@@ -1394,53 +1370,46 @@
       <c r="L11" s="2">
         <v>0.99132077892275405</v>
       </c>
-      <c r="M11" s="2">
-        <v>809.76350578793097</v>
+      <c r="N11" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q11" s="9">
-        <f t="shared" ref="Q11:Y11" si="10">E158</f>
+      <c r="P11" s="5">
+        <f t="shared" ref="P11:W11" si="10">E158</f>
         <v>495.44599923256959</v>
       </c>
-      <c r="R11" s="9">
+      <c r="Q11" s="5">
         <f t="shared" si="10"/>
         <v>0.41726638049989495</v>
       </c>
-      <c r="S11" s="9">
+      <c r="R11" s="5">
         <f t="shared" si="10"/>
         <v>0.5657791562819976</v>
       </c>
-      <c r="T11" s="9">
+      <c r="S11" s="5">
         <f t="shared" si="10"/>
         <v>0.3998369050668632</v>
       </c>
-      <c r="U11" s="9">
+      <c r="T11" s="5">
         <f t="shared" si="10"/>
         <v>3.8973185315163628</v>
       </c>
-      <c r="V11" s="9">
+      <c r="U11" s="5">
         <f t="shared" si="10"/>
         <v>5.8040934974703848E-2</v>
       </c>
-      <c r="W11" s="9">
+      <c r="V11" s="5">
         <f t="shared" si="10"/>
         <v>494.62867243463768</v>
       </c>
-      <c r="X11" s="9">
+      <c r="W11" s="5">
         <f t="shared" si="10"/>
         <v>0.92903001556211551</v>
       </c>
-      <c r="Y11" s="9">
-        <f t="shared" si="10"/>
-        <v>495.44599923256959</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -1448,10 +1417,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="6">
         <v>62</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="6">
         <v>8</v>
       </c>
       <c r="E12" s="2">
@@ -1478,53 +1447,46 @@
       <c r="L12" s="2">
         <v>0.99444011531468701</v>
       </c>
-      <c r="M12" s="2">
-        <v>1135.5585520809</v>
+      <c r="N12" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q12" s="9">
-        <f t="shared" ref="Q12:Y12" si="11">E162</f>
+      <c r="P12" s="5">
+        <f t="shared" ref="P12:W12" si="11">E162</f>
         <v>137.39203345513218</v>
       </c>
-      <c r="R12" s="9">
+      <c r="Q12" s="5">
         <f t="shared" si="11"/>
         <v>7.4050902117407932E-2</v>
       </c>
-      <c r="S12" s="9">
+      <c r="R12" s="5">
         <f t="shared" si="11"/>
         <v>0.26552807576194604</v>
       </c>
-      <c r="T12" s="9">
+      <c r="S12" s="5">
         <f t="shared" si="11"/>
         <v>0.20814863542757933</v>
       </c>
-      <c r="U12" s="9">
+      <c r="T12" s="5">
         <f t="shared" si="11"/>
         <v>15.025078982618643</v>
       </c>
-      <c r="V12" s="9">
+      <c r="U12" s="5">
         <f t="shared" si="11"/>
         <v>5.919587749775914E-2</v>
       </c>
-      <c r="W12" s="9">
+      <c r="V12" s="5">
         <f t="shared" si="11"/>
         <v>50.214415916284302</v>
       </c>
-      <c r="X12" s="9">
+      <c r="W12" s="5">
         <f t="shared" si="11"/>
         <v>0.95166279261063302</v>
       </c>
-      <c r="Y12" s="9">
-        <f t="shared" si="11"/>
-        <v>137.39203345513218</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
@@ -1532,10 +1494,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="6">
         <v>65</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="6">
         <v>8</v>
       </c>
       <c r="E13" s="2">
@@ -1562,53 +1524,46 @@
       <c r="L13" s="2">
         <v>0.99442852725318098</v>
       </c>
-      <c r="M13" s="2">
-        <v>1051.0480570791501</v>
+      <c r="N13" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q13" s="9">
-        <f t="shared" ref="Q13:Y13" si="12">E168</f>
+      <c r="P13" s="5">
+        <f t="shared" ref="P13:W13" si="12">E167</f>
         <v>182.7620022411071</v>
       </c>
-      <c r="R13" s="9">
+      <c r="Q13" s="5">
         <f t="shared" si="12"/>
         <v>0.26950849788913689</v>
       </c>
-      <c r="S13" s="9">
+      <c r="R13" s="5">
         <f t="shared" si="12"/>
         <v>0.47296035177628626</v>
       </c>
-      <c r="T13" s="9">
+      <c r="S13" s="5">
         <f t="shared" si="12"/>
         <v>0.36255064179614027</v>
       </c>
-      <c r="U13" s="9">
+      <c r="T13" s="5">
         <f t="shared" si="12"/>
         <v>14.353435813034412</v>
       </c>
-      <c r="V13" s="9">
+      <c r="U13" s="5">
         <f t="shared" si="12"/>
         <v>5.1108220784293848E-2</v>
       </c>
-      <c r="W13" s="9">
+      <c r="V13" s="5">
         <f t="shared" si="12"/>
         <v>143.94573616581917</v>
       </c>
-      <c r="X13" s="9">
+      <c r="W13" s="5">
         <f t="shared" si="12"/>
         <v>0.96444045809715773</v>
       </c>
-      <c r="Y13" s="9">
-        <f t="shared" si="12"/>
-        <v>182.7620022411071</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
@@ -1616,10 +1571,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="6">
         <v>24</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="6">
         <v>9</v>
       </c>
       <c r="E14" s="2">
@@ -1646,11 +1601,46 @@
       <c r="L14" s="2">
         <v>0.70769393213440102</v>
       </c>
-      <c r="M14" s="2">
-        <v>241.00309594394301</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="N14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="9">
+        <f t="shared" ref="P14:W14" si="13">E198</f>
+        <v>449.48868848994567</v>
+      </c>
+      <c r="Q14" s="9">
+        <f t="shared" si="13"/>
+        <v>0.39194828323388553</v>
+      </c>
+      <c r="R14" s="9">
+        <f t="shared" si="13"/>
+        <v>0.54811048477685076</v>
+      </c>
+      <c r="S14" s="9">
+        <f t="shared" si="13"/>
+        <v>0.38760360973950736</v>
+      </c>
+      <c r="T14" s="9">
+        <f t="shared" si="13"/>
+        <v>3.2388017952581145</v>
+      </c>
+      <c r="U14" s="9">
+        <f t="shared" si="13"/>
+        <v>5.7544629757983849E-2</v>
+      </c>
+      <c r="V14" s="9">
+        <f t="shared" si="13"/>
+        <v>436.35208188660937</v>
+      </c>
+      <c r="W14" s="9">
+        <f t="shared" si="13"/>
+        <v>0.92776962456778145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -1658,10 +1648,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="6">
         <v>28</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="6">
         <v>9</v>
       </c>
       <c r="E15" s="2">
@@ -1688,11 +1678,46 @@
       <c r="L15" s="2">
         <v>0.87249527176267205</v>
       </c>
-      <c r="M15" s="2">
-        <v>129.57832441108999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="N15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="9">
+        <f t="shared" ref="P15:W15" si="14">E202</f>
+        <v>108.07364361629573</v>
+      </c>
+      <c r="Q15" s="9">
+        <f t="shared" si="14"/>
+        <v>4.6762438172254499E-2</v>
+      </c>
+      <c r="R15" s="9">
+        <f t="shared" si="14"/>
+        <v>0.20555280601552203</v>
+      </c>
+      <c r="S15" s="9">
+        <f t="shared" si="14"/>
+        <v>0.16236091782333631</v>
+      </c>
+      <c r="T15" s="9">
+        <f t="shared" si="14"/>
+        <v>7.9542776796672401</v>
+      </c>
+      <c r="U15" s="9">
+        <f t="shared" si="14"/>
+        <v>4.4771327597002836E-2</v>
+      </c>
+      <c r="V15" s="9">
+        <f t="shared" si="14"/>
+        <v>32.887650313425063</v>
+      </c>
+      <c r="W15" s="9">
+        <f t="shared" si="14"/>
+        <v>0.9717783286173387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
@@ -1700,10 +1725,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="6">
         <v>30</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="6">
         <v>9</v>
       </c>
       <c r="E16" s="2">
@@ -1730,11 +1755,46 @@
       <c r="L16" s="2">
         <v>0.91745785829247495</v>
       </c>
-      <c r="M16" s="2">
-        <v>972.95448761071498</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="N16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" s="9">
+        <f t="shared" ref="P16:W16" si="15">E208</f>
+        <v>176.11624083661209</v>
+      </c>
+      <c r="Q16" s="9">
+        <f t="shared" si="15"/>
+        <v>0.36866938336464872</v>
+      </c>
+      <c r="R16" s="9">
+        <f t="shared" si="15"/>
+        <v>0.57720082551187746</v>
+      </c>
+      <c r="S16" s="9">
+        <f t="shared" si="15"/>
+        <v>0.44637471850977278</v>
+      </c>
+      <c r="T16" s="9">
+        <f t="shared" si="15"/>
+        <v>22.62339879180216</v>
+      </c>
+      <c r="U16" s="9">
+        <f t="shared" si="15"/>
+        <v>7.1955082529846323E-2</v>
+      </c>
+      <c r="V16" s="9">
+        <f t="shared" si="15"/>
+        <v>152.27686960071503</v>
+      </c>
+      <c r="W16" s="9">
+        <f t="shared" si="15"/>
+        <v>0.91701458295720228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
@@ -1742,10 +1802,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="6">
         <v>19</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="6">
         <v>11</v>
       </c>
       <c r="E17" s="2">
@@ -1772,54 +1832,8 @@
       <c r="L17" s="2">
         <v>0.99460811269538196</v>
       </c>
-      <c r="M17" s="2">
-        <v>50.515912778426902</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P17" s="1" t="str">
-        <f>P1</f>
-        <v>Dataset</v>
-      </c>
-      <c r="Q17" s="1" t="str">
-        <f t="shared" ref="Q17:Y17" si="13">Q1</f>
-        <v>Error</v>
-      </c>
-      <c r="R17" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>MSE</v>
-      </c>
-      <c r="S17" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>RMSE</v>
-      </c>
-      <c r="T17" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>MAE</v>
-      </c>
-      <c r="U17" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>MAPE</v>
-      </c>
-      <c r="V17" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>NRMSE</v>
-      </c>
-      <c r="W17" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>SSE</v>
-      </c>
-      <c r="X17" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>R-squared</v>
-      </c>
-      <c r="Y17" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Total Difference</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
@@ -1827,10 +1841,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="6">
         <v>22</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="6">
         <v>11</v>
       </c>
       <c r="E18" s="2">
@@ -1857,53 +1871,8 @@
       <c r="L18" s="2">
         <v>0.95206337756516501</v>
       </c>
-      <c r="M18" s="2">
-        <v>465.60072126379202</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q18" s="9">
-        <f>AVERAGE(Q2:Q4)</f>
-        <v>266.05531365770952</v>
-      </c>
-      <c r="R18" s="9">
-        <f t="shared" ref="R18:Y18" si="14">AVERAGE(R2:R4)</f>
-        <v>0.26256904616668519</v>
-      </c>
-      <c r="S18" s="9">
-        <f t="shared" si="14"/>
-        <v>0.43008476043740712</v>
-      </c>
-      <c r="T18" s="9">
-        <f t="shared" si="14"/>
-        <v>0.32003135088372509</v>
-      </c>
-      <c r="U18" s="9">
-        <f t="shared" si="14"/>
-        <v>7.9169050729098815</v>
-      </c>
-      <c r="V18" s="9">
-        <f t="shared" si="14"/>
-        <v>5.5023318301974794E-2</v>
-      </c>
-      <c r="W18" s="9">
-        <f t="shared" si="14"/>
-        <v>232.29602704714134</v>
-      </c>
-      <c r="X18" s="9">
-        <f t="shared" si="14"/>
-        <v>0.94450426578071289</v>
-      </c>
-      <c r="Y18" s="9">
-        <f t="shared" si="14"/>
-        <v>266.05531365770952</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
@@ -1911,10 +1880,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="6">
         <v>35</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="6">
         <v>11</v>
       </c>
       <c r="E19" s="2">
@@ -1941,53 +1910,8 @@
       <c r="L19" s="2">
         <v>0.962684632932571</v>
       </c>
-      <c r="M19" s="2">
-        <v>550.40404471238696</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q19" s="9">
-        <f>AVERAGE(Q5:Q7)</f>
-        <v>270.42356699985379</v>
-      </c>
-      <c r="R19" s="9">
-        <f t="shared" ref="R19:Y19" si="15">AVERAGE(R5:R7)</f>
-        <v>0.27361897071495461</v>
-      </c>
-      <c r="S19" s="9">
-        <f t="shared" si="15"/>
-        <v>0.43505486198390148</v>
-      </c>
-      <c r="T19" s="9">
-        <f t="shared" si="15"/>
-        <v>0.32212268379237513</v>
-      </c>
-      <c r="U19" s="9">
-        <f t="shared" si="15"/>
-        <v>8.6209598914849916</v>
-      </c>
-      <c r="V19" s="9">
-        <f t="shared" si="15"/>
-        <v>5.5942328271742094E-2</v>
-      </c>
-      <c r="W19" s="9">
-        <f t="shared" si="15"/>
-        <v>241.24576686995439</v>
-      </c>
-      <c r="X19" s="9">
-        <f t="shared" si="15"/>
-        <v>0.94031253743875087</v>
-      </c>
-      <c r="Y19" s="9">
-        <f t="shared" si="15"/>
-        <v>270.42356699985379</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
@@ -1995,10 +1919,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="6">
         <v>56</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="6">
         <v>18</v>
       </c>
       <c r="E20" s="2">
@@ -2025,53 +1949,8 @@
       <c r="L20" s="2">
         <v>0.917176098269185</v>
       </c>
-      <c r="M20" s="2">
-        <v>929.90734471071198</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q20" s="9">
-        <f>AVERAGE(Q8:Q10)</f>
-        <v>288.23018075724679</v>
-      </c>
-      <c r="R20" s="9">
-        <f t="shared" ref="R20:Y20" si="16">AVERAGE(R8:R10)</f>
-        <v>0.29258542830405526</v>
-      </c>
-      <c r="S20" s="9">
-        <f t="shared" si="16"/>
-        <v>0.46081811684158952</v>
-      </c>
-      <c r="T20" s="9">
-        <f t="shared" si="16"/>
-        <v>0.33682266853418358</v>
-      </c>
-      <c r="U20" s="9">
-        <f t="shared" si="16"/>
-        <v>10.429116162398541</v>
-      </c>
-      <c r="V20" s="9">
-        <f t="shared" si="16"/>
-        <v>5.9658979927080635E-2</v>
-      </c>
-      <c r="W20" s="9">
-        <f t="shared" si="16"/>
-        <v>265.1794265192886</v>
-      </c>
-      <c r="X20" s="9">
-        <f t="shared" si="16"/>
-        <v>0.93868535992599922</v>
-      </c>
-      <c r="Y20" s="9">
-        <f t="shared" si="16"/>
-        <v>288.23018075724679</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
@@ -2079,10 +1958,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="6">
         <v>59</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="6">
         <v>18</v>
       </c>
       <c r="E21" s="2">
@@ -2109,53 +1988,8 @@
       <c r="L21" s="2">
         <v>0.90740521871540603</v>
       </c>
-      <c r="M21" s="2">
-        <v>873.65335687633706</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q21" s="9">
-        <f>AVERAGE(Q11:Q13)</f>
-        <v>271.86667830960295</v>
-      </c>
-      <c r="R21" s="9">
-        <f t="shared" ref="R21:Y21" si="17">AVERAGE(R11:R13)</f>
-        <v>0.2536085935021466</v>
-      </c>
-      <c r="S21" s="9">
-        <f t="shared" si="17"/>
-        <v>0.43475586127340993</v>
-      </c>
-      <c r="T21" s="9">
-        <f t="shared" si="17"/>
-        <v>0.32351206076352762</v>
-      </c>
-      <c r="U21" s="9">
-        <f t="shared" si="17"/>
-        <v>11.091944442389808</v>
-      </c>
-      <c r="V21" s="9">
-        <f t="shared" si="17"/>
-        <v>5.6115011085585607E-2</v>
-      </c>
-      <c r="W21" s="9">
-        <f t="shared" si="17"/>
-        <v>229.59627483891373</v>
-      </c>
-      <c r="X21" s="9">
-        <f t="shared" si="17"/>
-        <v>0.94837775542330205</v>
-      </c>
-      <c r="Y21" s="9">
-        <f t="shared" si="17"/>
-        <v>271.86667830960295</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
@@ -2163,10 +1997,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="6">
         <v>64</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="6">
         <v>18</v>
       </c>
       <c r="E22" s="2">
@@ -2193,11 +2027,47 @@
       <c r="L22" s="2">
         <v>0.88040716883905301</v>
       </c>
-      <c r="M22" s="2">
-        <v>612.49331842139304</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="N22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="1" t="str">
+        <f t="shared" ref="O22:W22" si="16">O1</f>
+        <v>Dataset</v>
+      </c>
+      <c r="P22" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>Error</v>
+      </c>
+      <c r="Q22" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>MSE</v>
+      </c>
+      <c r="R22" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>RMSE</v>
+      </c>
+      <c r="S22" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>MAE</v>
+      </c>
+      <c r="T22" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>MAPE</v>
+      </c>
+      <c r="U22" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>NRMSE</v>
+      </c>
+      <c r="V22" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>SSE</v>
+      </c>
+      <c r="W22" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>R-squared</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
@@ -2205,10 +2075,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="6">
         <v>18</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="6">
         <v>19</v>
       </c>
       <c r="E23" s="2">
@@ -2235,11 +2105,46 @@
       <c r="L23" s="2">
         <v>0.56225281912469105</v>
       </c>
-      <c r="M23" s="2">
-        <v>813.11633236498403</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="N23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" s="5">
+        <f t="shared" ref="P23:W23" si="17">AVERAGE(P2:P4)</f>
+        <v>266.05531365770952</v>
+      </c>
+      <c r="Q23" s="5">
+        <f t="shared" si="17"/>
+        <v>0.26256904616668519</v>
+      </c>
+      <c r="R23" s="5">
+        <f t="shared" si="17"/>
+        <v>0.43008476043740712</v>
+      </c>
+      <c r="S23" s="5">
+        <f t="shared" si="17"/>
+        <v>0.32003135088372509</v>
+      </c>
+      <c r="T23" s="5">
+        <f t="shared" si="17"/>
+        <v>7.9169050729098815</v>
+      </c>
+      <c r="U23" s="5">
+        <f t="shared" si="17"/>
+        <v>5.5023318301974794E-2</v>
+      </c>
+      <c r="V23" s="5">
+        <f t="shared" si="17"/>
+        <v>232.29602704714134</v>
+      </c>
+      <c r="W23" s="5">
+        <f t="shared" si="17"/>
+        <v>0.94450426578071289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
@@ -2247,10 +2152,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="6">
         <v>19</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="6">
         <v>19</v>
       </c>
       <c r="E24" s="2">
@@ -2277,11 +2182,46 @@
       <c r="L24" s="2">
         <v>0.90234970981956197</v>
       </c>
-      <c r="M24" s="2">
-        <v>222.97257534631501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="N24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="5">
+        <f t="shared" ref="P24:W24" si="18">AVERAGE(P5:P7)</f>
+        <v>270.42356699985379</v>
+      </c>
+      <c r="Q24" s="5">
+        <f t="shared" si="18"/>
+        <v>0.27361897071495461</v>
+      </c>
+      <c r="R24" s="5">
+        <f t="shared" si="18"/>
+        <v>0.43505486198390148</v>
+      </c>
+      <c r="S24" s="5">
+        <f t="shared" si="18"/>
+        <v>0.32212268379237513</v>
+      </c>
+      <c r="T24" s="5">
+        <f t="shared" si="18"/>
+        <v>8.6209598914849916</v>
+      </c>
+      <c r="U24" s="5">
+        <f t="shared" si="18"/>
+        <v>5.5942328271742094E-2</v>
+      </c>
+      <c r="V24" s="5">
+        <f t="shared" si="18"/>
+        <v>241.24576686995439</v>
+      </c>
+      <c r="W24" s="5">
+        <f t="shared" si="18"/>
+        <v>0.94031253743875087</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
@@ -2289,10 +2229,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="6">
         <v>25</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="6">
         <v>19</v>
       </c>
       <c r="E25" s="2">
@@ -2319,11 +2259,46 @@
       <c r="L25" s="2">
         <v>0.95734429060681403</v>
       </c>
-      <c r="M25" s="2">
-        <v>337.81825782289002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="N25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25" s="5">
+        <f t="shared" ref="P25:W25" si="19">AVERAGE(P8:P10)</f>
+        <v>288.23018075724679</v>
+      </c>
+      <c r="Q25" s="5">
+        <f t="shared" si="19"/>
+        <v>0.29258542830405526</v>
+      </c>
+      <c r="R25" s="5">
+        <f t="shared" si="19"/>
+        <v>0.46081811684158952</v>
+      </c>
+      <c r="S25" s="5">
+        <f t="shared" si="19"/>
+        <v>0.33682266853418358</v>
+      </c>
+      <c r="T25" s="5">
+        <f t="shared" si="19"/>
+        <v>10.429116162398541</v>
+      </c>
+      <c r="U25" s="5">
+        <f t="shared" si="19"/>
+        <v>5.9658979927080635E-2</v>
+      </c>
+      <c r="V25" s="5">
+        <f t="shared" si="19"/>
+        <v>265.1794265192886</v>
+      </c>
+      <c r="W25" s="5">
+        <f t="shared" si="19"/>
+        <v>0.93868535992599922</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>1</v>
       </c>
@@ -2331,23 +2306,60 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="7">
         <v>48</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="7">
         <v>20</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="N26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P26" s="5">
+        <f t="shared" ref="P26:W26" si="20">AVERAGE(P11:P13)</f>
+        <v>271.86667830960295</v>
+      </c>
+      <c r="Q26" s="5">
+        <f t="shared" si="20"/>
+        <v>0.2536085935021466</v>
+      </c>
+      <c r="R26" s="5">
+        <f t="shared" si="20"/>
+        <v>0.43475586127340993</v>
+      </c>
+      <c r="S26" s="5">
+        <f t="shared" si="20"/>
+        <v>0.32351206076352762</v>
+      </c>
+      <c r="T26" s="5">
+        <f t="shared" si="20"/>
+        <v>11.091944442389808</v>
+      </c>
+      <c r="U26" s="5">
+        <f t="shared" si="20"/>
+        <v>5.6115011085585607E-2</v>
+      </c>
+      <c r="V26" s="5">
+        <f t="shared" si="20"/>
+        <v>229.59627483891373</v>
+      </c>
+      <c r="W26" s="5">
+        <f t="shared" si="20"/>
+        <v>0.94837775542330205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>1</v>
       </c>
@@ -2355,10 +2367,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="6">
         <v>50</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="6">
         <v>20</v>
       </c>
       <c r="E27" s="2">
@@ -2385,11 +2397,46 @@
       <c r="L27" s="2">
         <v>0.81886428761095498</v>
       </c>
-      <c r="M27" s="2">
-        <v>348.53312989287201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="N27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="2">
+        <f>AVERAGE(P14:P16)</f>
+        <v>244.55952431428452</v>
+      </c>
+      <c r="Q27" s="5">
+        <f t="shared" ref="Q27:W27" si="21">AVERAGE(Q14:Q16)</f>
+        <v>0.26912670159026292</v>
+      </c>
+      <c r="R27" s="5">
+        <f t="shared" si="21"/>
+        <v>0.44362137210141678</v>
+      </c>
+      <c r="S27" s="5">
+        <f t="shared" si="21"/>
+        <v>0.33211308202420547</v>
+      </c>
+      <c r="T27" s="5">
+        <f t="shared" si="21"/>
+        <v>11.272159422242504</v>
+      </c>
+      <c r="U27" s="5">
+        <f t="shared" si="21"/>
+        <v>5.8090346628277667E-2</v>
+      </c>
+      <c r="V27" s="5">
+        <f t="shared" si="21"/>
+        <v>207.17220060024979</v>
+      </c>
+      <c r="W27" s="5">
+        <f t="shared" si="21"/>
+        <v>0.93885417871410759</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>1</v>
       </c>
@@ -2397,10 +2444,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="6">
         <v>54</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="6">
         <v>20</v>
       </c>
       <c r="E28" s="2">
@@ -2427,11 +2474,8 @@
       <c r="L28" s="2">
         <v>0.80216250072859197</v>
       </c>
-      <c r="M28" s="2">
-        <v>544.30523849871304</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
@@ -2439,16 +2483,16 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="6">
         <v>11</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="6">
         <v>21</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="6">
         <v>369.41218804508998</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="6">
         <v>0.15119389292449001</v>
       </c>
       <c r="G29" s="2">
@@ -2469,11 +2513,8 @@
       <c r="L29" s="2">
         <v>0.98078809397358502</v>
       </c>
-      <c r="M29" s="2">
-        <v>369.41218804508998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>1</v>
       </c>
@@ -2481,10 +2522,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="6">
         <v>13</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="6">
         <v>21</v>
       </c>
       <c r="E30" s="2">
@@ -2511,11 +2552,8 @@
       <c r="L30" s="2">
         <v>0.75051422834149095</v>
       </c>
-      <c r="M30" s="2">
-        <v>357.56492249139001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>1</v>
       </c>
@@ -2523,10 +2561,10 @@
         <f t="shared" si="2"/>
         <v>I294</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="6">
         <v>17</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="6">
         <v>21</v>
       </c>
       <c r="E31" s="2">
@@ -2553,55 +2591,48 @@
       <c r="L31" s="2">
         <v>0.95557496865124503</v>
       </c>
-      <c r="M31" s="2">
-        <v>613.83569585987004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="3">
-        <f t="shared" ref="E32:L32" si="18">AVERAGE(E2:E31)</f>
+        <f t="shared" ref="E32:L32" si="22">AVERAGE(E2:E31)</f>
         <v>494.34432019015674</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.47326895190455087</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.60406795948961711</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.43517195616976018</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>3.3593166766383096</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>6.6162276176786647E-2</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>514.71236550265189</v>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.90181250324133755</v>
       </c>
-      <c r="M32" s="3">
-        <f>AVERAGE(M2:M31)</f>
-        <v>494.34432019015674</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>1</v>
       </c>
@@ -2638,11 +2669,8 @@
       <c r="L33" s="2">
         <v>0.97203909703417402</v>
       </c>
-      <c r="M33" s="2">
-        <v>223.38070755802099</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>1</v>
       </c>
@@ -2679,11 +2707,8 @@
       <c r="L34" s="2">
         <v>0.98001672333488199</v>
       </c>
-      <c r="M34" s="2">
-        <v>99.377619078479697</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>1</v>
       </c>
@@ -2720,60 +2745,53 @@
       <c r="L35" s="2">
         <v>0.93929362765848101</v>
       </c>
-      <c r="M35" s="2">
-        <v>55.200765219089398</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="3">
         <f>AVERAGE(E33:E35)</f>
         <v>125.98636395186337</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" ref="F36:M36" si="19">AVERAGE(F33:F35)</f>
+        <f t="shared" ref="F36:L36" si="23">AVERAGE(F33:F35)</f>
         <v>6.2931011576996737E-2</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.2427302106133713</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.1882194683984543</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>11.44268824691372</v>
       </c>
       <c r="J36" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5.2178896762678305E-2</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>44.810701372213366</v>
       </c>
       <c r="L36" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.9637831493425123</v>
       </c>
-      <c r="M36" s="3">
-        <f t="shared" si="19"/>
-        <v>125.98636395186337</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C37" s="2">
         <v>13</v>
@@ -2805,16 +2823,13 @@
       <c r="L37" s="2">
         <v>0.99513416839485003</v>
       </c>
-      <c r="M37" s="2">
-        <v>135.27620651830401</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C38" s="2">
         <v>31</v>
@@ -2846,16 +2861,13 @@
       <c r="L38" s="2">
         <v>0.94788085575946002</v>
       </c>
-      <c r="M38" s="2">
-        <v>278.775415226875</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C39" s="2">
         <v>2</v>
@@ -2887,16 +2899,13 @@
       <c r="L39" s="2">
         <v>0.93389583193866399</v>
       </c>
-      <c r="M39" s="2">
-        <v>294.03775179676097</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C40" s="2">
         <v>2</v>
@@ -2928,55 +2937,48 @@
       <c r="L40" s="2">
         <v>0.99475772294018106</v>
       </c>
-      <c r="M40" s="2">
-        <v>3.2516537824940599</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="3">
-        <f t="shared" ref="E41:M41" si="20">AVERAGE(E37:E40)</f>
+        <f t="shared" ref="E41:L41" si="24">AVERAGE(E37:E40)</f>
         <v>177.8352568311085</v>
       </c>
       <c r="F41" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.25150717501850789</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.44345611120923284</v>
       </c>
       <c r="H41" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.33670262808296064</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>8.9487102951776176</v>
       </c>
       <c r="J41" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>4.6728781966459444E-2</v>
       </c>
       <c r="K41" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>137.36501426655872</v>
       </c>
       <c r="L41" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.96791714475828872</v>
       </c>
-      <c r="M41" s="3">
-        <f t="shared" si="20"/>
-        <v>177.8352568311085</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>6</v>
       </c>
@@ -3013,11 +3015,8 @@
       <c r="L42" s="2">
         <v>0.95980417340943702</v>
       </c>
-      <c r="M42" s="2">
-        <v>287.95699282044001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>6</v>
       </c>
@@ -3055,16 +3054,13 @@
       <c r="L43" s="2">
         <v>0.97343077978814396</v>
       </c>
-      <c r="M43" s="2">
-        <v>211.13903613627599</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B44" s="2" t="str">
-        <f t="shared" ref="B44:B71" si="21">B43</f>
+        <f t="shared" ref="B44:B71" si="25">B43</f>
         <v>I294</v>
       </c>
       <c r="C44" s="2">
@@ -3097,16 +3093,13 @@
       <c r="L44" s="2">
         <v>0.97834763453206697</v>
       </c>
-      <c r="M44" s="2">
-        <v>236.72001828178</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B45" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>I294</v>
       </c>
       <c r="C45" s="2">
@@ -3115,22 +3108,21 @@
       <c r="D45" s="2">
         <v>3</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B46" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>I294</v>
       </c>
       <c r="C46" s="2">
@@ -3139,22 +3131,21 @@
       <c r="D46" s="2">
         <v>3</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B47" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>I294</v>
       </c>
       <c r="C47" s="2">
@@ -3187,16 +3178,13 @@
       <c r="L47" s="2">
         <v>0.93381127025347799</v>
       </c>
-      <c r="M47" s="2">
-        <v>176.620777619232</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>I294</v>
       </c>
       <c r="C48" s="2">
@@ -3205,22 +3193,21 @@
       <c r="D48" s="2">
         <v>7</v>
       </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B49" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>I294</v>
       </c>
       <c r="C49" s="2">
@@ -3253,16 +3240,13 @@
       <c r="L49" s="2">
         <v>0.87969622789161805</v>
       </c>
-      <c r="M49" s="2">
-        <v>428.477513310956</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B50" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>I294</v>
       </c>
       <c r="C50" s="2">
@@ -3295,16 +3279,13 @@
       <c r="L50" s="2">
         <v>0.88073706955290598</v>
       </c>
-      <c r="M50" s="2">
-        <v>130.084265391082</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B51" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>I294</v>
       </c>
       <c r="C51" s="2">
@@ -3337,16 +3318,13 @@
       <c r="L51" s="2">
         <v>0.98578374121563095</v>
       </c>
-      <c r="M51" s="2">
-        <v>1030.0194749795301</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B52" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>I294</v>
       </c>
       <c r="C52" s="2">
@@ -3379,16 +3357,13 @@
       <c r="L52" s="2">
         <v>0.99208721088221996</v>
       </c>
-      <c r="M52" s="2">
-        <v>1325.80392766465</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B53" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>I294</v>
       </c>
       <c r="C53" s="2">
@@ -3421,16 +3396,13 @@
       <c r="L53" s="2">
         <v>0.99568663643598598</v>
       </c>
-      <c r="M53" s="2">
-        <v>1014.82970914256</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B54" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>I294</v>
       </c>
       <c r="C54" s="2">
@@ -3463,16 +3435,13 @@
       <c r="L54" s="2">
         <v>0.84149312816116295</v>
       </c>
-      <c r="M54" s="2">
-        <v>170.04493788380699</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B55" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>I294</v>
       </c>
       <c r="C55" s="2">
@@ -3505,16 +3474,13 @@
       <c r="L55" s="2">
         <v>0.68693604122743901</v>
       </c>
-      <c r="M55" s="2">
-        <v>184.04161036060299</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B56" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>I294</v>
       </c>
       <c r="C56" s="2">
@@ -3547,16 +3513,13 @@
       <c r="L56" s="2">
         <v>0.90183297692338205</v>
       </c>
-      <c r="M56" s="2">
-        <v>986.53222667423199</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B57" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>I294</v>
       </c>
       <c r="C57" s="2">
@@ -3589,16 +3552,13 @@
       <c r="L57" s="2">
         <v>0.98781841019558103</v>
       </c>
-      <c r="M57" s="2">
-        <v>89.057562337545903</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B58" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>I294</v>
       </c>
       <c r="C58" s="2">
@@ -3631,16 +3591,13 @@
       <c r="L58" s="2">
         <v>0.95736115172152503</v>
       </c>
-      <c r="M58" s="2">
-        <v>449.36165482411798</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B59" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>I294</v>
       </c>
       <c r="C59" s="2">
@@ -3673,16 +3630,13 @@
       <c r="L59" s="2">
         <v>0.956294478245588</v>
       </c>
-      <c r="M59" s="2">
-        <v>579.20940714982703</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B60" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>I294</v>
       </c>
       <c r="C60" s="2">
@@ -3715,16 +3669,13 @@
       <c r="L60" s="2">
         <v>0.92731780456924695</v>
       </c>
-      <c r="M60" s="2">
-        <v>865.30542753238103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B61" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>I294</v>
       </c>
       <c r="C61" s="2">
@@ -3757,16 +3708,13 @@
       <c r="L61" s="2">
         <v>0.91225892328765801</v>
       </c>
-      <c r="M61" s="2">
-        <v>772.43939497794895</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B62" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>I294</v>
       </c>
       <c r="C62" s="2">
@@ -3799,16 +3747,13 @@
       <c r="L62" s="2">
         <v>0.89116279575498902</v>
       </c>
-      <c r="M62" s="2">
-        <v>557.987992623217</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B63" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>I294</v>
       </c>
       <c r="C63" s="2">
@@ -3841,16 +3786,13 @@
       <c r="L63" s="2">
         <v>0.40673453901940199</v>
       </c>
-      <c r="M63" s="2">
-        <v>1004.1052057140899</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B64" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>I294</v>
       </c>
       <c r="C64" s="2">
@@ -3883,16 +3825,13 @@
       <c r="L64" s="2">
         <v>0.90477107432653203</v>
       </c>
-      <c r="M64" s="2">
-        <v>225.02805507201401</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B65" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>I294</v>
       </c>
       <c r="C65" s="2">
@@ -3925,16 +3864,13 @@
       <c r="L65" s="2">
         <v>0.95710086718475595</v>
       </c>
-      <c r="M65" s="2">
-        <v>338.41578557957598</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B66" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>I294</v>
       </c>
       <c r="C66" s="2">
@@ -3943,22 +3879,21 @@
       <c r="D66" s="2">
         <v>20</v>
       </c>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B67" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>I294</v>
       </c>
       <c r="C67" s="2">
@@ -3991,16 +3926,13 @@
       <c r="L67" s="2">
         <v>0.86729016753643795</v>
       </c>
-      <c r="M67" s="2">
-        <v>291.43050713558102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B68" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>I294</v>
       </c>
       <c r="C68" s="2">
@@ -4033,16 +3965,13 @@
       <c r="L68" s="2">
         <v>0.88894881801719805</v>
       </c>
-      <c r="M68" s="2">
-        <v>470.65974122517002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>I294</v>
       </c>
       <c r="C69" s="2">
@@ -4075,16 +4004,13 @@
       <c r="L69" s="2">
         <v>0.980807227977044</v>
       </c>
-      <c r="M69" s="2">
-        <v>372.21091985280901</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B70" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>I294</v>
       </c>
       <c r="C70" s="2">
@@ -4117,16 +4043,13 @@
       <c r="L70" s="2">
         <v>0.70102167259746495</v>
       </c>
-      <c r="M70" s="2">
-        <v>338.294091579292</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B71" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>I294</v>
       </c>
       <c r="C71" s="2">
@@ -4159,55 +4082,48 @@
       <c r="L71" s="2">
         <v>0.95611703726840802</v>
       </c>
-      <c r="M71" s="2">
-        <v>616.92181698435297</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="15"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="12"/>
       <c r="E72" s="3">
-        <f t="shared" ref="E72:M72" si="22">AVERAGE(E43:E71)</f>
+        <f t="shared" ref="E72:L72" si="26">AVERAGE(E43:E71)</f>
         <v>514.58964240130524</v>
       </c>
       <c r="F72" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.52679260869959632</v>
       </c>
       <c r="G72" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.6393762629040024</v>
       </c>
       <c r="H72" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.45745364848452708</v>
       </c>
       <c r="I72" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3.8053203200425596</v>
       </c>
       <c r="J72" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>6.9257130052807259E-2</v>
       </c>
       <c r="K72" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>552.71034212621907</v>
       </c>
       <c r="L72" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.89379390738263487</v>
       </c>
-      <c r="M72" s="3">
-        <f t="shared" si="22"/>
-        <v>514.58964240130524</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4220,9 +4136,8 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>6</v>
       </c>
@@ -4259,11 +4174,8 @@
       <c r="L74" s="2">
         <v>0.96980477394499198</v>
       </c>
-      <c r="M74" s="2">
-        <v>244.557969819573</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>6</v>
       </c>
@@ -4300,11 +4212,8 @@
       <c r="L75" s="2">
         <v>0.989737249939589</v>
       </c>
-      <c r="M75" s="2">
-        <v>77.635250792618905</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>6</v>
       </c>
@@ -4341,55 +4250,48 @@
       <c r="L76" s="2">
         <v>0.90906201676255105</v>
       </c>
-      <c r="M76" s="2">
-        <v>67.583963992417495</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A77" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="15"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="12"/>
       <c r="E77" s="3">
         <f>AVERAGE(E74:E76)</f>
         <v>129.92572820153646</v>
       </c>
       <c r="F77" s="3">
-        <f t="shared" ref="F77:M77" si="23">AVERAGE(F74:F76)</f>
+        <f t="shared" ref="F77:K77" si="27">AVERAGE(F74:F76)</f>
         <v>6.7178984002328065E-2</v>
       </c>
       <c r="G77" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.24465013291518034</v>
       </c>
       <c r="H77" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.19760479210251267</v>
       </c>
       <c r="I77" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>13.556127892827176</v>
       </c>
       <c r="J77" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>5.4471945531039463E-2</v>
       </c>
       <c r="K77" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>45.883427739525594</v>
       </c>
       <c r="L77" s="3">
         <f>AVERAGE(L74:L76)</f>
         <v>0.95620134688237723</v>
       </c>
-      <c r="M77" s="3">
-        <f t="shared" si="23"/>
-        <v>129.92572820153646</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4402,14 +4304,13 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C79" s="2">
         <v>13</v>
@@ -4441,16 +4342,13 @@
       <c r="L79" s="2">
         <v>0.99523647453719399</v>
       </c>
-      <c r="M79" s="2">
-        <v>137.04847942453699</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C80" s="2">
         <v>31</v>
@@ -4482,16 +4380,13 @@
       <c r="L80" s="2">
         <v>0.95636490300080301</v>
       </c>
-      <c r="M80" s="2">
-        <v>231.824153936388</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C81" s="2">
         <v>2</v>
@@ -4523,16 +4418,13 @@
       <c r="L81" s="2">
         <v>0.93580536065540898</v>
       </c>
-      <c r="M81" s="2">
-        <v>295.38896837258699</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C82" s="2">
         <v>2</v>
@@ -4564,55 +4456,48 @@
       <c r="L82" s="2">
         <v>0.99636269401155597</v>
       </c>
-      <c r="M82" s="2">
-        <v>2.7597198533669798</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A83" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="15"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="12"/>
       <c r="E83" s="3">
-        <f t="shared" ref="E83:M83" si="24">AVERAGE(E79:E82)</f>
+        <f t="shared" ref="E83:L83" si="28">AVERAGE(E79:E82)</f>
         <v>166.75533039671973</v>
       </c>
       <c r="F83" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.22688531944293955</v>
       </c>
       <c r="G83" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.42113819013252174</v>
       </c>
       <c r="H83" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.31130961079008562</v>
       </c>
       <c r="I83" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>8.5014314615852395</v>
       </c>
       <c r="J83" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>4.4097909231379573E-2</v>
       </c>
       <c r="K83" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>125.14353074411848</v>
       </c>
       <c r="L83" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0.97094235805124041</v>
       </c>
-      <c r="M83" s="3">
-        <f t="shared" si="24"/>
-        <v>166.75533039671973</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4625,9 +4510,8 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>7</v>
       </c>
@@ -4664,11 +4548,8 @@
       <c r="L85" s="2">
         <v>0.94976251083704599</v>
       </c>
-      <c r="M85" s="2">
-        <v>309.00510479437798</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>7</v>
       </c>
@@ -4706,16 +4587,13 @@
       <c r="L86" s="2">
         <v>0.96861586179107895</v>
       </c>
-      <c r="M86" s="2">
-        <v>221.093375410124</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B87" s="2" t="str">
-        <f t="shared" ref="B87:B114" si="25">B86</f>
+        <f t="shared" ref="B87:B114" si="29">B86</f>
         <v>I294</v>
       </c>
       <c r="C87" s="2">
@@ -4748,16 +4626,13 @@
       <c r="L87" s="2">
         <v>0.96208526402608896</v>
       </c>
-      <c r="M87" s="2">
-        <v>301.39772683528702</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B88" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>I294</v>
       </c>
       <c r="C88" s="2">
@@ -4766,22 +4641,21 @@
       <c r="D88" s="2">
         <v>3</v>
       </c>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B89" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>I294</v>
       </c>
       <c r="C89" s="2">
@@ -4790,22 +4664,21 @@
       <c r="D89" s="2">
         <v>3</v>
       </c>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="8"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B90" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>I294</v>
       </c>
       <c r="C90" s="2">
@@ -4838,16 +4711,13 @@
       <c r="L90" s="2">
         <v>0.92629688428393397</v>
       </c>
-      <c r="M90" s="2">
-        <v>172.091272952227</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B91" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>I294</v>
       </c>
       <c r="C91" s="2">
@@ -4856,22 +4726,21 @@
       <c r="D91" s="2">
         <v>7</v>
       </c>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B92" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>I294</v>
       </c>
       <c r="C92" s="2">
@@ -4904,16 +4773,13 @@
       <c r="L92" s="2">
         <v>0.70137136047362503</v>
       </c>
-      <c r="M92" s="2">
-        <v>522.74090398092301</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B93" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>I294</v>
       </c>
       <c r="C93" s="2">
@@ -4946,16 +4812,13 @@
       <c r="L93" s="2">
         <v>0.90147640189581801</v>
       </c>
-      <c r="M93" s="2">
-        <v>123.178515067142</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B94" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>I294</v>
       </c>
       <c r="C94" s="2">
@@ -4988,16 +4851,13 @@
       <c r="L94" s="2">
         <v>0.97916685949428595</v>
       </c>
-      <c r="M94" s="2">
-        <v>1224.41933384702</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B95" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>I294</v>
       </c>
       <c r="C95" s="2">
@@ -5030,16 +4890,13 @@
       <c r="L95" s="2">
         <v>0.98850516325103199</v>
       </c>
-      <c r="M95" s="2">
-        <v>1615.0011504485001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B96" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>I294</v>
       </c>
       <c r="C96" s="2">
@@ -5072,16 +4929,13 @@
       <c r="L96" s="2">
         <v>0.99439973534779602</v>
       </c>
-      <c r="M96" s="2">
-        <v>1162.00674303301</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B97" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>I294</v>
       </c>
       <c r="C97" s="2">
@@ -5114,16 +4968,13 @@
       <c r="L97" s="2">
         <v>0.82246091590783899</v>
       </c>
-      <c r="M97" s="2">
-        <v>174.94610736885701</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B98" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>I294</v>
       </c>
       <c r="C98" s="2">
@@ -5156,16 +5007,13 @@
       <c r="L98" s="2">
         <v>0.99237368280392202</v>
       </c>
-      <c r="M98" s="2">
-        <v>32.034907338819401</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B99" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>I294</v>
       </c>
       <c r="C99" s="2">
@@ -5198,16 +5046,13 @@
       <c r="L99" s="2">
         <v>0.94414995505124699</v>
       </c>
-      <c r="M99" s="2">
-        <v>714.41942436888803</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B100" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>I294</v>
       </c>
       <c r="C100" s="2">
@@ -5240,16 +5085,13 @@
       <c r="L100" s="2">
         <v>0.97696469009585196</v>
       </c>
-      <c r="M100" s="2">
-        <v>112.723392769428</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B101" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>I294</v>
       </c>
       <c r="C101" s="2">
@@ -5282,16 +5124,13 @@
       <c r="L101" s="2">
         <v>0.94740195644023095</v>
       </c>
-      <c r="M101" s="2">
-        <v>477.61614043886601</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B102" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>I294</v>
       </c>
       <c r="C102" s="2">
@@ -5324,16 +5163,13 @@
       <c r="L102" s="2">
         <v>0.91598916579146705</v>
       </c>
-      <c r="M102" s="2">
-        <v>740.61222215652799</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B103" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>I294</v>
       </c>
       <c r="C103" s="2">
@@ -5366,16 +5202,13 @@
       <c r="L103" s="2">
         <v>0.92814717844154304</v>
       </c>
-      <c r="M103" s="2">
-        <v>807.68907378076301</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B104" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>I294</v>
       </c>
       <c r="C104" s="2">
@@ -5408,16 +5241,13 @@
       <c r="L104" s="2">
         <v>0.89990008369098895</v>
       </c>
-      <c r="M104" s="2">
-        <v>824.34380828113399</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B105" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>I294</v>
       </c>
       <c r="C105" s="2">
@@ -5450,16 +5280,13 @@
       <c r="L105" s="2">
         <v>0.86917842385829802</v>
       </c>
-      <c r="M105" s="2">
-        <v>619.52180203337298</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B106" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>I294</v>
       </c>
       <c r="C106" s="2">
@@ -5492,16 +5319,13 @@
       <c r="L106" s="2">
         <v>0.67516670212238705</v>
       </c>
-      <c r="M106" s="2">
-        <v>713.02560949506403</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B107" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>I294</v>
       </c>
       <c r="C107" s="2">
@@ -5534,16 +5358,13 @@
       <c r="L107" s="2">
         <v>0.90354674155408898</v>
       </c>
-      <c r="M107" s="2">
-        <v>232.905435568831</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B108" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>I294</v>
       </c>
       <c r="C108" s="2">
@@ -5576,16 +5397,13 @@
       <c r="L108" s="2">
         <v>0.946239866373765</v>
       </c>
-      <c r="M108" s="2">
-        <v>375.21995835875498</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B109" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>I294</v>
       </c>
       <c r="C109" s="2">
@@ -5594,22 +5412,21 @@
       <c r="D109" s="2">
         <v>20</v>
       </c>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8"/>
-      <c r="J109" s="8"/>
-      <c r="K109" s="8"/>
-      <c r="L109" s="8"/>
-      <c r="M109" s="8"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B110" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>I294</v>
       </c>
       <c r="C110" s="2">
@@ -5642,16 +5459,13 @@
       <c r="L110" s="2">
         <v>0.78658576047335205</v>
       </c>
-      <c r="M110" s="2">
-        <v>392.77461892677599</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B111" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>I294</v>
       </c>
       <c r="C111" s="2">
@@ -5684,16 +5498,13 @@
       <c r="L111" s="2">
         <v>0.87117850986411005</v>
       </c>
-      <c r="M111" s="2">
-        <v>553.36427446086805</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B112" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>I294</v>
       </c>
       <c r="C112" s="2">
@@ -5726,16 +5537,13 @@
       <c r="L112" s="2">
         <v>0.97760851270723204</v>
       </c>
-      <c r="M112" s="2">
-        <v>383.12965727326798</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B113" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>I294</v>
       </c>
       <c r="C113" s="2">
@@ -5768,16 +5576,13 @@
       <c r="L113" s="2">
         <v>0.90295707049390395</v>
       </c>
-      <c r="M113" s="2">
-        <v>209.34326328035999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B114" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>I294</v>
       </c>
       <c r="C114" s="2">
@@ -5810,55 +5615,48 @@
       <c r="L114" s="2">
         <v>0.94960276075115702</v>
       </c>
-      <c r="M114" s="2">
-        <v>676.930027689197</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A115" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="15"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A115" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="12"/>
       <c r="E115" s="3">
-        <f t="shared" ref="E115:L115" si="26">AVERAGE(E85:E114)</f>
+        <f t="shared" ref="E115:L115" si="30">AVERAGE(E85:E114)</f>
         <v>526.59745576763021</v>
       </c>
       <c r="F115" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.49329529858924948</v>
       </c>
       <c r="G115" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.61902373579138181</v>
       </c>
       <c r="H115" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.4282065199687406</v>
       </c>
       <c r="I115" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>3.8453162117462232</v>
       </c>
       <c r="J115" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>6.3405107977592703E-2</v>
       </c>
       <c r="K115" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>578.14155868683315</v>
       </c>
       <c r="L115" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.91081276991623406</v>
       </c>
-      <c r="M115" s="3">
-        <f>AVERAGE(M85:M114)</f>
-        <v>526.59745576763021</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -5871,9 +5669,8 @@
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>7</v>
       </c>
@@ -5910,11 +5707,8 @@
       <c r="L117" s="2">
         <v>0.96803364639803802</v>
       </c>
-      <c r="M117" s="2">
-        <v>255.66569827541201</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>7</v>
       </c>
@@ -5951,11 +5745,8 @@
       <c r="L118" s="2">
         <v>0.95235175702757002</v>
       </c>
-      <c r="M118" s="2">
-        <v>160.65196387060001</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>7</v>
       </c>
@@ -5992,55 +5783,48 @@
       <c r="L119" s="2">
         <v>0.89794825498448205</v>
       </c>
-      <c r="M119" s="2">
-        <v>70.802653361398598</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A120" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="15"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A120" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="12"/>
       <c r="E120" s="3">
         <f>AVERAGE(E117:E119)</f>
         <v>162.37343850247021</v>
       </c>
       <c r="F120" s="3">
-        <f t="shared" ref="F120:M120" si="27">AVERAGE(F117:F119)</f>
+        <f t="shared" ref="F120:L120" si="31">AVERAGE(F117:F119)</f>
         <v>9.4464018191625865E-2</v>
       </c>
       <c r="G120" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.30519905612998133</v>
       </c>
       <c r="H120" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.245920460491314</v>
       </c>
       <c r="I120" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>15.660651965374408</v>
       </c>
       <c r="J120" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>6.7875580268721994E-2</v>
       </c>
       <c r="K120" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>63.904760833021157</v>
       </c>
       <c r="L120" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0.93944455280336336</v>
       </c>
-      <c r="M120" s="3">
-        <f t="shared" si="27"/>
-        <v>162.37343850247021</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6053,14 +5837,13 @@
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C122" s="2">
         <v>13</v>
@@ -6092,16 +5875,13 @@
       <c r="L122" s="2">
         <v>0.99553449200511801</v>
       </c>
-      <c r="M122" s="2">
-        <v>135.59949194331699</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C123" s="2">
         <v>31</v>
@@ -6133,16 +5913,13 @@
       <c r="L123" s="2">
         <v>0.92165353600786404</v>
       </c>
-      <c r="M123" s="2">
-        <v>310.984941567889</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C124" s="2">
         <v>2</v>
@@ -6174,16 +5951,13 @@
       <c r="L124" s="2">
         <v>0.95064142652301498</v>
       </c>
-      <c r="M124" s="2">
-        <v>253.07635553287199</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C125" s="2">
         <v>2</v>
@@ -6215,55 +5989,48 @@
       <c r="L125" s="2">
         <v>0.99536557369760403</v>
       </c>
-      <c r="M125" s="2">
-        <v>3.21780296248168</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A126" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="15"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="12"/>
       <c r="E126" s="3">
-        <f t="shared" ref="E126:M126" si="28">AVERAGE(E122:E125)</f>
+        <f t="shared" ref="E126:L126" si="32">AVERAGE(E122:E125)</f>
         <v>175.71964800163991</v>
       </c>
       <c r="F126" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.2899969681312905</v>
       </c>
       <c r="G126" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.45823155860340548</v>
       </c>
       <c r="H126" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.33634102514249625</v>
       </c>
       <c r="I126" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>11.781380310074988</v>
       </c>
       <c r="J126" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>4.7696251534927223E-2</v>
       </c>
       <c r="K126" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>153.4919600380116</v>
       </c>
       <c r="L126" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.96579875705840024</v>
       </c>
-      <c r="M126" s="3">
-        <f t="shared" si="28"/>
-        <v>175.71964800163991</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6276,1206 +6043,1155 @@
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
-      <c r="M127" s="2"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="2">
         <v>8</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="2">
         <v>1</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="2">
         <v>249.31312134727099</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="2">
         <v>6.11600137837865E-2</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="2">
         <v>0.247305506982328</v>
       </c>
-      <c r="H128">
+      <c r="H128" s="2">
         <v>0.19207482384227301</v>
       </c>
-      <c r="I128">
+      <c r="I128" s="2">
         <v>0.72869849886918103</v>
       </c>
-      <c r="J128">
+      <c r="J128" s="2">
         <v>4.7834720886330402E-2</v>
       </c>
-      <c r="K128">
+      <c r="K128" s="2">
         <v>79.385697891354795</v>
       </c>
-      <c r="L128">
+      <c r="L128" s="2">
         <v>0.96602501639615401</v>
       </c>
-      <c r="M128">
-        <v>249.31312134727099</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B129" s="2" t="str">
         <f>B128</f>
         <v>I294</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="2">
         <v>9</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="2">
         <v>1</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="2">
         <v>186.645690306901</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="2">
         <v>3.37444915141435E-2</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="2">
         <v>0.18369673789739299</v>
       </c>
-      <c r="H129">
+      <c r="H129" s="2">
         <v>0.143794830744916</v>
       </c>
-      <c r="I129">
+      <c r="I129" s="2">
         <v>0.54761868038818096</v>
       </c>
-      <c r="J129">
+      <c r="J129" s="2">
         <v>3.6303703141777201E-2</v>
       </c>
-      <c r="K129">
+      <c r="K129" s="2">
         <v>43.800349985358302</v>
       </c>
-      <c r="L129">
+      <c r="L129" s="2">
         <v>0.97909966437350604</v>
       </c>
-      <c r="M129">
-        <v>186.645690306901</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B130" s="2" t="str">
+        <f t="shared" ref="B130:B157" si="33">B129</f>
+        <v>I294</v>
+      </c>
+      <c r="C130" s="2">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2">
+        <v>1</v>
+      </c>
+      <c r="E130" s="2">
+        <v>230.667637374675</v>
+      </c>
+      <c r="F130" s="2">
+        <v>4.4906745439868001E-2</v>
+      </c>
+      <c r="G130" s="2">
+        <v>0.211912117255875</v>
+      </c>
+      <c r="H130" s="2">
+        <v>0.163942883706236</v>
+      </c>
+      <c r="I130" s="2">
+        <v>0.62437755339074297</v>
+      </c>
+      <c r="J130" s="2">
+        <v>3.7977081945497398E-2</v>
+      </c>
+      <c r="K130" s="2">
+        <v>63.183790833894399</v>
+      </c>
+      <c r="L130" s="2">
+        <v>0.97845421095223795</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B131" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>I294</v>
+      </c>
+      <c r="C131" s="2">
+        <v>33</v>
+      </c>
+      <c r="D131" s="2">
+        <v>3</v>
+      </c>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B132" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>I294</v>
+      </c>
+      <c r="C132" s="2">
+        <v>40</v>
+      </c>
+      <c r="D132" s="2">
+        <v>3</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B133" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>I294</v>
+      </c>
+      <c r="C133" s="2">
+        <v>41</v>
+      </c>
+      <c r="D133" s="2">
+        <v>3</v>
+      </c>
+      <c r="E133" s="2">
+        <v>162.98939360319301</v>
+      </c>
+      <c r="F133" s="2">
+        <v>0.20424183087091999</v>
+      </c>
+      <c r="G133" s="2">
+        <v>0.451931223607</v>
+      </c>
+      <c r="H133" s="2">
+        <v>0.36626830023189599</v>
+      </c>
+      <c r="I133" s="2">
+        <v>1.3447896785762701</v>
+      </c>
+      <c r="J133" s="2">
+        <v>6.8578334386494702E-2</v>
+      </c>
+      <c r="K133" s="2">
+        <v>90.887614737559502</v>
+      </c>
+      <c r="L133" s="2">
+        <v>0.93931096549122395</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B134" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>I294</v>
+      </c>
+      <c r="C134" s="2">
+        <v>3</v>
+      </c>
+      <c r="D134" s="2">
+        <v>7</v>
+      </c>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B135" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>I294</v>
+      </c>
+      <c r="C135" s="2">
+        <v>11</v>
+      </c>
+      <c r="D135" s="2">
+        <v>7</v>
+      </c>
+      <c r="E135" s="2">
+        <v>415.09767847114102</v>
+      </c>
+      <c r="F135" s="2">
+        <v>0.33135380805578601</v>
+      </c>
+      <c r="G135" s="2">
+        <v>0.57563339727276597</v>
+      </c>
+      <c r="H135" s="2">
+        <v>0.39570798710309002</v>
+      </c>
+      <c r="I135" s="2">
+        <v>1.6344426679189501</v>
+      </c>
+      <c r="J135" s="2">
+        <v>5.3898258171607198E-2</v>
+      </c>
+      <c r="K135" s="2">
+        <v>347.59014465051899</v>
+      </c>
+      <c r="L135" s="2">
+        <v>0.87426286608641401</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B136" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>I294</v>
+      </c>
+      <c r="C136" s="2">
+        <v>17</v>
+      </c>
+      <c r="D136" s="2">
+        <v>7</v>
+      </c>
+      <c r="E136" s="2">
+        <v>117.735537169278</v>
+      </c>
+      <c r="F136" s="2">
+        <v>0.104840497942807</v>
+      </c>
+      <c r="G136" s="2">
+        <v>0.32379082436475398</v>
+      </c>
+      <c r="H136" s="2">
+        <v>0.26047685214442201</v>
+      </c>
+      <c r="I136" s="2">
+        <v>1.0375665088330801</v>
+      </c>
+      <c r="J136" s="2">
+        <v>9.2511664104215505E-2</v>
+      </c>
+      <c r="K136" s="2">
+        <v>47.387905070148797</v>
+      </c>
+      <c r="L136" s="2">
+        <v>0.91257238992539502</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B137" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>I294</v>
+      </c>
+      <c r="C137" s="2">
+        <v>51</v>
+      </c>
+      <c r="D137" s="2">
+        <v>8</v>
+      </c>
+      <c r="E137" s="2">
+        <v>1195.0741615438001</v>
+      </c>
+      <c r="F137" s="2">
+        <v>0.35769646420963702</v>
+      </c>
+      <c r="G137" s="2">
+        <v>0.59807730621520605</v>
+      </c>
+      <c r="H137" s="2">
+        <v>0.488982881155403</v>
+      </c>
+      <c r="I137" s="2">
+        <v>32.693511362885303</v>
+      </c>
+      <c r="J137" s="2">
+        <v>3.5326479989084801E-2</v>
+      </c>
+      <c r="K137" s="2">
+        <v>874.21015852835296</v>
+      </c>
+      <c r="L137" s="2">
+        <v>0.98193761020172898</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B138" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>I294</v>
+      </c>
+      <c r="C138" s="2">
+        <v>62</v>
+      </c>
+      <c r="D138" s="2">
+        <v>8</v>
+      </c>
+      <c r="E138" s="2">
+        <v>1459.6571659685501</v>
+      </c>
+      <c r="F138" s="2">
+        <v>0.259750251607205</v>
+      </c>
+      <c r="G138" s="2">
+        <v>0.50965699407268505</v>
+      </c>
+      <c r="H138" s="2">
+        <v>0.40056453511760598</v>
+      </c>
+      <c r="I138" s="2">
+        <v>15.8487468367462</v>
+      </c>
+      <c r="J138" s="2">
+        <v>2.3529870455802598E-2</v>
+      </c>
+      <c r="K138" s="2">
+        <v>946.52991685665495</v>
+      </c>
+      <c r="L138" s="2">
+        <v>0.99124395966915202</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B139" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>I294</v>
+      </c>
+      <c r="C139" s="2">
+        <v>65</v>
+      </c>
+      <c r="D139" s="2">
+        <v>8</v>
+      </c>
+      <c r="E139" s="2">
+        <v>1350.0826568458201</v>
+      </c>
+      <c r="F139" s="2">
+        <v>0.22983329293403801</v>
+      </c>
+      <c r="G139" s="2">
+        <v>0.47940931669507397</v>
+      </c>
+      <c r="H139" s="2">
+        <v>0.37049469177986299</v>
+      </c>
+      <c r="I139" s="2">
+        <v>12.467172293858299</v>
+      </c>
+      <c r="J139" s="2">
+        <v>2.3744889385590599E-2</v>
+      </c>
+      <c r="K139" s="2">
+        <v>837.51251945163597</v>
+      </c>
+      <c r="L139" s="2">
+        <v>0.99215121963762898</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B140" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>I294</v>
+      </c>
+      <c r="C140" s="2">
+        <v>24</v>
+      </c>
+      <c r="D140" s="2">
+        <v>9</v>
+      </c>
+      <c r="E140" s="2">
+        <v>156.75535697915399</v>
+      </c>
+      <c r="F140" s="2">
+        <v>0.16666450593351301</v>
+      </c>
+      <c r="G140" s="2">
+        <v>0.408245644108438</v>
+      </c>
+      <c r="H140" s="2">
+        <v>0.31796218454189601</v>
+      </c>
+      <c r="I140" s="2">
+        <v>1.11611549821787</v>
+      </c>
+      <c r="J140" s="2">
+        <v>7.8508777713161296E-2</v>
+      </c>
+      <c r="K140" s="2">
+        <v>82.165601425222306</v>
+      </c>
+      <c r="L140" s="2">
+        <v>0.875546680582998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B141" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>I294</v>
+      </c>
+      <c r="C141" s="2">
+        <v>28</v>
+      </c>
+      <c r="D141" s="2">
+        <v>9</v>
+      </c>
+      <c r="E141" s="2">
+        <v>58.523566145165802</v>
+      </c>
+      <c r="F141" s="2">
+        <v>9.7074060354864405E-2</v>
+      </c>
+      <c r="G141" s="2">
+        <v>0.31156710409615501</v>
+      </c>
+      <c r="H141" s="2">
+        <v>0.24384819227152399</v>
+      </c>
+      <c r="I141" s="2">
+        <v>0.97852245212202205</v>
+      </c>
+      <c r="J141" s="2">
+        <v>5.31684477979786E-2</v>
+      </c>
+      <c r="K141" s="2">
+        <v>23.297774485167398</v>
+      </c>
+      <c r="L141" s="2">
+        <v>0.96805117245915895</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B142" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>I294</v>
+      </c>
+      <c r="C142" s="2">
+        <v>30</v>
+      </c>
+      <c r="D142" s="2">
+        <v>9</v>
+      </c>
+      <c r="E142" s="2">
+        <v>888.989600431437</v>
+      </c>
+      <c r="F142" s="2">
+        <v>0.905963970059385</v>
+      </c>
+      <c r="G142" s="2">
+        <v>0.95182139609245198</v>
+      </c>
+      <c r="H142" s="2">
+        <v>0.76439346554723697</v>
+      </c>
+      <c r="I142" s="2">
+        <v>2.8164375569340301</v>
+      </c>
+      <c r="J142" s="2">
+        <v>8.0390320615916597E-2</v>
+      </c>
+      <c r="K142" s="2">
+        <v>1053.63609717906</v>
+      </c>
+      <c r="L142" s="2">
+        <v>0.922550033586507</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B143" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>I294</v>
+      </c>
+      <c r="C143" s="2">
+        <v>19</v>
+      </c>
+      <c r="D143" s="2">
+        <v>11</v>
+      </c>
+      <c r="E143" s="2">
+        <v>72.493915203142393</v>
+      </c>
+      <c r="F143" s="2">
+        <v>8.3343582641457997E-2</v>
+      </c>
+      <c r="G143" s="2">
+        <v>0.28869288637141299</v>
+      </c>
+      <c r="H143" s="2">
+        <v>0.23309940579788499</v>
+      </c>
+      <c r="I143" s="2">
+        <v>1.40624255990433</v>
+      </c>
+      <c r="J143" s="2">
+        <v>2.49087908862307E-2</v>
+      </c>
+      <c r="K143" s="2">
+        <v>25.919854201493401</v>
+      </c>
+      <c r="L143" s="2">
+        <v>0.99206015498602895</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B144" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>I294</v>
+      </c>
+      <c r="C144" s="2">
+        <v>22</v>
+      </c>
+      <c r="D144" s="2">
+        <v>11</v>
+      </c>
+      <c r="E144" s="2">
+        <v>467.75346471281398</v>
+      </c>
+      <c r="F144" s="2">
+        <v>0.40724965548803399</v>
+      </c>
+      <c r="G144" s="2">
+        <v>0.63816115166001297</v>
+      </c>
+      <c r="H144" s="2">
+        <v>0.44718304465852199</v>
+      </c>
+      <c r="I144" s="2">
+        <v>2.2974909367900498</v>
+      </c>
+      <c r="J144" s="2">
+        <v>3.86062402698132E-2</v>
+      </c>
+      <c r="K144" s="2">
+        <v>425.98313964048299</v>
+      </c>
+      <c r="L144" s="2">
+        <v>0.95000443063051898</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B145" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>I294</v>
+      </c>
+      <c r="C145" s="2">
+        <v>35</v>
+      </c>
+      <c r="D145" s="2">
+        <v>11</v>
+      </c>
+      <c r="E145" s="2">
+        <v>601.27921680142799</v>
+      </c>
+      <c r="F145" s="2">
+        <v>1.34678511565243</v>
+      </c>
+      <c r="G145" s="2">
+        <v>1.1605107132863599</v>
+      </c>
+      <c r="H145" s="2">
+        <v>0.67864471422283101</v>
+      </c>
+      <c r="I145" s="2">
+        <v>3.99412810199353</v>
+      </c>
+      <c r="J145" s="2">
+        <v>5.1854812926111202E-2</v>
+      </c>
+      <c r="K145" s="2">
+        <v>1193.2516124680501</v>
+      </c>
+      <c r="L145" s="2">
+        <v>0.93677511230579003</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B146" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>I294</v>
+      </c>
+      <c r="C146" s="2">
+        <v>56</v>
+      </c>
+      <c r="D146" s="2">
+        <v>18</v>
+      </c>
+      <c r="E146" s="2">
+        <v>864.471568255222</v>
+      </c>
+      <c r="F146" s="2">
+        <v>1.6821888440125601</v>
+      </c>
+      <c r="G146" s="2">
+        <v>1.29699222974255</v>
+      </c>
+      <c r="H146" s="2">
+        <v>0.73697490899848395</v>
+      </c>
+      <c r="I146" s="2">
+        <v>3.2920782703524001</v>
+      </c>
+      <c r="J146" s="2">
+        <v>5.67363180114853E-2</v>
+      </c>
+      <c r="K146" s="2">
+        <v>1973.20751402673</v>
+      </c>
+      <c r="L146" s="2">
+        <v>0.92820410328821301</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B147" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>I294</v>
+      </c>
+      <c r="C147" s="2">
+        <v>59</v>
+      </c>
+      <c r="D147" s="2">
+        <v>18</v>
+      </c>
+      <c r="E147" s="2">
+        <v>679.97923461051698</v>
+      </c>
+      <c r="F147" s="2">
+        <v>1.41786625272762</v>
+      </c>
+      <c r="G147" s="2">
+        <v>1.19074189173289</v>
+      </c>
+      <c r="H147" s="2">
+        <v>0.58821733097795603</v>
+      </c>
+      <c r="I147" s="2">
+        <v>3.26036621775427</v>
+      </c>
+      <c r="J147" s="2">
+        <v>5.6353142060241002E-2</v>
+      </c>
+      <c r="K147" s="2">
+        <v>1639.0533881531301</v>
+      </c>
+      <c r="L147" s="2">
+        <v>0.92987024594548195</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B148" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>I294</v>
+      </c>
+      <c r="C148" s="2">
+        <v>64</v>
+      </c>
+      <c r="D148" s="2">
+        <v>18</v>
+      </c>
+      <c r="E148" s="2">
+        <v>516.27880213479602</v>
+      </c>
+      <c r="F148" s="2">
+        <v>0.503721073783861</v>
+      </c>
+      <c r="G148" s="2">
+        <v>0.70973310038623705</v>
+      </c>
+      <c r="H148" s="2">
+        <v>0.51015691910552996</v>
+      </c>
+      <c r="I148" s="2">
+        <v>2.1103294943929201</v>
+      </c>
+      <c r="J148" s="2">
+        <v>6.8440993287004495E-2</v>
+      </c>
+      <c r="K148" s="2">
+        <v>509.765726669267</v>
+      </c>
+      <c r="L148" s="2">
+        <v>0.91267962170788797</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B149" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>I294</v>
+      </c>
+      <c r="C149" s="2">
+        <v>18</v>
+      </c>
+      <c r="D149" s="2">
+        <v>19</v>
+      </c>
+      <c r="E149" s="2">
+        <v>742.10958067148795</v>
+      </c>
+      <c r="F149" s="2">
+        <v>1.0650570394549701</v>
+      </c>
+      <c r="G149" s="2">
+        <v>1.0320160073637299</v>
+      </c>
+      <c r="H149" s="2">
+        <v>0.76191948734239001</v>
+      </c>
+      <c r="I149" s="2">
+        <v>3.0623270319160998</v>
+      </c>
+      <c r="J149" s="2">
+        <v>0.13282059296830501</v>
+      </c>
+      <c r="K149" s="2">
+        <v>1037.36555642914</v>
+      </c>
+      <c r="L149" s="2">
+        <v>0.63497098706910604</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B150" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>I294</v>
+      </c>
+      <c r="C150" s="2">
+        <v>19</v>
+      </c>
+      <c r="D150" s="2">
+        <v>19</v>
+      </c>
+      <c r="E150" s="2">
+        <v>188.80915958572001</v>
+      </c>
+      <c r="F150" s="2">
+        <v>0.15690825535606301</v>
+      </c>
+      <c r="G150" s="2">
+        <v>0.39611646690848801</v>
+      </c>
+      <c r="H150" s="2">
+        <v>0.29922212295676798</v>
+      </c>
+      <c r="I150" s="2">
+        <v>1.2071708104776699</v>
+      </c>
+      <c r="J150" s="2">
+        <v>6.2184688682651298E-2</v>
+      </c>
+      <c r="K150" s="2">
+        <v>99.009109129676304</v>
+      </c>
+      <c r="L150" s="2">
+        <v>0.93473622446668103</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B151" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>I294</v>
+      </c>
+      <c r="C151" s="2">
         <v>25</v>
       </c>
-      <c r="B130" s="2" t="str">
-        <f t="shared" ref="B130:B157" si="29">B129</f>
-        <v>I294</v>
-      </c>
-      <c r="C130">
-        <v>12</v>
-      </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
-      <c r="E130">
-        <v>230.667637374675</v>
-      </c>
-      <c r="F130">
-        <v>4.4906745439868001E-2</v>
-      </c>
-      <c r="G130">
-        <v>0.211912117255875</v>
-      </c>
-      <c r="H130">
-        <v>0.163942883706236</v>
-      </c>
-      <c r="I130">
-        <v>0.62437755339074297</v>
-      </c>
-      <c r="J130">
-        <v>3.7977081945497398E-2</v>
-      </c>
-      <c r="K130">
-        <v>63.183790833894399</v>
-      </c>
-      <c r="L130">
-        <v>0.97845421095223795</v>
-      </c>
-      <c r="M130">
-        <v>230.667637374675</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A131" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B131" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>I294</v>
-      </c>
-      <c r="C131">
-        <v>33</v>
-      </c>
-      <c r="D131">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B132" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>I294</v>
-      </c>
-      <c r="C132">
-        <v>40</v>
-      </c>
-      <c r="D132">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A133" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B133" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>I294</v>
-      </c>
-      <c r="C133">
-        <v>41</v>
-      </c>
-      <c r="D133">
-        <v>3</v>
-      </c>
-      <c r="E133">
-        <v>162.98939360319301</v>
-      </c>
-      <c r="F133">
-        <v>0.20424183087091999</v>
-      </c>
-      <c r="G133">
-        <v>0.451931223607</v>
-      </c>
-      <c r="H133">
-        <v>0.36626830023189599</v>
-      </c>
-      <c r="I133">
-        <v>1.3447896785762701</v>
-      </c>
-      <c r="J133">
-        <v>6.8578334386494702E-2</v>
-      </c>
-      <c r="K133">
-        <v>90.887614737559502</v>
-      </c>
-      <c r="L133">
-        <v>0.93931096549122395</v>
-      </c>
-      <c r="M133">
-        <v>162.98939360319301</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A134" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B134" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>I294</v>
-      </c>
-      <c r="C134">
-        <v>3</v>
-      </c>
-      <c r="D134">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A135" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B135" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>I294</v>
-      </c>
-      <c r="C135">
+      <c r="D151" s="2">
+        <v>19</v>
+      </c>
+      <c r="E151" s="2">
+        <v>296.12064834286798</v>
+      </c>
+      <c r="F151" s="2">
+        <v>8.6112347854478494E-2</v>
+      </c>
+      <c r="G151" s="2">
+        <v>0.293449054955845</v>
+      </c>
+      <c r="H151" s="2">
+        <v>0.231706297607878</v>
+      </c>
+      <c r="I151" s="2">
+        <v>0.92350805550728399</v>
+      </c>
+      <c r="J151" s="2">
+        <v>4.5425550302762401E-2</v>
+      </c>
+      <c r="K151" s="2">
+        <v>110.05158055802301</v>
+      </c>
+      <c r="L151" s="2">
+        <v>0.96382959089223197</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B152" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>I294</v>
+      </c>
+      <c r="C152" s="2">
+        <v>48</v>
+      </c>
+      <c r="D152" s="2">
+        <v>20</v>
+      </c>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
+      <c r="L152" s="2"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B153" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>I294</v>
+      </c>
+      <c r="C153" s="2">
+        <v>50</v>
+      </c>
+      <c r="D153" s="2">
+        <v>20</v>
+      </c>
+      <c r="E153" s="2">
+        <v>282.60798903896801</v>
+      </c>
+      <c r="F153" s="2">
+        <v>9.9570672417968895E-2</v>
+      </c>
+      <c r="G153" s="2">
+        <v>0.31554820934045702</v>
+      </c>
+      <c r="H153" s="2">
+        <v>0.206132741822734</v>
+      </c>
+      <c r="I153" s="2">
+        <v>0.806572630403945</v>
+      </c>
+      <c r="J153" s="2">
+        <v>5.5165770863716199E-2</v>
+      </c>
+      <c r="K153" s="2">
+        <v>136.51139188503501</v>
+      </c>
+      <c r="L153" s="2">
+        <v>0.88701637370256903</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B154" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>I294</v>
+      </c>
+      <c r="C154" s="2">
+        <v>54</v>
+      </c>
+      <c r="D154" s="2">
+        <v>20</v>
+      </c>
+      <c r="E154" s="2">
+        <v>434.15866781392799</v>
+      </c>
+      <c r="F154" s="2">
+        <v>0.178658711420703</v>
+      </c>
+      <c r="G154" s="2">
+        <v>0.42268038920761802</v>
+      </c>
+      <c r="H154" s="2">
+        <v>0.31301994795524701</v>
+      </c>
+      <c r="I154" s="2">
+        <v>1.2566783761207301</v>
+      </c>
+      <c r="J154" s="2">
+        <v>6.6774153113367804E-2</v>
+      </c>
+      <c r="K154" s="2">
+        <v>247.79963274051499</v>
+      </c>
+      <c r="L154" s="2">
+        <v>0.90573377422664503</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B155" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>I294</v>
+      </c>
+      <c r="C155" s="2">
         <v>11</v>
       </c>
-      <c r="D135">
-        <v>7</v>
-      </c>
-      <c r="E135">
-        <v>415.09767847114102</v>
-      </c>
-      <c r="F135">
-        <v>0.33135380805578601</v>
-      </c>
-      <c r="G135">
-        <v>0.57563339727276597</v>
-      </c>
-      <c r="H135">
-        <v>0.39570798710309002</v>
-      </c>
-      <c r="I135">
-        <v>1.6344426679189501</v>
-      </c>
-      <c r="J135">
-        <v>5.3898258171607198E-2</v>
-      </c>
-      <c r="K135">
-        <v>347.59014465051899</v>
-      </c>
-      <c r="L135">
-        <v>0.87426286608641401</v>
-      </c>
-      <c r="M135">
-        <v>415.09767847114102</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A136" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B136" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>I294</v>
-      </c>
-      <c r="C136">
+      <c r="D155" s="2">
+        <v>21</v>
+      </c>
+      <c r="E155" s="2">
+        <v>378.50880476250802</v>
+      </c>
+      <c r="F155" s="2">
+        <v>0.15652876329822099</v>
+      </c>
+      <c r="G155" s="2">
+        <v>0.39563716116945002</v>
+      </c>
+      <c r="H155" s="2">
+        <v>0.28588278305325299</v>
+      </c>
+      <c r="I155" s="2">
+        <v>1.2672280854626901</v>
+      </c>
+      <c r="J155" s="2">
+        <v>4.1646016965205299E-2</v>
+      </c>
+      <c r="K155" s="2">
+        <v>207.24408260684501</v>
+      </c>
+      <c r="L155" s="2">
+        <v>0.98011020264939996</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B156" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>I294</v>
+      </c>
+      <c r="C156" s="2">
+        <v>13</v>
+      </c>
+      <c r="D156" s="2">
+        <v>21</v>
+      </c>
+      <c r="E156" s="2">
+        <v>243.588762928764</v>
+      </c>
+      <c r="F156" s="2">
+        <v>0.45572559105905802</v>
+      </c>
+      <c r="G156" s="2">
+        <v>0.67507450778344302</v>
+      </c>
+      <c r="H156" s="2">
+        <v>0.51390034373156901</v>
+      </c>
+      <c r="I156" s="2">
+        <v>2.4983776263035402</v>
+      </c>
+      <c r="J156" s="2">
+        <v>0.114419408098888</v>
+      </c>
+      <c r="K156" s="2">
+        <v>216.01393016199299</v>
+      </c>
+      <c r="L156" s="2">
+        <v>0.862648462484499</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B157" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>I294</v>
+      </c>
+      <c r="C157" s="2">
         <v>17</v>
       </c>
-      <c r="D136">
-        <v>7</v>
-      </c>
-      <c r="E136">
-        <v>117.735537169278</v>
-      </c>
-      <c r="F136">
-        <v>0.104840497942807</v>
-      </c>
-      <c r="G136">
-        <v>0.32379082436475398</v>
-      </c>
-      <c r="H136">
-        <v>0.26047685214442201</v>
-      </c>
-      <c r="I136">
-        <v>1.0375665088330801</v>
-      </c>
-      <c r="J136">
-        <v>9.2511664104215505E-2</v>
-      </c>
-      <c r="K136">
-        <v>47.387905070148797</v>
-      </c>
-      <c r="L136">
-        <v>0.91257238992539502</v>
-      </c>
-      <c r="M136">
-        <v>117.735537169278</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A137" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B137" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>I294</v>
-      </c>
-      <c r="C137">
-        <v>51</v>
-      </c>
-      <c r="D137">
-        <v>8</v>
-      </c>
-      <c r="E137">
-        <v>1195.0741615438001</v>
-      </c>
-      <c r="F137">
-        <v>0.35769646420963702</v>
-      </c>
-      <c r="G137">
-        <v>0.59807730621520605</v>
-      </c>
-      <c r="H137">
-        <v>0.488982881155403</v>
-      </c>
-      <c r="I137">
-        <v>32.693511362885303</v>
-      </c>
-      <c r="J137">
-        <v>3.5326479989084801E-2</v>
-      </c>
-      <c r="K137">
-        <v>874.21015852835296</v>
-      </c>
-      <c r="L137">
-        <v>0.98193761020172898</v>
-      </c>
-      <c r="M137">
-        <v>1195.0741615438001</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A138" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B138" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>I294</v>
-      </c>
-      <c r="C138">
-        <v>62</v>
-      </c>
-      <c r="D138">
-        <v>8</v>
-      </c>
-      <c r="E138">
-        <v>1459.6571659685501</v>
-      </c>
-      <c r="F138">
-        <v>0.259750251607205</v>
-      </c>
-      <c r="G138">
-        <v>0.50965699407268505</v>
-      </c>
-      <c r="H138">
-        <v>0.40056453511760598</v>
-      </c>
-      <c r="I138">
-        <v>15.8487468367462</v>
-      </c>
-      <c r="J138">
-        <v>2.3529870455802598E-2</v>
-      </c>
-      <c r="K138">
-        <v>946.52991685665495</v>
-      </c>
-      <c r="L138">
-        <v>0.99124395966915202</v>
-      </c>
-      <c r="M138">
-        <v>1459.6571659685501</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A139" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B139" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>I294</v>
-      </c>
-      <c r="C139">
-        <v>65</v>
-      </c>
-      <c r="D139">
-        <v>8</v>
-      </c>
-      <c r="E139">
-        <v>1350.0826568458201</v>
-      </c>
-      <c r="F139">
-        <v>0.22983329293403801</v>
-      </c>
-      <c r="G139">
-        <v>0.47940931669507397</v>
-      </c>
-      <c r="H139">
-        <v>0.37049469177986299</v>
-      </c>
-      <c r="I139">
-        <v>12.467172293858299</v>
-      </c>
-      <c r="J139">
-        <v>2.3744889385590599E-2</v>
-      </c>
-      <c r="K139">
-        <v>837.51251945163597</v>
-      </c>
-      <c r="L139">
-        <v>0.99215121963762898</v>
-      </c>
-      <c r="M139">
-        <v>1350.0826568458201</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A140" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B140" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>I294</v>
-      </c>
-      <c r="C140">
+      <c r="D157" s="2">
+        <v>21</v>
+      </c>
+      <c r="E157" s="2">
+        <v>641.90459899825896</v>
+      </c>
+      <c r="F157" s="2">
+        <v>0.41198005512389102</v>
+      </c>
+      <c r="G157" s="2">
+        <v>0.64185672476331601</v>
+      </c>
+      <c r="H157" s="2">
+        <v>0.48118785532103298</v>
+      </c>
+      <c r="I157" s="2">
+        <v>2.1097840333058602</v>
+      </c>
+      <c r="J157" s="2">
+        <v>6.1955282313061397E-2</v>
+      </c>
+      <c r="K157" s="2">
+        <v>549.58139353527099</v>
+      </c>
+      <c r="L157" s="2">
+        <v>0.95493533089784199</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A158" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B158" s="11"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="3">
+        <f t="shared" ref="E158:L158" si="34">AVERAGE(E128:E157)</f>
+        <v>495.44599923256959</v>
+      </c>
+      <c r="F158" s="3">
+        <f t="shared" si="34"/>
+        <v>0.41726638049989495</v>
+      </c>
+      <c r="G158" s="3">
+        <f t="shared" si="34"/>
+        <v>0.5657791562819976</v>
+      </c>
+      <c r="H158" s="3">
+        <f t="shared" si="34"/>
+        <v>0.3998369050668632</v>
+      </c>
+      <c r="I158" s="3">
+        <f t="shared" si="34"/>
+        <v>3.8973185315163628</v>
+      </c>
+      <c r="J158" s="3">
+        <f t="shared" si="34"/>
+        <v>5.8040934974703848E-2</v>
+      </c>
+      <c r="K158" s="3">
+        <f t="shared" si="34"/>
+        <v>494.62867243463768</v>
+      </c>
+      <c r="L158" s="3">
+        <f t="shared" si="34"/>
+        <v>0.92903001556211551</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D140">
-        <v>9</v>
-      </c>
-      <c r="E140">
-        <v>156.75535697915399</v>
-      </c>
-      <c r="F140">
-        <v>0.16666450593351301</v>
-      </c>
-      <c r="G140">
-        <v>0.408245644108438</v>
-      </c>
-      <c r="H140">
-        <v>0.31796218454189601</v>
-      </c>
-      <c r="I140">
-        <v>1.11611549821787</v>
-      </c>
-      <c r="J140">
-        <v>7.8508777713161296E-2</v>
-      </c>
-      <c r="K140">
-        <v>82.165601425222306</v>
-      </c>
-      <c r="L140">
-        <v>0.875546680582998</v>
-      </c>
-      <c r="M140">
-        <v>156.75535697915399</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B141" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>I294</v>
-      </c>
-      <c r="C141">
-        <v>28</v>
-      </c>
-      <c r="D141">
-        <v>9</v>
-      </c>
-      <c r="E141">
-        <v>58.523566145165802</v>
-      </c>
-      <c r="F141">
-        <v>9.7074060354864405E-2</v>
-      </c>
-      <c r="G141">
-        <v>0.31156710409615501</v>
-      </c>
-      <c r="H141">
-        <v>0.24384819227152399</v>
-      </c>
-      <c r="I141">
-        <v>0.97852245212202205</v>
-      </c>
-      <c r="J141">
-        <v>5.31684477979786E-2</v>
-      </c>
-      <c r="K141">
-        <v>23.297774485167398</v>
-      </c>
-      <c r="L141">
-        <v>0.96805117245915895</v>
-      </c>
-      <c r="M141">
-        <v>58.523566145165802</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A142" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B142" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>I294</v>
-      </c>
-      <c r="C142">
-        <v>30</v>
-      </c>
-      <c r="D142">
-        <v>9</v>
-      </c>
-      <c r="E142">
-        <v>888.989600431437</v>
-      </c>
-      <c r="F142">
-        <v>0.905963970059385</v>
-      </c>
-      <c r="G142">
-        <v>0.95182139609245198</v>
-      </c>
-      <c r="H142">
-        <v>0.76439346554723697</v>
-      </c>
-      <c r="I142">
-        <v>2.8164375569340301</v>
-      </c>
-      <c r="J142">
-        <v>8.0390320615916597E-2</v>
-      </c>
-      <c r="K142">
-        <v>1053.63609717906</v>
-      </c>
-      <c r="L142">
-        <v>0.922550033586507</v>
-      </c>
-      <c r="M142">
-        <v>888.989600431437</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A143" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B143" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>I294</v>
-      </c>
-      <c r="C143">
-        <v>19</v>
-      </c>
-      <c r="D143">
-        <v>11</v>
-      </c>
-      <c r="E143">
-        <v>72.493915203142393</v>
-      </c>
-      <c r="F143">
-        <v>8.3343582641457997E-2</v>
-      </c>
-      <c r="G143">
-        <v>0.28869288637141299</v>
-      </c>
-      <c r="H143">
-        <v>0.23309940579788499</v>
-      </c>
-      <c r="I143">
-        <v>1.40624255990433</v>
-      </c>
-      <c r="J143">
-        <v>2.49087908862307E-2</v>
-      </c>
-      <c r="K143">
-        <v>25.919854201493401</v>
-      </c>
-      <c r="L143">
-        <v>0.99206015498602895</v>
-      </c>
-      <c r="M143">
-        <v>72.493915203142393</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A144" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B144" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>I294</v>
-      </c>
-      <c r="C144">
-        <v>22</v>
-      </c>
-      <c r="D144">
-        <v>11</v>
-      </c>
-      <c r="E144">
-        <v>467.75346471281398</v>
-      </c>
-      <c r="F144">
-        <v>0.40724965548803399</v>
-      </c>
-      <c r="G144">
-        <v>0.63816115166001297</v>
-      </c>
-      <c r="H144">
-        <v>0.44718304465852199</v>
-      </c>
-      <c r="I144">
-        <v>2.2974909367900498</v>
-      </c>
-      <c r="J144">
-        <v>3.86062402698132E-2</v>
-      </c>
-      <c r="K144">
-        <v>425.98313964048299</v>
-      </c>
-      <c r="L144">
-        <v>0.95000443063051898</v>
-      </c>
-      <c r="M144">
-        <v>467.75346471281398</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A145" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B145" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>I294</v>
-      </c>
-      <c r="C145">
-        <v>35</v>
-      </c>
-      <c r="D145">
-        <v>11</v>
-      </c>
-      <c r="E145">
-        <v>601.27921680142799</v>
-      </c>
-      <c r="F145">
-        <v>1.34678511565243</v>
-      </c>
-      <c r="G145">
-        <v>1.1605107132863599</v>
-      </c>
-      <c r="H145">
-        <v>0.67864471422283101</v>
-      </c>
-      <c r="I145">
-        <v>3.99412810199353</v>
-      </c>
-      <c r="J145">
-        <v>5.1854812926111202E-2</v>
-      </c>
-      <c r="K145">
-        <v>1193.2516124680501</v>
-      </c>
-      <c r="L145">
-        <v>0.93677511230579003</v>
-      </c>
-      <c r="M145">
-        <v>601.27921680142799</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A146" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B146" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>I294</v>
-      </c>
-      <c r="C146">
-        <v>56</v>
-      </c>
-      <c r="D146">
-        <v>18</v>
-      </c>
-      <c r="E146">
-        <v>864.471568255222</v>
-      </c>
-      <c r="F146">
-        <v>1.6821888440125601</v>
-      </c>
-      <c r="G146">
-        <v>1.29699222974255</v>
-      </c>
-      <c r="H146">
-        <v>0.73697490899848395</v>
-      </c>
-      <c r="I146">
-        <v>3.2920782703524001</v>
-      </c>
-      <c r="J146">
-        <v>5.67363180114853E-2</v>
-      </c>
-      <c r="K146">
-        <v>1973.20751402673</v>
-      </c>
-      <c r="L146">
-        <v>0.92820410328821301</v>
-      </c>
-      <c r="M146">
-        <v>864.471568255222</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A147" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B147" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>I294</v>
-      </c>
-      <c r="C147">
-        <v>59</v>
-      </c>
-      <c r="D147">
-        <v>18</v>
-      </c>
-      <c r="E147">
-        <v>679.97923461051698</v>
-      </c>
-      <c r="F147">
-        <v>1.41786625272762</v>
-      </c>
-      <c r="G147">
-        <v>1.19074189173289</v>
-      </c>
-      <c r="H147">
-        <v>0.58821733097795603</v>
-      </c>
-      <c r="I147">
-        <v>3.26036621775427</v>
-      </c>
-      <c r="J147">
-        <v>5.6353142060241002E-2</v>
-      </c>
-      <c r="K147">
-        <v>1639.0533881531301</v>
-      </c>
-      <c r="L147">
-        <v>0.92987024594548195</v>
-      </c>
-      <c r="M147">
-        <v>679.97923461051698</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B148" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>I294</v>
-      </c>
-      <c r="C148">
-        <v>64</v>
-      </c>
-      <c r="D148">
-        <v>18</v>
-      </c>
-      <c r="E148">
-        <v>516.27880213479602</v>
-      </c>
-      <c r="F148">
-        <v>0.503721073783861</v>
-      </c>
-      <c r="G148">
-        <v>0.70973310038623705</v>
-      </c>
-      <c r="H148">
-        <v>0.51015691910552996</v>
-      </c>
-      <c r="I148">
-        <v>2.1103294943929201</v>
-      </c>
-      <c r="J148">
-        <v>6.8440993287004495E-2</v>
-      </c>
-      <c r="K148">
-        <v>509.765726669267</v>
-      </c>
-      <c r="L148">
-        <v>0.91267962170788797</v>
-      </c>
-      <c r="M148">
-        <v>516.27880213479602</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B149" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>I294</v>
-      </c>
-      <c r="C149">
-        <v>18</v>
-      </c>
-      <c r="D149">
-        <v>19</v>
-      </c>
-      <c r="E149">
-        <v>742.10958067148795</v>
-      </c>
-      <c r="F149">
-        <v>1.0650570394549701</v>
-      </c>
-      <c r="G149">
-        <v>1.0320160073637299</v>
-      </c>
-      <c r="H149">
-        <v>0.76191948734239001</v>
-      </c>
-      <c r="I149">
-        <v>3.0623270319160998</v>
-      </c>
-      <c r="J149">
-        <v>0.13282059296830501</v>
-      </c>
-      <c r="K149">
-        <v>1037.36555642914</v>
-      </c>
-      <c r="L149">
-        <v>0.63497098706910604</v>
-      </c>
-      <c r="M149">
-        <v>742.10958067148795</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A150" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B150" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>I294</v>
-      </c>
-      <c r="C150">
-        <v>19</v>
-      </c>
-      <c r="D150">
-        <v>19</v>
-      </c>
-      <c r="E150">
-        <v>188.80915958572001</v>
-      </c>
-      <c r="F150">
-        <v>0.15690825535606301</v>
-      </c>
-      <c r="G150">
-        <v>0.39611646690848801</v>
-      </c>
-      <c r="H150">
-        <v>0.29922212295676798</v>
-      </c>
-      <c r="I150">
-        <v>1.2071708104776699</v>
-      </c>
-      <c r="J150">
-        <v>6.2184688682651298E-2</v>
-      </c>
-      <c r="K150">
-        <v>99.009109129676304</v>
-      </c>
-      <c r="L150">
-        <v>0.93473622446668103</v>
-      </c>
-      <c r="M150">
-        <v>188.80915958572001</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A151" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B151" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>I294</v>
-      </c>
-      <c r="C151">
-        <v>25</v>
-      </c>
-      <c r="D151">
-        <v>19</v>
-      </c>
-      <c r="E151">
-        <v>296.12064834286798</v>
-      </c>
-      <c r="F151">
-        <v>8.6112347854478494E-2</v>
-      </c>
-      <c r="G151">
-        <v>0.293449054955845</v>
-      </c>
-      <c r="H151">
-        <v>0.231706297607878</v>
-      </c>
-      <c r="I151">
-        <v>0.92350805550728399</v>
-      </c>
-      <c r="J151">
-        <v>4.5425550302762401E-2</v>
-      </c>
-      <c r="K151">
-        <v>110.05158055802301</v>
-      </c>
-      <c r="L151">
-        <v>0.96382959089223197</v>
-      </c>
-      <c r="M151">
-        <v>296.12064834286798</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A152" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B152" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>I294</v>
-      </c>
-      <c r="C152">
-        <v>48</v>
-      </c>
-      <c r="D152">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A153" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B153" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>I294</v>
-      </c>
-      <c r="C153">
-        <v>50</v>
-      </c>
-      <c r="D153">
-        <v>20</v>
-      </c>
-      <c r="E153">
-        <v>282.60798903896801</v>
-      </c>
-      <c r="F153">
-        <v>9.9570672417968895E-2</v>
-      </c>
-      <c r="G153">
-        <v>0.31554820934045702</v>
-      </c>
-      <c r="H153">
-        <v>0.206132741822734</v>
-      </c>
-      <c r="I153">
-        <v>0.806572630403945</v>
-      </c>
-      <c r="J153">
-        <v>5.5165770863716199E-2</v>
-      </c>
-      <c r="K153">
-        <v>136.51139188503501</v>
-      </c>
-      <c r="L153">
-        <v>0.88701637370256903</v>
-      </c>
-      <c r="M153">
-        <v>282.60798903896801</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A154" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B154" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>I294</v>
-      </c>
-      <c r="C154">
-        <v>54</v>
-      </c>
-      <c r="D154">
-        <v>20</v>
-      </c>
-      <c r="E154">
-        <v>434.15866781392799</v>
-      </c>
-      <c r="F154">
-        <v>0.178658711420703</v>
-      </c>
-      <c r="G154">
-        <v>0.42268038920761802</v>
-      </c>
-      <c r="H154">
-        <v>0.31301994795524701</v>
-      </c>
-      <c r="I154">
-        <v>1.2566783761207301</v>
-      </c>
-      <c r="J154">
-        <v>6.6774153113367804E-2</v>
-      </c>
-      <c r="K154">
-        <v>247.79963274051499</v>
-      </c>
-      <c r="L154">
-        <v>0.90573377422664503</v>
-      </c>
-      <c r="M154">
-        <v>434.15866781392799</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A155" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B155" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>I294</v>
-      </c>
-      <c r="C155">
-        <v>11</v>
-      </c>
-      <c r="D155">
-        <v>21</v>
-      </c>
-      <c r="E155">
-        <v>378.50880476250802</v>
-      </c>
-      <c r="F155">
-        <v>0.15652876329822099</v>
-      </c>
-      <c r="G155">
-        <v>0.39563716116945002</v>
-      </c>
-      <c r="H155">
-        <v>0.28588278305325299</v>
-      </c>
-      <c r="I155">
-        <v>1.2672280854626901</v>
-      </c>
-      <c r="J155">
-        <v>4.1646016965205299E-2</v>
-      </c>
-      <c r="K155">
-        <v>207.24408260684501</v>
-      </c>
-      <c r="L155">
-        <v>0.98011020264939996</v>
-      </c>
-      <c r="M155">
-        <v>378.50880476250802</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A156" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B156" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>I294</v>
-      </c>
-      <c r="C156">
-        <v>13</v>
-      </c>
-      <c r="D156">
-        <v>21</v>
-      </c>
-      <c r="E156">
-        <v>243.588762928764</v>
-      </c>
-      <c r="F156">
-        <v>0.45572559105905802</v>
-      </c>
-      <c r="G156">
-        <v>0.67507450778344302</v>
-      </c>
-      <c r="H156">
-        <v>0.51390034373156901</v>
-      </c>
-      <c r="I156">
-        <v>2.4983776263035402</v>
-      </c>
-      <c r="J156">
-        <v>0.114419408098888</v>
-      </c>
-      <c r="K156">
-        <v>216.01393016199299</v>
-      </c>
-      <c r="L156">
-        <v>0.862648462484499</v>
-      </c>
-      <c r="M156">
-        <v>243.588762928764</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A157" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B157" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>I294</v>
-      </c>
-      <c r="C157">
-        <v>17</v>
-      </c>
-      <c r="D157">
-        <v>21</v>
-      </c>
-      <c r="E157">
-        <v>641.90459899825896</v>
-      </c>
-      <c r="F157">
-        <v>0.41198005512389102</v>
-      </c>
-      <c r="G157">
-        <v>0.64185672476331601</v>
-      </c>
-      <c r="H157">
-        <v>0.48118785532103298</v>
-      </c>
-      <c r="I157">
-        <v>2.1097840333058602</v>
-      </c>
-      <c r="J157">
-        <v>6.1955282313061397E-2</v>
-      </c>
-      <c r="K157">
-        <v>549.58139353527099</v>
-      </c>
-      <c r="L157">
-        <v>0.95493533089784199</v>
-      </c>
-      <c r="M157">
-        <v>641.90459899825896</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A158" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B158" s="14"/>
-      <c r="C158" s="14"/>
-      <c r="D158" s="15"/>
-      <c r="E158" s="3">
-        <f t="shared" ref="E158:L158" si="30">AVERAGE(E128:E157)</f>
-        <v>495.44599923256959</v>
-      </c>
-      <c r="F158" s="3">
-        <f t="shared" si="30"/>
-        <v>0.41726638049989495</v>
-      </c>
-      <c r="G158" s="3">
-        <f t="shared" si="30"/>
-        <v>0.5657791562819976</v>
-      </c>
-      <c r="H158" s="3">
-        <f t="shared" si="30"/>
-        <v>0.3998369050668632</v>
-      </c>
-      <c r="I158" s="3">
-        <f t="shared" si="30"/>
-        <v>3.8973185315163628</v>
-      </c>
-      <c r="J158" s="3">
-        <f t="shared" si="30"/>
-        <v>5.8040934974703848E-2</v>
-      </c>
-      <c r="K158" s="3">
-        <f t="shared" si="30"/>
-        <v>494.62867243463768</v>
-      </c>
-      <c r="L158" s="3">
-        <f t="shared" si="30"/>
-        <v>0.92903001556211551</v>
-      </c>
-      <c r="M158" s="3">
-        <f>AVERAGE(M128:M157)</f>
-        <v>495.44599923256959</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A159" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>3</v>
@@ -7486,37 +7202,34 @@
       <c r="D159" s="2">
         <v>1</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="2">
         <v>239.797259205335</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="2">
         <v>0.11713127915992599</v>
       </c>
-      <c r="G159">
+      <c r="G159" s="2">
         <v>0.34224447279675002</v>
       </c>
-      <c r="H159">
+      <c r="H159" s="2">
         <v>0.27658276724952102</v>
       </c>
-      <c r="I159">
+      <c r="I159" s="2">
         <v>33.178884082830699</v>
       </c>
-      <c r="J159">
+      <c r="J159" s="2">
         <v>4.2514841341211203E-2</v>
       </c>
-      <c r="K159">
+      <c r="K159" s="2">
         <v>101.55281903165501</v>
       </c>
-      <c r="L159">
+      <c r="L159" s="2">
         <v>0.97023670380142002</v>
       </c>
-      <c r="M159">
-        <v>239.797259205335</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>3</v>
@@ -7527,219 +7240,226 @@
       <c r="D160" s="2">
         <v>2</v>
       </c>
-      <c r="E160">
+      <c r="E160" s="2">
         <v>106.946994981495</v>
       </c>
-      <c r="F160">
+      <c r="F160" s="2">
         <v>3.8846031226148298E-2</v>
       </c>
-      <c r="G160">
+      <c r="G160" s="2">
         <v>0.19709396547370001</v>
       </c>
-      <c r="H160">
+      <c r="H160" s="2">
         <v>0.15820561387795201</v>
       </c>
-      <c r="I160">
+      <c r="I160" s="2">
         <v>7.3786142765536002</v>
       </c>
-      <c r="J160">
+      <c r="J160" s="2">
         <v>4.2204275262034401E-2</v>
       </c>
-      <c r="K160">
+      <c r="K160" s="2">
         <v>26.259917108876301</v>
       </c>
-      <c r="L160">
+      <c r="L160" s="2">
         <v>0.97833258573290605</v>
       </c>
-      <c r="M160">
-        <v>106.946994981495</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B161" t="s">
+        <v>24</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="2">
         <v>286</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="2">
         <v>3</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="2">
         <v>65.431846178566502</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="2">
         <v>6.6175395966149506E-2</v>
       </c>
-      <c r="G161">
+      <c r="G161" s="2">
         <v>0.25724578901538803</v>
       </c>
-      <c r="H161">
+      <c r="H161" s="2">
         <v>0.18965752515526499</v>
       </c>
-      <c r="I161">
+      <c r="I161" s="2">
         <v>4.5177385884716301</v>
       </c>
-      <c r="J161">
+      <c r="J161" s="2">
         <v>9.2868515890031797E-2</v>
       </c>
-      <c r="K161">
+      <c r="K161" s="2">
         <v>22.830511608321601</v>
       </c>
-      <c r="L161">
+      <c r="L161" s="2">
         <v>0.90641908829757301</v>
       </c>
-      <c r="M161">
-        <v>65.431846178566502</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A162" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B162" s="5"/>
-      <c r="C162" s="5"/>
-      <c r="D162" s="6"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A162" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B162" s="11"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="12"/>
       <c r="E162" s="3">
         <f>AVERAGE(E159:E161)</f>
         <v>137.39203345513218</v>
       </c>
       <c r="F162" s="3">
-        <f t="shared" ref="F162:L162" si="31">AVERAGE(F159:F161)</f>
+        <f t="shared" ref="F162:L162" si="35">AVERAGE(F159:F161)</f>
         <v>7.4050902117407932E-2</v>
       </c>
       <c r="G162" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.26552807576194604</v>
       </c>
       <c r="H162" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.20814863542757933</v>
       </c>
       <c r="I162" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>15.025078982618643</v>
       </c>
       <c r="J162" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5.919587749775914E-2</v>
       </c>
       <c r="K162" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>50.214415916284302</v>
       </c>
       <c r="L162" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0.95166279261063302</v>
       </c>
-      <c r="M162" s="3">
-        <f>AVERAGE(M159:M161)</f>
-        <v>137.39203345513218</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
-      <c r="G163" s="2"/>
-      <c r="H163" s="2"/>
-      <c r="I163" s="2"/>
-      <c r="J163" s="2"/>
-      <c r="K163" s="2"/>
-      <c r="L163" s="2"/>
-      <c r="M163" s="2"/>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C163" s="2">
+        <v>13</v>
+      </c>
+      <c r="D163" s="2">
+        <v>1</v>
+      </c>
+      <c r="E163" s="2">
+        <v>164.569796431257</v>
+      </c>
+      <c r="F163" s="2">
+        <v>0.15645148675078899</v>
+      </c>
+      <c r="G163" s="2">
+        <v>0.39553948823194601</v>
+      </c>
+      <c r="H163" s="2">
+        <v>0.27798952099874502</v>
+      </c>
+      <c r="I163" s="2">
+        <v>32.311947271623303</v>
+      </c>
+      <c r="J163" s="2">
+        <v>2.3253350278186102E-2</v>
+      </c>
+      <c r="K163" s="2">
+        <v>92.619280156467596</v>
+      </c>
+      <c r="L163" s="2">
+        <v>0.994521485819582</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C164" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D164" s="2">
         <v>1</v>
       </c>
-      <c r="E164">
-        <v>164.569796431257</v>
-      </c>
-      <c r="F164">
-        <v>0.15645148675078899</v>
-      </c>
-      <c r="G164">
-        <v>0.39553948823194601</v>
-      </c>
-      <c r="H164">
-        <v>0.27798952099874502</v>
-      </c>
-      <c r="I164">
-        <v>32.311947271623303</v>
-      </c>
-      <c r="J164">
-        <v>2.3253350278186102E-2</v>
-      </c>
-      <c r="K164">
-        <v>92.619280156467596</v>
-      </c>
-      <c r="L164">
-        <v>0.994521485819582</v>
-      </c>
-      <c r="M164">
-        <v>164.569796431257</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E164" s="2">
+        <v>290.16495296106098</v>
+      </c>
+      <c r="F164" s="2">
+        <v>0.55789500794443403</v>
+      </c>
+      <c r="G164" s="2">
+        <v>0.74692369619957399</v>
+      </c>
+      <c r="H164" s="2">
+        <v>0.58737844728959798</v>
+      </c>
+      <c r="I164" s="2">
+        <v>8.7304987058764301</v>
+      </c>
+      <c r="J164" s="2">
+        <v>7.4692369619957399E-2</v>
+      </c>
+      <c r="K164" s="2">
+        <v>275.60013392454999</v>
+      </c>
+      <c r="L164" s="2">
+        <v>0.94267655382700799</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C165" s="2">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D165" s="2">
         <v>1</v>
       </c>
-      <c r="E165">
-        <v>290.16495296106098</v>
-      </c>
-      <c r="F165">
-        <v>0.55789500794443403</v>
-      </c>
-      <c r="G165">
-        <v>0.74692369619957399</v>
-      </c>
-      <c r="H165">
-        <v>0.58737844728959798</v>
-      </c>
-      <c r="I165">
-        <v>8.7304987058764301</v>
-      </c>
-      <c r="J165">
-        <v>7.4692369619957399E-2</v>
-      </c>
-      <c r="K165">
-        <v>275.60013392454999</v>
-      </c>
-      <c r="L165">
-        <v>0.94267655382700799</v>
-      </c>
-      <c r="M165">
-        <v>290.16495296106098</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E165" s="2">
+        <v>270.138917148166</v>
+      </c>
+      <c r="F165" s="2">
+        <v>0.33441505341579802</v>
+      </c>
+      <c r="G165" s="2">
+        <v>0.57828630747735899</v>
+      </c>
+      <c r="H165" s="2">
+        <v>0.43782644594516301</v>
+      </c>
+      <c r="I165" s="2">
+        <v>4.6636121152471199</v>
+      </c>
+      <c r="J165" s="2">
+        <v>7.3200798414855495E-2</v>
+      </c>
+      <c r="K165" s="2">
+        <v>206.33408795754701</v>
+      </c>
+      <c r="L165" s="2">
+        <v>0.93691992013893799</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>23</v>
@@ -7750,121 +7470,1538 @@
       <c r="D166" s="2">
         <v>1</v>
       </c>
-      <c r="E166">
-        <v>270.138917148166</v>
-      </c>
-      <c r="F166">
-        <v>0.33441505341579802</v>
-      </c>
-      <c r="G166">
-        <v>0.57828630747735899</v>
-      </c>
-      <c r="H166">
-        <v>0.43782644594516301</v>
-      </c>
-      <c r="I166">
-        <v>4.6636121152471199</v>
-      </c>
-      <c r="J166">
-        <v>7.3200798414855495E-2</v>
-      </c>
-      <c r="K166">
-        <v>206.33408795754701</v>
-      </c>
-      <c r="L166">
-        <v>0.93691992013893799</v>
-      </c>
-      <c r="M166">
-        <v>270.138917148166</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A167" s="2" t="s">
+      <c r="E166" s="2">
+        <v>6.1743424239443296</v>
+      </c>
+      <c r="F166" s="2">
+        <v>2.92724434455265E-2</v>
+      </c>
+      <c r="G166" s="2">
+        <v>0.17109191519626599</v>
+      </c>
+      <c r="H166" s="2">
+        <v>0.14700815295105499</v>
+      </c>
+      <c r="I166" s="2">
+        <v>11.707685159390801</v>
+      </c>
+      <c r="J166" s="2">
+        <v>3.32863648241764E-2</v>
+      </c>
+      <c r="K166" s="2">
+        <v>1.22944262471211</v>
+      </c>
+      <c r="L166" s="2">
+        <v>0.98364387260310304</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A167" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B167" s="11"/>
+      <c r="C167" s="11"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="3">
+        <f t="shared" ref="E167:L167" si="36">AVERAGE(E163:E166)</f>
+        <v>182.7620022411071</v>
+      </c>
+      <c r="F167" s="3">
+        <f t="shared" si="36"/>
+        <v>0.26950849788913689</v>
+      </c>
+      <c r="G167" s="3">
+        <f t="shared" si="36"/>
+        <v>0.47296035177628626</v>
+      </c>
+      <c r="H167" s="3">
+        <f t="shared" si="36"/>
+        <v>0.36255064179614027</v>
+      </c>
+      <c r="I167" s="3">
+        <f t="shared" si="36"/>
+        <v>14.353435813034412</v>
+      </c>
+      <c r="J167" s="3">
+        <f t="shared" si="36"/>
+        <v>5.1108220784293848E-2</v>
+      </c>
+      <c r="K167" s="3">
+        <f t="shared" si="36"/>
+        <v>143.94573616581917</v>
+      </c>
+      <c r="L167" s="3">
+        <f t="shared" si="36"/>
+        <v>0.96444045809715773</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168" s="2">
+        <v>8</v>
+      </c>
+      <c r="D168" s="2">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>303.72656715596003</v>
+      </c>
+      <c r="F168">
+        <v>8.6711639350976394E-2</v>
+      </c>
+      <c r="G168">
+        <v>0.294468401277584</v>
+      </c>
+      <c r="H168">
+        <v>0.23399581444989201</v>
+      </c>
+      <c r="I168">
+        <v>0.88410736852656502</v>
+      </c>
+      <c r="J168">
+        <v>5.6957137577869202E-2</v>
+      </c>
+      <c r="K168">
+        <v>112.551707877567</v>
+      </c>
+      <c r="L168">
+        <v>0.951830839416962</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B169" s="2" t="str">
+        <f>B168</f>
+        <v>I294</v>
+      </c>
+      <c r="C169" s="2">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2">
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>236.291603476289</v>
+      </c>
+      <c r="F169">
+        <v>5.5657367650852198E-2</v>
+      </c>
+      <c r="G169">
+        <v>0.23591813760466199</v>
+      </c>
+      <c r="H169">
+        <v>0.182042837809159</v>
+      </c>
+      <c r="I169">
+        <v>0.68866385438945998</v>
+      </c>
+      <c r="J169">
+        <v>4.6624137866533903E-2</v>
+      </c>
+      <c r="K169">
+        <v>72.243263210806205</v>
+      </c>
+      <c r="L169">
+        <v>0.96552747984060106</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B170" s="2" t="str">
+        <f t="shared" ref="B170:B197" si="37">B169</f>
+        <v>I294</v>
+      </c>
+      <c r="C170" s="2">
+        <v>12</v>
+      </c>
+      <c r="D170" s="2">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>312.675479805674</v>
+      </c>
+      <c r="F170">
+        <v>7.0410635622333198E-2</v>
+      </c>
+      <c r="G170">
+        <v>0.26535002472646002</v>
+      </c>
+      <c r="H170">
+        <v>0.222228486002611</v>
+      </c>
+      <c r="I170">
+        <v>0.84869735475011199</v>
+      </c>
+      <c r="J170">
+        <v>4.7553767872125501E-2</v>
+      </c>
+      <c r="K170">
+        <v>99.0677643206228</v>
+      </c>
+      <c r="L170">
+        <v>0.96621770990131095</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B171" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>I294</v>
+      </c>
+      <c r="C171" s="2">
+        <v>33</v>
+      </c>
+      <c r="D171" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B172" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>I294</v>
+      </c>
+      <c r="C172" s="2">
+        <v>40</v>
+      </c>
+      <c r="D172" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B173" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>I294</v>
+      </c>
+      <c r="C173" s="2">
+        <v>41</v>
+      </c>
+      <c r="D173" s="2">
+        <v>3</v>
+      </c>
+      <c r="E173">
+        <v>166.87117184333101</v>
+      </c>
+      <c r="F173">
+        <v>0.24527474338310601</v>
+      </c>
+      <c r="G173">
+        <v>0.49525220179531398</v>
+      </c>
+      <c r="H173">
+        <v>0.374991397400744</v>
+      </c>
+      <c r="I173">
+        <v>1.4088475362336801</v>
+      </c>
+      <c r="J173">
+        <v>7.5152079179865494E-2</v>
+      </c>
+      <c r="K173">
+        <v>109.14726080548201</v>
+      </c>
+      <c r="L173">
+        <v>0.92711832193319899</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B174" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>I294</v>
+      </c>
+      <c r="C174" s="2">
+        <v>3</v>
+      </c>
+      <c r="D174" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B175" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>I294</v>
+      </c>
+      <c r="C175" s="2">
+        <v>11</v>
+      </c>
+      <c r="D175" s="2">
+        <v>7</v>
+      </c>
+      <c r="E175">
+        <v>512.31523460338406</v>
+      </c>
+      <c r="F175">
+        <v>0.63530771496526495</v>
+      </c>
+      <c r="G175">
+        <v>0.79706192668152498</v>
+      </c>
+      <c r="H175">
+        <v>0.48838439904993702</v>
+      </c>
+      <c r="I175">
+        <v>1.9287244015570799</v>
+      </c>
+      <c r="J175">
+        <v>7.4631266543213906E-2</v>
+      </c>
+      <c r="K175">
+        <v>666.43779299856305</v>
+      </c>
+      <c r="L175">
+        <v>0.75892303244792403</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B176" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>I294</v>
+      </c>
+      <c r="C176" s="2">
+        <v>17</v>
+      </c>
+      <c r="D176" s="2">
+        <v>7</v>
+      </c>
+      <c r="E176">
+        <v>113.09799923014501</v>
+      </c>
+      <c r="F176">
+        <v>9.2844340100856904E-2</v>
+      </c>
+      <c r="G176">
+        <v>0.30470369229935002</v>
+      </c>
+      <c r="H176">
+        <v>0.25021681245607302</v>
+      </c>
+      <c r="I176">
+        <v>0.99654123584356002</v>
+      </c>
+      <c r="J176">
+        <v>8.7058197799814205E-2</v>
+      </c>
+      <c r="K176">
+        <v>41.965641725587297</v>
+      </c>
+      <c r="L176">
+        <v>0.922576113970769</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B177" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>I294</v>
+      </c>
+      <c r="C177" s="2">
+        <v>51</v>
+      </c>
+      <c r="D177" s="2">
+        <v>8</v>
+      </c>
+      <c r="E177">
+        <v>683.85989338158595</v>
+      </c>
+      <c r="F177">
+        <v>0.12497453936655201</v>
+      </c>
+      <c r="G177">
+        <v>0.353517381986448</v>
+      </c>
+      <c r="H177">
+        <v>0.27981174033616402</v>
+      </c>
+      <c r="I177">
+        <v>22.8480887991138</v>
+      </c>
+      <c r="J177">
+        <v>2.08811212041611E-2</v>
+      </c>
+      <c r="K177">
+        <v>305.43777421185303</v>
+      </c>
+      <c r="L177">
+        <v>0.993689233552012</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B178" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>I294</v>
+      </c>
+      <c r="C178" s="2">
+        <v>62</v>
+      </c>
+      <c r="D178" s="2">
+        <v>8</v>
+      </c>
+      <c r="E178">
+        <v>1023.13984594334</v>
+      </c>
+      <c r="F178">
+        <v>0.160906296731122</v>
+      </c>
+      <c r="G178">
+        <v>0.40113127119575498</v>
+      </c>
+      <c r="H178">
+        <v>0.28077383258598798</v>
+      </c>
+      <c r="I178">
+        <v>8.04363079984922</v>
+      </c>
+      <c r="J178">
+        <v>1.8519449270348799E-2</v>
+      </c>
+      <c r="K178">
+        <v>586.342545288211</v>
+      </c>
+      <c r="L178">
+        <v>0.99457593586551896</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B179" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>I294</v>
+      </c>
+      <c r="C179" s="2">
+        <v>65</v>
+      </c>
+      <c r="D179" s="2">
+        <v>8</v>
+      </c>
+      <c r="E179">
+        <v>965.68531516375106</v>
+      </c>
+      <c r="F179">
+        <v>0.121934612926296</v>
+      </c>
+      <c r="G179">
+        <v>0.34919137006274398</v>
+      </c>
+      <c r="H179">
+        <v>0.26500694708116102</v>
+      </c>
+      <c r="I179">
+        <v>12.5336319207283</v>
+      </c>
+      <c r="J179">
+        <v>1.7295263499888198E-2</v>
+      </c>
+      <c r="K179">
+        <v>444.32972950342401</v>
+      </c>
+      <c r="L179">
+        <v>0.99583594707619705</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B180" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>I294</v>
+      </c>
+      <c r="C180" s="2">
+        <v>24</v>
+      </c>
+      <c r="D180" s="2">
+        <v>9</v>
+      </c>
+      <c r="E180">
+        <v>205.41900349256801</v>
+      </c>
+      <c r="F180">
+        <v>0.28525690222375699</v>
+      </c>
+      <c r="G180">
+        <v>0.53409446938136096</v>
+      </c>
+      <c r="H180">
+        <v>0.416671406678638</v>
+      </c>
+      <c r="I180">
+        <v>1.4705393871011101</v>
+      </c>
+      <c r="J180">
+        <v>0.10271047488103099</v>
+      </c>
+      <c r="K180">
+        <v>140.63165279631201</v>
+      </c>
+      <c r="L180">
+        <v>0.78699022824620002</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B181" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>I294</v>
+      </c>
+      <c r="C181" s="2">
+        <v>28</v>
+      </c>
+      <c r="D181" s="2">
+        <v>9</v>
+      </c>
+      <c r="E181">
+        <v>51.581561291377099</v>
+      </c>
+      <c r="F181">
+        <v>8.4949093607398204E-2</v>
+      </c>
+      <c r="G181">
+        <v>0.291460277923764</v>
+      </c>
+      <c r="H181">
+        <v>0.21492317204740399</v>
+      </c>
+      <c r="I181">
+        <v>0.85325712529124598</v>
+      </c>
+      <c r="J181">
+        <v>4.9737248792451297E-2</v>
+      </c>
+      <c r="K181">
+        <v>20.387782465775501</v>
+      </c>
+      <c r="L181">
+        <v>0.97204171813260798</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B182" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>I294</v>
+      </c>
+      <c r="C182" s="2">
+        <v>30</v>
+      </c>
+      <c r="D182" s="2">
+        <v>9</v>
+      </c>
+      <c r="E182">
+        <v>707.645880399661</v>
+      </c>
+      <c r="F182">
+        <v>0.57293264188223403</v>
+      </c>
+      <c r="G182">
+        <v>0.756923141330897</v>
+      </c>
+      <c r="H182">
+        <v>0.60846593327571896</v>
+      </c>
+      <c r="I182">
+        <v>2.3078842358095302</v>
+      </c>
+      <c r="J182">
+        <v>6.3929319369163601E-2</v>
+      </c>
+      <c r="K182">
+        <v>666.32066250903802</v>
+      </c>
+      <c r="L182">
+        <v>0.95102055342436598</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B183" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>I294</v>
+      </c>
+      <c r="C183" s="2">
+        <v>19</v>
+      </c>
+      <c r="D183" s="2">
+        <v>11</v>
+      </c>
+      <c r="E183">
+        <v>87.694946665853095</v>
+      </c>
+      <c r="F183">
+        <v>9.8319340911323105E-2</v>
+      </c>
+      <c r="G183">
+        <v>0.313559150578201</v>
+      </c>
+      <c r="H183">
+        <v>0.281977320468981</v>
+      </c>
+      <c r="I183">
+        <v>1.61399582241081</v>
+      </c>
+      <c r="J183">
+        <v>2.70542839152891E-2</v>
+      </c>
+      <c r="K183">
+        <v>30.577315023421502</v>
+      </c>
+      <c r="L183">
+        <v>0.99063346806112196</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B184" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>I294</v>
+      </c>
+      <c r="C184" s="2">
+        <v>22</v>
+      </c>
+      <c r="D184" s="2">
+        <v>11</v>
+      </c>
+      <c r="E184">
+        <v>364.200450023163</v>
+      </c>
+      <c r="F184">
+        <v>0.28681854236124499</v>
+      </c>
+      <c r="G184">
+        <v>0.53555442520928298</v>
+      </c>
+      <c r="H184">
+        <v>0.34818398663782302</v>
+      </c>
+      <c r="I184">
+        <v>1.54902223792536</v>
+      </c>
+      <c r="J184">
+        <v>3.2398936794269903E-2</v>
+      </c>
+      <c r="K184">
+        <v>300.01219530986202</v>
+      </c>
+      <c r="L184">
+        <v>0.96478902771841302</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B185" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>I294</v>
+      </c>
+      <c r="C185" s="2">
+        <v>35</v>
+      </c>
+      <c r="D185" s="2">
+        <v>11</v>
+      </c>
+      <c r="E185">
+        <v>728.21004381627404</v>
+      </c>
+      <c r="F185">
+        <v>1.4054353112792399</v>
+      </c>
+      <c r="G185">
+        <v>1.18551056987242</v>
+      </c>
+      <c r="H185">
+        <v>0.82190749866396595</v>
+      </c>
+      <c r="I185">
+        <v>5.3064269031910003</v>
+      </c>
+      <c r="J185">
+        <v>5.2971875329420298E-2</v>
+      </c>
+      <c r="K185">
+        <v>1245.2156857934101</v>
+      </c>
+      <c r="L185">
+        <v>0.93402177624003402</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B186" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>I294</v>
+      </c>
+      <c r="C186" s="2">
+        <v>56</v>
+      </c>
+      <c r="D186" s="2">
+        <v>18</v>
+      </c>
+      <c r="E186">
+        <v>784.38200801395396</v>
+      </c>
+      <c r="F186">
+        <v>1.64887028037684</v>
+      </c>
+      <c r="G186">
+        <v>1.2840834398032099</v>
+      </c>
+      <c r="H186">
+        <v>0.66869736403576696</v>
+      </c>
+      <c r="I186">
+        <v>2.8366844277298702</v>
+      </c>
+      <c r="J186">
+        <v>5.6171629037760698E-2</v>
+      </c>
+      <c r="K186">
+        <v>1934.12483888204</v>
+      </c>
+      <c r="L186">
+        <v>0.92962614110631503</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B187" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>I294</v>
+      </c>
+      <c r="C187" s="2">
+        <v>59</v>
+      </c>
+      <c r="D187" s="2">
+        <v>18</v>
+      </c>
+      <c r="E187">
+        <v>813.60001218876005</v>
+      </c>
+      <c r="F187">
+        <v>1.7016472443761801</v>
+      </c>
+      <c r="G187">
+        <v>1.3044720174753399</v>
+      </c>
+      <c r="H187">
+        <v>0.70380623891761196</v>
+      </c>
+      <c r="I187">
+        <v>3.6614565748230299</v>
+      </c>
+      <c r="J187">
+        <v>6.1735542710617201E-2</v>
+      </c>
+      <c r="K187">
+        <v>1967.1042144988701</v>
+      </c>
+      <c r="L187">
+        <v>0.91583401995352098</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B188" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>I294</v>
+      </c>
+      <c r="C188" s="2">
+        <v>64</v>
+      </c>
+      <c r="D188" s="2">
+        <v>18</v>
+      </c>
+      <c r="E188">
+        <v>607.630682781818</v>
+      </c>
+      <c r="F188">
+        <v>0.66743382330632695</v>
+      </c>
+      <c r="G188">
+        <v>0.81696623143574698</v>
+      </c>
+      <c r="H188">
+        <v>0.60042557587136103</v>
+      </c>
+      <c r="I188">
+        <v>2.4387264240285398</v>
+      </c>
+      <c r="J188">
+        <v>7.8781700234883997E-2</v>
+      </c>
+      <c r="K188">
+        <v>675.44302918600295</v>
+      </c>
+      <c r="L188">
+        <v>0.88429990927664404</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B189" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>I294</v>
+      </c>
+      <c r="C189" s="2">
+        <v>18</v>
+      </c>
+      <c r="D189" s="2">
+        <v>19</v>
+      </c>
+      <c r="E189">
+        <v>561.26099454977498</v>
+      </c>
+      <c r="F189">
+        <v>0.49403146740538501</v>
+      </c>
+      <c r="G189">
+        <v>0.70287372081006505</v>
+      </c>
+      <c r="H189">
+        <v>0.57624332089299302</v>
+      </c>
+      <c r="I189">
+        <v>2.2967827424036198</v>
+      </c>
+      <c r="J189">
+        <v>9.0459938328193698E-2</v>
+      </c>
+      <c r="K189">
+        <v>481.18664925284497</v>
+      </c>
+      <c r="L189">
+        <v>0.83067966106672397</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B190" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>I294</v>
+      </c>
+      <c r="C190" s="2">
+        <v>19</v>
+      </c>
+      <c r="D190" s="2">
+        <v>19</v>
+      </c>
+      <c r="E190">
+        <v>196.16452209751901</v>
+      </c>
+      <c r="F190">
+        <v>0.18293603631014399</v>
+      </c>
+      <c r="G190">
+        <v>0.42771022469674902</v>
+      </c>
+      <c r="H190">
+        <v>0.31087879888671799</v>
+      </c>
+      <c r="I190">
+        <v>1.24565547914034</v>
+      </c>
+      <c r="J190">
+        <v>6.71444622757848E-2</v>
+      </c>
+      <c r="K190">
+        <v>115.4326389117</v>
+      </c>
+      <c r="L190">
+        <v>0.92391033611579299</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B191" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>I294</v>
+      </c>
+      <c r="C191" s="2">
         <v>25</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C167" s="2">
+      <c r="D191" s="2">
+        <v>19</v>
+      </c>
+      <c r="E191">
+        <v>336.10613515727903</v>
+      </c>
+      <c r="F191">
+        <v>0.101919259485106</v>
+      </c>
+      <c r="G191">
+        <v>0.319247959249713</v>
+      </c>
+      <c r="H191">
+        <v>0.26299384597596098</v>
+      </c>
+      <c r="I191">
+        <v>1.0543485857738699</v>
+      </c>
+      <c r="J191">
+        <v>4.94191887383457E-2</v>
+      </c>
+      <c r="K191">
+        <v>130.252813621966</v>
+      </c>
+      <c r="L191">
+        <v>0.95719009638702601</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B192" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>I294</v>
+      </c>
+      <c r="C192" s="2">
+        <v>48</v>
+      </c>
+      <c r="D192" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B193" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>I294</v>
+      </c>
+      <c r="C193" s="2">
+        <v>50</v>
+      </c>
+      <c r="D193" s="2">
+        <v>20</v>
+      </c>
+      <c r="E193">
+        <v>343.51365057305401</v>
+      </c>
+      <c r="F193">
+        <v>0.12436491424769</v>
+      </c>
+      <c r="G193">
+        <v>0.35265410000124803</v>
+      </c>
+      <c r="H193">
+        <v>0.25055700260616598</v>
+      </c>
+      <c r="I193">
+        <v>0.97961992594706404</v>
+      </c>
+      <c r="J193">
+        <v>6.1652814685532797E-2</v>
+      </c>
+      <c r="K193">
+        <v>170.50429743358299</v>
+      </c>
+      <c r="L193">
+        <v>0.85888215219748398</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B194" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>I294</v>
+      </c>
+      <c r="C194" s="2">
+        <v>54</v>
+      </c>
+      <c r="D194" s="2">
+        <v>20</v>
+      </c>
+      <c r="E194">
+        <v>474.50915361142302</v>
+      </c>
+      <c r="F194">
+        <v>0.22865870947959599</v>
+      </c>
+      <c r="G194">
+        <v>0.47818271558013897</v>
+      </c>
+      <c r="H194">
+        <v>0.34211186273354199</v>
+      </c>
+      <c r="I194">
+        <v>1.3747635678783099</v>
+      </c>
+      <c r="J194">
+        <v>7.5542293140622302E-2</v>
+      </c>
+      <c r="K194">
+        <v>317.14963004819998</v>
+      </c>
+      <c r="L194">
+        <v>0.87935212696071297</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B195" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>I294</v>
+      </c>
+      <c r="C195" s="2">
+        <v>11</v>
+      </c>
+      <c r="D195" s="2">
+        <v>21</v>
+      </c>
+      <c r="E195">
+        <v>372.70647895534802</v>
+      </c>
+      <c r="F195">
+        <v>0.15763039800557099</v>
+      </c>
+      <c r="G195">
+        <v>0.39702694871453198</v>
+      </c>
+      <c r="H195">
+        <v>0.28150036174875198</v>
+      </c>
+      <c r="I195">
+        <v>1.2700167462249099</v>
+      </c>
+      <c r="J195">
+        <v>4.1792310391003298E-2</v>
+      </c>
+      <c r="K195">
+        <v>208.70264695937701</v>
+      </c>
+      <c r="L195">
+        <v>0.97997022012719903</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B196" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>I294</v>
+      </c>
+      <c r="C196" s="2">
+        <v>13</v>
+      </c>
+      <c r="D196" s="2">
+        <v>21</v>
+      </c>
+      <c r="E196">
+        <v>191.430151239786</v>
+      </c>
+      <c r="F196">
+        <v>0.27483531188681498</v>
+      </c>
+      <c r="G196">
+        <v>0.524247376614147</v>
+      </c>
+      <c r="H196">
+        <v>0.40386107856494902</v>
+      </c>
+      <c r="I196">
+        <v>1.9693607442626899</v>
+      </c>
+      <c r="J196">
+        <v>8.8855487561719806E-2</v>
+      </c>
+      <c r="K196">
+        <v>130.27193783435001</v>
+      </c>
+      <c r="L196">
+        <v>0.91716714314093795</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B197" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>I294</v>
+      </c>
+      <c r="C197" s="2">
+        <v>17</v>
+      </c>
+      <c r="D197" s="2">
+        <v>21</v>
+      </c>
+      <c r="E197">
+        <v>542.98711527751504</v>
+      </c>
+      <c r="F197">
+        <v>0.28059419683881298</v>
+      </c>
+      <c r="G197">
+        <v>0.52971142789146297</v>
+      </c>
+      <c r="H197">
+        <v>0.40703681804911201</v>
+      </c>
+      <c r="I197">
+        <v>1.7993724757779199</v>
+      </c>
+      <c r="J197">
+        <v>5.1130446707670203E-2</v>
+      </c>
+      <c r="K197">
+        <v>374.31265858297598</v>
+      </c>
+      <c r="L197">
+        <v>0.96930704660271905</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A198" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B198" s="13"/>
+      <c r="C198" s="13"/>
+      <c r="D198" s="14"/>
+      <c r="E198">
+        <f>AVERAGE(E168:E197)</f>
+        <v>449.48868848994567</v>
+      </c>
+      <c r="F198">
+        <f t="shared" ref="F198:L198" si="38">AVERAGE(F168:F197)</f>
+        <v>0.39194828323388553</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="38"/>
+        <v>0.54811048477685076</v>
+      </c>
+      <c r="H198">
+        <f t="shared" si="38"/>
+        <v>0.38760360973950736</v>
+      </c>
+      <c r="I198">
+        <f t="shared" si="38"/>
+        <v>3.2388017952581145</v>
+      </c>
+      <c r="J198">
+        <f t="shared" si="38"/>
+        <v>5.7544629757983849E-2</v>
+      </c>
+      <c r="K198">
+        <f t="shared" si="38"/>
+        <v>436.35208188660937</v>
+      </c>
+      <c r="L198">
+        <f t="shared" si="38"/>
+        <v>0.92776962456778145</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" s="2">
+        <v>5366</v>
+      </c>
+      <c r="D199" s="2">
+        <v>1</v>
+      </c>
+      <c r="E199">
+        <v>200.53519508283799</v>
+      </c>
+      <c r="F199">
+        <v>8.5688032053288898E-2</v>
+      </c>
+      <c r="G199">
+        <v>0.29272518178880502</v>
+      </c>
+      <c r="H199">
+        <v>0.23129780286371199</v>
+      </c>
+      <c r="I199">
+        <v>15.380846553166201</v>
+      </c>
+      <c r="J199">
+        <v>3.63633766197273E-2</v>
+      </c>
+      <c r="K199">
+        <v>74.291523790201495</v>
+      </c>
+      <c r="L199">
+        <v>0.97822649682504303</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A200" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C200" s="2">
+        <v>195</v>
+      </c>
+      <c r="D200" s="2">
         <v>2</v>
       </c>
-      <c r="D167" s="2">
+      <c r="E200">
+        <v>72.378825369935399</v>
+      </c>
+      <c r="F200">
+        <v>1.6721071601737001E-2</v>
+      </c>
+      <c r="G200">
+        <v>0.12930998260666801</v>
+      </c>
+      <c r="H200">
+        <v>0.107069268298721</v>
+      </c>
+      <c r="I200">
+        <v>5.2449753054717103</v>
+      </c>
+      <c r="J200">
+        <v>2.7689503770164599E-2</v>
+      </c>
+      <c r="K200">
+        <v>11.3034444027742</v>
+      </c>
+      <c r="L200">
+        <v>0.99067337450059201</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C201" s="2">
+        <v>286</v>
+      </c>
+      <c r="D201" s="2">
+        <v>3</v>
+      </c>
+      <c r="E201">
+        <v>51.3069103961138</v>
+      </c>
+      <c r="F201">
+        <v>3.78782108617376E-2</v>
+      </c>
+      <c r="G201">
+        <v>0.19462325365109301</v>
+      </c>
+      <c r="H201">
+        <v>0.14871568230757601</v>
+      </c>
+      <c r="I201">
+        <v>3.23701118036381</v>
+      </c>
+      <c r="J201">
+        <v>7.0261102401116604E-2</v>
+      </c>
+      <c r="K201">
+        <v>13.067982747299499</v>
+      </c>
+      <c r="L201">
+        <v>0.94643511452638096</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A202" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B202" s="15"/>
+      <c r="C202" s="15"/>
+      <c r="D202" s="16"/>
+      <c r="E202" s="2">
+        <f>AVERAGE(E199:E201)</f>
+        <v>108.07364361629573</v>
+      </c>
+      <c r="F202" s="2">
+        <f t="shared" ref="F202:L202" si="39">AVERAGE(F199:F201)</f>
+        <v>4.6762438172254499E-2</v>
+      </c>
+      <c r="G202" s="2">
+        <f t="shared" si="39"/>
+        <v>0.20555280601552203</v>
+      </c>
+      <c r="H202" s="2">
+        <f t="shared" si="39"/>
+        <v>0.16236091782333631</v>
+      </c>
+      <c r="I202" s="2">
+        <f t="shared" si="39"/>
+        <v>7.9542776796672401</v>
+      </c>
+      <c r="J202" s="2">
+        <f t="shared" si="39"/>
+        <v>4.4771327597002836E-2</v>
+      </c>
+      <c r="K202" s="2">
+        <f t="shared" si="39"/>
+        <v>32.887650313425063</v>
+      </c>
+      <c r="L202" s="2">
+        <f t="shared" si="39"/>
+        <v>0.9717783286173387</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A203" s="2"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C204" s="2">
+        <v>13</v>
+      </c>
+      <c r="D204" s="2">
         <v>1</v>
       </c>
-      <c r="E167">
-        <v>6.1743424239443296</v>
-      </c>
-      <c r="F167">
-        <v>2.92724434455265E-2</v>
-      </c>
-      <c r="G167">
-        <v>0.17109191519626599</v>
-      </c>
-      <c r="H167">
-        <v>0.14700815295105499</v>
-      </c>
-      <c r="I167">
-        <v>11.707685159390801</v>
-      </c>
-      <c r="J167">
-        <v>3.32863648241764E-2</v>
-      </c>
-      <c r="K167">
-        <v>1.22944262471211</v>
-      </c>
-      <c r="L167">
-        <v>0.98364387260310304</v>
-      </c>
-      <c r="M167">
-        <v>6.1743424239443296</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A168" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B168" s="7"/>
-      <c r="C168" s="7"/>
-      <c r="D168" s="7"/>
-      <c r="E168" s="3">
-        <f t="shared" ref="E168:M168" si="32">AVERAGE(E164:E167)</f>
-        <v>182.7620022411071</v>
-      </c>
-      <c r="F168" s="3">
-        <f t="shared" si="32"/>
-        <v>0.26950849788913689</v>
-      </c>
-      <c r="G168" s="3">
-        <f t="shared" si="32"/>
-        <v>0.47296035177628626</v>
-      </c>
-      <c r="H168" s="3">
-        <f t="shared" si="32"/>
-        <v>0.36255064179614027</v>
-      </c>
-      <c r="I168" s="3">
-        <f t="shared" si="32"/>
-        <v>14.353435813034412</v>
-      </c>
-      <c r="J168" s="3">
-        <f t="shared" si="32"/>
-        <v>5.1108220784293848E-2</v>
-      </c>
-      <c r="K168" s="3">
-        <f t="shared" si="32"/>
-        <v>143.94573616581917</v>
-      </c>
-      <c r="L168" s="3">
-        <f t="shared" si="32"/>
-        <v>0.96444045809715773</v>
-      </c>
-      <c r="M168" s="3">
-        <f t="shared" si="32"/>
-        <v>182.7620022411071</v>
+      <c r="E204">
+        <v>143.31429932799699</v>
+      </c>
+      <c r="F204">
+        <v>0.110359345979388</v>
+      </c>
+      <c r="G204">
+        <v>0.33220377177176702</v>
+      </c>
+      <c r="H204">
+        <v>0.24208496508107599</v>
+      </c>
+      <c r="I204">
+        <v>29.480343698147799</v>
+      </c>
+      <c r="J204">
+        <v>1.9529910157070299E-2</v>
+      </c>
+      <c r="K204">
+        <v>65.332732819797798</v>
+      </c>
+      <c r="L204">
+        <v>0.996135509770816</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C205" s="2">
+        <v>31</v>
+      </c>
+      <c r="D205" s="2">
+        <v>1</v>
+      </c>
+      <c r="E205">
+        <v>281.92098832012698</v>
+      </c>
+      <c r="F205">
+        <v>0.73370168188235296</v>
+      </c>
+      <c r="G205">
+        <v>0.85656388079486101</v>
+      </c>
+      <c r="H205">
+        <v>0.570690259757342</v>
+      </c>
+      <c r="I205">
+        <v>10.2483599854506</v>
+      </c>
+      <c r="J205">
+        <v>8.5656388079486098E-2</v>
+      </c>
+      <c r="K205">
+        <v>362.44863084988202</v>
+      </c>
+      <c r="L205">
+        <v>0.92461250186951704</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C206" s="2">
+        <v>2</v>
+      </c>
+      <c r="D206" s="2">
+        <v>1</v>
+      </c>
+      <c r="E206">
+        <v>255.78704219213901</v>
+      </c>
+      <c r="F206">
+        <v>0.26928734173584701</v>
+      </c>
+      <c r="G206">
+        <v>0.51892903342928098</v>
+      </c>
+      <c r="H206">
+        <v>0.41456570857721098</v>
+      </c>
+      <c r="I206">
+        <v>4.3102957106839401</v>
+      </c>
+      <c r="J206">
+        <v>6.5687219421427898E-2</v>
+      </c>
+      <c r="K206">
+        <v>166.15028985101799</v>
+      </c>
+      <c r="L206">
+        <v>0.94920483737569705</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A207" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C207" s="2">
+        <v>2</v>
+      </c>
+      <c r="D207" s="2">
+        <v>1</v>
+      </c>
+      <c r="E207">
+        <v>23.442633506185398</v>
+      </c>
+      <c r="F207">
+        <v>0.361329163861007</v>
+      </c>
+      <c r="G207">
+        <v>0.60110661605160098</v>
+      </c>
+      <c r="H207">
+        <v>0.55815794062346202</v>
+      </c>
+      <c r="I207">
+        <v>46.454595772926297</v>
+      </c>
+      <c r="J207">
+        <v>0.116946812461401</v>
+      </c>
+      <c r="K207">
+        <v>15.175824882162299</v>
+      </c>
+      <c r="L207">
+        <v>0.79810548281277904</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A208" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B208" s="11"/>
+      <c r="C208" s="11"/>
+      <c r="D208" s="12"/>
+      <c r="E208">
+        <f>AVERAGE(E204:E207)</f>
+        <v>176.11624083661209</v>
+      </c>
+      <c r="F208">
+        <f t="shared" ref="F208:L208" si="40">AVERAGE(F204:F207)</f>
+        <v>0.36866938336464872</v>
+      </c>
+      <c r="G208">
+        <f t="shared" si="40"/>
+        <v>0.57720082551187746</v>
+      </c>
+      <c r="H208">
+        <f t="shared" si="40"/>
+        <v>0.44637471850977278</v>
+      </c>
+      <c r="I208">
+        <f t="shared" si="40"/>
+        <v>22.62339879180216</v>
+      </c>
+      <c r="J208">
+        <f t="shared" si="40"/>
+        <v>7.1955082529846323E-2</v>
+      </c>
+      <c r="K208">
+        <f t="shared" si="40"/>
+        <v>152.27686960071503</v>
+      </c>
+      <c r="L208">
+        <f t="shared" si="40"/>
+        <v>0.91701458295720228</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="15">
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A41:D41"/>
@@ -7875,6 +9012,11 @@
     <mergeCell ref="A120:D120"/>
     <mergeCell ref="A126:D126"/>
     <mergeCell ref="A158:D158"/>
+    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A208:D208"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results/Model_Analysis.xlsx
+++ b/Results/Model_Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Desktop\01Autonomous_Vehicles_Research\00Thesis\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9646D2-8AEB-4732-A8C8-CD1376C4C9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2899FA94-0798-413B-95D6-AFB30C7DABC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11544" yWindow="1488" windowWidth="11424" windowHeight="10584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_Performance" sheetId="1" r:id="rId1"/>
@@ -297,6 +297,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -316,9 +319,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -603,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" zoomScale="92" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView tabSelected="1" topLeftCell="O10" zoomScale="92" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2403,7 +2403,7 @@
       <c r="O27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P27" s="2">
+      <c r="P27" s="5">
         <f>AVERAGE(P14:P16)</f>
         <v>244.55952431428452</v>
       </c>
@@ -2593,12 +2593,12 @@
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="3">
         <f t="shared" ref="E32:L32" si="22">AVERAGE(E2:E31)</f>
         <v>494.34432019015674</v>
@@ -2747,12 +2747,12 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="3">
         <f>AVERAGE(E33:E35)</f>
         <v>125.98636395186337</v>
@@ -2939,12 +2939,12 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
       <c r="E41" s="3">
         <f t="shared" ref="E41:L41" si="24">AVERAGE(E37:E40)</f>
         <v>177.8352568311085</v>
@@ -4084,12 +4084,12 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="12"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="13"/>
       <c r="E72" s="3">
         <f t="shared" ref="E72:L72" si="26">AVERAGE(E43:E71)</f>
         <v>514.58964240130524</v>
@@ -4252,12 +4252,12 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="12"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="13"/>
       <c r="E77" s="3">
         <f>AVERAGE(E74:E76)</f>
         <v>129.92572820153646</v>
@@ -4458,12 +4458,12 @@
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="12"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="13"/>
       <c r="E83" s="3">
         <f t="shared" ref="E83:L83" si="28">AVERAGE(E79:E82)</f>
         <v>166.75533039671973</v>
@@ -5617,12 +5617,12 @@
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A115" s="10" t="s">
+      <c r="A115" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="12"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="13"/>
       <c r="E115" s="3">
         <f t="shared" ref="E115:L115" si="30">AVERAGE(E85:E114)</f>
         <v>526.59745576763021</v>
@@ -5785,12 +5785,12 @@
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A120" s="10" t="s">
+      <c r="A120" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="12"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="13"/>
       <c r="E120" s="3">
         <f>AVERAGE(E117:E119)</f>
         <v>162.37343850247021</v>
@@ -5991,12 +5991,12 @@
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A126" s="10" t="s">
+      <c r="A126" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B126" s="11"/>
-      <c r="C126" s="11"/>
-      <c r="D126" s="12"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="13"/>
       <c r="E126" s="3">
         <f t="shared" ref="E126:L126" si="32">AVERAGE(E122:E125)</f>
         <v>175.71964800163991</v>
@@ -7150,12 +7150,12 @@
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A158" s="10" t="s">
+      <c r="A158" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B158" s="11"/>
-      <c r="C158" s="11"/>
-      <c r="D158" s="12"/>
+      <c r="B158" s="12"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="13"/>
       <c r="E158" s="3">
         <f t="shared" ref="E158:L158" si="34">AVERAGE(E128:E157)</f>
         <v>495.44599923256959</v>
@@ -7304,12 +7304,12 @@
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A162" s="10" t="s">
+      <c r="A162" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B162" s="11"/>
-      <c r="C162" s="11"/>
-      <c r="D162" s="12"/>
+      <c r="B162" s="12"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="13"/>
       <c r="E162" s="3">
         <f>AVERAGE(E159:E161)</f>
         <v>137.39203345513218</v>
@@ -7496,12 +7496,12 @@
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A167" s="10" t="s">
+      <c r="A167" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B167" s="11"/>
-      <c r="C167" s="11"/>
-      <c r="D167" s="12"/>
+      <c r="B167" s="12"/>
+      <c r="C167" s="12"/>
+      <c r="D167" s="13"/>
       <c r="E167" s="3">
         <f t="shared" ref="E167:L167" si="36">AVERAGE(E163:E166)</f>
         <v>182.7620022411071</v>
@@ -8609,12 +8609,12 @@
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A198" s="10" t="s">
+      <c r="A198" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B198" s="13"/>
-      <c r="C198" s="13"/>
-      <c r="D198" s="14"/>
+      <c r="B198" s="14"/>
+      <c r="C198" s="14"/>
+      <c r="D198" s="15"/>
       <c r="E198">
         <f>AVERAGE(E168:E197)</f>
         <v>449.48868848994567</v>
@@ -8763,12 +8763,12 @@
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A202" s="10" t="s">
+      <c r="A202" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B202" s="15"/>
-      <c r="C202" s="15"/>
-      <c r="D202" s="16"/>
+      <c r="B202" s="16"/>
+      <c r="C202" s="16"/>
+      <c r="D202" s="17"/>
       <c r="E202" s="2">
         <f>AVERAGE(E199:E201)</f>
         <v>108.07364361629573</v>
@@ -8961,12 +8961,12 @@
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A208" s="10" t="s">
+      <c r="A208" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B208" s="11"/>
-      <c r="C208" s="11"/>
-      <c r="D208" s="12"/>
+      <c r="B208" s="12"/>
+      <c r="C208" s="12"/>
+      <c r="D208" s="13"/>
       <c r="E208">
         <f>AVERAGE(E204:E207)</f>
         <v>176.11624083661209</v>
@@ -9002,21 +9002,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="A202:D202"/>
+    <mergeCell ref="A208:D208"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A158:D158"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A72:D72"/>
     <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="A162:D162"/>
-    <mergeCell ref="A167:D167"/>
-    <mergeCell ref="A198:D198"/>
-    <mergeCell ref="A202:D202"/>
-    <mergeCell ref="A208:D208"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results/Model_Analysis.xlsx
+++ b/Results/Model_Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Desktop\01Autonomous_Vehicles_Research\00Thesis\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2899FA94-0798-413B-95D6-AFB30C7DABC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48A0B48-2E15-434B-9C32-121F42196AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11544" yWindow="1488" windowWidth="11424" windowHeight="10584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_Performance" sheetId="1" r:id="rId1"/>
@@ -603,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O10" zoomScale="92" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" topLeftCell="M10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1609,35 +1609,35 @@
       </c>
       <c r="P14" s="9">
         <f t="shared" ref="P14:W14" si="13">E198</f>
-        <v>449.48868848994567</v>
+        <v>414.08721924720351</v>
       </c>
       <c r="Q14" s="9">
         <f t="shared" si="13"/>
-        <v>0.39194828323388553</v>
+        <v>0.36828938073396694</v>
       </c>
       <c r="R14" s="9">
         <f t="shared" si="13"/>
-        <v>0.54811048477685076</v>
+        <v>0.53821495918167739</v>
       </c>
       <c r="S14" s="9">
         <f t="shared" si="13"/>
-        <v>0.38760360973950736</v>
+        <v>0.38418891651063436</v>
       </c>
       <c r="T14" s="9">
         <f t="shared" si="13"/>
-        <v>3.2388017952581145</v>
+        <v>2.9934041096486168</v>
       </c>
       <c r="U14" s="9">
         <f t="shared" si="13"/>
-        <v>5.7544629757983849E-2</v>
+        <v>6.4074267326496487E-2</v>
       </c>
       <c r="V14" s="9">
         <f t="shared" si="13"/>
-        <v>436.35208188660937</v>
+        <v>389.79928034696729</v>
       </c>
       <c r="W14" s="9">
         <f t="shared" si="13"/>
-        <v>0.92776962456778145</v>
+        <v>0.89259314360063202</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -1686,35 +1686,35 @@
       </c>
       <c r="P15" s="9">
         <f t="shared" ref="P15:W15" si="14">E202</f>
-        <v>108.07364361629573</v>
+        <v>106.42057258468621</v>
       </c>
       <c r="Q15" s="9">
         <f t="shared" si="14"/>
-        <v>4.6762438172254499E-2</v>
+        <v>4.5797555083146368E-2</v>
       </c>
       <c r="R15" s="9">
         <f t="shared" si="14"/>
-        <v>0.20555280601552203</v>
+        <v>0.20446091705627198</v>
       </c>
       <c r="S15" s="9">
         <f t="shared" si="14"/>
-        <v>0.16236091782333631</v>
+        <v>0.16124032867131666</v>
       </c>
       <c r="T15" s="9">
         <f t="shared" si="14"/>
-        <v>7.9542776796672401</v>
+        <v>8.3018475275963421</v>
       </c>
       <c r="U15" s="9">
         <f t="shared" si="14"/>
-        <v>4.4771327597002836E-2</v>
+        <v>4.4943449380965533E-2</v>
       </c>
       <c r="V15" s="9">
         <f t="shared" si="14"/>
-        <v>32.887650313425063</v>
+        <v>31.795367926746703</v>
       </c>
       <c r="W15" s="9">
         <f t="shared" si="14"/>
-        <v>0.9717783286173387</v>
+        <v>0.97146711262817231</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
@@ -1763,35 +1763,35 @@
       </c>
       <c r="P16" s="9">
         <f t="shared" ref="P16:W16" si="15">E208</f>
-        <v>176.11624083661209</v>
+        <v>176.83473209234066</v>
       </c>
       <c r="Q16" s="9">
         <f t="shared" si="15"/>
-        <v>0.36866938336464872</v>
+        <v>0.36964932393306305</v>
       </c>
       <c r="R16" s="9">
         <f t="shared" si="15"/>
-        <v>0.57720082551187746</v>
+        <v>0.57702394191090745</v>
       </c>
       <c r="S16" s="9">
         <f t="shared" si="15"/>
-        <v>0.44637471850977278</v>
+        <v>0.44849219841996479</v>
       </c>
       <c r="T16" s="9">
         <f t="shared" si="15"/>
-        <v>22.62339879180216</v>
+        <v>22.66512867884483</v>
       </c>
       <c r="U16" s="9">
         <f t="shared" si="15"/>
-        <v>7.1955082529846323E-2</v>
+        <v>7.2120105699937417E-2</v>
       </c>
       <c r="V16" s="9">
         <f t="shared" si="15"/>
-        <v>152.27686960071503</v>
+        <v>152.22381603922474</v>
       </c>
       <c r="W16" s="9">
         <f t="shared" si="15"/>
-        <v>0.91701458295720228</v>
+        <v>0.91628372868095875</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
@@ -2405,35 +2405,35 @@
       </c>
       <c r="P27" s="5">
         <f>AVERAGE(P14:P16)</f>
-        <v>244.55952431428452</v>
+        <v>232.44750797474344</v>
       </c>
       <c r="Q27" s="5">
         <f t="shared" ref="Q27:W27" si="21">AVERAGE(Q14:Q16)</f>
-        <v>0.26912670159026292</v>
+        <v>0.26124541991672545</v>
       </c>
       <c r="R27" s="5">
         <f t="shared" si="21"/>
-        <v>0.44362137210141678</v>
+        <v>0.4398999393829523</v>
       </c>
       <c r="S27" s="5">
         <f t="shared" si="21"/>
-        <v>0.33211308202420547</v>
+        <v>0.33130714786730525</v>
       </c>
       <c r="T27" s="5">
         <f t="shared" si="21"/>
-        <v>11.272159422242504</v>
+        <v>11.32012677202993</v>
       </c>
       <c r="U27" s="5">
         <f t="shared" si="21"/>
-        <v>5.8090346628277667E-2</v>
+        <v>6.0379274135799819E-2</v>
       </c>
       <c r="V27" s="5">
         <f t="shared" si="21"/>
-        <v>207.17220060024979</v>
+        <v>191.27282143764623</v>
       </c>
       <c r="W27" s="5">
         <f t="shared" si="21"/>
-        <v>0.93885417871410759</v>
+        <v>0.92678132830325433</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
@@ -7549,28 +7549,28 @@
         <v>1</v>
       </c>
       <c r="E168">
-        <v>303.72656715596003</v>
+        <v>328.75396720271402</v>
       </c>
       <c r="F168">
-        <v>8.6711639350976394E-2</v>
+        <v>9.7475087629836102E-2</v>
       </c>
       <c r="G168">
-        <v>0.294468401277584</v>
+        <v>0.31221000565298301</v>
       </c>
       <c r="H168">
-        <v>0.23399581444989201</v>
+        <v>0.25327732450132001</v>
       </c>
       <c r="I168">
-        <v>0.88410736852656502</v>
+        <v>0.959437208886049</v>
       </c>
       <c r="J168">
-        <v>5.6957137577869202E-2</v>
+        <v>6.0388782524754998E-2</v>
       </c>
       <c r="K168">
-        <v>112.551707877567</v>
+        <v>126.522663743527</v>
       </c>
       <c r="L168">
-        <v>0.951830839416962</v>
+        <v>0.94585163901835001</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
@@ -7588,28 +7588,28 @@
         <v>1</v>
       </c>
       <c r="E169">
-        <v>236.291603476289</v>
+        <v>239.27993886991899</v>
       </c>
       <c r="F169">
-        <v>5.5657367650852198E-2</v>
+        <v>5.57490247649233E-2</v>
       </c>
       <c r="G169">
-        <v>0.23591813760466199</v>
+        <v>0.23611231387821199</v>
       </c>
       <c r="H169">
-        <v>0.182042837809159</v>
+        <v>0.18434509928345</v>
       </c>
       <c r="I169">
-        <v>0.68866385438945998</v>
+        <v>0.69787798435165105</v>
       </c>
       <c r="J169">
-        <v>4.6624137866533903E-2</v>
+        <v>4.6662512624152497E-2</v>
       </c>
       <c r="K169">
-        <v>72.243263210806205</v>
+        <v>72.362234144870499</v>
       </c>
       <c r="L169">
-        <v>0.96552747984060106</v>
+        <v>0.96547071014692099</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
@@ -7627,28 +7627,28 @@
         <v>1</v>
       </c>
       <c r="E170">
-        <v>312.675479805674</v>
+        <v>312.81669094400598</v>
       </c>
       <c r="F170">
-        <v>7.0410635622333198E-2</v>
+        <v>7.0574058730522402E-2</v>
       </c>
       <c r="G170">
-        <v>0.26535002472646002</v>
+        <v>0.26565778499890103</v>
       </c>
       <c r="H170">
-        <v>0.222228486002611</v>
+        <v>0.22232884928500801</v>
       </c>
       <c r="I170">
-        <v>0.84869735475011199</v>
+        <v>0.847833245678139</v>
       </c>
       <c r="J170">
-        <v>4.7553767872125501E-2</v>
+        <v>4.7608922042813799E-2</v>
       </c>
       <c r="K170">
-        <v>99.0677643206228</v>
+        <v>99.297700633844997</v>
       </c>
       <c r="L170">
-        <v>0.96621770990131095</v>
+        <v>0.96613930119500002</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -7665,6 +7665,30 @@
       <c r="D171" s="2">
         <v>3</v>
       </c>
+      <c r="E171">
+        <v>287.16634690772401</v>
+      </c>
+      <c r="F171">
+        <v>0.311177479263817</v>
+      </c>
+      <c r="G171">
+        <v>0.55783284168630398</v>
+      </c>
+      <c r="H171">
+        <v>0.43576076920747298</v>
+      </c>
+      <c r="I171">
+        <v>1.6575680318505499</v>
+      </c>
+      <c r="J171">
+        <v>8.2641902472045101E-2</v>
+      </c>
+      <c r="K171">
+        <v>205.065958834855</v>
+      </c>
+      <c r="L171">
+        <v>0.845437908438468</v>
+      </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
@@ -7680,6 +7704,30 @@
       <c r="D172" s="2">
         <v>3</v>
       </c>
+      <c r="E172">
+        <v>215.031003158066</v>
+      </c>
+      <c r="F172">
+        <v>0.25527262998974598</v>
+      </c>
+      <c r="G172">
+        <v>0.50524511871936495</v>
+      </c>
+      <c r="H172">
+        <v>0.33286532996604601</v>
+      </c>
+      <c r="I172">
+        <v>1.2538310470379299</v>
+      </c>
+      <c r="J172">
+        <v>0.11430885038899601</v>
+      </c>
+      <c r="K172">
+        <v>164.90611897337499</v>
+      </c>
+      <c r="L172">
+        <v>0.58552042967330198</v>
+      </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
@@ -7696,28 +7744,28 @@
         <v>3</v>
       </c>
       <c r="E173">
-        <v>166.87117184333101</v>
+        <v>166.922417903915</v>
       </c>
       <c r="F173">
-        <v>0.24527474338310601</v>
+        <v>0.24624332505892499</v>
       </c>
       <c r="G173">
-        <v>0.49525220179531398</v>
+        <v>0.49622910541293802</v>
       </c>
       <c r="H173">
-        <v>0.374991397400744</v>
+        <v>0.375106557087451</v>
       </c>
       <c r="I173">
-        <v>1.4088475362336801</v>
+        <v>1.4112774176512199</v>
       </c>
       <c r="J173">
-        <v>7.5152079179865494E-2</v>
+        <v>7.5300319486030096E-2</v>
       </c>
       <c r="K173">
-        <v>109.14726080548201</v>
+        <v>109.578279651221</v>
       </c>
       <c r="L173">
-        <v>0.92711832193319899</v>
+        <v>0.92683051464858102</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -7734,6 +7782,30 @@
       <c r="D174" s="2">
         <v>7</v>
       </c>
+      <c r="E174">
+        <v>70.955642508338002</v>
+      </c>
+      <c r="F174">
+        <v>0.231073900967152</v>
+      </c>
+      <c r="G174">
+        <v>0.48070146761493499</v>
+      </c>
+      <c r="H174">
+        <v>0.36575073457906199</v>
+      </c>
+      <c r="I174">
+        <v>1.43756158532013</v>
+      </c>
+      <c r="J174">
+        <v>0.12922082462767001</v>
+      </c>
+      <c r="K174">
+        <v>44.828336787627599</v>
+      </c>
+      <c r="L174">
+        <v>0.85984484697489505</v>
+      </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
@@ -7750,28 +7822,28 @@
         <v>7</v>
       </c>
       <c r="E175">
-        <v>512.31523460338406</v>
+        <v>500.17842676068602</v>
       </c>
       <c r="F175">
-        <v>0.63530771496526495</v>
+        <v>0.56870984490750598</v>
       </c>
       <c r="G175">
-        <v>0.79706192668152498</v>
+        <v>0.75412853341290997</v>
       </c>
       <c r="H175">
-        <v>0.48838439904993702</v>
+        <v>0.47681451550113002</v>
       </c>
       <c r="I175">
-        <v>1.9287244015570799</v>
+        <v>1.8918904922684201</v>
       </c>
       <c r="J175">
-        <v>7.4631266543213906E-2</v>
+        <v>7.0611285900085197E-2</v>
       </c>
       <c r="K175">
-        <v>666.43779299856305</v>
+        <v>596.57662730797404</v>
       </c>
       <c r="L175">
-        <v>0.75892303244792403</v>
+        <v>0.78419458539896802</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -7789,28 +7861,28 @@
         <v>7</v>
       </c>
       <c r="E176">
-        <v>113.09799923014501</v>
+        <v>113.779839693021</v>
       </c>
       <c r="F176">
-        <v>9.2844340100856904E-2</v>
+        <v>9.3946002173495996E-2</v>
       </c>
       <c r="G176">
-        <v>0.30470369229935002</v>
+        <v>0.30650612093968999</v>
       </c>
       <c r="H176">
-        <v>0.25021681245607302</v>
+        <v>0.251725309055358</v>
       </c>
       <c r="I176">
-        <v>0.99654123584356002</v>
+        <v>1.00275487404597</v>
       </c>
       <c r="J176">
-        <v>8.7058197799814205E-2</v>
+        <v>8.7573177411340006E-2</v>
       </c>
       <c r="K176">
-        <v>41.965641725587297</v>
+        <v>42.463592982420202</v>
       </c>
       <c r="L176">
-        <v>0.922576113970769</v>
+        <v>0.92165742621164304</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
@@ -7828,28 +7900,28 @@
         <v>8</v>
       </c>
       <c r="E177">
-        <v>683.85989338158595</v>
+        <v>695.90843322232502</v>
       </c>
       <c r="F177">
-        <v>0.12497453936655201</v>
+        <v>0.12965657802864999</v>
       </c>
       <c r="G177">
-        <v>0.353517381986448</v>
+        <v>0.360078572020955</v>
       </c>
       <c r="H177">
-        <v>0.27981174033616402</v>
+        <v>0.28474158478818501</v>
       </c>
       <c r="I177">
-        <v>22.8480887991138</v>
+        <v>23.039319107406001</v>
       </c>
       <c r="J177">
-        <v>2.08811212041611E-2</v>
+        <v>2.1268669345596802E-2</v>
       </c>
       <c r="K177">
-        <v>305.43777421185303</v>
+        <v>316.88067670202099</v>
       </c>
       <c r="L177">
-        <v>0.993689233552012</v>
+        <v>0.99345280737555497</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
@@ -7867,28 +7939,28 @@
         <v>8</v>
       </c>
       <c r="E178">
-        <v>1023.13984594334</v>
+        <v>1020.42074414451</v>
       </c>
       <c r="F178">
-        <v>0.160906296731122</v>
+        <v>0.16056064920816801</v>
       </c>
       <c r="G178">
-        <v>0.40113127119575498</v>
+        <v>0.40070019866250201</v>
       </c>
       <c r="H178">
-        <v>0.28077383258598798</v>
+        <v>0.28002764658191798</v>
       </c>
       <c r="I178">
-        <v>8.04363079984922</v>
+        <v>8.0438474333454497</v>
       </c>
       <c r="J178">
-        <v>1.8519449270348799E-2</v>
+        <v>1.8499547491343599E-2</v>
       </c>
       <c r="K178">
-        <v>586.342545288211</v>
+        <v>585.08300571456698</v>
       </c>
       <c r="L178">
-        <v>0.99457593586551896</v>
+        <v>0.99458758745635401</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
@@ -7906,28 +7978,28 @@
         <v>8</v>
       </c>
       <c r="E179">
-        <v>965.68531516375106</v>
+        <v>966.83662715740002</v>
       </c>
       <c r="F179">
-        <v>0.121934612926296</v>
+        <v>0.12154629841782399</v>
       </c>
       <c r="G179">
-        <v>0.34919137006274398</v>
+        <v>0.34863490705582501</v>
       </c>
       <c r="H179">
-        <v>0.26500694708116102</v>
+        <v>0.26532289439006601</v>
       </c>
       <c r="I179">
-        <v>12.5336319207283</v>
+        <v>12.4480223993788</v>
       </c>
       <c r="J179">
-        <v>1.7295263499888198E-2</v>
+        <v>1.7267702182061601E-2</v>
       </c>
       <c r="K179">
-        <v>444.32972950342401</v>
+        <v>442.91471143454999</v>
       </c>
       <c r="L179">
-        <v>0.99583594707619705</v>
+        <v>0.99584920797173404</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
@@ -7945,28 +8017,28 @@
         <v>9</v>
       </c>
       <c r="E180">
-        <v>205.41900349256801</v>
+        <v>206.13732467028899</v>
       </c>
       <c r="F180">
-        <v>0.28525690222375699</v>
+        <v>0.29723481632250098</v>
       </c>
       <c r="G180">
-        <v>0.53409446938136096</v>
+        <v>0.54519245805724503</v>
       </c>
       <c r="H180">
-        <v>0.416671406678638</v>
+        <v>0.41812844760707801</v>
       </c>
       <c r="I180">
-        <v>1.4705393871011101</v>
+        <v>1.4820650447122501</v>
       </c>
       <c r="J180">
-        <v>0.10271047488103099</v>
+        <v>0.104844703472547</v>
       </c>
       <c r="K180">
-        <v>140.63165279631201</v>
+        <v>146.536764446993</v>
       </c>
       <c r="L180">
-        <v>0.78699022824620002</v>
+        <v>0.77804596527352499</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
@@ -7984,28 +8056,28 @@
         <v>9</v>
       </c>
       <c r="E181">
-        <v>51.581561291377099</v>
+        <v>51.039030765119101</v>
       </c>
       <c r="F181">
-        <v>8.4949093607398204E-2</v>
+        <v>9.52261445170339E-2</v>
       </c>
       <c r="G181">
-        <v>0.291460277923764</v>
+        <v>0.30858733693564599</v>
       </c>
       <c r="H181">
-        <v>0.21492317204740399</v>
+        <v>0.212662628187996</v>
       </c>
       <c r="I181">
-        <v>0.85325712529124598</v>
+        <v>0.83557239170041697</v>
       </c>
       <c r="J181">
-        <v>4.9737248792451297E-2</v>
+        <v>5.2659955108471997E-2</v>
       </c>
       <c r="K181">
-        <v>20.387782465775501</v>
+        <v>22.8542746840881</v>
       </c>
       <c r="L181">
-        <v>0.97204171813260798</v>
+        <v>0.96865935495607902</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
@@ -8023,28 +8095,28 @@
         <v>9</v>
       </c>
       <c r="E182">
-        <v>707.645880399661</v>
+        <v>701.86202026114597</v>
       </c>
       <c r="F182">
-        <v>0.57293264188223403</v>
+        <v>0.56256988865439606</v>
       </c>
       <c r="G182">
-        <v>0.756923141330897</v>
+        <v>0.75004659098911697</v>
       </c>
       <c r="H182">
-        <v>0.60846593327571896</v>
+        <v>0.603492708737013</v>
       </c>
       <c r="I182">
-        <v>2.3078842358095302</v>
+        <v>2.28737615296177</v>
       </c>
       <c r="J182">
-        <v>6.3929319369163601E-2</v>
+        <v>6.3348529644351101E-2</v>
       </c>
       <c r="K182">
-        <v>666.32066250903802</v>
+        <v>654.26878050506298</v>
       </c>
       <c r="L182">
-        <v>0.95102055342436598</v>
+        <v>0.95190645497892201</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
@@ -8062,28 +8134,28 @@
         <v>11</v>
       </c>
       <c r="E183">
-        <v>87.694946665853095</v>
+        <v>86.993001324316793</v>
       </c>
       <c r="F183">
-        <v>9.8319340911323105E-2</v>
+        <v>9.5083288349002301E-2</v>
       </c>
       <c r="G183">
-        <v>0.313559150578201</v>
+        <v>0.308355782091081</v>
       </c>
       <c r="H183">
-        <v>0.281977320468981</v>
+        <v>0.27972026149298002</v>
       </c>
       <c r="I183">
-        <v>1.61399582241081</v>
+        <v>1.62033673182824</v>
       </c>
       <c r="J183">
-        <v>2.70542839152891E-2</v>
+        <v>2.6605330637711901E-2</v>
       </c>
       <c r="K183">
-        <v>30.577315023421502</v>
+        <v>29.570902676539699</v>
       </c>
       <c r="L183">
-        <v>0.99063346806112196</v>
+        <v>0.99094175521398498</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
@@ -8101,28 +8173,28 @@
         <v>11</v>
       </c>
       <c r="E184">
-        <v>364.200450023163</v>
+        <v>364.23103158391598</v>
       </c>
       <c r="F184">
-        <v>0.28681854236124499</v>
+        <v>0.27701865269946002</v>
       </c>
       <c r="G184">
-        <v>0.53555442520928298</v>
+        <v>0.52632561470962003</v>
       </c>
       <c r="H184">
-        <v>0.34818398663782302</v>
+        <v>0.348213223311583</v>
       </c>
       <c r="I184">
-        <v>1.54902223792536</v>
+        <v>1.5711602158234601</v>
       </c>
       <c r="J184">
-        <v>3.2398936794269903E-2</v>
+        <v>3.1840630048978802E-2</v>
       </c>
       <c r="K184">
-        <v>300.01219530986202</v>
+        <v>289.76151072363501</v>
       </c>
       <c r="L184">
-        <v>0.96478902771841302</v>
+        <v>0.96599210071502895</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
@@ -8140,28 +8212,28 @@
         <v>11</v>
       </c>
       <c r="E185">
-        <v>728.21004381627404</v>
+        <v>726.73487098658597</v>
       </c>
       <c r="F185">
-        <v>1.4054353112792399</v>
+        <v>1.39840327293832</v>
       </c>
       <c r="G185">
-        <v>1.18551056987242</v>
+        <v>1.1825410237866201</v>
       </c>
       <c r="H185">
-        <v>0.82190749866396595</v>
+        <v>0.82024251804355097</v>
       </c>
       <c r="I185">
-        <v>5.3064269031910003</v>
+        <v>5.3009742490125999</v>
       </c>
       <c r="J185">
-        <v>5.2971875329420298E-2</v>
+        <v>5.2839187836757097E-2</v>
       </c>
       <c r="K185">
-        <v>1245.2156857934101</v>
+        <v>1238.98529982335</v>
       </c>
       <c r="L185">
-        <v>0.93402177624003402</v>
+        <v>0.934351895595527</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
@@ -8179,28 +8251,28 @@
         <v>18</v>
       </c>
       <c r="E186">
-        <v>784.38200801395396</v>
+        <v>782.66627149194096</v>
       </c>
       <c r="F186">
-        <v>1.64887028037684</v>
+        <v>1.6478552681538301</v>
       </c>
       <c r="G186">
-        <v>1.2840834398032099</v>
+        <v>1.2836881506634801</v>
       </c>
       <c r="H186">
-        <v>0.66869736403576696</v>
+        <v>0.66723467305365802</v>
       </c>
       <c r="I186">
-        <v>2.8366844277298702</v>
+        <v>2.8306068231997599</v>
       </c>
       <c r="J186">
-        <v>5.6171629037760698E-2</v>
+        <v>5.6154337299364997E-2</v>
       </c>
       <c r="K186">
-        <v>1934.12483888204</v>
+        <v>1932.9342295444401</v>
       </c>
       <c r="L186">
-        <v>0.92962614110631503</v>
+        <v>0.92966946187436295</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
@@ -8218,28 +8290,28 @@
         <v>18</v>
       </c>
       <c r="E187">
-        <v>813.60001218876005</v>
+        <v>817.35297840765304</v>
       </c>
       <c r="F187">
-        <v>1.7016472443761801</v>
+        <v>1.7035326360686001</v>
       </c>
       <c r="G187">
-        <v>1.3044720174753399</v>
+        <v>1.3051944820863299</v>
       </c>
       <c r="H187">
-        <v>0.70380623891761196</v>
+        <v>0.70705274948758901</v>
       </c>
       <c r="I187">
-        <v>3.6614565748230299</v>
+        <v>3.6768807345454801</v>
       </c>
       <c r="J187">
-        <v>6.1735542710617201E-2</v>
+        <v>6.1769734126186901E-2</v>
       </c>
       <c r="K187">
-        <v>1967.1042144988701</v>
+        <v>1969.2837272953</v>
       </c>
       <c r="L187">
-        <v>0.91583401995352098</v>
+        <v>0.91574076570233098</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
@@ -8257,28 +8329,28 @@
         <v>18</v>
       </c>
       <c r="E188">
-        <v>607.630682781818</v>
+        <v>599.316034262838</v>
       </c>
       <c r="F188">
-        <v>0.66743382330632695</v>
+        <v>0.65059425624818901</v>
       </c>
       <c r="G188">
-        <v>0.81696623143574698</v>
+        <v>0.80659423271443598</v>
       </c>
       <c r="H188">
-        <v>0.60042557587136103</v>
+        <v>0.59220952002256799</v>
       </c>
       <c r="I188">
-        <v>2.4387264240285398</v>
+        <v>2.33248124011486</v>
       </c>
       <c r="J188">
-        <v>7.8781700234883997E-2</v>
+        <v>7.7781507494159602E-2</v>
       </c>
       <c r="K188">
-        <v>675.44302918600295</v>
+        <v>658.40138732316802</v>
       </c>
       <c r="L188">
-        <v>0.88429990927664404</v>
+        <v>0.88721905926325495</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
@@ -8296,28 +8368,28 @@
         <v>19</v>
       </c>
       <c r="E189">
-        <v>561.26099454977498</v>
+        <v>564.92745259059404</v>
       </c>
       <c r="F189">
-        <v>0.49403146740538501</v>
+        <v>0.49569771339257601</v>
       </c>
       <c r="G189">
-        <v>0.70287372081006505</v>
+        <v>0.704058032688056</v>
       </c>
       <c r="H189">
-        <v>0.57624332089299302</v>
+        <v>0.58000765153038403</v>
       </c>
       <c r="I189">
-        <v>2.2967827424036198</v>
+        <v>2.3120817290357301</v>
       </c>
       <c r="J189">
-        <v>9.0459938328193698E-2</v>
+        <v>9.0612359419312297E-2</v>
       </c>
       <c r="K189">
-        <v>481.18664925284497</v>
+        <v>482.80957284436897</v>
       </c>
       <c r="L189">
-        <v>0.83067966106672397</v>
+        <v>0.830108585429013</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
@@ -8335,28 +8407,28 @@
         <v>19</v>
       </c>
       <c r="E190">
-        <v>196.16452209751901</v>
+        <v>194.42384427969</v>
       </c>
       <c r="F190">
-        <v>0.18293603631014399</v>
+        <v>0.179173950904393</v>
       </c>
       <c r="G190">
-        <v>0.42771022469674902</v>
+        <v>0.42328944104996702</v>
       </c>
       <c r="H190">
-        <v>0.31087879888671799</v>
+        <v>0.30812019695671999</v>
       </c>
       <c r="I190">
-        <v>1.24565547914034</v>
+        <v>1.23525726542368</v>
       </c>
       <c r="J190">
-        <v>6.71444622757848E-2</v>
+        <v>6.6450461703291497E-2</v>
       </c>
       <c r="K190">
-        <v>115.4326389117</v>
+        <v>113.058763020672</v>
       </c>
       <c r="L190">
-        <v>0.92391033611579299</v>
+        <v>0.92547512247391595</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
@@ -8374,28 +8446,28 @@
         <v>19</v>
       </c>
       <c r="E191">
-        <v>336.10613515727903</v>
+        <v>333.21090219829199</v>
       </c>
       <c r="F191">
-        <v>0.101919259485106</v>
+        <v>0.101615367196804</v>
       </c>
       <c r="G191">
-        <v>0.319247959249713</v>
+        <v>0.31877165369085803</v>
       </c>
       <c r="H191">
-        <v>0.26299384597596098</v>
+        <v>0.26072840547597198</v>
       </c>
       <c r="I191">
-        <v>1.0543485857738699</v>
+        <v>1.04616433190195</v>
       </c>
       <c r="J191">
-        <v>4.94191887383457E-2</v>
+        <v>4.9345457227687101E-2</v>
       </c>
       <c r="K191">
-        <v>130.252813621966</v>
+        <v>129.864439277516</v>
       </c>
       <c r="L191">
-        <v>0.95719009638702601</v>
+        <v>0.95731774252217905</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
@@ -8412,6 +8484,30 @@
       <c r="D192" s="2">
         <v>20</v>
       </c>
+      <c r="E192">
+        <v>149.16815208504599</v>
+      </c>
+      <c r="F192">
+        <v>0.19240806154426601</v>
+      </c>
+      <c r="G192">
+        <v>0.43864343326244598</v>
+      </c>
+      <c r="H192">
+        <v>0.31470074279545701</v>
+      </c>
+      <c r="I192">
+        <v>1.2280584174559399</v>
+      </c>
+      <c r="J192">
+        <v>0.10672589617091099</v>
+      </c>
+      <c r="K192">
+        <v>91.201421171982304</v>
+      </c>
+      <c r="L192">
+        <v>0.32596834151972398</v>
+      </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
@@ -8428,28 +8524,28 @@
         <v>20</v>
       </c>
       <c r="E193">
-        <v>343.51365057305401</v>
+        <v>332.55920304362297</v>
       </c>
       <c r="F193">
-        <v>0.12436491424769</v>
+        <v>0.119100793951257</v>
       </c>
       <c r="G193">
-        <v>0.35265410000124803</v>
+        <v>0.345109828824473</v>
       </c>
       <c r="H193">
-        <v>0.25055700260616598</v>
+        <v>0.242566887705049</v>
       </c>
       <c r="I193">
-        <v>0.97961992594706404</v>
+        <v>0.94818924869261501</v>
       </c>
       <c r="J193">
-        <v>6.1652814685532797E-2</v>
+        <v>6.0333886158124697E-2</v>
       </c>
       <c r="K193">
-        <v>170.50429743358299</v>
+        <v>163.28718850717399</v>
       </c>
       <c r="L193">
-        <v>0.85888215219748398</v>
+        <v>0.86485539096261199</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
@@ -8467,28 +8563,28 @@
         <v>20</v>
       </c>
       <c r="E194">
-        <v>474.50915361142302</v>
+        <v>491.79162375425199</v>
       </c>
       <c r="F194">
-        <v>0.22865870947959599</v>
+        <v>0.19378447260326601</v>
       </c>
       <c r="G194">
-        <v>0.47818271558013897</v>
+        <v>0.44020957804580502</v>
       </c>
       <c r="H194">
-        <v>0.34211186273354199</v>
+        <v>0.35457218727775902</v>
       </c>
       <c r="I194">
-        <v>1.3747635678783099</v>
+        <v>1.39270484303356</v>
       </c>
       <c r="J194">
-        <v>7.5542293140622302E-2</v>
+        <v>6.9543377258421094E-2</v>
       </c>
       <c r="K194">
-        <v>317.14963004819998</v>
+        <v>268.77906350072999</v>
       </c>
       <c r="L194">
-        <v>0.87935212696071297</v>
+        <v>0.89775292399386897</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
@@ -8506,28 +8602,28 @@
         <v>21</v>
       </c>
       <c r="E195">
-        <v>372.70647895534802</v>
+        <v>377.88184234391503</v>
       </c>
       <c r="F195">
-        <v>0.15763039800557099</v>
+        <v>0.156863492581365</v>
       </c>
       <c r="G195">
-        <v>0.39702694871453198</v>
+        <v>0.39605996084098799</v>
       </c>
       <c r="H195">
-        <v>0.28150036174875198</v>
+        <v>0.28540924648332</v>
       </c>
       <c r="I195">
-        <v>1.2700167462249099</v>
+        <v>1.2859111359831299</v>
       </c>
       <c r="J195">
-        <v>4.1792310391003298E-2</v>
+        <v>4.1690522193788201E-2</v>
       </c>
       <c r="K195">
-        <v>208.70264695937701</v>
+        <v>207.687264177727</v>
       </c>
       <c r="L195">
-        <v>0.97997022012719903</v>
+        <v>0.98006766926787503</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
@@ -8545,28 +8641,28 @@
         <v>21</v>
       </c>
       <c r="E196">
-        <v>191.430151239786</v>
+        <v>190.87643141769601</v>
       </c>
       <c r="F196">
-        <v>0.27483531188681498</v>
+        <v>0.27076635427131401</v>
       </c>
       <c r="G196">
-        <v>0.524247376614147</v>
+        <v>0.52035214448612899</v>
       </c>
       <c r="H196">
-        <v>0.40386107856494902</v>
+        <v>0.402692893286279</v>
       </c>
       <c r="I196">
-        <v>1.9693607442626899</v>
+        <v>1.96659678893338</v>
       </c>
       <c r="J196">
-        <v>8.8855487561719806E-2</v>
+        <v>8.8195278726462698E-2</v>
       </c>
       <c r="K196">
-        <v>130.27193783435001</v>
+        <v>128.34325192460199</v>
       </c>
       <c r="L196">
-        <v>0.91716714314093795</v>
+        <v>0.91839348986260405</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
@@ -8584,28 +8680,28 @@
         <v>21</v>
       </c>
       <c r="E197">
-        <v>542.98711527751504</v>
+        <v>533.39448347656798</v>
       </c>
       <c r="F197">
-        <v>0.28059419683881298</v>
+        <v>0.26976811248187199</v>
       </c>
       <c r="G197">
-        <v>0.52971142789146297</v>
+        <v>0.51939206047250297</v>
       </c>
       <c r="H197">
-        <v>0.40703681804911201</v>
+        <v>0.39984593963760701</v>
       </c>
       <c r="I197">
-        <v>1.7993724757779199</v>
+        <v>1.7584851178793901</v>
       </c>
       <c r="J197">
-        <v>5.1130446707670203E-2</v>
+        <v>5.0134368771477103E-2</v>
       </c>
       <c r="K197">
-        <v>374.31265858297598</v>
+        <v>359.87066205081697</v>
       </c>
       <c r="L197">
-        <v>0.96930704660271905</v>
+        <v>0.97049126390438101</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
@@ -8617,35 +8713,35 @@
       <c r="D198" s="15"/>
       <c r="E198">
         <f>AVERAGE(E168:E197)</f>
-        <v>449.48868848994567</v>
+        <v>414.08721924720351</v>
       </c>
       <c r="F198">
         <f t="shared" ref="F198:L198" si="38">AVERAGE(F168:F197)</f>
-        <v>0.39194828323388553</v>
+        <v>0.36828938073396694</v>
       </c>
       <c r="G198">
         <f t="shared" si="38"/>
-        <v>0.54811048477685076</v>
+        <v>0.53821495918167739</v>
       </c>
       <c r="H198">
         <f t="shared" si="38"/>
-        <v>0.38760360973950736</v>
+        <v>0.38418891651063436</v>
       </c>
       <c r="I198">
         <f t="shared" si="38"/>
-        <v>3.2388017952581145</v>
+        <v>2.9934041096486168</v>
       </c>
       <c r="J198">
         <f t="shared" si="38"/>
-        <v>5.7544629757983849E-2</v>
+        <v>6.4074267326496487E-2</v>
       </c>
       <c r="K198">
         <f t="shared" si="38"/>
-        <v>436.35208188660937</v>
+        <v>389.79928034696729</v>
       </c>
       <c r="L198">
         <f t="shared" si="38"/>
-        <v>0.92776962456778145</v>
+        <v>0.89259314360063202</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
@@ -8662,28 +8758,28 @@
         <v>1</v>
       </c>
       <c r="E199">
-        <v>200.53519508283799</v>
+        <v>194.56357551482401</v>
       </c>
       <c r="F199">
-        <v>8.5688032053288898E-2</v>
+        <v>8.1136138797468699E-2</v>
       </c>
       <c r="G199">
-        <v>0.29272518178880502</v>
+        <v>0.28484406049182098</v>
       </c>
       <c r="H199">
-        <v>0.23129780286371199</v>
+        <v>0.224410121701066</v>
       </c>
       <c r="I199">
-        <v>15.380846553166201</v>
+        <v>16.415843869869299</v>
       </c>
       <c r="J199">
-        <v>3.63633766197273E-2</v>
+        <v>3.5384355340598903E-2</v>
       </c>
       <c r="K199">
-        <v>74.291523790201495</v>
+        <v>70.3450323374053</v>
       </c>
       <c r="L199">
-        <v>0.97822649682504303</v>
+        <v>0.97938314215675004</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
@@ -8700,28 +8796,28 @@
         <v>2</v>
       </c>
       <c r="E200">
-        <v>72.378825369935399</v>
+        <v>71.962128032240599</v>
       </c>
       <c r="F200">
-        <v>1.6721071601737001E-2</v>
+        <v>1.7016827241404901E-2</v>
       </c>
       <c r="G200">
-        <v>0.12930998260666801</v>
+        <v>0.130448561668593</v>
       </c>
       <c r="H200">
-        <v>0.107069268298721</v>
+        <v>0.106452852118699</v>
       </c>
       <c r="I200">
-        <v>5.2449753054717103</v>
+        <v>5.1530461027063303</v>
       </c>
       <c r="J200">
-        <v>2.7689503770164599E-2</v>
+        <v>2.7933310849805899E-2</v>
       </c>
       <c r="K200">
-        <v>11.3034444027742</v>
+        <v>11.503375215189701</v>
       </c>
       <c r="L200">
-        <v>0.99067337450059201</v>
+        <v>0.99050840887182001</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
@@ -8738,28 +8834,28 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>51.3069103961138</v>
+        <v>52.736014206994</v>
       </c>
       <c r="F201">
-        <v>3.78782108617376E-2</v>
+        <v>3.9239699210565498E-2</v>
       </c>
       <c r="G201">
-        <v>0.19462325365109301</v>
+        <v>0.198090129008402</v>
       </c>
       <c r="H201">
-        <v>0.14871568230757601</v>
+        <v>0.15285801219418499</v>
       </c>
       <c r="I201">
-        <v>3.23701118036381</v>
+        <v>3.3366526102134002</v>
       </c>
       <c r="J201">
-        <v>7.0261102401116604E-2</v>
+        <v>7.1512681952491802E-2</v>
       </c>
       <c r="K201">
-        <v>13.067982747299499</v>
+        <v>13.5376962276451</v>
       </c>
       <c r="L201">
-        <v>0.94643511452638096</v>
+        <v>0.944509786855947</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
@@ -8771,35 +8867,35 @@
       <c r="D202" s="17"/>
       <c r="E202" s="2">
         <f>AVERAGE(E199:E201)</f>
-        <v>108.07364361629573</v>
+        <v>106.42057258468621</v>
       </c>
       <c r="F202" s="2">
         <f t="shared" ref="F202:L202" si="39">AVERAGE(F199:F201)</f>
-        <v>4.6762438172254499E-2</v>
+        <v>4.5797555083146368E-2</v>
       </c>
       <c r="G202" s="2">
         <f t="shared" si="39"/>
-        <v>0.20555280601552203</v>
+        <v>0.20446091705627198</v>
       </c>
       <c r="H202" s="2">
         <f t="shared" si="39"/>
-        <v>0.16236091782333631</v>
+        <v>0.16124032867131666</v>
       </c>
       <c r="I202" s="2">
         <f t="shared" si="39"/>
-        <v>7.9542776796672401</v>
+        <v>8.3018475275963421</v>
       </c>
       <c r="J202" s="2">
         <f t="shared" si="39"/>
-        <v>4.4771327597002836E-2</v>
+        <v>4.4943449380965533E-2</v>
       </c>
       <c r="K202" s="2">
         <f t="shared" si="39"/>
-        <v>32.887650313425063</v>
+        <v>31.795367926746703</v>
       </c>
       <c r="L202" s="2">
         <f t="shared" si="39"/>
-        <v>0.9717783286173387</v>
+        <v>0.97146711262817231</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
@@ -8822,28 +8918,28 @@
         <v>1</v>
       </c>
       <c r="E204">
-        <v>143.31429932799699</v>
+        <v>141.73493827647499</v>
       </c>
       <c r="F204">
-        <v>0.110359345979388</v>
+        <v>0.10506474621678601</v>
       </c>
       <c r="G204">
-        <v>0.33220377177176702</v>
+        <v>0.32413692510540398</v>
       </c>
       <c r="H204">
-        <v>0.24208496508107599</v>
+        <v>0.23941712546701999</v>
       </c>
       <c r="I204">
-        <v>29.480343698147799</v>
+        <v>29.501015645847101</v>
       </c>
       <c r="J204">
-        <v>1.9529910157070299E-2</v>
+        <v>1.9055668730476399E-2</v>
       </c>
       <c r="K204">
-        <v>65.332732819797798</v>
+        <v>62.198329760337401</v>
       </c>
       <c r="L204">
-        <v>0.996135509770816</v>
+        <v>0.99632091254634403</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
@@ -8860,28 +8956,28 @@
         <v>1</v>
       </c>
       <c r="E205">
-        <v>281.92098832012698</v>
+        <v>284.119593655887</v>
       </c>
       <c r="F205">
-        <v>0.73370168188235296</v>
+        <v>0.73617272934921996</v>
       </c>
       <c r="G205">
-        <v>0.85656388079486101</v>
+        <v>0.85800508701826494</v>
       </c>
       <c r="H205">
-        <v>0.570690259757342</v>
+        <v>0.57514087784592505</v>
       </c>
       <c r="I205">
-        <v>10.2483599854506</v>
+        <v>10.293947469051</v>
       </c>
       <c r="J205">
-        <v>8.5656388079486098E-2</v>
+        <v>8.5800508701826497E-2</v>
       </c>
       <c r="K205">
-        <v>362.44863084988202</v>
+        <v>363.66932829851498</v>
       </c>
       <c r="L205">
-        <v>0.92461250186951704</v>
+        <v>0.92435860292000005</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
@@ -8898,28 +8994,28 @@
         <v>1</v>
       </c>
       <c r="E206">
-        <v>255.78704219213901</v>
+        <v>257.90508066097601</v>
       </c>
       <c r="F206">
-        <v>0.26928734173584701</v>
+        <v>0.27175390200185101</v>
       </c>
       <c r="G206">
-        <v>0.51892903342928098</v>
+        <v>0.52130020333954497</v>
       </c>
       <c r="H206">
-        <v>0.41456570857721098</v>
+        <v>0.41799850998537502</v>
       </c>
       <c r="I206">
-        <v>4.3102957106839401</v>
+        <v>4.3521904739579096</v>
       </c>
       <c r="J206">
-        <v>6.5687219421427898E-2</v>
+        <v>6.5987367511334799E-2</v>
       </c>
       <c r="K206">
-        <v>166.15028985101799</v>
+        <v>167.67215753514199</v>
       </c>
       <c r="L206">
-        <v>0.94920483737569705</v>
+        <v>0.948739574771719</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
@@ -8936,28 +9032,28 @@
         <v>1</v>
       </c>
       <c r="E207">
-        <v>23.442633506185398</v>
+        <v>23.5793157760246</v>
       </c>
       <c r="F207">
-        <v>0.361329163861007</v>
+        <v>0.36560591816439503</v>
       </c>
       <c r="G207">
-        <v>0.60110661605160098</v>
+        <v>0.60465355218041605</v>
       </c>
       <c r="H207">
-        <v>0.55815794062346202</v>
+        <v>0.56141228038153901</v>
       </c>
       <c r="I207">
-        <v>46.454595772926297</v>
+        <v>46.5133611265233</v>
       </c>
       <c r="J207">
-        <v>0.116946812461401</v>
+        <v>0.117636877856112</v>
       </c>
       <c r="K207">
-        <v>15.175824882162299</v>
+        <v>15.3554485629046</v>
       </c>
       <c r="L207">
-        <v>0.79810548281277904</v>
+        <v>0.79571582448577205</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
@@ -8969,35 +9065,35 @@
       <c r="D208" s="13"/>
       <c r="E208">
         <f>AVERAGE(E204:E207)</f>
-        <v>176.11624083661209</v>
+        <v>176.83473209234066</v>
       </c>
       <c r="F208">
         <f t="shared" ref="F208:L208" si="40">AVERAGE(F204:F207)</f>
-        <v>0.36866938336464872</v>
+        <v>0.36964932393306305</v>
       </c>
       <c r="G208">
         <f t="shared" si="40"/>
-        <v>0.57720082551187746</v>
+        <v>0.57702394191090745</v>
       </c>
       <c r="H208">
         <f t="shared" si="40"/>
-        <v>0.44637471850977278</v>
+        <v>0.44849219841996479</v>
       </c>
       <c r="I208">
         <f t="shared" si="40"/>
-        <v>22.62339879180216</v>
+        <v>22.66512867884483</v>
       </c>
       <c r="J208">
         <f t="shared" si="40"/>
-        <v>7.1955082529846323E-2</v>
+        <v>7.2120105699937417E-2</v>
       </c>
       <c r="K208">
         <f t="shared" si="40"/>
-        <v>152.27686960071503</v>
+        <v>152.22381603922474</v>
       </c>
       <c r="L208">
         <f t="shared" si="40"/>
-        <v>0.91701458295720228</v>
+        <v>0.91628372868095875</v>
       </c>
     </row>
   </sheetData>
